--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sgu.se\SGU\prod\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svelantbruksuniversitet-my.sharepoint.com/personal/edmond_sacre_slu_se/Documents/SWOC/wiosym/shiny_data_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8311B9-CD54-42C4-8266-0B69C1398ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{04F64413-0317-4B4D-8B62-AB2D59493FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAF921E-F592-48FF-8F92-C4B864D15A4D}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15435" tabRatio="594" firstSheet="6" activeTab="6" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" firstSheet="6" activeTab="6" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1307">
   <si>
     <t>location_name</t>
   </si>
@@ -3275,19 +3275,22 @@
     <t>Tropical habitats</t>
   </si>
   <si>
-    <t>shore</t>
+    <t>shore_trop</t>
   </si>
   <si>
     <t>Beach of sand, rock or gravel (including intertidal zone)</t>
   </si>
   <si>
+    <t>mudflats_trop</t>
+  </si>
+  <si>
     <t>Mudflats</t>
   </si>
   <si>
     <t>Intertidal flats with deposited mud</t>
   </si>
   <si>
-    <t>shallow_soft_bottom</t>
+    <t>shallow_soft_bottom_trop</t>
   </si>
   <si>
     <t>Shallow soft bottom</t>
@@ -3296,7 +3299,7 @@
     <t>Mud or sand bottom (&lt;40 m depth)</t>
   </si>
   <si>
-    <t>shallow_rocky_bottom</t>
+    <t>shallow_rocky_bottom_trop</t>
   </si>
   <si>
     <t>Shallow rocky bottom</t>
@@ -3305,7 +3308,7 @@
     <t>Rock, limestone (&lt;40 m depth)</t>
   </si>
   <si>
-    <t>mesophotic_soft_bottom</t>
+    <t>mesophotic_soft_bottom_trop</t>
   </si>
   <si>
     <t>Mesophotic soft bottom</t>
@@ -3317,7 +3320,7 @@
     <t>Deep mud or sand bottom (40-200 m depth)</t>
   </si>
   <si>
-    <t>mesophotic_rocky_bottom</t>
+    <t>mesophotic_rocky_bottom_trop</t>
   </si>
   <si>
     <t>Mesophotic rocky bottom</t>
@@ -3329,10 +3332,13 @@
     <t>Deep rock, limestone (40-200 m depth)</t>
   </si>
   <si>
+    <t>mangrove_trop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stands of dense mangroves </t>
   </si>
   <si>
-    <t>seagrass_bed</t>
+    <t>seagrass_bed_trop</t>
   </si>
   <si>
     <t>Seagrass bed</t>
@@ -3365,7 +3371,7 @@
     <t>Mesophotic coral reefs</t>
   </si>
   <si>
-    <t>macroalgal_bed</t>
+    <t>macroalgal_bed_trop</t>
   </si>
   <si>
     <t>Macroalgal bed</t>
@@ -3374,7 +3380,7 @@
     <t>Canopyforming macroalgae e.g. Sargassum</t>
   </si>
   <si>
-    <t>salt_marsh</t>
+    <t>salt_marsh_trop</t>
   </si>
   <si>
     <t>Vegetated intertidal flats e.g. grasses, herbs, low shrubs</t>
@@ -3491,24 +3497,42 @@
     <t>Temperate &amp; seabirds</t>
   </si>
   <si>
+    <t>shore_temp</t>
+  </si>
+  <si>
     <t>Shore</t>
   </si>
   <si>
     <t>Shores of mixed substrate and feature</t>
   </si>
   <si>
+    <t>mudflats_temp</t>
+  </si>
+  <si>
+    <t>shallow_soft_bottom_temp</t>
+  </si>
+  <si>
     <t>Shallow sand or mud bottom (&lt;40 m depth)</t>
   </si>
   <si>
+    <t>shallow_rocky_bottom_temp</t>
+  </si>
+  <si>
     <t>Shallow rock or gravel bottom (&lt;40 m depth)</t>
   </si>
   <si>
+    <t>mesophotic_soft_bottom_temp</t>
+  </si>
+  <si>
     <t>Shelf soft bottom</t>
   </si>
   <si>
     <t>Sandy or muddy shelf (40-200 m depth)</t>
   </si>
   <si>
+    <t>mesophotic_rocky_bottom_temp</t>
+  </si>
+  <si>
     <t>Shelf rocky bottom</t>
   </si>
   <si>
@@ -3524,7 +3548,13 @@
     <t>Mixed or rocky bottom with dense kelp algae</t>
   </si>
   <si>
+    <t>seagrass_bed_temp</t>
+  </si>
+  <si>
     <t>Dense seagrass e.g. Zostera etc</t>
+  </si>
+  <si>
+    <t>salt_marsh_temp</t>
   </si>
   <si>
     <t>Vegetated tidal flats e.g. grasses, herbs, low shrubs</t>
@@ -3983,7 +4013,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4704,65 +4734,65 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Rubrik" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Rubrik 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Rubrik 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Rubrik 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Rubrik 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -5191,13 +5221,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5213,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +5259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5237,7 +5267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5245,7 +5275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5253,7 +5283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5261,7 +5291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5269,7 +5299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5277,7 +5307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5285,7 +5315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5293,7 +5323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5301,7 +5331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5309,7 +5339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5331,13 +5361,13 @@
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5345,7 +5375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>CONCATENATE(providers_master!A2, " (",providers_master!B2, ")")</f>
         <v>No provider selected (none)</v>
@@ -5355,7 +5385,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>CONCATENATE(providers_master!A3, " (",providers_master!B3, ")")</f>
         <v>Africa Regional Data Cube (ardc)</v>
@@ -5365,7 +5395,7 @@
         <v>ardc</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="str">
         <f>CONCATENATE(providers_master!A4, " (",providers_master!B4, ")")</f>
         <v>African Development Bank (afdb)</v>
@@ -5375,7 +5405,7 @@
         <v>afdb</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
         <v>Allen Coral Atlas (allen)</v>
@@ -5385,7 +5415,7 @@
         <v>allen</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
         <v>Association of African Maritime Administrations (aama)</v>
@@ -5395,7 +5425,7 @@
         <v>aama</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
         <v>Belgian universities (biooracle)</v>
@@ -5405,7 +5435,7 @@
         <v>biooracle</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
         <v>Blue Habitats (bluehab)</v>
@@ -5415,7 +5445,7 @@
         <v>bluehab</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="str">
         <f>CONCATENATE(providers_master!A9, " (",providers_master!B9, ")")</f>
         <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
@@ -5425,7 +5455,7 @@
         <v>cefas</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
         <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
@@ -5435,7 +5465,7 @@
         <v>cosmar</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
         <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
@@ -5445,7 +5475,7 @@
         <v>cordio</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
         <v>Community Fishery Council (ccp)</v>
@@ -5455,7 +5485,7 @@
         <v>ccp</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
         <v>Community Forest Associations (cfas)</v>
@@ -5465,7 +5495,7 @@
         <v>cfas</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
         <v>Conservation International (ci)</v>
@@ -5475,7 +5505,7 @@
         <v>ci</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
         <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
@@ -5485,7 +5515,7 @@
         <v>wio_c</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
         <v>Department of Environmental Affairs of South Africa (deasf)</v>
@@ -5495,7 +5525,7 @@
         <v>deasf</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
         <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
@@ -5505,7 +5535,7 @@
         <v>giz</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <f>CONCATENATE(providers_master!A18, " (",providers_master!B18, ")")</f>
         <v>Digital Earth Africa (dea)</v>
@@ -5515,7 +5545,7 @@
         <v>dea</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
         <v>DIVA Gis (diva)</v>
@@ -5525,7 +5555,7 @@
         <v>diva</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
         <v>East African Community (eac)</v>
@@ -5535,7 +5565,7 @@
         <v>eac</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
         <v>East African Wildlife Society (eawls)</v>
@@ -5545,7 +5575,7 @@
         <v>eawls</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
         <v>ESRI (esri)</v>
@@ -5555,7 +5585,7 @@
         <v>esri</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
         <v>EU Copernicus (copernicus)</v>
@@ -5565,7 +5595,7 @@
         <v>copernicus</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
         <v>EU Forest Resources and Carbon Emissions (iforce)</v>
@@ -5575,7 +5605,7 @@
         <v>iforce</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
         <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
@@ -5585,7 +5615,7 @@
         <v>jrcdc</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
         <v>Food and Agricultural Organisation of the United Nations (fao)</v>
@@ -5595,7 +5625,7 @@
         <v>fao</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
         <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
@@ -5605,7 +5635,7 @@
         <v>fari</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
         <v>General Bathymetric Chart of the Oceans (gebco)</v>
@@ -5615,7 +5645,7 @@
         <v>gebco</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
         <v>Geological Survey of Denmark and Greenland (geus)</v>
@@ -5625,7 +5655,7 @@
         <v>geus</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
         <v>Global Biodiversity Information Facility (gbif)</v>
@@ -5635,7 +5665,7 @@
         <v>gbif</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
         <v>Global Environment Facility Trust Fund (gef)</v>
@@ -5645,7 +5675,7 @@
         <v>gef</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
         <v>Global Environmental Flows Network (eflownet)</v>
@@ -5655,7 +5685,7 @@
         <v>eflownet</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
         <v>Global Fishing Watch (gfw)</v>
@@ -5665,7 +5695,7 @@
         <v>gfw</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
         <v>Global Ocean Data Analysis Project (glodap)</v>
@@ -5675,7 +5705,7 @@
         <v>glodap</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
         <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
@@ -5685,7 +5715,7 @@
         <v>unep_gpa</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
         <v>Grid Arendal (grida)</v>
@@ -5695,7 +5725,7 @@
         <v>grida</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
         <v>Group on Earth Observations (geo)</v>
@@ -5705,7 +5735,7 @@
         <v>geo</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
         <v>Indian Ocean Tuna Commission (iotc)</v>
@@ -5715,7 +5745,7 @@
         <v>iotc</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
         <v>Institute of Marine Sciences in Zanzibar (ims)</v>
@@ -5725,7 +5755,7 @@
         <v>ims</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
         <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
@@ -5735,7 +5765,7 @@
         <v>ioc_unesco</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
         <v>International Geosphere-Biosphere Programme (igbp)</v>
@@ -5745,7 +5775,7 @@
         <v>igbp</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
         <v>International Seabed Authority (isa)</v>
@@ -5755,7 +5785,7 @@
         <v>isa</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
         <v>International Submarine Cable Protection Committe (iscpc)</v>
@@ -5765,7 +5795,7 @@
         <v>iscpc</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
         <v>International Union for the Conservation of Nature (iucn)</v>
@@ -5775,7 +5805,7 @@
         <v>iucn</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
         <v>Kenya Forest Service (kfs)</v>
@@ -5785,7 +5815,7 @@
         <v>kfs</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
         <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
@@ -5795,7 +5825,7 @@
         <v>kmfri</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
         <v>Literature (lit)</v>
@@ -5805,7 +5835,7 @@
         <v>lit</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
         <v>Locally Managed Marine Area (lmma)</v>
@@ -5815,7 +5845,7 @@
         <v>lmma</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
         <v>Mangrove Action Project (map)</v>
@@ -5825,7 +5855,7 @@
         <v>map</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
         <v>Marine Protection Atlas (mpatlas)</v>
@@ -5835,7 +5865,7 @@
         <v>mpatlas</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
         <v>Marine Regions organization (mro)</v>
@@ -5845,7 +5875,7 @@
         <v>mro</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
         <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
@@ -5855,7 +5885,7 @@
         <v>maspawio</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
         <v>Marine Traffic (marinetraffic)</v>
@@ -5865,7 +5895,7 @@
         <v>marinetraffic</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
         <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
@@ -5875,7 +5905,7 @@
         <v>mcbff</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
         <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
@@ -5885,7 +5915,7 @@
         <v>mendu</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
         <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
@@ -5895,7 +5925,7 @@
         <v>menrts</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
         <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
@@ -5905,7 +5935,7 @@
         <v>mlerdm</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
         <v>NASA Earth Observations (nasa)</v>
@@ -5915,7 +5945,7 @@
         <v>nasa</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
         <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
@@ -5925,7 +5955,7 @@
         <v>dnef</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
         <v>National Environment Management Authority of Kenya (nema)</v>
@@ -5935,7 +5965,7 @@
         <v>nema</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
         <v>National Environment Management Council of Tanzania (nemc)</v>
@@ -5945,7 +5975,7 @@
         <v>nemc</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
         <v>Natural Earth (naturalearth)</v>
@@ -5955,7 +5985,7 @@
         <v>naturalearth</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
         <v>Nelson Mandela University (nmu)</v>
@@ -5965,7 +5995,7 @@
         <v>nmu</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
         <v>New Partnership for Africa’s Development (nepad)</v>
@@ -5975,7 +6005,7 @@
         <v>nepad</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
         <v>NMU Institute for Coastal and Marine Research (cmr)</v>
@@ -5985,7 +6015,7 @@
         <v>cmr</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
         <v>Northern Mozambique Channel initiative (nmci)</v>
@@ -5995,7 +6025,7 @@
         <v>nmci</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
         <v>Ocean Biogeographic Information System (obis)</v>
@@ -6005,7 +6035,7 @@
         <v>obis</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
         <v>OceanSITES (ocsi)</v>
@@ -6015,7 +6045,7 @@
         <v>ocsi</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
         <v>Open Street Map (osm)</v>
@@ -6025,7 +6055,7 @@
         <v>osm</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
         <v>Orbcomm Satellite AIS (orbcom)</v>
@@ -6035,7 +6065,7 @@
         <v>orbcom</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
         <v>ReefBase (reba)</v>
@@ -6045,7 +6075,7 @@
         <v>reba</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
         <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
@@ -6055,7 +6085,7 @@
         <v>ioc_recomap</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
         <v>Regional Fisheries Management Organization (rfmo)</v>
@@ -6065,7 +6095,7 @@
         <v>rfmo</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
         <v>River Basin Organizations (rbo)</v>
@@ -6075,7 +6105,7 @@
         <v>rbo</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
         <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
@@ -6085,7 +6115,7 @@
         <v>seyccat</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
         <v>Shared Water Course Institution (swci)</v>
@@ -6095,7 +6125,7 @@
         <v>swci</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
         <v>Somalia Water and Land Information Management (fao_swalim)</v>
@@ -6105,7 +6135,7 @@
         <v>fao_swalim</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
         <v>Somalia water and land information management (swalim)</v>
@@ -6115,7 +6145,7 @@
         <v>swalim</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
         <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
@@ -6125,7 +6155,7 @@
         <v>swiofp</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
         <v>Southern African Development Community (sadc)</v>
@@ -6135,7 +6165,7 @@
         <v>sadc</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
         <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
@@ -6145,7 +6175,7 @@
         <v>swamp</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
         <v>Swedish International Water Institute (siwi)</v>
@@ -6155,7 +6185,7 @@
         <v>siwi</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
         <v>TeleGeography (telgeo)</v>
@@ -6165,7 +6195,7 @@
         <v>telgeo</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
         <v>The Knowledge Network for Biocomplexity (knb)</v>
@@ -6175,7 +6205,7 @@
         <v>knb</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
         <v>The Nature Conservancy (tnc)</v>
@@ -6185,7 +6215,7 @@
         <v>tnc</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
         <v>The Ocean Cleanup project (ocp)</v>
@@ -6195,7 +6225,7 @@
         <v>ocp</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
         <v>The United Nations Support Office in Somalia (unsos)</v>
@@ -6205,7 +6235,7 @@
         <v>unsos</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
         <v>U.S. Geological Survey (usgs)</v>
@@ -6215,7 +6245,7 @@
         <v>usgs</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
         <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
@@ -6225,7 +6255,7 @@
         <v>noaa</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
         <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
@@ -6235,7 +6265,7 @@
         <v>wcmc</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
         <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
@@ -6245,7 +6275,7 @@
         <v>unesco_fust</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
         <v>United Nations Agency for Human Settlements (unhabitat)</v>
@@ -6255,7 +6285,7 @@
         <v>unhabitat</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
         <v>United Nations Development Programme (undp)</v>
@@ -6265,7 +6295,7 @@
         <v>undp</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
         <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
@@ -6275,7 +6305,7 @@
         <v>unesco</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
         <v>United Nations Environment Programme (unep)</v>
@@ -6285,7 +6315,7 @@
         <v>unep</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
         <v>United Nations Framework Convention on Climate Change (unfccc)</v>
@@ -6295,7 +6325,7 @@
         <v>unfccc</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
         <v>United Nations Industrial Development Organisation (unido)</v>
@@ -6305,7 +6335,7 @@
         <v>unido</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
         <v>United Nations Office for Project Services (unops)</v>
@@ -6315,7 +6345,7 @@
         <v>unops</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
         <v>United States Agency for International Development (usaid)</v>
@@ -6325,7 +6355,7 @@
         <v>usaid</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
         <v>United States Forest Service (usfs)</v>
@@ -6335,7 +6365,7 @@
         <v>usfs</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
         <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
@@ -6345,7 +6375,7 @@
         <v>iucn-wani</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
         <v>Western Indian Ocean Mangrove Network (wiomn)</v>
@@ -6355,7 +6385,7 @@
         <v>wiomn</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
         <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
@@ -6365,7 +6395,7 @@
         <v>wiomer</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
         <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
@@ -6375,7 +6405,7 @@
         <v>wiomsa</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
         <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
@@ -6385,7 +6415,7 @@
         <v>wiosap</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
         <v>Wetlands International (wi)</v>
@@ -6395,7 +6425,7 @@
         <v>wi</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
         <v>Wildlife Conservation Society (wcs)</v>
@@ -6405,7 +6435,7 @@
         <v>wcs</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
         <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
@@ -6415,7 +6445,7 @@
         <v>wiolab</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
         <v>VLIZ - Flanders Marine Institute (vliz)</v>
@@ -6425,7 +6455,7 @@
         <v>vliz</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
         <v>World Bank (wb)</v>
@@ -6435,7 +6465,7 @@
         <v>wb</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
         <v>World Database on Protected Areas (wdpa)</v>
@@ -6445,7 +6475,7 @@
         <v>wdpa</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
         <v>World Environment Center (wec)</v>
@@ -6455,7 +6485,7 @@
         <v>wec</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
         <v>World Resources Institute (wri)</v>
@@ -6465,7 +6495,7 @@
         <v>wri</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
         <v>World Wide Fund for Nature (wwf)</v>
@@ -6475,7 +6505,7 @@
         <v>wwf</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
         <v>UN Biodiversity Lab (unbl)</v>
@@ -6485,7 +6515,7 @@
         <v>unbl</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
         <v>Norsk Polarinstitutt (npi)</v>
@@ -6508,7 +6538,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -6518,7 +6548,7 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -6535,7 +6565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1">
       <c r="A2" t="str">
         <f>folders_master!A2</f>
         <v>adm</v>
@@ -6557,7 +6587,7 @@
         <v>Projections (zones, definitions)</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.1" customHeight="1">
       <c r="A3" t="str">
         <f>folders_master!A3</f>
         <v>adm</v>
@@ -6579,7 +6609,7 @@
         <v>Analytical grid</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.1" customHeight="1">
       <c r="A4" t="str">
         <f>folders_master!A4</f>
         <v>adm</v>
@@ -6601,7 +6631,7 @@
         <v>BOUNDARY (administrative)</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.1" customHeight="1">
       <c r="A5" t="str">
         <f>folders_master!A5</f>
         <v>adm</v>
@@ -6623,7 +6653,7 @@
         <v>Maritime boundary (e.g. EEZ, ABNJ)</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.1" customHeight="1">
       <c r="A6" t="str">
         <f>folders_master!A6</f>
         <v>adm</v>
@@ -6645,7 +6675,7 @@
         <v xml:space="preserve">Marine boundary (e.g. definition of marine area) </v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.1" customHeight="1">
       <c r="A7" t="str">
         <f>folders_master!A7</f>
         <v>adm</v>
@@ -6667,7 +6697,7 @@
         <v>MANAGEMENT AREA</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.1" customHeight="1">
       <c r="A8" t="str">
         <f>folders_master!A8</f>
         <v>adm</v>
@@ -6689,7 +6719,7 @@
         <v>Locally Managed Area (e.g. BMU, CCP)</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.1" customHeight="1">
       <c r="A9" t="str">
         <f>folders_master!A9</f>
         <v>adm</v>
@@ -6711,7 +6741,7 @@
         <v>Marine spatial plan</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.1" customHeight="1">
       <c r="A10" t="str">
         <f>folders_master!A10</f>
         <v>adm</v>
@@ -6733,7 +6763,7 @@
         <v>Shipping area (e.g. shipping lane, anchorage)</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.1" customHeight="1">
       <c r="A11" t="str">
         <f>folders_master!A11</f>
         <v>adm</v>
@@ -6755,7 +6785,7 @@
         <v>Protected area (e.g. marine reserve, restricted area)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.1" customHeight="1">
       <c r="A12" t="str">
         <f>folders_master!A12</f>
         <v>adm</v>
@@ -6777,7 +6807,7 @@
         <v>Fishing area (e.g. fishery management areas)</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1">
       <c r="A13" t="str">
         <f>folders_master!A13</f>
         <v>adm</v>
@@ -6799,7 +6829,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.1" customHeight="1">
       <c r="A14" t="str">
         <f>folders_master!A14</f>
         <v>env</v>
@@ -6821,7 +6851,7 @@
         <v>Topography (e.g. bathymetry, elevation)</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.1" customHeight="1">
       <c r="A15" t="str">
         <f>folders_master!A15</f>
         <v>env</v>
@@ -6843,7 +6873,7 @@
         <v>Shoreline (e.g. land/sea deliniations)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.1" customHeight="1">
       <c r="A16" t="str">
         <f>folders_master!A16</f>
         <v>env</v>
@@ -6865,7 +6895,7 @@
         <v>Water body (e.g. fresh, estuarine, marine)</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.1" customHeight="1">
       <c r="A17" t="str">
         <f>folders_master!A17</f>
         <v>env</v>
@@ -6887,7 +6917,7 @@
         <v>GEOLOGY</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.1" customHeight="1">
       <c r="A18" t="str">
         <f>folders_master!A18</f>
         <v>env</v>
@@ -6909,7 +6939,7 @@
         <v>Geomorphology</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.1" customHeight="1">
       <c r="A19" t="str">
         <f>folders_master!A19</f>
         <v>env</v>
@@ -6931,7 +6961,7 @@
         <v>Substrate</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.1" customHeight="1">
       <c r="A20" t="str">
         <f>folders_master!A20</f>
         <v>env</v>
@@ -6953,7 +6983,7 @@
         <v>OCEANOGRAPHY</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.1" customHeight="1">
       <c r="A21" t="str">
         <f>folders_master!A21</f>
         <v>env</v>
@@ -6975,7 +7005,7 @@
         <v>Ocean chemistry (e.g. temperature, salinity, oxygen)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.1" customHeight="1">
       <c r="A22" t="str">
         <f>folders_master!A22</f>
         <v>env</v>
@@ -6997,7 +7027,7 @@
         <v>Ocean zones (e.g. photic, open ocean, climate zone)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.1" customHeight="1">
       <c r="A23" t="str">
         <f>folders_master!A23</f>
         <v>env</v>
@@ -7019,7 +7049,7 @@
         <v>Ocean energy (e.g. currents, waves)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.1" customHeight="1">
       <c r="A24" t="str">
         <f>folders_master!A24</f>
         <v>env</v>
@@ -7041,7 +7071,7 @@
         <v>Sea level and tides</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.1" customHeight="1">
       <c r="A25" t="str">
         <f>folders_master!A25</f>
         <v>env</v>
@@ -7063,7 +7093,7 @@
         <v>HYDROLOGY</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.1" customHeight="1">
       <c r="A26" t="str">
         <f>folders_master!A26</f>
         <v>env</v>
@@ -7085,7 +7115,7 @@
         <v>Surface waters (e.g. streams, watersheds)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.1" customHeight="1">
       <c r="A27" t="str">
         <f>folders_master!A27</f>
         <v>env</v>
@@ -7107,7 +7137,7 @@
         <v>Ground water (e.g. aquifers)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14.1" customHeight="1">
       <c r="A28" t="str">
         <f>folders_master!A28</f>
         <v>env</v>
@@ -7129,7 +7159,7 @@
         <v>Rainfall</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.1" customHeight="1">
       <c r="A29" t="str">
         <f>folders_master!A29</f>
         <v>env</v>
@@ -7151,7 +7181,7 @@
         <v>LAND COVER</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.1" customHeight="1">
       <c r="A30" t="str">
         <f>folders_master!A30</f>
         <v>env</v>
@@ -7173,7 +7203,7 @@
         <v>Demography</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14.1" customHeight="1">
       <c r="A31" t="str">
         <f>folders_master!A31</f>
         <v>env</v>
@@ -7195,7 +7225,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.1" customHeight="1">
       <c r="A32" t="str">
         <f>folders_master!A32</f>
         <v>act</v>
@@ -7217,7 +7247,7 @@
         <v>SHIPPING (e.g. AIS data with movements, anchoring)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14.1" customHeight="1">
       <c r="A33" t="str">
         <f>folders_master!A33</f>
         <v>act</v>
@@ -7239,7 +7269,7 @@
         <v>Ports</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.1" customHeight="1">
       <c r="A34" t="str">
         <f>folders_master!A34</f>
         <v>act</v>
@@ -7261,7 +7291,7 @@
         <v>Dredging</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.1" customHeight="1">
       <c r="A35" t="str">
         <f>folders_master!A35</f>
         <v>act</v>
@@ -7283,7 +7313,7 @@
         <v>Dumping (sea)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14.1" customHeight="1">
       <c r="A36" t="str">
         <f>folders_master!A36</f>
         <v>act</v>
@@ -7305,7 +7335,7 @@
         <v>MILITARY</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14.1" customHeight="1">
       <c r="A37" t="str">
         <f>folders_master!A37</f>
         <v>act</v>
@@ -7327,7 +7357,7 @@
         <v>MARINE INFRASTRUCTURE</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14.1" customHeight="1">
       <c r="A38" t="str">
         <f>folders_master!A38</f>
         <v>act</v>
@@ -7349,7 +7379,7 @@
         <v>Submarine cables (e.g. telecom, power cables)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14.1" customHeight="1">
       <c r="A39" t="str">
         <f>folders_master!A39</f>
         <v>act</v>
@@ -7371,7 +7401,7 @@
         <v>ENERGY</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14.1" customHeight="1">
       <c r="A40" t="str">
         <f>folders_master!A40</f>
         <v>act</v>
@@ -7393,7 +7423,7 @@
         <v>Oil and gas (e.g. prospecting, extraction, infrastructure)</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14.1" customHeight="1">
       <c r="A41" t="str">
         <f>folders_master!A41</f>
         <v>act</v>
@@ -7415,7 +7445,7 @@
         <v>Renewable energy (e.g. licenced areas, infrastructure)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14.1" customHeight="1">
       <c r="A42" t="str">
         <f>folders_master!A42</f>
         <v>act</v>
@@ -7437,7 +7467,7 @@
         <v>Seabed mining</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.1" customHeight="1">
       <c r="A43" t="str">
         <f>folders_master!A43</f>
         <v>act</v>
@@ -7459,7 +7489,7 @@
         <v>Acoustic surveys (e.g. seismic)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14.1" customHeight="1">
       <c r="A44" t="str">
         <f>folders_master!A44</f>
         <v>act</v>
@@ -7481,7 +7511,7 @@
         <v>Research</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14.1" customHeight="1">
       <c r="A45" t="str">
         <f>folders_master!A45</f>
         <v>act</v>
@@ -7503,7 +7533,7 @@
         <v>AQUACULTURE</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14.1" customHeight="1">
       <c r="A46" t="str">
         <f>folders_master!A46</f>
         <v>act</v>
@@ -7525,7 +7555,7 @@
         <v>Mariculture</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14.1" customHeight="1">
       <c r="A47" t="str">
         <f>folders_master!A47</f>
         <v>act</v>
@@ -7547,7 +7577,7 @@
         <v>Algae farming</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14.1" customHeight="1">
       <c r="A48" t="str">
         <f>folders_master!A48</f>
         <v>act</v>
@@ -7569,7 +7599,7 @@
         <v>FISHING</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.1" customHeight="1">
       <c r="A49" t="str">
         <f>folders_master!A49</f>
         <v>act</v>
@@ -7591,7 +7621,7 @@
         <v>Commercial fishing</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14.1" customHeight="1">
       <c r="A50" t="str">
         <f>folders_master!A50</f>
         <v>act</v>
@@ -7613,7 +7643,7 @@
         <v>Artisanal fishing</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14.1" customHeight="1">
       <c r="A51" t="str">
         <f>folders_master!A51</f>
         <v>act</v>
@@ -7635,7 +7665,7 @@
         <v>Recreational fishing</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1">
       <c r="A52" t="str">
         <f>folders_master!A52</f>
         <v>act</v>
@@ -7657,7 +7687,7 @@
         <v>RECREATION</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14.1" customHeight="1">
       <c r="A53" t="str">
         <f>folders_master!A53</f>
         <v>act</v>
@@ -7679,7 +7709,7 @@
         <v>Tourism</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14.1" customHeight="1">
       <c r="A54" t="str">
         <f>folders_master!A54</f>
         <v>act</v>
@@ -7701,7 +7731,7 @@
         <v>Diving and snorkelling</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="14.1" customHeight="1">
       <c r="A55" t="str">
         <f>folders_master!A55</f>
         <v>act</v>
@@ -7723,7 +7753,7 @@
         <v>Recreational boating (e.g. marinas, anchoring sites)</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="14.1" customHeight="1">
       <c r="A56" t="str">
         <f>folders_master!A56</f>
         <v>act</v>
@@ -7745,7 +7775,7 @@
         <v>Shark control (e.g. nets for beach protection)</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="14.1" customHeight="1">
       <c r="A57" t="str">
         <f>folders_master!A57</f>
         <v>act</v>
@@ -7767,7 +7797,7 @@
         <v>Other marine activity</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="14.1" customHeight="1">
       <c r="A58" t="str">
         <f>folders_master!A58</f>
         <v>act</v>
@@ -7789,7 +7819,7 @@
         <v>COASTAL DEVELOPMENT</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14.1" customHeight="1">
       <c r="A59" t="str">
         <f>folders_master!A59</f>
         <v>act</v>
@@ -7811,7 +7841,7 @@
         <v>Coastal infrastructure</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1">
       <c r="A60" t="str">
         <f>folders_master!A60</f>
         <v>act</v>
@@ -7833,7 +7863,7 @@
         <v>Piers and docks</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="14.1" customHeight="1">
       <c r="A61" t="str">
         <f>folders_master!A61</f>
         <v>act</v>
@@ -7855,7 +7885,7 @@
         <v>Land reclamation</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="14.1" customHeight="1">
       <c r="A62" t="str">
         <f>folders_master!A62</f>
         <v>act</v>
@@ -7877,7 +7907,7 @@
         <v>Coastal mining (e.g. sand extraction)</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="14.1" customHeight="1">
       <c r="A63" t="str">
         <f>folders_master!A63</f>
         <v>act</v>
@@ -7899,7 +7929,7 @@
         <v>LAND BASED ACTIVITY</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="14.1" customHeight="1">
       <c r="A64" t="str">
         <f>folders_master!A64</f>
         <v>act</v>
@@ -7921,7 +7951,7 @@
         <v>Agriculture</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="14.1" customHeight="1">
       <c r="A65" t="str">
         <f>folders_master!A65</f>
         <v>act</v>
@@ -7943,7 +7973,7 @@
         <v>Forestry</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="14.1" customHeight="1">
       <c r="A66" t="str">
         <f>folders_master!A66</f>
         <v>act</v>
@@ -7965,7 +7995,7 @@
         <v>Mining (land)</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="14.1" customHeight="1">
       <c r="A67" t="str">
         <f>folders_master!A67</f>
         <v>act</v>
@@ -7987,7 +8017,7 @@
         <v>Urban development</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="14.1" customHeight="1">
       <c r="A68" t="str">
         <f>folders_master!A68</f>
         <v>act</v>
@@ -8009,7 +8039,7 @@
         <v>Dumping (land)</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="14.1" customHeight="1">
       <c r="A69" t="str">
         <f>folders_master!A69</f>
         <v>act</v>
@@ -8031,7 +8061,7 @@
         <v>Industrial activity (land)</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="14.1" customHeight="1">
       <c r="A70" t="str">
         <f>folders_master!A70</f>
         <v>act</v>
@@ -8053,7 +8083,7 @@
         <v>Energy production (land)</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="14.1" customHeight="1">
       <c r="A71" t="str">
         <f>folders_master!A71</f>
         <v>act</v>
@@ -8075,7 +8105,7 @@
         <v>Waste water (e.g. treatment plants, disposal)</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="14.1" customHeight="1">
       <c r="A72" t="str">
         <f>folders_master!A72</f>
         <v>act</v>
@@ -8097,7 +8127,7 @@
         <v>Other land activity</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="14.1" customHeight="1">
       <c r="A73" t="str">
         <f>folders_master!A73</f>
         <v>pres</v>
@@ -8119,7 +8149,7 @@
         <v>BIOLOGICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="14.1" customHeight="1">
       <c r="A74" t="str">
         <f>folders_master!A74</f>
         <v>pres</v>
@@ -8141,7 +8171,7 @@
         <v>Invasive species</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="14.1" customHeight="1">
       <c r="A75" t="str">
         <f>folders_master!A75</f>
         <v>pres</v>
@@ -8163,7 +8193,7 @@
         <v>Pathogens</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="14.1" customHeight="1">
       <c r="A76" t="str">
         <f>folders_master!A76</f>
         <v>pres</v>
@@ -8185,7 +8215,7 @@
         <v>Extraction of species</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="14.1" customHeight="1">
       <c r="A77" t="str">
         <f>folders_master!A77</f>
         <v>pres</v>
@@ -8207,7 +8237,7 @@
         <v>Collision (e.g. ship strikes)</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="14.1" customHeight="1">
       <c r="A78" t="str">
         <f>folders_master!A78</f>
         <v>pres</v>
@@ -8229,7 +8259,7 @@
         <v>PHYSICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="14.1" customHeight="1">
       <c r="A79" t="str">
         <f>folders_master!A79</f>
         <v>pres</v>
@@ -8251,7 +8281,7 @@
         <v>seabed disturbance (e.g. abrasion, removal)</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="14.1" customHeight="1">
       <c r="A80" t="str">
         <f>folders_master!A80</f>
         <v>pres</v>
@@ -8273,7 +8303,7 @@
         <v>Barriers to species movements</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="14.1" customHeight="1">
       <c r="A81" t="str">
         <f>folders_master!A81</f>
         <v>pres</v>
@@ -8295,7 +8325,7 @@
         <v>ENERGY CHANGE (excluding climate related)</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="14.1" customHeight="1">
       <c r="A82" t="str">
         <f>folders_master!A82</f>
         <v>pres</v>
@@ -8317,7 +8347,7 @@
         <v>Underwater noise</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14.1" customHeight="1">
       <c r="A83" t="str">
         <f>folders_master!A83</f>
         <v>pres</v>
@@ -8339,7 +8369,7 @@
         <v>Electromagnetic disturbance</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="14.1" customHeight="1">
       <c r="A84" t="str">
         <f>folders_master!A84</f>
         <v>pres</v>
@@ -8361,7 +8391,7 @@
         <v>Light change</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="14.1" customHeight="1">
       <c r="A85" t="str">
         <f>folders_master!A85</f>
         <v>pres</v>
@@ -8383,7 +8413,7 @@
         <v>Water movement changes (waves currents)</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="14.1" customHeight="1">
       <c r="A86" t="str">
         <f>folders_master!A86</f>
         <v>pres</v>
@@ -8405,7 +8435,7 @@
         <v>CLIMATE CHANGE</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="14.1" customHeight="1">
       <c r="A87" t="str">
         <f>folders_master!A87</f>
         <v>pres</v>
@@ -8427,7 +8457,7 @@
         <v>Climate change temperature</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="14.1" customHeight="1">
       <c r="A88" t="str">
         <f>folders_master!A88</f>
         <v>pres</v>
@@ -8449,7 +8479,7 @@
         <v xml:space="preserve">Climate change deoxygenation </v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="14.1" customHeight="1">
       <c r="A89" t="str">
         <f>folders_master!A89</f>
         <v>pres</v>
@@ -8471,7 +8501,7 @@
         <v>Climate change ocean acidification</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="14.1" customHeight="1">
       <c r="A90" t="str">
         <f>folders_master!A90</f>
         <v>pres</v>
@@ -8493,7 +8523,7 @@
         <v>Climate change energy (e.g. circulation, waves, storms)</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="14.1" customHeight="1">
       <c r="A91" t="str">
         <f>folders_master!A91</f>
         <v>pres</v>
@@ -8515,7 +8545,7 @@
         <v>Climate change sea level</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="14.1" customHeight="1">
       <c r="A92" t="str">
         <f>folders_master!A92</f>
         <v>pres</v>
@@ -8537,7 +8567,7 @@
         <v>Climate coral bleaching (e.g. historical events)</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="14.1" customHeight="1">
       <c r="A93" t="str">
         <f>folders_master!A93</f>
         <v>pres</v>
@@ -8559,7 +8589,7 @@
         <v>POLLUTION</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="14.1" customHeight="1">
       <c r="A94" t="str">
         <f>folders_master!A94</f>
         <v>pres</v>
@@ -8581,7 +8611,7 @@
         <v>Air emissions</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="14.1" customHeight="1">
       <c r="A95" t="str">
         <f>folders_master!A95</f>
         <v>pres</v>
@@ -8603,7 +8633,7 @@
         <v>Oil spill</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="14.1" customHeight="1">
       <c r="A96" t="str">
         <f>folders_master!A96</f>
         <v>pres</v>
@@ -8625,7 +8655,7 @@
         <v>Organic pollution</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="14.1" customHeight="1">
       <c r="A97" t="str">
         <f>folders_master!A97</f>
         <v>pres</v>
@@ -8647,7 +8677,7 @@
         <v>Inorganic pollution</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="14.1" customHeight="1">
       <c r="A98" t="str">
         <f>folders_master!A98</f>
         <v>pres</v>
@@ -8669,7 +8699,7 @@
         <v>Nutrient pollution (e.g. Anthropogenic eutrophication)</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="14.1" customHeight="1">
       <c r="A99" t="str">
         <f>folders_master!A99</f>
         <v>pres</v>
@@ -8691,7 +8721,7 @@
         <v>Hypoxia</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="14.1" customHeight="1">
       <c r="A100" t="str">
         <f>folders_master!A100</f>
         <v>pres</v>
@@ -8713,7 +8743,7 @@
         <v>Sedimentation</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="14.1" customHeight="1">
       <c r="A101" t="str">
         <f>folders_master!A101</f>
         <v>pres</v>
@@ -8735,7 +8765,7 @@
         <v>Plastic waste</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="14.1" customHeight="1">
       <c r="A102" t="str">
         <f>folders_master!A102</f>
         <v>pres</v>
@@ -8757,7 +8787,7 @@
         <v>Radionuclide</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="14.1" customHeight="1">
       <c r="A103" t="str">
         <f>folders_master!A103</f>
         <v>pres</v>
@@ -8779,7 +8809,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="14.1" customHeight="1">
       <c r="A104" t="str">
         <f>folders_master!A104</f>
         <v>eco</v>
@@ -8801,7 +8831,7 @@
         <v>HABITAT</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="14.1" customHeight="1">
       <c r="A105" t="str">
         <f>folders_master!A105</f>
         <v>eco</v>
@@ -8823,7 +8853,7 @@
         <v>COASTAL HABITAT</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="14.1" customHeight="1">
       <c r="A106" t="str">
         <f>folders_master!A106</f>
         <v>eco</v>
@@ -8845,7 +8875,7 @@
         <v>Shore (e.g. beaches, rocky intertidal)</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="14.1" customHeight="1">
       <c r="A107" t="str">
         <f>folders_master!A107</f>
         <v>eco</v>
@@ -8867,7 +8897,7 @@
         <v>Mudflats (e.g. intertidal flats with deposited mud)</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="14.1" customHeight="1">
       <c r="A108" t="str">
         <f>folders_master!A108</f>
         <v>eco</v>
@@ -8889,7 +8919,7 @@
         <v>Salt marsh</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="14.1" customHeight="1">
       <c r="A109" t="str">
         <f>folders_master!A109</f>
         <v>eco</v>
@@ -8911,7 +8941,7 @@
         <v>Mangrove</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="14.1" customHeight="1">
       <c r="A110" t="str">
         <f>folders_master!A110</f>
         <v>eco</v>
@@ -8933,7 +8963,7 @@
         <v>BENTHIC HABITAT</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="14.1" customHeight="1">
       <c r="A111" t="str">
         <f>folders_master!A111</f>
         <v>eco</v>
@@ -8955,7 +8985,7 @@
         <v>Hard and softbottom</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="14.1" customHeight="1">
       <c r="A112" t="str">
         <f>folders_master!A112</f>
         <v>eco</v>
@@ -8977,7 +9007,7 @@
         <v>Rocky reef</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="14.1" customHeight="1">
       <c r="A113" t="str">
         <f>folders_master!A113</f>
         <v>eco</v>
@@ -8999,7 +9029,7 @@
         <v>Coral (e.g. photic, mesophotic corals)</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="14.1" customHeight="1">
       <c r="A114" t="str">
         <f>folders_master!A114</f>
         <v>eco</v>
@@ -9021,7 +9051,7 @@
         <v>Biogenic reef</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="14.1" customHeight="1">
       <c r="A115" t="str">
         <f>folders_master!A115</f>
         <v>eco</v>
@@ -9043,7 +9073,7 @@
         <v>Mearl bed</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="14.1" customHeight="1">
       <c r="A116" t="str">
         <f>folders_master!A116</f>
         <v>eco</v>
@@ -9065,7 +9095,7 @@
         <v>Submerged vegetation</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="14.1" customHeight="1">
       <c r="A117" t="str">
         <f>folders_master!A117</f>
         <v>eco</v>
@@ -9087,7 +9117,7 @@
         <v>Seagrass</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="14.1" customHeight="1">
       <c r="A118" t="str">
         <f>folders_master!A118</f>
         <v>eco</v>
@@ -9109,7 +9139,7 @@
         <v>Macroalgae</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="14.1" customHeight="1">
       <c r="A119" t="str">
         <f>folders_master!A119</f>
         <v>eco</v>
@@ -9131,7 +9161,7 @@
         <v>DEEP BENTHIC HABITAT (&gt;200m)</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="14.1" customHeight="1">
       <c r="A120" t="str">
         <f>folders_master!A120</f>
         <v>eco</v>
@@ -9153,7 +9183,7 @@
         <v>Cold-water coral (e.g. deep sea corals)</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="14.1" customHeight="1">
       <c r="A121" t="str">
         <f>folders_master!A121</f>
         <v>eco</v>
@@ -9175,7 +9205,7 @@
         <v>Deep rocky reef</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="14.1" customHeight="1">
       <c r="A122" t="str">
         <f>folders_master!A122</f>
         <v>eco</v>
@@ -9197,7 +9227,7 @@
         <v>Deep biogenic reefs</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="14.1" customHeight="1">
       <c r="A123" t="str">
         <f>folders_master!A123</f>
         <v>eco</v>
@@ -9219,7 +9249,7 @@
         <v>Nodules</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="14.1" customHeight="1">
       <c r="A124" t="str">
         <f>folders_master!A124</f>
         <v>eco</v>
@@ -9241,7 +9271,7 @@
         <v>Hydrothermal vents</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="14.1" customHeight="1">
       <c r="A125" t="str">
         <f>folders_master!A125</f>
         <v>eco</v>
@@ -9263,7 +9293,7 @@
         <v>Seamounts</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="14.1" customHeight="1">
       <c r="A126" t="str">
         <f>folders_master!A126</f>
         <v>eco</v>
@@ -9285,7 +9315,7 @@
         <v>PELAGIC HABITAT</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="14.1" customHeight="1">
       <c r="A127" t="str">
         <f>folders_master!A127</f>
         <v>eco</v>
@@ -9307,7 +9337,7 @@
         <v>Phytoplankton</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="14.1" customHeight="1">
       <c r="A128" t="str">
         <f>folders_master!A128</f>
         <v>eco</v>
@@ -9329,7 +9359,7 @@
         <v>Zooplankton</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="14.1" customHeight="1">
       <c r="A129" t="str">
         <f>folders_master!A129</f>
         <v>eco</v>
@@ -9351,7 +9381,7 @@
         <v>Oxygen minimum zone</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="14.1" customHeight="1">
       <c r="A130" t="str">
         <f>folders_master!A130</f>
         <v>eco</v>
@@ -9373,7 +9403,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="14.1" customHeight="1">
       <c r="A131" t="str">
         <f>folders_master!A131</f>
         <v>eco</v>
@@ -9395,7 +9425,7 @@
         <v>SPECIES</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="14.1" customHeight="1">
       <c r="A132" t="str">
         <f>folders_master!A132</f>
         <v>eco</v>
@@ -9417,7 +9447,7 @@
         <v>Threathened species (e.g. IUCN red list)</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="14.1" customHeight="1">
       <c r="A133" t="str">
         <f>folders_master!A133</f>
         <v>eco</v>
@@ -9439,7 +9469,7 @@
         <v>MARINE MAMMALS</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="14.1" customHeight="1">
       <c r="A134" t="str">
         <f>folders_master!A134</f>
         <v>eco</v>
@@ -9461,7 +9491,7 @@
         <v>Whales</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="14.1" customHeight="1">
       <c r="A135" t="str">
         <f>folders_master!A135</f>
         <v>eco</v>
@@ -9483,7 +9513,7 @@
         <v>Baleen whales (e.g. hump-back whale)</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="14.1" customHeight="1">
       <c r="A136" t="str">
         <f>folders_master!A136</f>
         <v>eco</v>
@@ -9505,7 +9535,7 @@
         <v>Toothed whales (e.g. sperm whale)</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="14.1" customHeight="1">
       <c r="A137" t="str">
         <f>folders_master!A137</f>
         <v>eco</v>
@@ -9527,7 +9557,7 @@
         <v>Dolphins and porpoises</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="14.1" customHeight="1">
       <c r="A138" t="str">
         <f>folders_master!A138</f>
         <v>eco</v>
@@ -9549,7 +9579,7 @@
         <v>Seals</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="14.1" customHeight="1">
       <c r="A139" t="str">
         <f>folders_master!A139</f>
         <v>eco</v>
@@ -9571,7 +9601,7 @@
         <v>Sea cows (e.g. dugongs, manatees)</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="14.1" customHeight="1">
       <c r="A140" t="str">
         <f>folders_master!A140</f>
         <v>eco</v>
@@ -9593,7 +9623,7 @@
         <v>Otters and minks</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="14.1" customHeight="1">
       <c r="A141" t="str">
         <f>folders_master!A141</f>
         <v>eco</v>
@@ -9615,7 +9645,7 @@
         <v>BIRDS</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="14.1" customHeight="1">
       <c r="A142" t="str">
         <f>folders_master!A142</f>
         <v>eco</v>
@@ -9637,7 +9667,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="14.1" customHeight="1">
       <c r="A143" t="str">
         <f>folders_master!A143</f>
         <v>eco</v>
@@ -9659,7 +9689,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="14.1" customHeight="1">
       <c r="A144" t="str">
         <f>folders_master!A144</f>
         <v>eco</v>
@@ -9681,7 +9711,7 @@
         <v>REPTILES</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="14.1" customHeight="1">
       <c r="A145" t="str">
         <f>folders_master!A145</f>
         <v>eco</v>
@@ -9703,7 +9733,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="14.1" customHeight="1">
       <c r="A146" t="str">
         <f>folders_master!A146</f>
         <v>eco</v>
@@ -9725,7 +9755,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="14.1" customHeight="1">
       <c r="A147" t="str">
         <f>folders_master!A147</f>
         <v>eco</v>
@@ -9747,7 +9777,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="14.1" customHeight="1">
       <c r="A148" t="str">
         <f>folders_master!A148</f>
         <v>eco</v>
@@ -9769,7 +9799,7 @@
         <v>FISH</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="14.1" customHeight="1">
       <c r="A149" t="str">
         <f>folders_master!A149</f>
         <v>eco</v>
@@ -9791,7 +9821,7 @@
         <v>BONY FISH</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="14.1" customHeight="1">
       <c r="A150" t="str">
         <f>folders_master!A150</f>
         <v>eco</v>
@@ -9813,7 +9843,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="14.1" customHeight="1">
       <c r="A151" t="str">
         <f>folders_master!A151</f>
         <v>eco</v>
@@ -9835,7 +9865,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="14.1" customHeight="1">
       <c r="A152" t="str">
         <f>folders_master!A152</f>
         <v>eco</v>
@@ -9857,7 +9887,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="14.1" customHeight="1">
       <c r="A153" t="str">
         <f>folders_master!A153</f>
         <v>eco</v>
@@ -9879,7 +9909,7 @@
         <v>Demersal fish (e.g. ground fish)</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="14.1" customHeight="1">
       <c r="A154" t="str">
         <f>folders_master!A154</f>
         <v>eco</v>
@@ -9901,7 +9931,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="14.1" customHeight="1">
       <c r="A155" t="str">
         <f>folders_master!A155</f>
         <v>eco</v>
@@ -9923,7 +9953,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="14.1" customHeight="1">
       <c r="A156" t="str">
         <f>folders_master!A156</f>
         <v>eco</v>
@@ -9945,7 +9975,7 @@
         <v>CARTILAGINOUS FISH (e.g. sharks, rays)</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="14.1" customHeight="1">
       <c r="A157" t="str">
         <f>folders_master!A157</f>
         <v>eco</v>
@@ -9967,7 +9997,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="14.1" customHeight="1">
       <c r="A158" t="str">
         <f>folders_master!A158</f>
         <v>eco</v>
@@ -9989,7 +10019,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="14.1" customHeight="1">
       <c r="A159" t="str">
         <f>folders_master!A159</f>
         <v>eco</v>
@@ -10011,7 +10041,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="14.1" customHeight="1">
       <c r="A160" t="str">
         <f>folders_master!A160</f>
         <v>eco</v>
@@ -10033,7 +10063,7 @@
         <v>Chimaera (e.g. ghost sharks)</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="14.1" customHeight="1">
       <c r="A161" t="str">
         <f>folders_master!A161</f>
         <v>eco</v>
@@ -10055,7 +10085,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="14.1" customHeight="1">
       <c r="A162" t="str">
         <f>folders_master!A162</f>
         <v>eco</v>
@@ -10077,7 +10107,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="14.1" customHeight="1">
       <c r="A163" t="str">
         <f>folders_master!A163</f>
         <v>eco</v>
@@ -10099,7 +10129,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="14.1" customHeight="1">
       <c r="A164" t="str">
         <f>folders_master!A164</f>
         <v>eco</v>
@@ -10121,7 +10151,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="14.1" customHeight="1">
       <c r="A165" t="str">
         <f>folders_master!A165</f>
         <v>eco</v>
@@ -10143,7 +10173,7 @@
         <v>INVERTEBRATES</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="14.1" customHeight="1">
       <c r="A166" t="str">
         <f>folders_master!A166</f>
         <v>eco</v>
@@ -10165,7 +10195,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="14.1" customHeight="1">
       <c r="A167" t="str">
         <f>folders_master!A167</f>
         <v>eco</v>
@@ -10187,7 +10217,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="14.1" customHeight="1">
       <c r="A168" t="str">
         <f>folders_master!A168</f>
         <v>eco</v>
@@ -10209,7 +10239,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="14.1" customHeight="1">
       <c r="A169" t="str">
         <f>folders_master!A169</f>
         <v>eco</v>
@@ -10231,7 +10261,7 @@
         <v>Cnidarians (e.g. jellyfish, anemones - corals sort under habitat)</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="14.1" customHeight="1">
       <c r="A170" t="str">
         <f>folders_master!A170</f>
         <v>eco</v>
@@ -10253,7 +10283,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="14.1" customHeight="1">
       <c r="A171" t="str">
         <f>folders_master!A171</f>
         <v>eco</v>
@@ -10275,7 +10305,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="14.1" customHeight="1">
       <c r="A172" t="str">
         <f>folders_master!A172</f>
         <v>eco</v>
@@ -10297,7 +10327,7 @@
         <v>Cephalopods (e.g. octopus, squid)</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="14.1" customHeight="1">
       <c r="A173" t="str">
         <f>folders_master!A173</f>
         <v>eco</v>
@@ -10319,7 +10349,7 @@
         <v>Echinoderms (e.g. sea cucumbers, urchins, starfish)</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="14.1" customHeight="1">
       <c r="A174" t="str">
         <f>folders_master!A174</f>
         <v>eco</v>
@@ -10341,7 +10371,7 @@
         <v>Arthropods (e.g. lobsters, crabs, shrimps)</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="14.1" customHeight="1">
       <c r="A175" t="str">
         <f>folders_master!A175</f>
         <v>eco</v>
@@ -10363,7 +10393,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="14.1" customHeight="1">
       <c r="A176" t="str">
         <f>folders_master!A176</f>
         <v>unknown</v>
@@ -10401,7 +10431,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
@@ -10419,7 +10449,7 @@
     <col min="16" max="16" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -10469,7 +10499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="str">
         <f>folders_master!D2</f>
         <v>projection</v>
@@ -10533,7 +10563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="str">
         <f>folders_master!D3</f>
         <v>analytical grid</v>
@@ -10597,7 +10627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="str">
         <f>folders_master!D4</f>
         <v>boundary</v>
@@ -10661,7 +10691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="str">
         <f>folders_master!D5</f>
         <v>maritime boundary</v>
@@ -10725,7 +10755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="str">
         <f>folders_master!D6</f>
         <v>marine boundary</v>
@@ -10789,7 +10819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="str">
         <f>folders_master!D7</f>
         <v>management area</v>
@@ -10853,7 +10883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="str">
         <f>folders_master!D8</f>
         <v>locally managed areas</v>
@@ -10917,7 +10947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="str">
         <f>folders_master!D9</f>
         <v>marine spatial plan</v>
@@ -10981,7 +11011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="str">
         <f>folders_master!D10</f>
         <v>shipping area</v>
@@ -11045,7 +11075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="str">
         <f>folders_master!D11</f>
         <v>protected area</v>
@@ -11109,7 +11139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="str">
         <f>folders_master!D12</f>
         <v>fishing area</v>
@@ -11167,7 +11197,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="str">
         <f>folders_master!D13</f>
         <v>adm other</v>
@@ -11225,7 +11255,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" t="str">
         <f>folders_master!D26</f>
         <v>surface waters</v>
@@ -11275,7 +11305,7 @@
         <v>Reptiles</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="C15" t="str">
         <f>folders_master!D27</f>
         <v>ground water</v>
@@ -11325,7 +11355,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" t="str">
         <f>folders_master!D28</f>
         <v>rainfall</v>
@@ -11375,7 +11405,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14">
       <c r="C17" t="str">
         <f>folders_master!D29</f>
         <v>land cover</v>
@@ -11417,7 +11447,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14">
       <c r="C18" t="str">
         <f>folders_master!D30</f>
         <v>demography</v>
@@ -11459,7 +11489,7 @@
         <v>Fish</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14">
       <c r="C19" t="str">
         <f>folders_master!D31</f>
         <v>env other</v>
@@ -11501,7 +11531,7 @@
         <v>Bony fish</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14">
       <c r="E20" t="str">
         <f>folders_master!D50</f>
         <v>artisanal fishing</v>
@@ -11535,7 +11565,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14">
       <c r="E21" t="str">
         <f>folders_master!D51</f>
         <v>recreational fishing</v>
@@ -11569,7 +11599,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14">
       <c r="E22" t="str">
         <f>folders_master!D52</f>
         <v>recreation</v>
@@ -11603,7 +11633,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14">
       <c r="E23" t="str">
         <f>folders_master!D53</f>
         <v>tourism</v>
@@ -11637,7 +11667,7 @@
         <v xml:space="preserve">Demersal fish </v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14">
       <c r="E24" t="str">
         <f>folders_master!D54</f>
         <v>diving snorkelling</v>
@@ -11671,7 +11701,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14">
       <c r="E25" t="str">
         <f>folders_master!D55</f>
         <v>recreational boating</v>
@@ -11705,7 +11735,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14">
       <c r="E26" t="str">
         <f>folders_master!D56</f>
         <v>shark control</v>
@@ -11739,7 +11769,7 @@
         <v xml:space="preserve">Cartilaginous fish </v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14">
       <c r="E27" t="str">
         <f>folders_master!D57</f>
         <v>act other</v>
@@ -11773,7 +11803,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14">
       <c r="I28" t="str">
         <f>folders_master!D99</f>
         <v>hypoxia</v>
@@ -11799,7 +11829,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14">
       <c r="I29" t="str">
         <f>folders_master!D100</f>
         <v>sedimentation</v>
@@ -11817,7 +11847,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14">
       <c r="I30" t="str">
         <f>folders_master!D101</f>
         <v>plastic waste</v>
@@ -11835,7 +11865,7 @@
         <v xml:space="preserve">Chimaera </v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14">
       <c r="I31" t="str">
         <f>folders_master!D102</f>
         <v>radionuclide</v>
@@ -11853,7 +11883,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14">
       <c r="I32" t="str">
         <f>folders_master!D103</f>
         <v>pres other</v>
@@ -11871,7 +11901,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:14">
       <c r="M33" t="str">
         <f>folders_master!D163</f>
         <v>manta ray</v>
@@ -11881,7 +11911,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:14">
       <c r="M34" t="str">
         <f>folders_master!D164</f>
         <v>sawfish</v>
@@ -11891,7 +11921,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:14">
       <c r="M35" t="str">
         <f>folders_master!D165</f>
         <v>invertebrates</v>
@@ -11901,7 +11931,7 @@
         <v>Invertebrates</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14">
       <c r="M36" t="str">
         <f>folders_master!D166</f>
         <v>infauna</v>
@@ -11911,7 +11941,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:14">
       <c r="M37" t="str">
         <f>folders_master!D167</f>
         <v>epifauna</v>
@@ -11921,7 +11951,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:14">
       <c r="M38" t="str">
         <f>folders_master!D168</f>
         <v>marine sponges</v>
@@ -11931,7 +11961,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:14">
       <c r="M39" t="str">
         <f>folders_master!D169</f>
         <v>cnidarians</v>
@@ -11941,7 +11971,7 @@
         <v xml:space="preserve">Cnidarians </v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:14">
       <c r="M40" t="str">
         <f>folders_master!D170</f>
         <v>marine worms</v>
@@ -11951,7 +11981,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:14">
       <c r="M41" t="str">
         <f>folders_master!D171</f>
         <v>bivalves gastropods</v>
@@ -11961,7 +11991,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14">
       <c r="M42" t="str">
         <f>folders_master!D172</f>
         <v>cephalopods</v>
@@ -11971,7 +12001,7 @@
         <v xml:space="preserve">Cephalopods </v>
       </c>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:14">
       <c r="M43" t="str">
         <f>folders_master!D173</f>
         <v>echinoderms</v>
@@ -11981,7 +12011,7 @@
         <v xml:space="preserve">Echinoderms </v>
       </c>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14">
       <c r="M44" t="str">
         <f>folders_master!D174</f>
         <v>arthropods</v>
@@ -11991,7 +12021,7 @@
         <v xml:space="preserve">Arthropods </v>
       </c>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:14">
       <c r="M45" t="str">
         <f>folders_master!D175</f>
         <v>spec other</v>
@@ -12017,7 +12047,7 @@
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="83.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
@@ -12030,7 +12060,7 @@
     <col min="9" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -12053,7 +12083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -12061,7 +12091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -12088,7 +12118,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
@@ -12099,7 +12129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.95" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -12116,7 +12146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.95" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
@@ -12127,7 +12157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.95" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
@@ -12150,7 +12180,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.95" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
@@ -12173,7 +12203,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.95" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>104</v>
       </c>
@@ -12196,7 +12226,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.95" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>108</v>
       </c>
@@ -12204,7 +12234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.95" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -12215,7 +12245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.95" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
@@ -12226,7 +12256,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.95" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
@@ -12234,7 +12264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.95" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>117</v>
       </c>
@@ -12245,7 +12275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.95" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -12253,7 +12283,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.95" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
@@ -12264,7 +12294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.95" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>123</v>
       </c>
@@ -12272,7 +12302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.95" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -12295,7 +12325,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.95" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>129</v>
       </c>
@@ -12316,7 +12346,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.95" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
@@ -12327,7 +12357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.95" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>136</v>
       </c>
@@ -12338,7 +12368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.95" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>138</v>
       </c>
@@ -12361,7 +12391,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.95" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>142</v>
       </c>
@@ -12386,7 +12416,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.95" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>147</v>
       </c>
@@ -12409,7 +12439,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.95" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
@@ -12432,7 +12462,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.95" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>155</v>
       </c>
@@ -12445,7 +12475,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.95" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>158</v>
       </c>
@@ -12453,7 +12483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.95" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>160</v>
       </c>
@@ -12476,7 +12506,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.95" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>165</v>
       </c>
@@ -12497,7 +12527,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.95" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>169</v>
       </c>
@@ -12518,7 +12548,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.95" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>173</v>
       </c>
@@ -12537,7 +12567,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.95" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>176</v>
       </c>
@@ -12545,7 +12575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.95" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>178</v>
       </c>
@@ -12566,7 +12596,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.95" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>182</v>
       </c>
@@ -12587,7 +12617,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.95" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>186</v>
       </c>
@@ -12598,7 +12628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.95" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>189</v>
       </c>
@@ -12619,7 +12649,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.95" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>193</v>
       </c>
@@ -12640,7 +12670,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.95" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>197</v>
       </c>
@@ -12651,7 +12681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.95" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>199</v>
       </c>
@@ -12659,7 +12689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.95" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>201</v>
       </c>
@@ -12670,7 +12700,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.95" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>204</v>
       </c>
@@ -12678,7 +12708,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.95" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>206</v>
       </c>
@@ -12701,7 +12731,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.95" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>211</v>
       </c>
@@ -12722,7 +12752,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.95" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>215</v>
       </c>
@@ -12740,7 +12770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.95" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>220</v>
       </c>
@@ -12748,7 +12778,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.95" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>222</v>
       </c>
@@ -12756,7 +12786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.95" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>224</v>
       </c>
@@ -12778,7 +12808,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.95" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>229</v>
       </c>
@@ -12786,7 +12816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.95" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>231</v>
       </c>
@@ -12797,7 +12827,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.95" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>234</v>
       </c>
@@ -12820,7 +12850,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.95" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>239</v>
       </c>
@@ -12841,7 +12871,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.95" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>243</v>
       </c>
@@ -12862,7 +12892,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.95" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>247</v>
       </c>
@@ -12883,7 +12913,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.95" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>251</v>
       </c>
@@ -12894,7 +12924,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.95" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>254</v>
       </c>
@@ -12905,7 +12935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.95" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>256</v>
       </c>
@@ -12916,7 +12946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.95" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>258</v>
       </c>
@@ -12927,7 +12957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.95" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>260</v>
       </c>
@@ -12952,7 +12982,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.95" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>265</v>
       </c>
@@ -12963,7 +12993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.95" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>267</v>
       </c>
@@ -12974,7 +13004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.95" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>269</v>
       </c>
@@ -12985,7 +13015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.95" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>271</v>
       </c>
@@ -13008,7 +13038,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.95" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>275</v>
       </c>
@@ -13019,7 +13049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.95" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>277</v>
       </c>
@@ -13027,7 +13057,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.95" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>279</v>
       </c>
@@ -13041,7 +13071,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.95" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>281</v>
       </c>
@@ -13049,7 +13079,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.95" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>283</v>
       </c>
@@ -13072,7 +13102,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.95" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>288</v>
       </c>
@@ -13093,7 +13123,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.95" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>292</v>
       </c>
@@ -13118,7 +13148,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.95" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>297</v>
       </c>
@@ -13139,7 +13169,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.95" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>301</v>
       </c>
@@ -13160,7 +13190,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.95" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>305</v>
       </c>
@@ -13171,7 +13201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A73" s="12" t="s">
         <v>308</v>
       </c>
@@ -13188,7 +13218,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A74" s="12" t="s">
         <v>310</v>
       </c>
@@ -13205,7 +13235,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A75" s="12" t="s">
         <v>312</v>
       </c>
@@ -13224,7 +13254,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A76" s="12" t="s">
         <v>314</v>
       </c>
@@ -13241,7 +13271,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>316</v>
       </c>
@@ -13261,7 +13291,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>321</v>
       </c>
@@ -13280,7 +13310,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>325</v>
       </c>
@@ -13301,7 +13331,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>329</v>
       </c>
@@ -13318,7 +13348,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>331</v>
       </c>
@@ -13335,7 +13365,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A82" s="12" t="s">
         <v>333</v>
       </c>
@@ -13352,7 +13382,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>335</v>
       </c>
@@ -13372,7 +13402,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>340</v>
       </c>
@@ -13390,7 +13420,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>344</v>
       </c>
@@ -13407,7 +13437,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A86" s="12" t="s">
         <v>346</v>
       </c>
@@ -13425,7 +13455,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A87" s="14" t="s">
         <v>350</v>
       </c>
@@ -13445,7 +13475,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A88" s="22" t="s">
         <v>354</v>
       </c>
@@ -13464,7 +13494,7 @@
       </c>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A89" s="12" t="s">
         <v>358</v>
       </c>
@@ -13484,7 +13514,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A90" s="12" t="s">
         <v>363</v>
       </c>
@@ -13506,7 +13536,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A91" s="12" t="s">
         <v>368</v>
       </c>
@@ -13526,7 +13556,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>373</v>
       </c>
@@ -13545,7 +13575,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>376</v>
       </c>
@@ -13562,7 +13592,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A94" s="12" t="s">
         <v>378</v>
       </c>
@@ -13579,7 +13609,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A95" s="12" t="s">
         <v>380</v>
       </c>
@@ -13596,7 +13626,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A96" s="12" t="s">
         <v>382</v>
       </c>
@@ -13613,7 +13643,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A97" s="12" t="s">
         <v>384</v>
       </c>
@@ -13630,7 +13660,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A98" s="12" t="s">
         <v>386</v>
       </c>
@@ -13647,7 +13677,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>388</v>
       </c>
@@ -13664,7 +13694,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>390</v>
       </c>
@@ -13681,7 +13711,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A101" s="12" t="s">
         <v>392</v>
       </c>
@@ -13700,7 +13730,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A102" s="12" t="s">
         <v>394</v>
       </c>
@@ -13719,7 +13749,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A103" s="12" t="s">
         <v>396</v>
       </c>
@@ -13738,7 +13768,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A104" s="12" t="s">
         <v>398</v>
       </c>
@@ -13757,7 +13787,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A105" s="12" t="s">
         <v>400</v>
       </c>
@@ -13776,7 +13806,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A106" s="12" t="s">
         <v>402</v>
       </c>
@@ -13795,7 +13825,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A107" s="12" t="s">
         <v>404</v>
       </c>
@@ -13818,7 +13848,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A108" s="12" t="s">
         <v>408</v>
       </c>
@@ -13837,7 +13867,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A109" s="12" t="s">
         <v>411</v>
       </c>
@@ -13857,7 +13887,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A110" s="12" t="s">
         <v>415</v>
       </c>
@@ -13880,7 +13910,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A111" s="12" t="s">
         <v>419</v>
       </c>
@@ -13899,7 +13929,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A112" s="12" t="s">
         <v>421</v>
       </c>
@@ -13918,7 +13948,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A113" s="12" t="s">
         <v>423</v>
       </c>
@@ -13940,7 +13970,7 @@
       <c r="G113" s="17"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A114" s="12" t="s">
         <v>428</v>
       </c>
@@ -13962,7 +13992,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A115" s="34" t="s">
         <v>433</v>
       </c>
@@ -13987,7 +14017,7 @@
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
     </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A116" s="40" t="s">
         <v>437</v>
       </c>
@@ -14094,7 +14124,7 @@
       <selection activeCell="F1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -14104,7 +14134,7 @@
     <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.1" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -14124,7 +14154,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -14144,7 +14174,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -14161,7 +14191,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.1" customHeight="1">
       <c r="A4" t="s">
         <v>441</v>
       </c>
@@ -14181,7 +14211,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.1" customHeight="1">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -14201,7 +14231,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.1" customHeight="1">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -14221,7 +14251,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.1" customHeight="1">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14238,7 +14268,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.1" customHeight="1">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -14258,7 +14288,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.1" customHeight="1">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -14275,7 +14305,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.1" customHeight="1">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -14295,7 +14325,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.1" customHeight="1">
       <c r="A11" t="s">
         <v>441</v>
       </c>
@@ -14315,7 +14345,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.1" customHeight="1">
       <c r="A12" t="s">
         <v>441</v>
       </c>
@@ -14335,7 +14365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.1" customHeight="1">
       <c r="A13" t="s">
         <v>441</v>
       </c>
@@ -14352,7 +14382,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.1" customHeight="1">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -14372,7 +14402,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.1" customHeight="1">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -14392,7 +14422,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.1" customHeight="1">
       <c r="A16" t="s">
         <v>487</v>
       </c>
@@ -14412,7 +14442,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.1" customHeight="1">
       <c r="A17" t="s">
         <v>487</v>
       </c>
@@ -14429,7 +14459,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.1" customHeight="1">
       <c r="A18" t="s">
         <v>487</v>
       </c>
@@ -14446,7 +14476,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.1" customHeight="1">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -14463,7 +14493,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.1" customHeight="1">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -14480,7 +14510,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.1" customHeight="1">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -14500,7 +14530,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.1" customHeight="1">
       <c r="A22" t="s">
         <v>487</v>
       </c>
@@ -14520,7 +14550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.1" customHeight="1">
       <c r="A23" t="s">
         <v>487</v>
       </c>
@@ -14540,7 +14570,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.1" customHeight="1">
       <c r="A24" t="s">
         <v>487</v>
       </c>
@@ -14557,7 +14587,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.1" customHeight="1">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -14574,7 +14604,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.1" customHeight="1">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -14594,7 +14624,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.1" customHeight="1">
       <c r="A27" t="s">
         <v>487</v>
       </c>
@@ -14614,7 +14644,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.1" customHeight="1">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -14631,7 +14661,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.1" customHeight="1">
       <c r="A29" t="s">
         <v>487</v>
       </c>
@@ -14648,7 +14678,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.1" customHeight="1">
       <c r="A30" t="s">
         <v>487</v>
       </c>
@@ -14665,7 +14695,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.1" customHeight="1">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -14682,7 +14712,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.1" customHeight="1">
       <c r="A32" t="s">
         <v>547</v>
       </c>
@@ -14702,7 +14732,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.1" customHeight="1">
       <c r="A33" t="s">
         <v>547</v>
       </c>
@@ -14719,7 +14749,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.1" customHeight="1">
       <c r="A34" t="s">
         <v>547</v>
       </c>
@@ -14736,7 +14766,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.1" customHeight="1">
       <c r="A35" t="s">
         <v>547</v>
       </c>
@@ -14756,7 +14786,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.1" customHeight="1">
       <c r="A36" t="s">
         <v>547</v>
       </c>
@@ -14773,7 +14803,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.1" customHeight="1">
       <c r="A37" t="s">
         <v>547</v>
       </c>
@@ -14790,7 +14820,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.1" customHeight="1">
       <c r="A38" t="s">
         <v>547</v>
       </c>
@@ -14810,7 +14840,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.1" customHeight="1">
       <c r="A39" t="s">
         <v>547</v>
       </c>
@@ -14827,7 +14857,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.1" customHeight="1">
       <c r="A40" t="s">
         <v>547</v>
       </c>
@@ -14847,7 +14877,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.1" customHeight="1">
       <c r="A41" t="s">
         <v>547</v>
       </c>
@@ -14867,7 +14897,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.1" customHeight="1">
       <c r="A42" t="s">
         <v>547</v>
       </c>
@@ -14884,7 +14914,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.1" customHeight="1">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -14904,7 +14934,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.1" customHeight="1">
       <c r="A44" t="s">
         <v>547</v>
       </c>
@@ -14921,7 +14951,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.1" customHeight="1">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -14938,7 +14968,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.1" customHeight="1">
       <c r="A46" t="s">
         <v>547</v>
       </c>
@@ -14955,7 +14985,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.1" customHeight="1">
       <c r="A47" t="s">
         <v>547</v>
       </c>
@@ -14972,7 +15002,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.1" customHeight="1">
       <c r="A48" t="s">
         <v>547</v>
       </c>
@@ -14989,7 +15019,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.1" customHeight="1">
       <c r="A49" t="s">
         <v>547</v>
       </c>
@@ -15006,7 +15036,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.1" customHeight="1">
       <c r="A50" t="s">
         <v>547</v>
       </c>
@@ -15023,7 +15053,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.1" customHeight="1">
       <c r="A51" t="s">
         <v>547</v>
       </c>
@@ -15040,7 +15070,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.1" customHeight="1">
       <c r="A52" t="s">
         <v>547</v>
       </c>
@@ -15057,7 +15087,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.1" customHeight="1">
       <c r="A53" t="s">
         <v>547</v>
       </c>
@@ -15074,7 +15104,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.1" customHeight="1">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -15091,7 +15121,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.1" customHeight="1">
       <c r="A55" t="s">
         <v>547</v>
       </c>
@@ -15111,7 +15141,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.1" customHeight="1">
       <c r="A56" t="s">
         <v>547</v>
       </c>
@@ -15131,7 +15161,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="14.1" customHeight="1">
       <c r="A57" t="s">
         <v>547</v>
       </c>
@@ -15148,7 +15178,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.1" customHeight="1">
       <c r="A58" t="s">
         <v>547</v>
       </c>
@@ -15165,7 +15195,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.1" customHeight="1">
       <c r="A59" t="s">
         <v>547</v>
       </c>
@@ -15182,7 +15212,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.1" customHeight="1">
       <c r="A60" t="s">
         <v>547</v>
       </c>
@@ -15199,7 +15229,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="14.1" customHeight="1">
       <c r="A61" t="s">
         <v>547</v>
       </c>
@@ -15216,7 +15246,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="14.1" customHeight="1">
       <c r="A62" t="s">
         <v>547</v>
       </c>
@@ -15236,7 +15266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="14.1" customHeight="1">
       <c r="A63" t="s">
         <v>547</v>
       </c>
@@ -15253,7 +15283,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.1" customHeight="1">
       <c r="A64" t="s">
         <v>547</v>
       </c>
@@ -15270,7 +15300,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.1" customHeight="1">
       <c r="A65" t="s">
         <v>547</v>
       </c>
@@ -15287,7 +15317,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.1" customHeight="1">
       <c r="A66" t="s">
         <v>547</v>
       </c>
@@ -15307,7 +15337,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.1" customHeight="1">
       <c r="A67" t="s">
         <v>547</v>
       </c>
@@ -15324,7 +15354,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.1" customHeight="1">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -15344,7 +15374,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="14.1" customHeight="1">
       <c r="A69" t="s">
         <v>547</v>
       </c>
@@ -15364,7 +15394,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="14.1" customHeight="1">
       <c r="A70" t="s">
         <v>547</v>
       </c>
@@ -15384,7 +15414,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="14.1" customHeight="1">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -15404,7 +15434,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="14.1" customHeight="1">
       <c r="A72" t="s">
         <v>547</v>
       </c>
@@ -15421,7 +15451,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="14.1" customHeight="1">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -15438,7 +15468,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="14.1" customHeight="1">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -15455,7 +15485,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="14.1" customHeight="1">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -15472,7 +15502,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="14.1" customHeight="1">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -15489,7 +15519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="14.1" customHeight="1">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -15509,7 +15539,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="14.1" customHeight="1">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -15526,7 +15556,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="14.1" customHeight="1">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -15546,7 +15576,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="14.1" customHeight="1">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -15563,7 +15593,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="14.1" customHeight="1">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -15583,7 +15613,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.1" customHeight="1">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -15600,7 +15630,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="14.1" customHeight="1">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -15617,7 +15647,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="14.1" customHeight="1">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -15634,7 +15664,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="14.1" customHeight="1">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -15654,7 +15684,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="14.1" customHeight="1">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -15671,7 +15701,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="14.1" customHeight="1">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -15688,7 +15718,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="14.1" customHeight="1">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -15705,7 +15735,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="14.1" customHeight="1">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -15722,7 +15752,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="14.1" customHeight="1">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -15742,7 +15772,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="14.1" customHeight="1">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -15759,7 +15789,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="14.1" customHeight="1">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -15779,7 +15809,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="14.1" customHeight="1">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -15796,7 +15826,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="14.1" customHeight="1">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -15813,7 +15843,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="14.1" customHeight="1">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -15830,7 +15860,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="14.1" customHeight="1">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -15847,7 +15877,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="14.1" customHeight="1">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -15864,7 +15894,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="14.1" customHeight="1">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -15884,7 +15914,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="14.1" customHeight="1">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -15901,7 +15931,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="14.1" customHeight="1">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -15918,7 +15948,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="14.1" customHeight="1">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -15935,7 +15965,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="14.1" customHeight="1">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -15952,7 +15982,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="14.1" customHeight="1">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -15969,7 +15999,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="14.1" customHeight="1">
       <c r="A104" t="s">
         <v>777</v>
       </c>
@@ -15986,7 +16016,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="14.1" customHeight="1">
       <c r="A105" t="s">
         <v>777</v>
       </c>
@@ -16003,7 +16033,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="14.1" customHeight="1">
       <c r="A106" t="s">
         <v>777</v>
       </c>
@@ -16023,7 +16053,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="14.1" customHeight="1">
       <c r="A107" t="s">
         <v>777</v>
       </c>
@@ -16043,7 +16073,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="14.1" customHeight="1">
       <c r="A108" t="s">
         <v>777</v>
       </c>
@@ -16060,7 +16090,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="14.1" customHeight="1">
       <c r="A109" t="s">
         <v>777</v>
       </c>
@@ -16077,7 +16107,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="14.1" customHeight="1">
       <c r="A110" t="s">
         <v>777</v>
       </c>
@@ -16094,7 +16124,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="14.1" customHeight="1">
       <c r="A111" t="s">
         <v>777</v>
       </c>
@@ -16111,7 +16141,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="14.1" customHeight="1">
       <c r="A112" t="s">
         <v>777</v>
       </c>
@@ -16128,7 +16158,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="14.1" customHeight="1">
       <c r="A113" t="s">
         <v>777</v>
       </c>
@@ -16148,7 +16178,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="14.1" customHeight="1">
       <c r="A114" t="s">
         <v>777</v>
       </c>
@@ -16165,7 +16195,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="14.1" customHeight="1">
       <c r="A115" t="s">
         <v>777</v>
       </c>
@@ -16182,7 +16212,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="14.1" customHeight="1">
       <c r="A116" t="s">
         <v>777</v>
       </c>
@@ -16199,7 +16229,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="14.1" customHeight="1">
       <c r="A117" t="s">
         <v>777</v>
       </c>
@@ -16216,7 +16246,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="14.1" customHeight="1">
       <c r="A118" t="s">
         <v>777</v>
       </c>
@@ -16233,7 +16263,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="14.1" customHeight="1">
       <c r="A119" t="s">
         <v>777</v>
       </c>
@@ -16253,7 +16283,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="14.1" customHeight="1">
       <c r="A120" t="s">
         <v>777</v>
       </c>
@@ -16273,7 +16303,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="14.1" customHeight="1">
       <c r="A121" t="s">
         <v>777</v>
       </c>
@@ -16290,7 +16320,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="14.1" customHeight="1">
       <c r="A122" t="s">
         <v>777</v>
       </c>
@@ -16307,7 +16337,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="14.1" customHeight="1">
       <c r="A123" t="s">
         <v>777</v>
       </c>
@@ -16324,7 +16354,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="14.1" customHeight="1">
       <c r="A124" t="s">
         <v>777</v>
       </c>
@@ -16341,7 +16371,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="14.1" customHeight="1">
       <c r="A125" t="s">
         <v>777</v>
       </c>
@@ -16358,7 +16388,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="14.1" customHeight="1">
       <c r="A126" t="s">
         <v>777</v>
       </c>
@@ -16375,7 +16405,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="14.1" customHeight="1">
       <c r="A127" t="s">
         <v>777</v>
       </c>
@@ -16392,7 +16422,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="14.1" customHeight="1">
       <c r="A128" t="s">
         <v>777</v>
       </c>
@@ -16409,7 +16439,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="14.1" customHeight="1">
       <c r="A129" t="s">
         <v>777</v>
       </c>
@@ -16426,7 +16456,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="14.1" customHeight="1">
       <c r="A130" t="s">
         <v>777</v>
       </c>
@@ -16443,7 +16473,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="14.1" customHeight="1">
       <c r="A131" t="s">
         <v>777</v>
       </c>
@@ -16460,7 +16490,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="14.1" customHeight="1">
       <c r="A132" t="s">
         <v>777</v>
       </c>
@@ -16480,7 +16510,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="14.1" customHeight="1">
       <c r="A133" t="s">
         <v>777</v>
       </c>
@@ -16497,7 +16527,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="14.1" customHeight="1">
       <c r="A134" t="s">
         <v>777</v>
       </c>
@@ -16514,7 +16544,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="14.1" customHeight="1">
       <c r="A135" t="s">
         <v>777</v>
       </c>
@@ -16534,7 +16564,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="14.1" customHeight="1">
       <c r="A136" t="s">
         <v>777</v>
       </c>
@@ -16554,7 +16584,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="14.1" customHeight="1">
       <c r="A137" t="s">
         <v>777</v>
       </c>
@@ -16571,7 +16601,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="14.1" customHeight="1">
       <c r="A138" t="s">
         <v>777</v>
       </c>
@@ -16588,7 +16618,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="14.1" customHeight="1">
       <c r="A139" t="s">
         <v>777</v>
       </c>
@@ -16608,7 +16638,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="14.1" customHeight="1">
       <c r="A140" t="s">
         <v>777</v>
       </c>
@@ -16625,7 +16655,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="14.1" customHeight="1">
       <c r="A141" t="s">
         <v>777</v>
       </c>
@@ -16642,7 +16672,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="14.1" customHeight="1">
       <c r="A142" t="s">
         <v>777</v>
       </c>
@@ -16659,7 +16689,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="14.1" customHeight="1">
       <c r="A143" t="s">
         <v>777</v>
       </c>
@@ -16676,7 +16706,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="14.1" customHeight="1">
       <c r="A144" t="s">
         <v>777</v>
       </c>
@@ -16693,7 +16723,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="14.1" customHeight="1">
       <c r="A145" t="s">
         <v>777</v>
       </c>
@@ -16710,7 +16740,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="14.1" customHeight="1">
       <c r="A146" t="s">
         <v>777</v>
       </c>
@@ -16727,7 +16757,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="14.1" customHeight="1">
       <c r="A147" t="s">
         <v>777</v>
       </c>
@@ -16744,7 +16774,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="14.1" customHeight="1">
       <c r="A148" t="s">
         <v>777</v>
       </c>
@@ -16761,7 +16791,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="14.1" customHeight="1">
       <c r="A149" t="s">
         <v>777</v>
       </c>
@@ -16778,7 +16808,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="14.1" customHeight="1">
       <c r="A150" t="s">
         <v>777</v>
       </c>
@@ -16795,7 +16825,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="14.1" customHeight="1">
       <c r="A151" t="s">
         <v>777</v>
       </c>
@@ -16812,7 +16842,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="14.1" customHeight="1">
       <c r="A152" t="s">
         <v>777</v>
       </c>
@@ -16829,7 +16859,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="14.1" customHeight="1">
       <c r="A153" t="s">
         <v>777</v>
       </c>
@@ -16849,7 +16879,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="14.1" customHeight="1">
       <c r="A154" t="s">
         <v>777</v>
       </c>
@@ -16866,7 +16896,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="14.1" customHeight="1">
       <c r="A155" t="s">
         <v>777</v>
       </c>
@@ -16883,7 +16913,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="14.1" customHeight="1">
       <c r="A156" t="s">
         <v>777</v>
       </c>
@@ -16903,7 +16933,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="14.1" customHeight="1">
       <c r="A157" t="s">
         <v>777</v>
       </c>
@@ -16920,7 +16950,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="14.1" customHeight="1">
       <c r="A158" t="s">
         <v>777</v>
       </c>
@@ -16937,7 +16967,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="14.1" customHeight="1">
       <c r="A159" t="s">
         <v>777</v>
       </c>
@@ -16954,7 +16984,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="14.1" customHeight="1">
       <c r="A160" t="s">
         <v>777</v>
       </c>
@@ -16974,7 +17004,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="14.1" customHeight="1">
       <c r="A161" t="s">
         <v>777</v>
       </c>
@@ -16991,7 +17021,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="14.1" customHeight="1">
       <c r="A162" t="s">
         <v>777</v>
       </c>
@@ -17008,7 +17038,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="14.1" customHeight="1">
       <c r="A163" t="s">
         <v>777</v>
       </c>
@@ -17025,7 +17055,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="14.1" customHeight="1">
       <c r="A164" t="s">
         <v>777</v>
       </c>
@@ -17042,7 +17072,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="14.1" customHeight="1">
       <c r="A165" t="s">
         <v>777</v>
       </c>
@@ -17059,7 +17089,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="14.1" customHeight="1">
       <c r="A166" t="s">
         <v>777</v>
       </c>
@@ -17076,7 +17106,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="14.1" customHeight="1">
       <c r="A167" t="s">
         <v>777</v>
       </c>
@@ -17093,7 +17123,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="14.1" customHeight="1">
       <c r="A168" t="s">
         <v>777</v>
       </c>
@@ -17110,7 +17140,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="14.1" customHeight="1">
       <c r="A169" t="s">
         <v>777</v>
       </c>
@@ -17130,7 +17160,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="14.1" customHeight="1">
       <c r="A170" t="s">
         <v>777</v>
       </c>
@@ -17147,7 +17177,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="14.1" customHeight="1">
       <c r="A171" t="s">
         <v>777</v>
       </c>
@@ -17164,7 +17194,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="14.1" customHeight="1">
       <c r="A172" t="s">
         <v>777</v>
       </c>
@@ -17184,7 +17214,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="14.1" customHeight="1">
       <c r="A173" t="s">
         <v>777</v>
       </c>
@@ -17204,7 +17234,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="14.1" customHeight="1">
       <c r="A174" t="s">
         <v>777</v>
       </c>
@@ -17224,7 +17254,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="14.1" customHeight="1">
       <c r="A175" t="s">
         <v>777</v>
       </c>
@@ -17241,7 +17271,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="14.1" customHeight="1">
       <c r="A176" t="s">
         <v>1004</v>
       </c>
@@ -17280,9 +17310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C663B44-59D5-4163-B884-E9C925F240A4}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
@@ -17291,7 +17323,7 @@
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -17311,7 +17343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -17332,7 +17364,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -17353,7 +17385,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -17372,7 +17404,7 @@
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -17391,7 +17423,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -17412,7 +17444,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>777</v>
       </c>
@@ -17432,7 +17464,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>777</v>
       </c>
@@ -17452,7 +17484,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>777</v>
       </c>
@@ -17472,7 +17504,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -17492,7 +17524,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>777</v>
       </c>
@@ -17512,7 +17544,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>777</v>
       </c>
@@ -17532,7 +17564,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>777</v>
       </c>
@@ -17552,7 +17584,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -17572,7 +17604,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>777</v>
       </c>
@@ -17592,7 +17624,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>777</v>
       </c>
@@ -17612,7 +17644,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>777</v>
       </c>
@@ -17632,7 +17664,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>777</v>
       </c>
@@ -17652,7 +17684,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>777</v>
       </c>
@@ -17672,7 +17704,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>777</v>
       </c>
@@ -17692,7 +17724,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>777</v>
       </c>
@@ -17712,7 +17744,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>777</v>
       </c>
@@ -17732,7 +17764,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>777</v>
       </c>
@@ -17752,7 +17784,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>777</v>
       </c>
@@ -17760,19 +17792,19 @@
         <v>1062</v>
       </c>
       <c r="C24" t="s">
-        <v>790</v>
+        <v>1065</v>
       </c>
       <c r="D24" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F24" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>777</v>
       </c>
@@ -17780,19 +17812,19 @@
         <v>1062</v>
       </c>
       <c r="C25" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D25" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F25" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>777</v>
       </c>
@@ -17800,19 +17832,19 @@
         <v>1062</v>
       </c>
       <c r="C26" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D26" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F26" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>777</v>
       </c>
@@ -17820,19 +17852,19 @@
         <v>1062</v>
       </c>
       <c r="C27" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F27" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>777</v>
       </c>
@@ -17840,19 +17872,19 @@
         <v>1062</v>
       </c>
       <c r="C28" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F28" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>777</v>
       </c>
@@ -17860,7 +17892,7 @@
         <v>1062</v>
       </c>
       <c r="C29" t="s">
-        <v>797</v>
+        <v>1082</v>
       </c>
       <c r="D29" t="s">
         <v>798</v>
@@ -17869,10 +17901,10 @@
         <v>798</v>
       </c>
       <c r="F29" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>777</v>
       </c>
@@ -17880,19 +17912,19 @@
         <v>1062</v>
       </c>
       <c r="C30" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D30" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F30" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>777</v>
       </c>
@@ -17900,19 +17932,19 @@
         <v>1062</v>
       </c>
       <c r="C31" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F31" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>777</v>
       </c>
@@ -17920,19 +17952,19 @@
         <v>1062</v>
       </c>
       <c r="C32" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F32" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>777</v>
       </c>
@@ -17940,19 +17972,19 @@
         <v>1062</v>
       </c>
       <c r="C33" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F33" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>777</v>
       </c>
@@ -17960,7 +17992,7 @@
         <v>1062</v>
       </c>
       <c r="C34" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D34" t="s">
         <v>795</v>
@@ -17969,95 +18001,95 @@
         <v>795</v>
       </c>
       <c r="F34" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>777</v>
       </c>
       <c r="B35" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C35" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D35" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F35" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>777</v>
       </c>
       <c r="B36" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C36" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D36" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>777</v>
       </c>
       <c r="B37" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C37" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F37" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>777</v>
       </c>
       <c r="B38" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C38" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F38" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>777</v>
       </c>
       <c r="B39" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C39" t="s">
         <v>847</v>
@@ -18069,58 +18101,58 @@
         <v>848</v>
       </c>
       <c r="F39" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>777</v>
       </c>
       <c r="B40" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C40" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D40" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F40" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>777</v>
       </c>
       <c r="B41" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C41" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D41" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F41" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>777</v>
       </c>
       <c r="B42" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C42" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D42" t="s">
         <v>846</v>
@@ -18129,110 +18161,110 @@
         <v>846</v>
       </c>
       <c r="F42" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>777</v>
       </c>
       <c r="B43" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C43" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D43" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F43" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>777</v>
       </c>
       <c r="B44" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C44" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D44" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="F44" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>777</v>
       </c>
       <c r="B45" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C45" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D45" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F45" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>777</v>
       </c>
       <c r="B46" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C46" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D46" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F46" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>777</v>
       </c>
       <c r="B47" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C47" t="s">
-        <v>1063</v>
+        <v>1137</v>
       </c>
       <c r="D47" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F47" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>777</v>
       </c>
@@ -18240,147 +18272,147 @@
         <v>1062</v>
       </c>
       <c r="C48" t="s">
-        <v>790</v>
+        <v>1140</v>
       </c>
       <c r="D48" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F48" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>777</v>
       </c>
       <c r="B49" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C49" t="s">
-        <v>1067</v>
+        <v>1141</v>
       </c>
       <c r="D49" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F49" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>777</v>
       </c>
       <c r="B50" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C50" t="s">
-        <v>1070</v>
+        <v>1143</v>
       </c>
       <c r="D50" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F50" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>777</v>
       </c>
       <c r="B51" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C51" t="s">
-        <v>1073</v>
+        <v>1145</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="F51" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>777</v>
       </c>
       <c r="B52" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C52" t="s">
-        <v>1077</v>
+        <v>1148</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="F52" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>777</v>
       </c>
       <c r="B53" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C53" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="D53" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="F53" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>777</v>
       </c>
       <c r="B54" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C54" t="s">
-        <v>1082</v>
+        <v>1154</v>
       </c>
       <c r="D54" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F54" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>777</v>
       </c>
       <c r="B55" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C55" t="s">
-        <v>1096</v>
+        <v>1156</v>
       </c>
       <c r="D55" t="s">
         <v>795</v>
@@ -18389,38 +18421,38 @@
         <v>795</v>
       </c>
       <c r="F55" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>777</v>
       </c>
       <c r="B56" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C56" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="D56" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="F56" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>777</v>
       </c>
       <c r="B57" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C57" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="D57" t="s">
         <v>900</v>
@@ -18429,10 +18461,10 @@
         <v>900</v>
       </c>
       <c r="F57" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>678</v>
       </c>
@@ -18449,10 +18481,10 @@
         <v>555</v>
       </c>
       <c r="F58" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -18460,7 +18492,7 @@
         <v>634</v>
       </c>
       <c r="C59" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D59" t="s">
         <v>640</v>
@@ -18469,10 +18501,10 @@
         <v>640</v>
       </c>
       <c r="F59" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>678</v>
       </c>
@@ -18480,7 +18512,7 @@
         <v>634</v>
       </c>
       <c r="C60" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="D60" t="s">
         <v>643</v>
@@ -18489,10 +18521,10 @@
         <v>643</v>
       </c>
       <c r="F60" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>678</v>
       </c>
@@ -18500,19 +18532,19 @@
         <v>634</v>
       </c>
       <c r="C61" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="D61" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="F61" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>678</v>
       </c>
@@ -18520,19 +18552,19 @@
         <v>634</v>
       </c>
       <c r="C62" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="D62" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="F62" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>678</v>
       </c>
@@ -18540,19 +18572,19 @@
         <v>634</v>
       </c>
       <c r="C63" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="D63" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="F63" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>678</v>
       </c>
@@ -18560,19 +18592,19 @@
         <v>634</v>
       </c>
       <c r="C64" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="D64" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="F64" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>678</v>
       </c>
@@ -18589,10 +18621,10 @@
         <v>558</v>
       </c>
       <c r="F65" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>678</v>
       </c>
@@ -18609,10 +18641,10 @@
         <v>561</v>
       </c>
       <c r="F66" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>678</v>
       </c>
@@ -18620,19 +18652,19 @@
         <v>551</v>
       </c>
       <c r="C67" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="D67" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="F67" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>678</v>
       </c>
@@ -18640,7 +18672,7 @@
         <v>551</v>
       </c>
       <c r="C68" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="D68" t="s">
         <v>711</v>
@@ -18649,10 +18681,10 @@
         <v>711</v>
       </c>
       <c r="F68" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>678</v>
       </c>
@@ -18660,19 +18692,19 @@
         <v>551</v>
       </c>
       <c r="C69" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="D69" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="F69" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>678</v>
       </c>
@@ -18680,19 +18712,19 @@
         <v>603</v>
       </c>
       <c r="C70" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="D70" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="F70" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>678</v>
       </c>
@@ -18700,19 +18732,19 @@
         <v>603</v>
       </c>
       <c r="C71" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="D71" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="F71" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>678</v>
       </c>
@@ -18720,19 +18752,19 @@
         <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="D72" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="F72" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -18740,19 +18772,19 @@
         <v>603</v>
       </c>
       <c r="C73" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D73" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="F73" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -18760,19 +18792,19 @@
         <v>603</v>
       </c>
       <c r="C74" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="D74" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -18780,19 +18812,19 @@
         <v>603</v>
       </c>
       <c r="C75" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="D75" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="F75" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -18800,19 +18832,19 @@
         <v>603</v>
       </c>
       <c r="C76" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="D76" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="F76" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -18820,19 +18852,19 @@
         <v>603</v>
       </c>
       <c r="C77" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="D77" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="F77" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -18840,19 +18872,19 @@
         <v>603</v>
       </c>
       <c r="C78" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="D78" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="F78" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -18860,19 +18892,19 @@
         <v>603</v>
       </c>
       <c r="C79" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
       <c r="D79" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
       <c r="F79" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -18880,7 +18912,7 @@
         <v>603</v>
       </c>
       <c r="C80" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
       <c r="D80" t="s">
         <v>612</v>
@@ -18889,10 +18921,10 @@
         <v>612</v>
       </c>
       <c r="F80" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -18900,7 +18932,7 @@
         <v>615</v>
       </c>
       <c r="C81" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="D81" t="s">
         <v>624</v>
@@ -18909,10 +18941,10 @@
         <v>624</v>
       </c>
       <c r="F81" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -18929,10 +18961,10 @@
         <v>618</v>
       </c>
       <c r="F82" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -18940,7 +18972,7 @@
         <v>615</v>
       </c>
       <c r="C83" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="D83" t="s">
         <v>621</v>
@@ -18949,10 +18981,10 @@
         <v>621</v>
       </c>
       <c r="F83" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -18960,44 +18992,44 @@
         <v>615</v>
       </c>
       <c r="C84" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="D84" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="F84" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>678</v>
       </c>
       <c r="B85" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="C85" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="D85" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="F85" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>678</v>
       </c>
       <c r="B86" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="C86" t="s">
         <v>591</v>
@@ -19009,10 +19041,10 @@
         <v>592</v>
       </c>
       <c r="F86" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -19029,10 +19061,10 @@
         <v>598</v>
       </c>
       <c r="F87" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -19040,7 +19072,7 @@
         <v>595</v>
       </c>
       <c r="C88" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="D88" t="s">
         <v>601</v>
@@ -19049,38 +19081,38 @@
         <v>601</v>
       </c>
       <c r="F88" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>678</v>
       </c>
       <c r="B89" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="C89" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="D89" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="F89" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>678</v>
       </c>
       <c r="B90" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="C90" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="D90" t="s">
         <v>570</v>
@@ -19089,18 +19121,18 @@
         <v>570</v>
       </c>
       <c r="F90" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>678</v>
       </c>
       <c r="B91" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="C91" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="D91" t="s">
         <v>577</v>
@@ -19109,18 +19141,18 @@
         <v>577</v>
       </c>
       <c r="F91" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>678</v>
       </c>
       <c r="B92" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="C92" t="s">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="D92" t="s">
         <v>581</v>
@@ -19129,30 +19161,30 @@
         <v>581</v>
       </c>
       <c r="F92" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>678</v>
       </c>
       <c r="B93" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="C93" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="D93" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="F93" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -19160,7 +19192,7 @@
         <v>682</v>
       </c>
       <c r="C94" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D94" t="s">
         <v>685</v>
@@ -19169,18 +19201,18 @@
         <v>685</v>
       </c>
       <c r="F94" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>678</v>
       </c>
       <c r="B95" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="C95" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="D95" t="s">
         <v>585</v>
@@ -19189,18 +19221,18 @@
         <v>585</v>
       </c>
       <c r="F95" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>678</v>
       </c>
       <c r="B96" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="C96" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="D96" t="s">
         <v>772</v>
@@ -19209,10 +19241,10 @@
         <v>772</v>
       </c>
       <c r="F96" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -19220,7 +19252,7 @@
         <v>747</v>
       </c>
       <c r="C97" t="s">
-        <v>1248</v>
+        <v>1258</v>
       </c>
       <c r="D97" t="s">
         <v>753</v>
@@ -19229,10 +19261,10 @@
         <v>753</v>
       </c>
       <c r="F97" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -19240,19 +19272,19 @@
         <v>747</v>
       </c>
       <c r="C98" t="s">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="D98" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="F98" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -19260,19 +19292,19 @@
         <v>747</v>
       </c>
       <c r="C99" t="s">
-        <v>1253</v>
+        <v>1263</v>
       </c>
       <c r="D99" t="s">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="F99" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -19280,7 +19312,7 @@
         <v>747</v>
       </c>
       <c r="C100" t="s">
-        <v>1256</v>
+        <v>1266</v>
       </c>
       <c r="D100" t="s">
         <v>750</v>
@@ -19289,30 +19321,30 @@
         <v>750</v>
       </c>
       <c r="F100" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>678</v>
       </c>
       <c r="B101" t="s">
-        <v>1258</v>
+        <v>1268</v>
       </c>
       <c r="C101" t="s">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="D101" t="s">
-        <v>1260</v>
+        <v>1270</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>1260</v>
+        <v>1270</v>
       </c>
       <c r="F101" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -19320,19 +19352,19 @@
         <v>724</v>
       </c>
       <c r="C102" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
       <c r="D102" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
       <c r="F102" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -19340,19 +19372,19 @@
         <v>724</v>
       </c>
       <c r="C103" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="D103" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="F103" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>678</v>
       </c>
@@ -19360,19 +19392,19 @@
         <v>724</v>
       </c>
       <c r="C104" t="s">
-        <v>1268</v>
+        <v>1278</v>
       </c>
       <c r="D104" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="F104" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>678</v>
       </c>
@@ -19380,16 +19412,16 @@
         <v>724</v>
       </c>
       <c r="C105" t="s">
-        <v>1271</v>
+        <v>1281</v>
       </c>
       <c r="D105" t="s">
-        <v>1272</v>
+        <v>1282</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>1272</v>
+        <v>1282</v>
       </c>
       <c r="F105" t="s">
-        <v>1273</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
@@ -19407,7 +19439,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -19416,7 +19448,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -19433,148 +19465,148 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1">
       <c r="A2" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="C2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
       <c r="D2" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
       <c r="E2" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.1" customHeight="1">
       <c r="A3" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="B3" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="C3" t="s">
-        <v>1278</v>
+        <v>1288</v>
       </c>
       <c r="D3" t="s">
-        <v>1278</v>
+        <v>1288</v>
       </c>
       <c r="E3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.1" customHeight="1">
       <c r="A4" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="B4" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="C4" t="s">
-        <v>1280</v>
+        <v>1290</v>
       </c>
       <c r="D4" t="s">
-        <v>1280</v>
+        <v>1290</v>
       </c>
       <c r="E4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.1" customHeight="1">
       <c r="A5" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="B5" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="C5" t="s">
-        <v>1282</v>
+        <v>1292</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>1292</v>
       </c>
       <c r="E5" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.1" customHeight="1">
       <c r="A6" t="s">
         <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="C6" t="s">
         <v>443</v>
       </c>
       <c r="D6" t="s">
-        <v>1285</v>
+        <v>1295</v>
       </c>
       <c r="E6" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.1" customHeight="1">
       <c r="A7" t="s">
         <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="C7" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="D7" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="E7" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.1" customHeight="1">
       <c r="A8" t="s">
         <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="C8" t="s">
         <v>447</v>
       </c>
       <c r="D8" t="s">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="E8" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.1" customHeight="1">
       <c r="A9" t="s">
         <v>447</v>
       </c>
       <c r="B9" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="C9" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="D9" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="E9" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.1" customHeight="1">
       <c r="A10" t="s">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="B10" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -19596,6 +19628,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101008C61ABF427BAFD4AB8FC7AC0B8F03B78" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="126932e3ea0dc9a6b71e3081ceb06a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5fa53ca4-5b3b-4f89-b0af-5365934cd782" xmlns:ns4="17762964-7e53-4590-9354-410c34f1e00e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="506a3d50c40863226972d677e07e387d" ns3:_="" ns4:_="">
     <xsd:import namespace="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
@@ -19812,52 +19850,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
-    <ds:schemaRef ds:uri="17762964-7e53-4590-9354-410c34f1e00e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="17762964-7e53-4590-9354-410c34f1e00e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}"/>
 </file>
--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svelantbruksuniversitet-my.sharepoint.com/personal/edmond_sacre_slu_se/Documents/SWOC/wiosym/shiny_data_upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{04F64413-0317-4B4D-8B62-AB2D59493FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAF921E-F592-48FF-8F92-C4B864D15A4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310964D-B5DB-4D37-9D8F-AA123A947E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" firstSheet="6" activeTab="6" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" firstSheet="6" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1310">
   <si>
     <t>location_name</t>
   </si>
@@ -4007,13 +4007,22 @@
   </si>
   <si>
     <t>Additional utilities</t>
+  </si>
+  <si>
+    <t>wfp</t>
+  </si>
+  <si>
+    <t>Global Airports — WFP GeoNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN World Food Programme </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4750,49 +4759,49 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Dekorfärg6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Rubrik" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Rubrik 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Rubrik 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Rubrik 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Rubrik 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -5221,13 +5230,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5267,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5307,7 +5316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5323,7 +5332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5361,13 +5370,13 @@
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE(providers_master!A2, " (",providers_master!B2, ")")</f>
         <v>No provider selected (none)</v>
@@ -5385,7 +5394,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE(providers_master!A3, " (",providers_master!B3, ")")</f>
         <v>Africa Regional Data Cube (ardc)</v>
@@ -5395,7 +5404,7 @@
         <v>ardc</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE(providers_master!A4, " (",providers_master!B4, ")")</f>
         <v>African Development Bank (afdb)</v>
@@ -5405,7 +5414,7 @@
         <v>afdb</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
         <v>Allen Coral Atlas (allen)</v>
@@ -5415,7 +5424,7 @@
         <v>allen</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
         <v>Association of African Maritime Administrations (aama)</v>
@@ -5425,7 +5434,7 @@
         <v>aama</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
         <v>Belgian universities (biooracle)</v>
@@ -5435,7 +5444,7 @@
         <v>biooracle</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
         <v>Blue Habitats (bluehab)</v>
@@ -5445,7 +5454,7 @@
         <v>bluehab</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>CONCATENATE(providers_master!A9, " (",providers_master!B9, ")")</f>
         <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
@@ -5455,7 +5464,7 @@
         <v>cefas</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
         <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
@@ -5465,7 +5474,7 @@
         <v>cosmar</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
         <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
@@ -5475,7 +5484,7 @@
         <v>cordio</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
         <v>Community Fishery Council (ccp)</v>
@@ -5485,7 +5494,7 @@
         <v>ccp</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
         <v>Community Forest Associations (cfas)</v>
@@ -5495,7 +5504,7 @@
         <v>cfas</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
         <v>Conservation International (ci)</v>
@@ -5505,7 +5514,7 @@
         <v>ci</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
         <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
@@ -5515,7 +5524,7 @@
         <v>wio_c</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
         <v>Department of Environmental Affairs of South Africa (deasf)</v>
@@ -5525,7 +5534,7 @@
         <v>deasf</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
         <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
@@ -5535,7 +5544,7 @@
         <v>giz</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CONCATENATE(providers_master!A18, " (",providers_master!B18, ")")</f>
         <v>Digital Earth Africa (dea)</v>
@@ -5545,7 +5554,7 @@
         <v>dea</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
         <v>DIVA Gis (diva)</v>
@@ -5555,7 +5564,7 @@
         <v>diva</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
         <v>East African Community (eac)</v>
@@ -5565,7 +5574,7 @@
         <v>eac</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
         <v>East African Wildlife Society (eawls)</v>
@@ -5575,7 +5584,7 @@
         <v>eawls</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
         <v>ESRI (esri)</v>
@@ -5585,7 +5594,7 @@
         <v>esri</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
         <v>EU Copernicus (copernicus)</v>
@@ -5595,7 +5604,7 @@
         <v>copernicus</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
         <v>EU Forest Resources and Carbon Emissions (iforce)</v>
@@ -5605,7 +5614,7 @@
         <v>iforce</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
         <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
@@ -5615,7 +5624,7 @@
         <v>jrcdc</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
         <v>Food and Agricultural Organisation of the United Nations (fao)</v>
@@ -5625,7 +5634,7 @@
         <v>fao</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
         <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
@@ -5635,7 +5644,7 @@
         <v>fari</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
         <v>General Bathymetric Chart of the Oceans (gebco)</v>
@@ -5645,7 +5654,7 @@
         <v>gebco</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
         <v>Geological Survey of Denmark and Greenland (geus)</v>
@@ -5655,7 +5664,7 @@
         <v>geus</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
         <v>Global Biodiversity Information Facility (gbif)</v>
@@ -5665,7 +5674,7 @@
         <v>gbif</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
         <v>Global Environment Facility Trust Fund (gef)</v>
@@ -5675,7 +5684,7 @@
         <v>gef</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
         <v>Global Environmental Flows Network (eflownet)</v>
@@ -5685,7 +5694,7 @@
         <v>eflownet</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
         <v>Global Fishing Watch (gfw)</v>
@@ -5695,7 +5704,7 @@
         <v>gfw</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
         <v>Global Ocean Data Analysis Project (glodap)</v>
@@ -5705,7 +5714,7 @@
         <v>glodap</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
         <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
@@ -5715,7 +5724,7 @@
         <v>unep_gpa</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
         <v>Grid Arendal (grida)</v>
@@ -5725,7 +5734,7 @@
         <v>grida</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
         <v>Group on Earth Observations (geo)</v>
@@ -5735,7 +5744,7 @@
         <v>geo</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
         <v>Indian Ocean Tuna Commission (iotc)</v>
@@ -5745,7 +5754,7 @@
         <v>iotc</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
         <v>Institute of Marine Sciences in Zanzibar (ims)</v>
@@ -5755,7 +5764,7 @@
         <v>ims</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
         <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
@@ -5765,7 +5774,7 @@
         <v>ioc_unesco</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
         <v>International Geosphere-Biosphere Programme (igbp)</v>
@@ -5775,7 +5784,7 @@
         <v>igbp</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
         <v>International Seabed Authority (isa)</v>
@@ -5785,7 +5794,7 @@
         <v>isa</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
         <v>International Submarine Cable Protection Committe (iscpc)</v>
@@ -5795,7 +5804,7 @@
         <v>iscpc</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
         <v>International Union for the Conservation of Nature (iucn)</v>
@@ -5805,7 +5814,7 @@
         <v>iucn</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
         <v>Kenya Forest Service (kfs)</v>
@@ -5815,7 +5824,7 @@
         <v>kfs</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
         <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
@@ -5825,7 +5834,7 @@
         <v>kmfri</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
         <v>Literature (lit)</v>
@@ -5835,7 +5844,7 @@
         <v>lit</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
         <v>Locally Managed Marine Area (lmma)</v>
@@ -5845,7 +5854,7 @@
         <v>lmma</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
         <v>Mangrove Action Project (map)</v>
@@ -5855,7 +5864,7 @@
         <v>map</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
         <v>Marine Protection Atlas (mpatlas)</v>
@@ -5865,7 +5874,7 @@
         <v>mpatlas</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
         <v>Marine Regions organization (mro)</v>
@@ -5875,7 +5884,7 @@
         <v>mro</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
         <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
@@ -5885,7 +5894,7 @@
         <v>maspawio</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
         <v>Marine Traffic (marinetraffic)</v>
@@ -5895,7 +5904,7 @@
         <v>marinetraffic</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
         <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
@@ -5905,7 +5914,7 @@
         <v>mcbff</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
         <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
@@ -5915,7 +5924,7 @@
         <v>mendu</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
         <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
@@ -5925,7 +5934,7 @@
         <v>menrts</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
         <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
@@ -5935,7 +5944,7 @@
         <v>mlerdm</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
         <v>NASA Earth Observations (nasa)</v>
@@ -5945,7 +5954,7 @@
         <v>nasa</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
         <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
@@ -5955,7 +5964,7 @@
         <v>dnef</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
         <v>National Environment Management Authority of Kenya (nema)</v>
@@ -5965,7 +5974,7 @@
         <v>nema</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
         <v>National Environment Management Council of Tanzania (nemc)</v>
@@ -5975,7 +5984,7 @@
         <v>nemc</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
         <v>Natural Earth (naturalearth)</v>
@@ -5985,7 +5994,7 @@
         <v>naturalearth</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
         <v>Nelson Mandela University (nmu)</v>
@@ -5995,7 +6004,7 @@
         <v>nmu</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
         <v>New Partnership for Africa’s Development (nepad)</v>
@@ -6005,7 +6014,7 @@
         <v>nepad</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
         <v>NMU Institute for Coastal and Marine Research (cmr)</v>
@@ -6015,7 +6024,7 @@
         <v>cmr</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
         <v>Northern Mozambique Channel initiative (nmci)</v>
@@ -6025,7 +6034,7 @@
         <v>nmci</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
         <v>Ocean Biogeographic Information System (obis)</v>
@@ -6035,7 +6044,7 @@
         <v>obis</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
         <v>OceanSITES (ocsi)</v>
@@ -6045,7 +6054,7 @@
         <v>ocsi</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
         <v>Open Street Map (osm)</v>
@@ -6055,7 +6064,7 @@
         <v>osm</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
         <v>Orbcomm Satellite AIS (orbcom)</v>
@@ -6065,7 +6074,7 @@
         <v>orbcom</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
         <v>ReefBase (reba)</v>
@@ -6075,7 +6084,7 @@
         <v>reba</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
         <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
@@ -6085,7 +6094,7 @@
         <v>ioc_recomap</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
         <v>Regional Fisheries Management Organization (rfmo)</v>
@@ -6095,7 +6104,7 @@
         <v>rfmo</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
         <v>River Basin Organizations (rbo)</v>
@@ -6105,7 +6114,7 @@
         <v>rbo</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
         <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
@@ -6115,7 +6124,7 @@
         <v>seyccat</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
         <v>Shared Water Course Institution (swci)</v>
@@ -6125,7 +6134,7 @@
         <v>swci</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
         <v>Somalia Water and Land Information Management (fao_swalim)</v>
@@ -6135,7 +6144,7 @@
         <v>fao_swalim</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
         <v>Somalia water and land information management (swalim)</v>
@@ -6145,7 +6154,7 @@
         <v>swalim</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
         <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
@@ -6155,7 +6164,7 @@
         <v>swiofp</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
         <v>Southern African Development Community (sadc)</v>
@@ -6165,7 +6174,7 @@
         <v>sadc</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
         <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
@@ -6175,7 +6184,7 @@
         <v>swamp</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
         <v>Swedish International Water Institute (siwi)</v>
@@ -6185,7 +6194,7 @@
         <v>siwi</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
         <v>TeleGeography (telgeo)</v>
@@ -6195,7 +6204,7 @@
         <v>telgeo</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
         <v>The Knowledge Network for Biocomplexity (knb)</v>
@@ -6205,7 +6214,7 @@
         <v>knb</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
         <v>The Nature Conservancy (tnc)</v>
@@ -6215,7 +6224,7 @@
         <v>tnc</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
         <v>The Ocean Cleanup project (ocp)</v>
@@ -6225,7 +6234,7 @@
         <v>ocp</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
         <v>The United Nations Support Office in Somalia (unsos)</v>
@@ -6235,7 +6244,7 @@
         <v>unsos</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
         <v>U.S. Geological Survey (usgs)</v>
@@ -6245,7 +6254,7 @@
         <v>usgs</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
         <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
@@ -6255,7 +6264,7 @@
         <v>noaa</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
         <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
@@ -6265,7 +6274,7 @@
         <v>wcmc</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
         <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
@@ -6275,7 +6284,7 @@
         <v>unesco_fust</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
         <v>United Nations Agency for Human Settlements (unhabitat)</v>
@@ -6285,7 +6294,7 @@
         <v>unhabitat</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
         <v>United Nations Development Programme (undp)</v>
@@ -6295,7 +6304,7 @@
         <v>undp</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
         <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
@@ -6305,7 +6314,7 @@
         <v>unesco</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
         <v>United Nations Environment Programme (unep)</v>
@@ -6315,7 +6324,7 @@
         <v>unep</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
         <v>United Nations Framework Convention on Climate Change (unfccc)</v>
@@ -6325,7 +6334,7 @@
         <v>unfccc</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
         <v>United Nations Industrial Development Organisation (unido)</v>
@@ -6335,7 +6344,7 @@
         <v>unido</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
         <v>United Nations Office for Project Services (unops)</v>
@@ -6345,7 +6354,7 @@
         <v>unops</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
         <v>United States Agency for International Development (usaid)</v>
@@ -6355,7 +6364,7 @@
         <v>usaid</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
         <v>United States Forest Service (usfs)</v>
@@ -6365,7 +6374,7 @@
         <v>usfs</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
         <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
@@ -6375,7 +6384,7 @@
         <v>iucn-wani</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
         <v>Western Indian Ocean Mangrove Network (wiomn)</v>
@@ -6385,7 +6394,7 @@
         <v>wiomn</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
         <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
@@ -6395,7 +6404,7 @@
         <v>wiomer</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
         <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
@@ -6405,7 +6414,7 @@
         <v>wiomsa</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
         <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
@@ -6415,7 +6424,7 @@
         <v>wiosap</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
         <v>Wetlands International (wi)</v>
@@ -6425,7 +6434,7 @@
         <v>wi</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
         <v>Wildlife Conservation Society (wcs)</v>
@@ -6435,7 +6444,7 @@
         <v>wcs</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
         <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
@@ -6445,7 +6454,7 @@
         <v>wiolab</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
         <v>VLIZ - Flanders Marine Institute (vliz)</v>
@@ -6455,7 +6464,7 @@
         <v>vliz</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
         <v>World Bank (wb)</v>
@@ -6465,7 +6474,7 @@
         <v>wb</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
         <v>World Database on Protected Areas (wdpa)</v>
@@ -6475,7 +6484,7 @@
         <v>wdpa</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
         <v>World Environment Center (wec)</v>
@@ -6485,7 +6494,7 @@
         <v>wec</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
         <v>World Resources Institute (wri)</v>
@@ -6495,7 +6504,7 @@
         <v>wri</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
         <v>World Wide Fund for Nature (wwf)</v>
@@ -6505,7 +6514,7 @@
         <v>wwf</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
         <v>UN Biodiversity Lab (unbl)</v>
@@ -6515,7 +6524,7 @@
         <v>unbl</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
         <v>Norsk Polarinstitutt (npi)</v>
@@ -6538,17 +6547,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1">
+    <row r="1" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1">
+    <row r="2" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>folders_master!A2</f>
         <v>adm</v>
@@ -6587,7 +6596,7 @@
         <v>Projections (zones, definitions)</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1">
+    <row r="3" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>folders_master!A3</f>
         <v>adm</v>
@@ -6609,7 +6618,7 @@
         <v>Analytical grid</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1">
+    <row r="4" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>folders_master!A4</f>
         <v>adm</v>
@@ -6631,7 +6640,7 @@
         <v>BOUNDARY (administrative)</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1">
+    <row r="5" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>folders_master!A5</f>
         <v>adm</v>
@@ -6653,7 +6662,7 @@
         <v>Maritime boundary (e.g. EEZ, ABNJ)</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1">
+    <row r="6" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>folders_master!A6</f>
         <v>adm</v>
@@ -6675,7 +6684,7 @@
         <v xml:space="preserve">Marine boundary (e.g. definition of marine area) </v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1">
+    <row r="7" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>folders_master!A7</f>
         <v>adm</v>
@@ -6697,7 +6706,7 @@
         <v>MANAGEMENT AREA</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1">
+    <row r="8" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>folders_master!A8</f>
         <v>adm</v>
@@ -6719,7 +6728,7 @@
         <v>Locally Managed Area (e.g. BMU, CCP)</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1">
+    <row r="9" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>folders_master!A9</f>
         <v>adm</v>
@@ -6741,7 +6750,7 @@
         <v>Marine spatial plan</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1">
+    <row r="10" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>folders_master!A10</f>
         <v>adm</v>
@@ -6763,7 +6772,7 @@
         <v>Shipping area (e.g. shipping lane, anchorage)</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1">
+    <row r="11" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>folders_master!A11</f>
         <v>adm</v>
@@ -6785,7 +6794,7 @@
         <v>Protected area (e.g. marine reserve, restricted area)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1">
+    <row r="12" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>folders_master!A12</f>
         <v>adm</v>
@@ -6807,7 +6816,7 @@
         <v>Fishing area (e.g. fishery management areas)</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1">
+    <row r="13" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>folders_master!A13</f>
         <v>adm</v>
@@ -6829,7 +6838,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1">
+    <row r="14" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>folders_master!A14</f>
         <v>env</v>
@@ -6851,7 +6860,7 @@
         <v>Topography (e.g. bathymetry, elevation)</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1">
+    <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>folders_master!A15</f>
         <v>env</v>
@@ -6873,7 +6882,7 @@
         <v>Shoreline (e.g. land/sea deliniations)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1">
+    <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>folders_master!A16</f>
         <v>env</v>
@@ -6895,7 +6904,7 @@
         <v>Water body (e.g. fresh, estuarine, marine)</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1">
+    <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>folders_master!A17</f>
         <v>env</v>
@@ -6917,7 +6926,7 @@
         <v>GEOLOGY</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1">
+    <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>folders_master!A18</f>
         <v>env</v>
@@ -6939,7 +6948,7 @@
         <v>Geomorphology</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1">
+    <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>folders_master!A19</f>
         <v>env</v>
@@ -6961,7 +6970,7 @@
         <v>Substrate</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1">
+    <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>folders_master!A20</f>
         <v>env</v>
@@ -6983,7 +6992,7 @@
         <v>OCEANOGRAPHY</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1">
+    <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>folders_master!A21</f>
         <v>env</v>
@@ -7005,7 +7014,7 @@
         <v>Ocean chemistry (e.g. temperature, salinity, oxygen)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1">
+    <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>folders_master!A22</f>
         <v>env</v>
@@ -7027,7 +7036,7 @@
         <v>Ocean zones (e.g. photic, open ocean, climate zone)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1">
+    <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>folders_master!A23</f>
         <v>env</v>
@@ -7049,7 +7058,7 @@
         <v>Ocean energy (e.g. currents, waves)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1">
+    <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>folders_master!A24</f>
         <v>env</v>
@@ -7071,7 +7080,7 @@
         <v>Sea level and tides</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1">
+    <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>folders_master!A25</f>
         <v>env</v>
@@ -7093,7 +7102,7 @@
         <v>HYDROLOGY</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1">
+    <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>folders_master!A26</f>
         <v>env</v>
@@ -7115,7 +7124,7 @@
         <v>Surface waters (e.g. streams, watersheds)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1">
+    <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>folders_master!A27</f>
         <v>env</v>
@@ -7137,7 +7146,7 @@
         <v>Ground water (e.g. aquifers)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1">
+    <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>folders_master!A28</f>
         <v>env</v>
@@ -7159,7 +7168,7 @@
         <v>Rainfall</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1">
+    <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>folders_master!A29</f>
         <v>env</v>
@@ -7181,7 +7190,7 @@
         <v>LAND COVER</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1">
+    <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>folders_master!A30</f>
         <v>env</v>
@@ -7203,7 +7212,7 @@
         <v>Demography</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1">
+    <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>folders_master!A31</f>
         <v>env</v>
@@ -7225,7 +7234,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1">
+    <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>folders_master!A32</f>
         <v>act</v>
@@ -7247,7 +7256,7 @@
         <v>SHIPPING (e.g. AIS data with movements, anchoring)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1">
+    <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>folders_master!A33</f>
         <v>act</v>
@@ -7269,7 +7278,7 @@
         <v>Ports</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1">
+    <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>folders_master!A34</f>
         <v>act</v>
@@ -7291,7 +7300,7 @@
         <v>Dredging</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1">
+    <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>folders_master!A35</f>
         <v>act</v>
@@ -7313,7 +7322,7 @@
         <v>Dumping (sea)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1">
+    <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>folders_master!A36</f>
         <v>act</v>
@@ -7335,7 +7344,7 @@
         <v>MILITARY</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1">
+    <row r="37" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>folders_master!A37</f>
         <v>act</v>
@@ -7357,7 +7366,7 @@
         <v>MARINE INFRASTRUCTURE</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1">
+    <row r="38" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>folders_master!A38</f>
         <v>act</v>
@@ -7379,7 +7388,7 @@
         <v>Submarine cables (e.g. telecom, power cables)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1">
+    <row r="39" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>folders_master!A39</f>
         <v>act</v>
@@ -7401,7 +7410,7 @@
         <v>ENERGY</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1">
+    <row r="40" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>folders_master!A40</f>
         <v>act</v>
@@ -7423,7 +7432,7 @@
         <v>Oil and gas (e.g. prospecting, extraction, infrastructure)</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1">
+    <row r="41" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>folders_master!A41</f>
         <v>act</v>
@@ -7445,7 +7454,7 @@
         <v>Renewable energy (e.g. licenced areas, infrastructure)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1">
+    <row r="42" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>folders_master!A42</f>
         <v>act</v>
@@ -7467,7 +7476,7 @@
         <v>Seabed mining</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1">
+    <row r="43" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>folders_master!A43</f>
         <v>act</v>
@@ -7489,7 +7498,7 @@
         <v>Acoustic surveys (e.g. seismic)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1">
+    <row r="44" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>folders_master!A44</f>
         <v>act</v>
@@ -7511,7 +7520,7 @@
         <v>Research</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1">
+    <row r="45" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>folders_master!A45</f>
         <v>act</v>
@@ -7533,7 +7542,7 @@
         <v>AQUACULTURE</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1">
+    <row r="46" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>folders_master!A46</f>
         <v>act</v>
@@ -7555,7 +7564,7 @@
         <v>Mariculture</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1">
+    <row r="47" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>folders_master!A47</f>
         <v>act</v>
@@ -7577,7 +7586,7 @@
         <v>Algae farming</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1">
+    <row r="48" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>folders_master!A48</f>
         <v>act</v>
@@ -7599,7 +7608,7 @@
         <v>FISHING</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1">
+    <row r="49" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>folders_master!A49</f>
         <v>act</v>
@@ -7621,7 +7630,7 @@
         <v>Commercial fishing</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1">
+    <row r="50" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>folders_master!A50</f>
         <v>act</v>
@@ -7643,7 +7652,7 @@
         <v>Artisanal fishing</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1">
+    <row r="51" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>folders_master!A51</f>
         <v>act</v>
@@ -7665,7 +7674,7 @@
         <v>Recreational fishing</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+    <row r="52" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>folders_master!A52</f>
         <v>act</v>
@@ -7687,7 +7696,7 @@
         <v>RECREATION</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1">
+    <row r="53" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>folders_master!A53</f>
         <v>act</v>
@@ -7709,7 +7718,7 @@
         <v>Tourism</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1">
+    <row r="54" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>folders_master!A54</f>
         <v>act</v>
@@ -7731,7 +7740,7 @@
         <v>Diving and snorkelling</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1">
+    <row r="55" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>folders_master!A55</f>
         <v>act</v>
@@ -7753,7 +7762,7 @@
         <v>Recreational boating (e.g. marinas, anchoring sites)</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1">
+    <row r="56" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>folders_master!A56</f>
         <v>act</v>
@@ -7775,7 +7784,7 @@
         <v>Shark control (e.g. nets for beach protection)</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1">
+    <row r="57" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>folders_master!A57</f>
         <v>act</v>
@@ -7797,7 +7806,7 @@
         <v>Other marine activity</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1">
+    <row r="58" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>folders_master!A58</f>
         <v>act</v>
@@ -7819,7 +7828,7 @@
         <v>COASTAL DEVELOPMENT</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1">
+    <row r="59" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>folders_master!A59</f>
         <v>act</v>
@@ -7841,7 +7850,7 @@
         <v>Coastal infrastructure</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1">
+    <row r="60" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>folders_master!A60</f>
         <v>act</v>
@@ -7863,7 +7872,7 @@
         <v>Piers and docks</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1">
+    <row r="61" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>folders_master!A61</f>
         <v>act</v>
@@ -7885,7 +7894,7 @@
         <v>Land reclamation</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1">
+    <row r="62" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>folders_master!A62</f>
         <v>act</v>
@@ -7907,7 +7916,7 @@
         <v>Coastal mining (e.g. sand extraction)</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1">
+    <row r="63" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>folders_master!A63</f>
         <v>act</v>
@@ -7929,7 +7938,7 @@
         <v>LAND BASED ACTIVITY</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1">
+    <row r="64" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>folders_master!A64</f>
         <v>act</v>
@@ -7951,7 +7960,7 @@
         <v>Agriculture</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1">
+    <row r="65" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>folders_master!A65</f>
         <v>act</v>
@@ -7973,7 +7982,7 @@
         <v>Forestry</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1">
+    <row r="66" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>folders_master!A66</f>
         <v>act</v>
@@ -7995,7 +8004,7 @@
         <v>Mining (land)</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1">
+    <row r="67" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>folders_master!A67</f>
         <v>act</v>
@@ -8017,7 +8026,7 @@
         <v>Urban development</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1">
+    <row r="68" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>folders_master!A68</f>
         <v>act</v>
@@ -8039,7 +8048,7 @@
         <v>Dumping (land)</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1">
+    <row r="69" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>folders_master!A69</f>
         <v>act</v>
@@ -8061,7 +8070,7 @@
         <v>Industrial activity (land)</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1">
+    <row r="70" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>folders_master!A70</f>
         <v>act</v>
@@ -8083,7 +8092,7 @@
         <v>Energy production (land)</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1">
+    <row r="71" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>folders_master!A71</f>
         <v>act</v>
@@ -8105,7 +8114,7 @@
         <v>Waste water (e.g. treatment plants, disposal)</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1">
+    <row r="72" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>folders_master!A72</f>
         <v>act</v>
@@ -8127,7 +8136,7 @@
         <v>Other land activity</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1">
+    <row r="73" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>folders_master!A73</f>
         <v>pres</v>
@@ -8149,7 +8158,7 @@
         <v>BIOLOGICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1">
+    <row r="74" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>folders_master!A74</f>
         <v>pres</v>
@@ -8171,7 +8180,7 @@
         <v>Invasive species</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1">
+    <row r="75" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>folders_master!A75</f>
         <v>pres</v>
@@ -8193,7 +8202,7 @@
         <v>Pathogens</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1">
+    <row r="76" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>folders_master!A76</f>
         <v>pres</v>
@@ -8215,7 +8224,7 @@
         <v>Extraction of species</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1">
+    <row r="77" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>folders_master!A77</f>
         <v>pres</v>
@@ -8237,7 +8246,7 @@
         <v>Collision (e.g. ship strikes)</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1">
+    <row r="78" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>folders_master!A78</f>
         <v>pres</v>
@@ -8259,7 +8268,7 @@
         <v>PHYSICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1">
+    <row r="79" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>folders_master!A79</f>
         <v>pres</v>
@@ -8281,7 +8290,7 @@
         <v>seabed disturbance (e.g. abrasion, removal)</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1">
+    <row r="80" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>folders_master!A80</f>
         <v>pres</v>
@@ -8303,7 +8312,7 @@
         <v>Barriers to species movements</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1">
+    <row r="81" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>folders_master!A81</f>
         <v>pres</v>
@@ -8325,7 +8334,7 @@
         <v>ENERGY CHANGE (excluding climate related)</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1">
+    <row r="82" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>folders_master!A82</f>
         <v>pres</v>
@@ -8347,7 +8356,7 @@
         <v>Underwater noise</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1">
+    <row r="83" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>folders_master!A83</f>
         <v>pres</v>
@@ -8369,7 +8378,7 @@
         <v>Electromagnetic disturbance</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1">
+    <row r="84" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>folders_master!A84</f>
         <v>pres</v>
@@ -8391,7 +8400,7 @@
         <v>Light change</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1">
+    <row r="85" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>folders_master!A85</f>
         <v>pres</v>
@@ -8413,7 +8422,7 @@
         <v>Water movement changes (waves currents)</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1">
+    <row r="86" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>folders_master!A86</f>
         <v>pres</v>
@@ -8435,7 +8444,7 @@
         <v>CLIMATE CHANGE</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1">
+    <row r="87" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>folders_master!A87</f>
         <v>pres</v>
@@ -8457,7 +8466,7 @@
         <v>Climate change temperature</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1">
+    <row r="88" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>folders_master!A88</f>
         <v>pres</v>
@@ -8479,7 +8488,7 @@
         <v xml:space="preserve">Climate change deoxygenation </v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1">
+    <row r="89" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>folders_master!A89</f>
         <v>pres</v>
@@ -8501,7 +8510,7 @@
         <v>Climate change ocean acidification</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1">
+    <row r="90" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>folders_master!A90</f>
         <v>pres</v>
@@ -8523,7 +8532,7 @@
         <v>Climate change energy (e.g. circulation, waves, storms)</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1">
+    <row r="91" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>folders_master!A91</f>
         <v>pres</v>
@@ -8545,7 +8554,7 @@
         <v>Climate change sea level</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1">
+    <row r="92" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>folders_master!A92</f>
         <v>pres</v>
@@ -8567,7 +8576,7 @@
         <v>Climate coral bleaching (e.g. historical events)</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.1" customHeight="1">
+    <row r="93" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>folders_master!A93</f>
         <v>pres</v>
@@ -8589,7 +8598,7 @@
         <v>POLLUTION</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.1" customHeight="1">
+    <row r="94" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>folders_master!A94</f>
         <v>pres</v>
@@ -8611,7 +8620,7 @@
         <v>Air emissions</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.1" customHeight="1">
+    <row r="95" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>folders_master!A95</f>
         <v>pres</v>
@@ -8633,7 +8642,7 @@
         <v>Oil spill</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.1" customHeight="1">
+    <row r="96" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>folders_master!A96</f>
         <v>pres</v>
@@ -8655,7 +8664,7 @@
         <v>Organic pollution</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.1" customHeight="1">
+    <row r="97" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>folders_master!A97</f>
         <v>pres</v>
@@ -8677,7 +8686,7 @@
         <v>Inorganic pollution</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.1" customHeight="1">
+    <row r="98" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>folders_master!A98</f>
         <v>pres</v>
@@ -8699,7 +8708,7 @@
         <v>Nutrient pollution (e.g. Anthropogenic eutrophication)</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1">
+    <row r="99" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>folders_master!A99</f>
         <v>pres</v>
@@ -8721,7 +8730,7 @@
         <v>Hypoxia</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.1" customHeight="1">
+    <row r="100" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>folders_master!A100</f>
         <v>pres</v>
@@ -8743,7 +8752,7 @@
         <v>Sedimentation</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.1" customHeight="1">
+    <row r="101" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>folders_master!A101</f>
         <v>pres</v>
@@ -8765,7 +8774,7 @@
         <v>Plastic waste</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.1" customHeight="1">
+    <row r="102" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>folders_master!A102</f>
         <v>pres</v>
@@ -8787,7 +8796,7 @@
         <v>Radionuclide</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.1" customHeight="1">
+    <row r="103" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>folders_master!A103</f>
         <v>pres</v>
@@ -8809,7 +8818,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.1" customHeight="1">
+    <row r="104" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>folders_master!A104</f>
         <v>eco</v>
@@ -8831,7 +8840,7 @@
         <v>HABITAT</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.1" customHeight="1">
+    <row r="105" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>folders_master!A105</f>
         <v>eco</v>
@@ -8853,7 +8862,7 @@
         <v>COASTAL HABITAT</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.1" customHeight="1">
+    <row r="106" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>folders_master!A106</f>
         <v>eco</v>
@@ -8875,7 +8884,7 @@
         <v>Shore (e.g. beaches, rocky intertidal)</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.1" customHeight="1">
+    <row r="107" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>folders_master!A107</f>
         <v>eco</v>
@@ -8897,7 +8906,7 @@
         <v>Mudflats (e.g. intertidal flats with deposited mud)</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.1" customHeight="1">
+    <row r="108" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>folders_master!A108</f>
         <v>eco</v>
@@ -8919,7 +8928,7 @@
         <v>Salt marsh</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.1" customHeight="1">
+    <row r="109" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>folders_master!A109</f>
         <v>eco</v>
@@ -8941,7 +8950,7 @@
         <v>Mangrove</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.1" customHeight="1">
+    <row r="110" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>folders_master!A110</f>
         <v>eco</v>
@@ -8963,7 +8972,7 @@
         <v>BENTHIC HABITAT</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.1" customHeight="1">
+    <row r="111" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>folders_master!A111</f>
         <v>eco</v>
@@ -8985,7 +8994,7 @@
         <v>Hard and softbottom</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.1" customHeight="1">
+    <row r="112" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>folders_master!A112</f>
         <v>eco</v>
@@ -9007,7 +9016,7 @@
         <v>Rocky reef</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.1" customHeight="1">
+    <row r="113" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>folders_master!A113</f>
         <v>eco</v>
@@ -9029,7 +9038,7 @@
         <v>Coral (e.g. photic, mesophotic corals)</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.1" customHeight="1">
+    <row r="114" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>folders_master!A114</f>
         <v>eco</v>
@@ -9051,7 +9060,7 @@
         <v>Biogenic reef</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.1" customHeight="1">
+    <row r="115" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>folders_master!A115</f>
         <v>eco</v>
@@ -9073,7 +9082,7 @@
         <v>Mearl bed</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.1" customHeight="1">
+    <row r="116" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>folders_master!A116</f>
         <v>eco</v>
@@ -9095,7 +9104,7 @@
         <v>Submerged vegetation</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.1" customHeight="1">
+    <row r="117" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>folders_master!A117</f>
         <v>eco</v>
@@ -9117,7 +9126,7 @@
         <v>Seagrass</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.1" customHeight="1">
+    <row r="118" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>folders_master!A118</f>
         <v>eco</v>
@@ -9139,7 +9148,7 @@
         <v>Macroalgae</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.1" customHeight="1">
+    <row r="119" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>folders_master!A119</f>
         <v>eco</v>
@@ -9161,7 +9170,7 @@
         <v>DEEP BENTHIC HABITAT (&gt;200m)</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.1" customHeight="1">
+    <row r="120" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>folders_master!A120</f>
         <v>eco</v>
@@ -9183,7 +9192,7 @@
         <v>Cold-water coral (e.g. deep sea corals)</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.1" customHeight="1">
+    <row r="121" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>folders_master!A121</f>
         <v>eco</v>
@@ -9205,7 +9214,7 @@
         <v>Deep rocky reef</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.1" customHeight="1">
+    <row r="122" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>folders_master!A122</f>
         <v>eco</v>
@@ -9227,7 +9236,7 @@
         <v>Deep biogenic reefs</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.1" customHeight="1">
+    <row r="123" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>folders_master!A123</f>
         <v>eco</v>
@@ -9249,7 +9258,7 @@
         <v>Nodules</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.1" customHeight="1">
+    <row r="124" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>folders_master!A124</f>
         <v>eco</v>
@@ -9271,7 +9280,7 @@
         <v>Hydrothermal vents</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.1" customHeight="1">
+    <row r="125" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>folders_master!A125</f>
         <v>eco</v>
@@ -9293,7 +9302,7 @@
         <v>Seamounts</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.1" customHeight="1">
+    <row r="126" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>folders_master!A126</f>
         <v>eco</v>
@@ -9315,7 +9324,7 @@
         <v>PELAGIC HABITAT</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.1" customHeight="1">
+    <row r="127" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>folders_master!A127</f>
         <v>eco</v>
@@ -9337,7 +9346,7 @@
         <v>Phytoplankton</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.1" customHeight="1">
+    <row r="128" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>folders_master!A128</f>
         <v>eco</v>
@@ -9359,7 +9368,7 @@
         <v>Zooplankton</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.1" customHeight="1">
+    <row r="129" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>folders_master!A129</f>
         <v>eco</v>
@@ -9381,7 +9390,7 @@
         <v>Oxygen minimum zone</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.1" customHeight="1">
+    <row r="130" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>folders_master!A130</f>
         <v>eco</v>
@@ -9403,7 +9412,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.1" customHeight="1">
+    <row r="131" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>folders_master!A131</f>
         <v>eco</v>
@@ -9425,7 +9434,7 @@
         <v>SPECIES</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.1" customHeight="1">
+    <row r="132" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>folders_master!A132</f>
         <v>eco</v>
@@ -9447,7 +9456,7 @@
         <v>Threathened species (e.g. IUCN red list)</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.1" customHeight="1">
+    <row r="133" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>folders_master!A133</f>
         <v>eco</v>
@@ -9469,7 +9478,7 @@
         <v>MARINE MAMMALS</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.1" customHeight="1">
+    <row r="134" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>folders_master!A134</f>
         <v>eco</v>
@@ -9491,7 +9500,7 @@
         <v>Whales</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.1" customHeight="1">
+    <row r="135" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>folders_master!A135</f>
         <v>eco</v>
@@ -9513,7 +9522,7 @@
         <v>Baleen whales (e.g. hump-back whale)</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.1" customHeight="1">
+    <row r="136" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>folders_master!A136</f>
         <v>eco</v>
@@ -9535,7 +9544,7 @@
         <v>Toothed whales (e.g. sperm whale)</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.1" customHeight="1">
+    <row r="137" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>folders_master!A137</f>
         <v>eco</v>
@@ -9557,7 +9566,7 @@
         <v>Dolphins and porpoises</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.1" customHeight="1">
+    <row r="138" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>folders_master!A138</f>
         <v>eco</v>
@@ -9579,7 +9588,7 @@
         <v>Seals</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.1" customHeight="1">
+    <row r="139" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>folders_master!A139</f>
         <v>eco</v>
@@ -9601,7 +9610,7 @@
         <v>Sea cows (e.g. dugongs, manatees)</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.1" customHeight="1">
+    <row r="140" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>folders_master!A140</f>
         <v>eco</v>
@@ -9623,7 +9632,7 @@
         <v>Otters and minks</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.1" customHeight="1">
+    <row r="141" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>folders_master!A141</f>
         <v>eco</v>
@@ -9645,7 +9654,7 @@
         <v>BIRDS</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.1" customHeight="1">
+    <row r="142" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>folders_master!A142</f>
         <v>eco</v>
@@ -9667,7 +9676,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.1" customHeight="1">
+    <row r="143" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>folders_master!A143</f>
         <v>eco</v>
@@ -9689,7 +9698,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.1" customHeight="1">
+    <row r="144" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>folders_master!A144</f>
         <v>eco</v>
@@ -9711,7 +9720,7 @@
         <v>REPTILES</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.1" customHeight="1">
+    <row r="145" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>folders_master!A145</f>
         <v>eco</v>
@@ -9733,7 +9742,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.1" customHeight="1">
+    <row r="146" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>folders_master!A146</f>
         <v>eco</v>
@@ -9755,7 +9764,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.1" customHeight="1">
+    <row r="147" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>folders_master!A147</f>
         <v>eco</v>
@@ -9777,7 +9786,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.1" customHeight="1">
+    <row r="148" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>folders_master!A148</f>
         <v>eco</v>
@@ -9799,7 +9808,7 @@
         <v>FISH</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.1" customHeight="1">
+    <row r="149" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>folders_master!A149</f>
         <v>eco</v>
@@ -9821,7 +9830,7 @@
         <v>BONY FISH</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.1" customHeight="1">
+    <row r="150" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>folders_master!A150</f>
         <v>eco</v>
@@ -9843,7 +9852,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.1" customHeight="1">
+    <row r="151" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>folders_master!A151</f>
         <v>eco</v>
@@ -9865,7 +9874,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.1" customHeight="1">
+    <row r="152" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>folders_master!A152</f>
         <v>eco</v>
@@ -9887,7 +9896,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.1" customHeight="1">
+    <row r="153" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>folders_master!A153</f>
         <v>eco</v>
@@ -9909,7 +9918,7 @@
         <v>Demersal fish (e.g. ground fish)</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.1" customHeight="1">
+    <row r="154" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>folders_master!A154</f>
         <v>eco</v>
@@ -9931,7 +9940,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.1" customHeight="1">
+    <row r="155" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>folders_master!A155</f>
         <v>eco</v>
@@ -9953,7 +9962,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.1" customHeight="1">
+    <row r="156" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>folders_master!A156</f>
         <v>eco</v>
@@ -9975,7 +9984,7 @@
         <v>CARTILAGINOUS FISH (e.g. sharks, rays)</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.1" customHeight="1">
+    <row r="157" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>folders_master!A157</f>
         <v>eco</v>
@@ -9997,7 +10006,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.1" customHeight="1">
+    <row r="158" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>folders_master!A158</f>
         <v>eco</v>
@@ -10019,7 +10028,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.1" customHeight="1">
+    <row r="159" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>folders_master!A159</f>
         <v>eco</v>
@@ -10041,7 +10050,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.1" customHeight="1">
+    <row r="160" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>folders_master!A160</f>
         <v>eco</v>
@@ -10063,7 +10072,7 @@
         <v>Chimaera (e.g. ghost sharks)</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.1" customHeight="1">
+    <row r="161" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>folders_master!A161</f>
         <v>eco</v>
@@ -10085,7 +10094,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.1" customHeight="1">
+    <row r="162" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>folders_master!A162</f>
         <v>eco</v>
@@ -10107,7 +10116,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.1" customHeight="1">
+    <row r="163" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>folders_master!A163</f>
         <v>eco</v>
@@ -10129,7 +10138,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.1" customHeight="1">
+    <row r="164" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>folders_master!A164</f>
         <v>eco</v>
@@ -10151,7 +10160,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.1" customHeight="1">
+    <row r="165" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>folders_master!A165</f>
         <v>eco</v>
@@ -10173,7 +10182,7 @@
         <v>INVERTEBRATES</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.1" customHeight="1">
+    <row r="166" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>folders_master!A166</f>
         <v>eco</v>
@@ -10195,7 +10204,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.1" customHeight="1">
+    <row r="167" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>folders_master!A167</f>
         <v>eco</v>
@@ -10217,7 +10226,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.1" customHeight="1">
+    <row r="168" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>folders_master!A168</f>
         <v>eco</v>
@@ -10239,7 +10248,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.1" customHeight="1">
+    <row r="169" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>folders_master!A169</f>
         <v>eco</v>
@@ -10261,7 +10270,7 @@
         <v>Cnidarians (e.g. jellyfish, anemones - corals sort under habitat)</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.1" customHeight="1">
+    <row r="170" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>folders_master!A170</f>
         <v>eco</v>
@@ -10283,7 +10292,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.1" customHeight="1">
+    <row r="171" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>folders_master!A171</f>
         <v>eco</v>
@@ -10305,7 +10314,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.1" customHeight="1">
+    <row r="172" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>folders_master!A172</f>
         <v>eco</v>
@@ -10327,7 +10336,7 @@
         <v>Cephalopods (e.g. octopus, squid)</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.1" customHeight="1">
+    <row r="173" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>folders_master!A173</f>
         <v>eco</v>
@@ -10349,7 +10358,7 @@
         <v>Echinoderms (e.g. sea cucumbers, urchins, starfish)</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.1" customHeight="1">
+    <row r="174" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>folders_master!A174</f>
         <v>eco</v>
@@ -10371,7 +10380,7 @@
         <v>Arthropods (e.g. lobsters, crabs, shrimps)</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.1" customHeight="1">
+    <row r="175" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>folders_master!A175</f>
         <v>eco</v>
@@ -10393,7 +10402,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.1" customHeight="1">
+    <row r="176" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>folders_master!A176</f>
         <v>unknown</v>
@@ -10431,25 +10440,25 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" customWidth="1"/>
+    <col min="10" max="10" width="39.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" customWidth="1"/>
+    <col min="13" max="13" width="22.54296875" customWidth="1"/>
+    <col min="14" max="14" width="23.54296875" customWidth="1"/>
+    <col min="15" max="15" width="23.81640625" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -10499,7 +10508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>folders_master!D2</f>
         <v>projection</v>
@@ -10563,7 +10572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>folders_master!D3</f>
         <v>analytical grid</v>
@@ -10627,7 +10636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>folders_master!D4</f>
         <v>boundary</v>
@@ -10691,7 +10700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>folders_master!D5</f>
         <v>maritime boundary</v>
@@ -10755,7 +10764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>folders_master!D6</f>
         <v>marine boundary</v>
@@ -10819,7 +10828,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>folders_master!D7</f>
         <v>management area</v>
@@ -10883,7 +10892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>folders_master!D8</f>
         <v>locally managed areas</v>
@@ -10947,7 +10956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>folders_master!D9</f>
         <v>marine spatial plan</v>
@@ -11011,7 +11020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>folders_master!D10</f>
         <v>shipping area</v>
@@ -11075,7 +11084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>folders_master!D11</f>
         <v>protected area</v>
@@ -11139,7 +11148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>folders_master!D12</f>
         <v>fishing area</v>
@@ -11197,7 +11206,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>folders_master!D13</f>
         <v>adm other</v>
@@ -11255,7 +11264,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <f>folders_master!D26</f>
         <v>surface waters</v>
@@ -11305,7 +11314,7 @@
         <v>Reptiles</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <f>folders_master!D27</f>
         <v>ground water</v>
@@ -11355,7 +11364,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <f>folders_master!D28</f>
         <v>rainfall</v>
@@ -11405,7 +11414,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <f>folders_master!D29</f>
         <v>land cover</v>
@@ -11447,7 +11456,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <f>folders_master!D30</f>
         <v>demography</v>
@@ -11489,7 +11498,7 @@
         <v>Fish</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <f>folders_master!D31</f>
         <v>env other</v>
@@ -11531,7 +11540,7 @@
         <v>Bony fish</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E20" t="str">
         <f>folders_master!D50</f>
         <v>artisanal fishing</v>
@@ -11565,7 +11574,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E21" t="str">
         <f>folders_master!D51</f>
         <v>recreational fishing</v>
@@ -11599,7 +11608,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E22" t="str">
         <f>folders_master!D52</f>
         <v>recreation</v>
@@ -11633,7 +11642,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E23" t="str">
         <f>folders_master!D53</f>
         <v>tourism</v>
@@ -11667,7 +11676,7 @@
         <v xml:space="preserve">Demersal fish </v>
       </c>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E24" t="str">
         <f>folders_master!D54</f>
         <v>diving snorkelling</v>
@@ -11701,7 +11710,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E25" t="str">
         <f>folders_master!D55</f>
         <v>recreational boating</v>
@@ -11735,7 +11744,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E26" t="str">
         <f>folders_master!D56</f>
         <v>shark control</v>
@@ -11769,7 +11778,7 @@
         <v xml:space="preserve">Cartilaginous fish </v>
       </c>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E27" t="str">
         <f>folders_master!D57</f>
         <v>act other</v>
@@ -11803,7 +11812,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I28" t="str">
         <f>folders_master!D99</f>
         <v>hypoxia</v>
@@ -11829,7 +11838,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I29" t="str">
         <f>folders_master!D100</f>
         <v>sedimentation</v>
@@ -11847,7 +11856,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I30" t="str">
         <f>folders_master!D101</f>
         <v>plastic waste</v>
@@ -11865,7 +11874,7 @@
         <v xml:space="preserve">Chimaera </v>
       </c>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I31" t="str">
         <f>folders_master!D102</f>
         <v>radionuclide</v>
@@ -11883,7 +11892,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I32" t="str">
         <f>folders_master!D103</f>
         <v>pres other</v>
@@ -11901,7 +11910,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M33" t="str">
         <f>folders_master!D163</f>
         <v>manta ray</v>
@@ -11911,7 +11920,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M34" t="str">
         <f>folders_master!D164</f>
         <v>sawfish</v>
@@ -11921,7 +11930,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="35" spans="13:14">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M35" t="str">
         <f>folders_master!D165</f>
         <v>invertebrates</v>
@@ -11931,7 +11940,7 @@
         <v>Invertebrates</v>
       </c>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M36" t="str">
         <f>folders_master!D166</f>
         <v>infauna</v>
@@ -11941,7 +11950,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M37" t="str">
         <f>folders_master!D167</f>
         <v>epifauna</v>
@@ -11951,7 +11960,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M38" t="str">
         <f>folders_master!D168</f>
         <v>marine sponges</v>
@@ -11961,7 +11970,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M39" t="str">
         <f>folders_master!D169</f>
         <v>cnidarians</v>
@@ -11971,7 +11980,7 @@
         <v xml:space="preserve">Cnidarians </v>
       </c>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M40" t="str">
         <f>folders_master!D170</f>
         <v>marine worms</v>
@@ -11981,7 +11990,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M41" t="str">
         <f>folders_master!D171</f>
         <v>bivalves gastropods</v>
@@ -11991,7 +12000,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M42" t="str">
         <f>folders_master!D172</f>
         <v>cephalopods</v>
@@ -12001,7 +12010,7 @@
         <v xml:space="preserve">Cephalopods </v>
       </c>
     </row>
-    <row r="43" spans="13:14">
+    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M43" t="str">
         <f>folders_master!D173</f>
         <v>echinoderms</v>
@@ -12011,7 +12020,7 @@
         <v xml:space="preserve">Echinoderms </v>
       </c>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M44" t="str">
         <f>folders_master!D174</f>
         <v>arthropods</v>
@@ -12021,7 +12030,7 @@
         <v xml:space="preserve">Arthropods </v>
       </c>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M45" t="str">
         <f>folders_master!D175</f>
         <v>spec other</v>
@@ -12041,26 +12050,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="83.1796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="15.95" customHeight="1">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -12083,7 +12092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -12091,7 +12100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1">
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -12118,7 +12127,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1">
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
@@ -12129,7 +12138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1">
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -12146,7 +12155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1">
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
@@ -12157,7 +12166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1">
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
@@ -12180,7 +12189,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1">
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
@@ -12203,7 +12212,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1">
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>104</v>
       </c>
@@ -12226,7 +12235,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1">
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>108</v>
       </c>
@@ -12234,7 +12243,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -12245,7 +12254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1">
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
@@ -12256,7 +12265,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1">
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
@@ -12264,7 +12273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1">
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>117</v>
       </c>
@@ -12275,7 +12284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1">
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -12283,7 +12292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1">
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
@@ -12294,7 +12303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1">
+    <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>123</v>
       </c>
@@ -12302,7 +12311,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1">
+    <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -12325,7 +12334,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1">
+    <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>129</v>
       </c>
@@ -12346,7 +12355,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1">
+    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
@@ -12357,7 +12366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1">
+    <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>136</v>
       </c>
@@ -12368,7 +12377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1">
+    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>138</v>
       </c>
@@ -12391,7 +12400,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1">
+    <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>142</v>
       </c>
@@ -12416,7 +12425,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1">
+    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>147</v>
       </c>
@@ -12439,7 +12448,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1">
+    <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
@@ -12462,7 +12471,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1">
+    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>155</v>
       </c>
@@ -12475,7 +12484,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1">
+    <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>158</v>
       </c>
@@ -12483,7 +12492,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1">
+    <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>160</v>
       </c>
@@ -12506,7 +12515,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1">
+    <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>165</v>
       </c>
@@ -12527,7 +12536,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1">
+    <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>169</v>
       </c>
@@ -12548,7 +12557,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1">
+    <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>173</v>
       </c>
@@ -12567,7 +12576,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1">
+    <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>176</v>
       </c>
@@ -12575,7 +12584,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1">
+    <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>178</v>
       </c>
@@ -12596,7 +12605,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1">
+    <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>182</v>
       </c>
@@ -12617,7 +12626,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="15.95" customHeight="1">
+    <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>186</v>
       </c>
@@ -12628,7 +12637,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.95" customHeight="1">
+    <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>189</v>
       </c>
@@ -12649,7 +12658,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="15.95" customHeight="1">
+    <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>193</v>
       </c>
@@ -12670,7 +12679,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="15.95" customHeight="1">
+    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>197</v>
       </c>
@@ -12681,7 +12690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.95" customHeight="1">
+    <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>199</v>
       </c>
@@ -12689,7 +12698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.95" customHeight="1">
+    <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>201</v>
       </c>
@@ -12700,7 +12709,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.95" customHeight="1">
+    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>204</v>
       </c>
@@ -12708,7 +12717,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.95" customHeight="1">
+    <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>206</v>
       </c>
@@ -12731,7 +12740,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="15.95" customHeight="1">
+    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>211</v>
       </c>
@@ -12752,7 +12761,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" ht="15.95" customHeight="1">
+    <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>215</v>
       </c>
@@ -12770,7 +12779,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.95" customHeight="1">
+    <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>220</v>
       </c>
@@ -12778,7 +12787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.95" customHeight="1">
+    <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>222</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.95" customHeight="1">
+    <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>224</v>
       </c>
@@ -12808,7 +12817,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" ht="15.95" customHeight="1">
+    <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>229</v>
       </c>
@@ -12816,7 +12825,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.95" customHeight="1">
+    <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>231</v>
       </c>
@@ -12827,7 +12836,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.95" customHeight="1">
+    <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>234</v>
       </c>
@@ -12850,7 +12859,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" ht="15.95" customHeight="1">
+    <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>239</v>
       </c>
@@ -12871,7 +12880,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="15.95" customHeight="1">
+    <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>243</v>
       </c>
@@ -12892,7 +12901,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" ht="15.95" customHeight="1">
+    <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>247</v>
       </c>
@@ -12913,7 +12922,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="15.95" customHeight="1">
+    <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>251</v>
       </c>
@@ -12924,7 +12933,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.95" customHeight="1">
+    <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>254</v>
       </c>
@@ -12935,7 +12944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.95" customHeight="1">
+    <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>256</v>
       </c>
@@ -12946,7 +12955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.95" customHeight="1">
+    <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>258</v>
       </c>
@@ -12957,7 +12966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.95" customHeight="1">
+    <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>260</v>
       </c>
@@ -12982,7 +12991,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" ht="15.95" customHeight="1">
+    <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>265</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.95" customHeight="1">
+    <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>267</v>
       </c>
@@ -13004,7 +13013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.95" customHeight="1">
+    <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>269</v>
       </c>
@@ -13015,7 +13024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.95" customHeight="1">
+    <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>271</v>
       </c>
@@ -13038,7 +13047,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" ht="15.95" customHeight="1">
+    <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>275</v>
       </c>
@@ -13049,7 +13058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.95" customHeight="1">
+    <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>277</v>
       </c>
@@ -13057,7 +13066,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.95" customHeight="1">
+    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>279</v>
       </c>
@@ -13071,7 +13080,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.95" customHeight="1">
+    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>281</v>
       </c>
@@ -13079,7 +13088,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.95" customHeight="1">
+    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>283</v>
       </c>
@@ -13102,7 +13111,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" ht="15.95" customHeight="1">
+    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>288</v>
       </c>
@@ -13123,7 +13132,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" ht="15.95" customHeight="1">
+    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>292</v>
       </c>
@@ -13148,7 +13157,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" ht="15.95" customHeight="1">
+    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>297</v>
       </c>
@@ -13169,7 +13178,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" ht="15.95" customHeight="1">
+    <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>301</v>
       </c>
@@ -13190,7 +13199,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" ht="15.95" customHeight="1">
+    <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>305</v>
       </c>
@@ -13201,7 +13210,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>308</v>
       </c>
@@ -13218,7 +13227,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>310</v>
       </c>
@@ -13235,7 +13244,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>312</v>
       </c>
@@ -13254,7 +13263,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>314</v>
       </c>
@@ -13271,7 +13280,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>316</v>
       </c>
@@ -13291,7 +13300,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>321</v>
       </c>
@@ -13310,7 +13319,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>325</v>
       </c>
@@ -13331,7 +13340,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>329</v>
       </c>
@@ -13348,7 +13357,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>331</v>
       </c>
@@ -13365,7 +13374,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>333</v>
       </c>
@@ -13382,7 +13391,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>335</v>
       </c>
@@ -13402,7 +13411,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>340</v>
       </c>
@@ -13420,7 +13429,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>344</v>
       </c>
@@ -13437,7 +13446,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>346</v>
       </c>
@@ -13455,7 +13464,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>350</v>
       </c>
@@ -13475,7 +13484,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
         <v>354</v>
       </c>
@@ -13494,7 +13503,7 @@
       </c>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>358</v>
       </c>
@@ -13514,7 +13523,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>363</v>
       </c>
@@ -13536,7 +13545,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>368</v>
       </c>
@@ -13556,7 +13565,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>373</v>
       </c>
@@ -13575,7 +13584,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>376</v>
       </c>
@@ -13592,7 +13601,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>378</v>
       </c>
@@ -13609,7 +13618,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>380</v>
       </c>
@@ -13626,7 +13635,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>382</v>
       </c>
@@ -13643,7 +13652,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>384</v>
       </c>
@@ -13660,7 +13669,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>386</v>
       </c>
@@ -13677,7 +13686,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>388</v>
       </c>
@@ -13694,7 +13703,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>390</v>
       </c>
@@ -13711,7 +13720,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>392</v>
       </c>
@@ -13730,7 +13739,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>394</v>
       </c>
@@ -13749,7 +13758,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>396</v>
       </c>
@@ -13768,7 +13777,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>398</v>
       </c>
@@ -13787,7 +13796,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>400</v>
       </c>
@@ -13806,7 +13815,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>402</v>
       </c>
@@ -13825,7 +13834,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>404</v>
       </c>
@@ -13848,7 +13857,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>408</v>
       </c>
@@ -13867,7 +13876,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>411</v>
       </c>
@@ -13887,7 +13896,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>415</v>
       </c>
@@ -13910,7 +13919,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>419</v>
       </c>
@@ -13929,7 +13938,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>421</v>
       </c>
@@ -13948,7 +13957,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>423</v>
       </c>
@@ -13970,7 +13979,7 @@
       <c r="G113" s="17"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>428</v>
       </c>
@@ -13992,7 +14001,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="34" t="s">
         <v>433</v>
       </c>
@@ -14017,7 +14026,7 @@
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
     </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1">
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="40" t="s">
         <v>437</v>
       </c>
@@ -14041,6 +14050,20 @@
       <c r="I116" s="35"/>
       <c r="J116" s="35"/>
       <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>1308</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B114 B117:B1048576">
@@ -14110,9 +14133,10 @@
     <hyperlink ref="D110" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
     <hyperlink ref="D69" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
     <hyperlink ref="E69" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
+    <hyperlink ref="D117" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -14124,17 +14148,17 @@
       <selection activeCell="F1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.1" customHeight="1">
+    <row r="1" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -14154,7 +14178,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.1" customHeight="1">
+    <row r="2" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -14174,7 +14198,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1">
+    <row r="3" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -14191,7 +14215,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1">
+    <row r="4" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>441</v>
       </c>
@@ -14211,7 +14235,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1">
+    <row r="5" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -14231,7 +14255,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1">
+    <row r="6" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -14251,7 +14275,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1">
+    <row r="7" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14268,7 +14292,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1">
+    <row r="8" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -14288,7 +14312,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.1" customHeight="1">
+    <row r="9" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -14305,7 +14329,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1">
+    <row r="10" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -14325,7 +14349,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.1" customHeight="1">
+    <row r="11" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>441</v>
       </c>
@@ -14345,7 +14369,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1">
+    <row r="12" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>441</v>
       </c>
@@ -14365,7 +14389,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.1" customHeight="1">
+    <row r="13" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>441</v>
       </c>
@@ -14382,7 +14406,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1">
+    <row r="14" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -14402,7 +14426,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.1" customHeight="1">
+    <row r="15" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -14422,7 +14446,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.1" customHeight="1">
+    <row r="16" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>487</v>
       </c>
@@ -14442,7 +14466,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.1" customHeight="1">
+    <row r="17" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>487</v>
       </c>
@@ -14459,7 +14483,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.1" customHeight="1">
+    <row r="18" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>487</v>
       </c>
@@ -14476,7 +14500,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.1" customHeight="1">
+    <row r="19" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -14493,7 +14517,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.1" customHeight="1">
+    <row r="20" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -14510,7 +14534,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.1" customHeight="1">
+    <row r="21" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -14530,7 +14554,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.1" customHeight="1">
+    <row r="22" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>487</v>
       </c>
@@ -14550,7 +14574,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.1" customHeight="1">
+    <row r="23" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>487</v>
       </c>
@@ -14570,7 +14594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.1" customHeight="1">
+    <row r="24" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>487</v>
       </c>
@@ -14587,7 +14611,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.1" customHeight="1">
+    <row r="25" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -14604,7 +14628,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.1" customHeight="1">
+    <row r="26" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -14624,7 +14648,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.1" customHeight="1">
+    <row r="27" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>487</v>
       </c>
@@ -14644,7 +14668,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.1" customHeight="1">
+    <row r="28" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -14661,7 +14685,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.1" customHeight="1">
+    <row r="29" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>487</v>
       </c>
@@ -14678,7 +14702,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.1" customHeight="1">
+    <row r="30" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>487</v>
       </c>
@@ -14695,7 +14719,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.1" customHeight="1">
+    <row r="31" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -14712,7 +14736,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.1" customHeight="1">
+    <row r="32" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>547</v>
       </c>
@@ -14732,7 +14756,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.1" customHeight="1">
+    <row r="33" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>547</v>
       </c>
@@ -14749,7 +14773,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.1" customHeight="1">
+    <row r="34" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>547</v>
       </c>
@@ -14766,7 +14790,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.1" customHeight="1">
+    <row r="35" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>547</v>
       </c>
@@ -14786,7 +14810,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.1" customHeight="1">
+    <row r="36" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>547</v>
       </c>
@@ -14803,7 +14827,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.1" customHeight="1">
+    <row r="37" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>547</v>
       </c>
@@ -14820,7 +14844,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.1" customHeight="1">
+    <row r="38" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>547</v>
       </c>
@@ -14840,7 +14864,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.1" customHeight="1">
+    <row r="39" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>547</v>
       </c>
@@ -14857,7 +14881,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.1" customHeight="1">
+    <row r="40" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>547</v>
       </c>
@@ -14877,7 +14901,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.1" customHeight="1">
+    <row r="41" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>547</v>
       </c>
@@ -14897,7 +14921,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.1" customHeight="1">
+    <row r="42" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>547</v>
       </c>
@@ -14914,7 +14938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.1" customHeight="1">
+    <row r="43" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -14934,7 +14958,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.1" customHeight="1">
+    <row r="44" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>547</v>
       </c>
@@ -14951,7 +14975,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.1" customHeight="1">
+    <row r="45" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -14968,7 +14992,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.1" customHeight="1">
+    <row r="46" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>547</v>
       </c>
@@ -14985,7 +15009,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.1" customHeight="1">
+    <row r="47" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>547</v>
       </c>
@@ -15002,7 +15026,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.1" customHeight="1">
+    <row r="48" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>547</v>
       </c>
@@ -15019,7 +15043,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.1" customHeight="1">
+    <row r="49" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>547</v>
       </c>
@@ -15036,7 +15060,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.1" customHeight="1">
+    <row r="50" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>547</v>
       </c>
@@ -15053,7 +15077,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.1" customHeight="1">
+    <row r="51" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>547</v>
       </c>
@@ -15070,7 +15094,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.1" customHeight="1">
+    <row r="52" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>547</v>
       </c>
@@ -15087,7 +15111,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.1" customHeight="1">
+    <row r="53" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>547</v>
       </c>
@@ -15104,7 +15128,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.1" customHeight="1">
+    <row r="54" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -15121,7 +15145,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.1" customHeight="1">
+    <row r="55" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>547</v>
       </c>
@@ -15141,7 +15165,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.1" customHeight="1">
+    <row r="56" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>547</v>
       </c>
@@ -15161,7 +15185,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.1" customHeight="1">
+    <row r="57" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>547</v>
       </c>
@@ -15178,7 +15202,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1">
+    <row r="58" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>547</v>
       </c>
@@ -15195,7 +15219,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.1" customHeight="1">
+    <row r="59" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>547</v>
       </c>
@@ -15212,7 +15236,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.1" customHeight="1">
+    <row r="60" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>547</v>
       </c>
@@ -15229,7 +15253,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.1" customHeight="1">
+    <row r="61" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>547</v>
       </c>
@@ -15246,7 +15270,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.1" customHeight="1">
+    <row r="62" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>547</v>
       </c>
@@ -15266,7 +15290,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.1" customHeight="1">
+    <row r="63" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>547</v>
       </c>
@@ -15283,7 +15307,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.1" customHeight="1">
+    <row r="64" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>547</v>
       </c>
@@ -15300,7 +15324,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.1" customHeight="1">
+    <row r="65" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>547</v>
       </c>
@@ -15317,7 +15341,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.1" customHeight="1">
+    <row r="66" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>547</v>
       </c>
@@ -15337,7 +15361,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.1" customHeight="1">
+    <row r="67" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>547</v>
       </c>
@@ -15354,7 +15378,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.1" customHeight="1">
+    <row r="68" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -15374,7 +15398,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.1" customHeight="1">
+    <row r="69" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>547</v>
       </c>
@@ -15394,7 +15418,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.1" customHeight="1">
+    <row r="70" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>547</v>
       </c>
@@ -15414,7 +15438,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.1" customHeight="1">
+    <row r="71" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -15434,7 +15458,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.1" customHeight="1">
+    <row r="72" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>547</v>
       </c>
@@ -15451,7 +15475,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.1" customHeight="1">
+    <row r="73" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -15468,7 +15492,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.1" customHeight="1">
+    <row r="74" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -15485,7 +15509,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.1" customHeight="1">
+    <row r="75" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -15502,7 +15526,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.1" customHeight="1">
+    <row r="76" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -15519,7 +15543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.1" customHeight="1">
+    <row r="77" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -15539,7 +15563,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.1" customHeight="1">
+    <row r="78" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -15556,7 +15580,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.1" customHeight="1">
+    <row r="79" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -15576,7 +15600,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.1" customHeight="1">
+    <row r="80" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -15593,7 +15617,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.1" customHeight="1">
+    <row r="81" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -15613,7 +15637,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.1" customHeight="1">
+    <row r="82" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -15630,7 +15654,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.1" customHeight="1">
+    <row r="83" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -15647,7 +15671,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.1" customHeight="1">
+    <row r="84" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -15664,7 +15688,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.1" customHeight="1">
+    <row r="85" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -15684,7 +15708,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.1" customHeight="1">
+    <row r="86" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -15701,7 +15725,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.1" customHeight="1">
+    <row r="87" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -15718,7 +15742,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.1" customHeight="1">
+    <row r="88" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -15735,7 +15759,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.1" customHeight="1">
+    <row r="89" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -15752,7 +15776,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.1" customHeight="1">
+    <row r="90" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -15772,7 +15796,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.1" customHeight="1">
+    <row r="91" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -15789,7 +15813,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.1" customHeight="1">
+    <row r="92" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -15809,7 +15833,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.1" customHeight="1">
+    <row r="93" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -15826,7 +15850,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.1" customHeight="1">
+    <row r="94" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -15843,7 +15867,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.1" customHeight="1">
+    <row r="95" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -15860,7 +15884,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.1" customHeight="1">
+    <row r="96" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -15877,7 +15901,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.1" customHeight="1">
+    <row r="97" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -15894,7 +15918,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.1" customHeight="1">
+    <row r="98" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -15914,7 +15938,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.1" customHeight="1">
+    <row r="99" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -15931,7 +15955,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.1" customHeight="1">
+    <row r="100" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -15948,7 +15972,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.1" customHeight="1">
+    <row r="101" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -15965,7 +15989,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.1" customHeight="1">
+    <row r="102" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -15982,7 +16006,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.1" customHeight="1">
+    <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -15999,7 +16023,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.1" customHeight="1">
+    <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>777</v>
       </c>
@@ -16016,7 +16040,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.1" customHeight="1">
+    <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>777</v>
       </c>
@@ -16033,7 +16057,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.1" customHeight="1">
+    <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>777</v>
       </c>
@@ -16053,7 +16077,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.1" customHeight="1">
+    <row r="107" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>777</v>
       </c>
@@ -16073,7 +16097,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.1" customHeight="1">
+    <row r="108" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>777</v>
       </c>
@@ -16090,7 +16114,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.1" customHeight="1">
+    <row r="109" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>777</v>
       </c>
@@ -16107,7 +16131,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.1" customHeight="1">
+    <row r="110" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>777</v>
       </c>
@@ -16124,7 +16148,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.1" customHeight="1">
+    <row r="111" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>777</v>
       </c>
@@ -16141,7 +16165,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.1" customHeight="1">
+    <row r="112" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>777</v>
       </c>
@@ -16158,7 +16182,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.1" customHeight="1">
+    <row r="113" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>777</v>
       </c>
@@ -16178,7 +16202,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.1" customHeight="1">
+    <row r="114" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>777</v>
       </c>
@@ -16195,7 +16219,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.1" customHeight="1">
+    <row r="115" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>777</v>
       </c>
@@ -16212,7 +16236,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.1" customHeight="1">
+    <row r="116" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>777</v>
       </c>
@@ -16229,7 +16253,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.1" customHeight="1">
+    <row r="117" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>777</v>
       </c>
@@ -16246,7 +16270,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.1" customHeight="1">
+    <row r="118" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>777</v>
       </c>
@@ -16263,7 +16287,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.1" customHeight="1">
+    <row r="119" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>777</v>
       </c>
@@ -16283,7 +16307,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.1" customHeight="1">
+    <row r="120" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>777</v>
       </c>
@@ -16303,7 +16327,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.1" customHeight="1">
+    <row r="121" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>777</v>
       </c>
@@ -16320,7 +16344,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.1" customHeight="1">
+    <row r="122" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>777</v>
       </c>
@@ -16337,7 +16361,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.1" customHeight="1">
+    <row r="123" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>777</v>
       </c>
@@ -16354,7 +16378,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.1" customHeight="1">
+    <row r="124" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>777</v>
       </c>
@@ -16371,7 +16395,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.1" customHeight="1">
+    <row r="125" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>777</v>
       </c>
@@ -16388,7 +16412,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.1" customHeight="1">
+    <row r="126" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>777</v>
       </c>
@@ -16405,7 +16429,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.1" customHeight="1">
+    <row r="127" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>777</v>
       </c>
@@ -16422,7 +16446,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.1" customHeight="1">
+    <row r="128" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>777</v>
       </c>
@@ -16439,7 +16463,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.1" customHeight="1">
+    <row r="129" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>777</v>
       </c>
@@ -16456,7 +16480,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.1" customHeight="1">
+    <row r="130" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>777</v>
       </c>
@@ -16473,7 +16497,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.1" customHeight="1">
+    <row r="131" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>777</v>
       </c>
@@ -16490,7 +16514,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.1" customHeight="1">
+    <row r="132" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>777</v>
       </c>
@@ -16510,7 +16534,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.1" customHeight="1">
+    <row r="133" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>777</v>
       </c>
@@ -16527,7 +16551,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.1" customHeight="1">
+    <row r="134" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>777</v>
       </c>
@@ -16544,7 +16568,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.1" customHeight="1">
+    <row r="135" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>777</v>
       </c>
@@ -16564,7 +16588,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.1" customHeight="1">
+    <row r="136" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>777</v>
       </c>
@@ -16584,7 +16608,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.1" customHeight="1">
+    <row r="137" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>777</v>
       </c>
@@ -16601,7 +16625,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.1" customHeight="1">
+    <row r="138" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>777</v>
       </c>
@@ -16618,7 +16642,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.1" customHeight="1">
+    <row r="139" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>777</v>
       </c>
@@ -16638,7 +16662,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.1" customHeight="1">
+    <row r="140" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>777</v>
       </c>
@@ -16655,7 +16679,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.1" customHeight="1">
+    <row r="141" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>777</v>
       </c>
@@ -16672,7 +16696,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.1" customHeight="1">
+    <row r="142" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>777</v>
       </c>
@@ -16689,7 +16713,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.1" customHeight="1">
+    <row r="143" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>777</v>
       </c>
@@ -16706,7 +16730,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.1" customHeight="1">
+    <row r="144" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>777</v>
       </c>
@@ -16723,7 +16747,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.1" customHeight="1">
+    <row r="145" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>777</v>
       </c>
@@ -16740,7 +16764,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.1" customHeight="1">
+    <row r="146" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>777</v>
       </c>
@@ -16757,7 +16781,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.1" customHeight="1">
+    <row r="147" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>777</v>
       </c>
@@ -16774,7 +16798,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.1" customHeight="1">
+    <row r="148" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>777</v>
       </c>
@@ -16791,7 +16815,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.1" customHeight="1">
+    <row r="149" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>777</v>
       </c>
@@ -16808,7 +16832,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.1" customHeight="1">
+    <row r="150" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>777</v>
       </c>
@@ -16825,7 +16849,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.1" customHeight="1">
+    <row r="151" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>777</v>
       </c>
@@ -16842,7 +16866,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.1" customHeight="1">
+    <row r="152" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>777</v>
       </c>
@@ -16859,7 +16883,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.1" customHeight="1">
+    <row r="153" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>777</v>
       </c>
@@ -16879,7 +16903,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.1" customHeight="1">
+    <row r="154" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>777</v>
       </c>
@@ -16896,7 +16920,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.1" customHeight="1">
+    <row r="155" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>777</v>
       </c>
@@ -16913,7 +16937,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.1" customHeight="1">
+    <row r="156" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>777</v>
       </c>
@@ -16933,7 +16957,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.1" customHeight="1">
+    <row r="157" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>777</v>
       </c>
@@ -16950,7 +16974,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.1" customHeight="1">
+    <row r="158" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>777</v>
       </c>
@@ -16967,7 +16991,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.1" customHeight="1">
+    <row r="159" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>777</v>
       </c>
@@ -16984,7 +17008,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.1" customHeight="1">
+    <row r="160" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>777</v>
       </c>
@@ -17004,7 +17028,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.1" customHeight="1">
+    <row r="161" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>777</v>
       </c>
@@ -17021,7 +17045,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.1" customHeight="1">
+    <row r="162" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>777</v>
       </c>
@@ -17038,7 +17062,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.1" customHeight="1">
+    <row r="163" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>777</v>
       </c>
@@ -17055,7 +17079,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.1" customHeight="1">
+    <row r="164" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>777</v>
       </c>
@@ -17072,7 +17096,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.1" customHeight="1">
+    <row r="165" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>777</v>
       </c>
@@ -17089,7 +17113,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.1" customHeight="1">
+    <row r="166" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>777</v>
       </c>
@@ -17106,7 +17130,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.1" customHeight="1">
+    <row r="167" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>777</v>
       </c>
@@ -17123,7 +17147,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.1" customHeight="1">
+    <row r="168" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>777</v>
       </c>
@@ -17140,7 +17164,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.1" customHeight="1">
+    <row r="169" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>777</v>
       </c>
@@ -17160,7 +17184,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.1" customHeight="1">
+    <row r="170" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>777</v>
       </c>
@@ -17177,7 +17201,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.1" customHeight="1">
+    <row r="171" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>777</v>
       </c>
@@ -17194,7 +17218,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.1" customHeight="1">
+    <row r="172" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>777</v>
       </c>
@@ -17214,7 +17238,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.1" customHeight="1">
+    <row r="173" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>777</v>
       </c>
@@ -17234,7 +17258,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.1" customHeight="1">
+    <row r="174" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>777</v>
       </c>
@@ -17254,7 +17278,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.1" customHeight="1">
+    <row r="175" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>777</v>
       </c>
@@ -17271,7 +17295,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.1" customHeight="1">
+    <row r="176" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1004</v>
       </c>
@@ -17310,20 +17334,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C663B44-59D5-4163-B884-E9C925F240A4}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -17343,7 +17367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -17364,7 +17388,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -17385,7 +17409,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -17404,7 +17428,7 @@
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -17423,7 +17447,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -17444,7 +17468,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>777</v>
       </c>
@@ -17464,7 +17488,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>777</v>
       </c>
@@ -17484,7 +17508,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>777</v>
       </c>
@@ -17504,7 +17528,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -17524,7 +17548,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>777</v>
       </c>
@@ -17544,7 +17568,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>777</v>
       </c>
@@ -17564,7 +17588,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>777</v>
       </c>
@@ -17584,7 +17608,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -17604,7 +17628,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>777</v>
       </c>
@@ -17624,7 +17648,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>777</v>
       </c>
@@ -17644,7 +17668,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>777</v>
       </c>
@@ -17664,7 +17688,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>777</v>
       </c>
@@ -17684,7 +17708,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>777</v>
       </c>
@@ -17704,7 +17728,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>777</v>
       </c>
@@ -17724,7 +17748,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>777</v>
       </c>
@@ -17744,7 +17768,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>777</v>
       </c>
@@ -17764,7 +17788,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>777</v>
       </c>
@@ -17784,7 +17808,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>777</v>
       </c>
@@ -17804,7 +17828,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>777</v>
       </c>
@@ -17824,7 +17848,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>777</v>
       </c>
@@ -17844,7 +17868,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>777</v>
       </c>
@@ -17864,7 +17888,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>777</v>
       </c>
@@ -17884,7 +17908,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>777</v>
       </c>
@@ -17904,7 +17928,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>777</v>
       </c>
@@ -17924,7 +17948,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>777</v>
       </c>
@@ -17944,7 +17968,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>777</v>
       </c>
@@ -17964,7 +17988,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>777</v>
       </c>
@@ -17984,7 +18008,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>777</v>
       </c>
@@ -18004,7 +18028,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>777</v>
       </c>
@@ -18024,7 +18048,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>777</v>
       </c>
@@ -18044,7 +18068,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -18064,7 +18088,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>777</v>
       </c>
@@ -18084,7 +18108,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>777</v>
       </c>
@@ -18104,7 +18128,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>777</v>
       </c>
@@ -18124,7 +18148,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>777</v>
       </c>
@@ -18144,7 +18168,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>777</v>
       </c>
@@ -18164,7 +18188,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>777</v>
       </c>
@@ -18184,7 +18208,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>777</v>
       </c>
@@ -18204,7 +18228,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>777</v>
       </c>
@@ -18224,7 +18248,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>777</v>
       </c>
@@ -18244,7 +18268,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>777</v>
       </c>
@@ -18264,7 +18288,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>777</v>
       </c>
@@ -18284,7 +18308,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>777</v>
       </c>
@@ -18304,7 +18328,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>777</v>
       </c>
@@ -18324,7 +18348,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>777</v>
       </c>
@@ -18344,7 +18368,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>777</v>
       </c>
@@ -18364,7 +18388,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>777</v>
       </c>
@@ -18384,7 +18408,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>777</v>
       </c>
@@ -18404,7 +18428,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>777</v>
       </c>
@@ -18424,7 +18448,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>777</v>
       </c>
@@ -18444,7 +18468,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>777</v>
       </c>
@@ -18464,7 +18488,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>678</v>
       </c>
@@ -18484,7 +18508,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -18504,7 +18528,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>678</v>
       </c>
@@ -18524,7 +18548,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>678</v>
       </c>
@@ -18544,7 +18568,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>678</v>
       </c>
@@ -18564,7 +18588,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>678</v>
       </c>
@@ -18584,7 +18608,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>678</v>
       </c>
@@ -18604,7 +18628,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>678</v>
       </c>
@@ -18624,7 +18648,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>678</v>
       </c>
@@ -18644,7 +18668,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>678</v>
       </c>
@@ -18664,7 +18688,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>678</v>
       </c>
@@ -18684,7 +18708,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>678</v>
       </c>
@@ -18704,7 +18728,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>678</v>
       </c>
@@ -18724,7 +18748,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>678</v>
       </c>
@@ -18744,7 +18768,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>678</v>
       </c>
@@ -18764,7 +18788,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -18784,7 +18808,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -18804,7 +18828,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -18824,7 +18848,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -18844,7 +18868,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -18864,7 +18888,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -18884,7 +18908,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -18904,7 +18928,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -18924,7 +18948,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -18944,7 +18968,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -18964,7 +18988,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -18984,7 +19008,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -19004,7 +19028,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -19024,7 +19048,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -19044,7 +19068,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -19064,7 +19088,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -19084,7 +19108,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -19104,7 +19128,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -19124,7 +19148,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -19144,7 +19168,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -19164,7 +19188,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -19184,7 +19208,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -19204,7 +19228,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -19224,7 +19248,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -19244,7 +19268,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -19264,7 +19288,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -19284,7 +19308,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -19304,7 +19328,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -19324,7 +19348,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -19344,7 +19368,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -19364,7 +19388,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -19384,7 +19408,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>678</v>
       </c>
@@ -19404,7 +19428,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>678</v>
       </c>
@@ -19439,16 +19463,16 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1">
+    <row r="1" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -19465,7 +19489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1">
+    <row r="2" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1284</v>
       </c>
@@ -19482,7 +19506,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1">
+    <row r="3" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1284</v>
       </c>
@@ -19499,7 +19523,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1">
+    <row r="4" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -19516,7 +19540,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1">
+    <row r="5" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1284</v>
       </c>
@@ -19533,7 +19557,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1">
+    <row r="6" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -19550,7 +19574,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1">
+    <row r="7" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -19567,7 +19591,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1">
+    <row r="8" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -19584,7 +19608,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1">
+    <row r="9" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -19601,7 +19625,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1">
+    <row r="10" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1305</v>
       </c>
@@ -19628,12 +19652,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101008C61ABF427BAFD4AB8FC7AC0B8F03B78" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="126932e3ea0dc9a6b71e3081ceb06a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5fa53ca4-5b3b-4f89-b0af-5365934cd782" xmlns:ns4="17762964-7e53-4590-9354-410c34f1e00e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="506a3d50c40863226972d677e07e387d" ns3:_="" ns4:_="">
     <xsd:import namespace="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
@@ -19850,14 +19868,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
+    <ds:schemaRef ds:uri="17762964-7e53-4590-9354-410c34f1e00e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sgu.se\SGU\prod\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310964D-B5DB-4D37-9D8F-AA123A947E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A7DE8-7DD8-4867-A39D-9F9D7F1BFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" firstSheet="6" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10200" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1316">
   <si>
     <t>location_name</t>
   </si>
@@ -4016,6 +4016,24 @@
   </si>
   <si>
     <t xml:space="preserve">UN World Food Programme </t>
+  </si>
+  <si>
+    <t>HUB Ocean</t>
+  </si>
+  <si>
+    <t>https://www.hubocean.earth/</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>EU Copernicus Marine Services</t>
+  </si>
+  <si>
+    <t>cmems</t>
+  </si>
+  <si>
+    <t>https://resources.marine.copernicus.eu/</t>
   </si>
 </sst>
 </file>
@@ -5364,10 +5382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5607,931 +5625,961 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
-        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
+        <v>EU Copernicus Marine Services (cmems)</v>
       </c>
       <c r="B24" t="str">
         <f>providers_master!B24</f>
-        <v>iforce</v>
+        <v>cmems</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
-        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
+        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
       </c>
       <c r="B25" t="str">
         <f>providers_master!B25</f>
-        <v>jrcdc</v>
+        <v>iforce</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
-        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
+        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
       </c>
       <c r="B26" t="str">
         <f>providers_master!B26</f>
-        <v>fao</v>
+        <v>jrcdc</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
-        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
+        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
       </c>
       <c r="B27" t="str">
         <f>providers_master!B27</f>
-        <v>fari</v>
+        <v>fao</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
-        <v>General Bathymetric Chart of the Oceans (gebco)</v>
+        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
       </c>
       <c r="B28" t="str">
         <f>providers_master!B28</f>
-        <v>gebco</v>
+        <v>fari</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
-        <v>Geological Survey of Denmark and Greenland (geus)</v>
+        <v>General Bathymetric Chart of the Oceans (gebco)</v>
       </c>
       <c r="B29" t="str">
         <f>providers_master!B29</f>
-        <v>geus</v>
+        <v>gebco</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
-        <v>Global Biodiversity Information Facility (gbif)</v>
+        <v>Geological Survey of Denmark and Greenland (geus)</v>
       </c>
       <c r="B30" t="str">
         <f>providers_master!B30</f>
-        <v>gbif</v>
+        <v>geus</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
-        <v>Global Environment Facility Trust Fund (gef)</v>
+        <v>Global Biodiversity Information Facility (gbif)</v>
       </c>
       <c r="B31" t="str">
         <f>providers_master!B31</f>
-        <v>gef</v>
+        <v>gbif</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
-        <v>Global Environmental Flows Network (eflownet)</v>
+        <v>Global Environment Facility Trust Fund (gef)</v>
       </c>
       <c r="B32" t="str">
         <f>providers_master!B32</f>
-        <v>eflownet</v>
+        <v>gef</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
-        <v>Global Fishing Watch (gfw)</v>
+        <v>Global Environmental Flows Network (eflownet)</v>
       </c>
       <c r="B33" t="str">
         <f>providers_master!B33</f>
-        <v>gfw</v>
+        <v>eflownet</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
-        <v>Global Ocean Data Analysis Project (glodap)</v>
+        <v>Global Fishing Watch (gfw)</v>
       </c>
       <c r="B34" t="str">
         <f>providers_master!B34</f>
-        <v>glodap</v>
+        <v>gfw</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
-        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
+        <v>Global Ocean Data Analysis Project (glodap)</v>
       </c>
       <c r="B35" t="str">
         <f>providers_master!B35</f>
-        <v>unep_gpa</v>
+        <v>glodap</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
-        <v>Grid Arendal (grida)</v>
+        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
       </c>
       <c r="B36" t="str">
         <f>providers_master!B36</f>
-        <v>grida</v>
+        <v>unep_gpa</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
-        <v>Group on Earth Observations (geo)</v>
+        <v>Grid Arendal (grida)</v>
       </c>
       <c r="B37" t="str">
         <f>providers_master!B37</f>
-        <v>geo</v>
+        <v>grida</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
-        <v>Indian Ocean Tuna Commission (iotc)</v>
+        <v>Group on Earth Observations (geo)</v>
       </c>
       <c r="B38" t="str">
         <f>providers_master!B38</f>
-        <v>iotc</v>
+        <v>geo</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
-        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
+        <v>Indian Ocean Tuna Commission (iotc)</v>
       </c>
       <c r="B39" t="str">
         <f>providers_master!B39</f>
-        <v>ims</v>
+        <v>iotc</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
-        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
+        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
       </c>
       <c r="B40" t="str">
         <f>providers_master!B40</f>
-        <v>ioc_unesco</v>
+        <v>ims</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
-        <v>International Geosphere-Biosphere Programme (igbp)</v>
+        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
       </c>
       <c r="B41" t="str">
         <f>providers_master!B41</f>
-        <v>igbp</v>
+        <v>ioc_unesco</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
-        <v>International Seabed Authority (isa)</v>
+        <v>International Geosphere-Biosphere Programme (igbp)</v>
       </c>
       <c r="B42" t="str">
         <f>providers_master!B42</f>
-        <v>isa</v>
+        <v>igbp</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
-        <v>International Submarine Cable Protection Committe (iscpc)</v>
+        <v>International Seabed Authority (isa)</v>
       </c>
       <c r="B43" t="str">
         <f>providers_master!B43</f>
-        <v>iscpc</v>
+        <v>isa</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
-        <v>International Union for the Conservation of Nature (iucn)</v>
+        <v>International Submarine Cable Protection Committe (iscpc)</v>
       </c>
       <c r="B44" t="str">
         <f>providers_master!B44</f>
-        <v>iucn</v>
+        <v>iscpc</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
-        <v>Kenya Forest Service (kfs)</v>
+        <v>International Union for the Conservation of Nature (iucn)</v>
       </c>
       <c r="B45" t="str">
         <f>providers_master!B45</f>
-        <v>kfs</v>
+        <v>iucn</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
-        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
+        <v>Kenya Forest Service (kfs)</v>
       </c>
       <c r="B46" t="str">
         <f>providers_master!B46</f>
-        <v>kmfri</v>
+        <v>kfs</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
-        <v>Literature (lit)</v>
+        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
       </c>
       <c r="B47" t="str">
         <f>providers_master!B47</f>
-        <v>lit</v>
+        <v>kmfri</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
-        <v>Locally Managed Marine Area (lmma)</v>
+        <v>Literature (lit)</v>
       </c>
       <c r="B48" t="str">
         <f>providers_master!B48</f>
-        <v>lmma</v>
+        <v>lit</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
-        <v>Mangrove Action Project (map)</v>
+        <v>Locally Managed Marine Area (lmma)</v>
       </c>
       <c r="B49" t="str">
         <f>providers_master!B49</f>
-        <v>map</v>
+        <v>lmma</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
-        <v>Marine Protection Atlas (mpatlas)</v>
+        <v>Mangrove Action Project (map)</v>
       </c>
       <c r="B50" t="str">
         <f>providers_master!B50</f>
-        <v>mpatlas</v>
+        <v>map</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
-        <v>Marine Regions organization (mro)</v>
+        <v>Marine Protection Atlas (mpatlas)</v>
       </c>
       <c r="B51" t="str">
         <f>providers_master!B51</f>
-        <v>mro</v>
+        <v>mpatlas</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
-        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
+        <v>Marine Regions organization (mro)</v>
       </c>
       <c r="B52" t="str">
         <f>providers_master!B52</f>
-        <v>maspawio</v>
+        <v>mro</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
-        <v>Marine Traffic (marinetraffic)</v>
+        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
       </c>
       <c r="B53" t="str">
         <f>providers_master!B53</f>
-        <v>marinetraffic</v>
+        <v>maspawio</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
-        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
+        <v>Marine Traffic (marinetraffic)</v>
       </c>
       <c r="B54" t="str">
         <f>providers_master!B54</f>
-        <v>mcbff</v>
+        <v>marinetraffic</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
-        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
+        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
       </c>
       <c r="B55" t="str">
         <f>providers_master!B55</f>
-        <v>mendu</v>
+        <v>mcbff</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
-        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
+        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
       </c>
       <c r="B56" t="str">
         <f>providers_master!B56</f>
-        <v>menrts</v>
+        <v>mendu</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
-        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
+        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
       </c>
       <c r="B57" t="str">
         <f>providers_master!B57</f>
-        <v>mlerdm</v>
+        <v>menrts</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
-        <v>NASA Earth Observations (nasa)</v>
+        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
       </c>
       <c r="B58" t="str">
         <f>providers_master!B58</f>
-        <v>nasa</v>
+        <v>mlerdm</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
-        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
+        <v>NASA Earth Observations (nasa)</v>
       </c>
       <c r="B59" t="str">
         <f>providers_master!B59</f>
-        <v>dnef</v>
+        <v>nasa</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
-        <v>National Environment Management Authority of Kenya (nema)</v>
+        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
       </c>
       <c r="B60" t="str">
         <f>providers_master!B60</f>
-        <v>nema</v>
+        <v>dnef</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
-        <v>National Environment Management Council of Tanzania (nemc)</v>
+        <v>National Environment Management Authority of Kenya (nema)</v>
       </c>
       <c r="B61" t="str">
         <f>providers_master!B61</f>
-        <v>nemc</v>
+        <v>nema</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
-        <v>Natural Earth (naturalearth)</v>
+        <v>National Environment Management Council of Tanzania (nemc)</v>
       </c>
       <c r="B62" t="str">
         <f>providers_master!B62</f>
-        <v>naturalearth</v>
+        <v>nemc</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
-        <v>Nelson Mandela University (nmu)</v>
+        <v>Natural Earth (naturalearth)</v>
       </c>
       <c r="B63" t="str">
         <f>providers_master!B63</f>
-        <v>nmu</v>
+        <v>naturalearth</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
-        <v>New Partnership for Africa’s Development (nepad)</v>
+        <v>Nelson Mandela University (nmu)</v>
       </c>
       <c r="B64" t="str">
         <f>providers_master!B64</f>
-        <v>nepad</v>
+        <v>nmu</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
-        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
+        <v>New Partnership for Africa’s Development (nepad)</v>
       </c>
       <c r="B65" t="str">
         <f>providers_master!B65</f>
-        <v>cmr</v>
+        <v>nepad</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
-        <v>Northern Mozambique Channel initiative (nmci)</v>
+        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
       </c>
       <c r="B66" t="str">
         <f>providers_master!B66</f>
-        <v>nmci</v>
+        <v>cmr</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
-        <v>Ocean Biogeographic Information System (obis)</v>
+        <v>Northern Mozambique Channel initiative (nmci)</v>
       </c>
       <c r="B67" t="str">
         <f>providers_master!B67</f>
-        <v>obis</v>
+        <v>nmci</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
-        <v>OceanSITES (ocsi)</v>
+        <v>Ocean Biogeographic Information System (obis)</v>
       </c>
       <c r="B68" t="str">
         <f>providers_master!B68</f>
-        <v>ocsi</v>
+        <v>obis</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
-        <v>Open Street Map (osm)</v>
+        <v>OceanSITES (ocsi)</v>
       </c>
       <c r="B69" t="str">
         <f>providers_master!B69</f>
-        <v>osm</v>
+        <v>ocsi</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
-        <v>Orbcomm Satellite AIS (orbcom)</v>
+        <v>Open Street Map (osm)</v>
       </c>
       <c r="B70" t="str">
         <f>providers_master!B70</f>
-        <v>orbcom</v>
+        <v>osm</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
-        <v>ReefBase (reba)</v>
+        <v>Orbcomm Satellite AIS (orbcom)</v>
       </c>
       <c r="B71" t="str">
         <f>providers_master!B71</f>
-        <v>reba</v>
+        <v>orbcom</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
-        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
+        <v>ReefBase (reba)</v>
       </c>
       <c r="B72" t="str">
         <f>providers_master!B72</f>
-        <v>ioc_recomap</v>
+        <v>reba</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
-        <v>Regional Fisheries Management Organization (rfmo)</v>
+        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
       </c>
       <c r="B73" t="str">
         <f>providers_master!B73</f>
-        <v>rfmo</v>
+        <v>ioc_recomap</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
-        <v>River Basin Organizations (rbo)</v>
+        <v>Regional Fisheries Management Organization (rfmo)</v>
       </c>
       <c r="B74" t="str">
         <f>providers_master!B74</f>
-        <v>rbo</v>
+        <v>rfmo</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
-        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
+        <v>River Basin Organizations (rbo)</v>
       </c>
       <c r="B75" t="str">
         <f>providers_master!B75</f>
-        <v>seyccat</v>
+        <v>rbo</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
-        <v>Shared Water Course Institution (swci)</v>
+        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
       </c>
       <c r="B76" t="str">
         <f>providers_master!B76</f>
-        <v>swci</v>
+        <v>seyccat</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
-        <v>Somalia Water and Land Information Management (fao_swalim)</v>
+        <v>Shared Water Course Institution (swci)</v>
       </c>
       <c r="B77" t="str">
         <f>providers_master!B77</f>
-        <v>fao_swalim</v>
+        <v>swci</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
-        <v>Somalia water and land information management (swalim)</v>
+        <v>Somalia Water and Land Information Management (fao_swalim)</v>
       </c>
       <c r="B78" t="str">
         <f>providers_master!B78</f>
-        <v>swalim</v>
+        <v>fao_swalim</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
-        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
+        <v>Somalia water and land information management (swalim)</v>
       </c>
       <c r="B79" t="str">
         <f>providers_master!B79</f>
-        <v>swiofp</v>
+        <v>swalim</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
-        <v>Southern African Development Community (sadc)</v>
+        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
       </c>
       <c r="B80" t="str">
         <f>providers_master!B80</f>
-        <v>sadc</v>
+        <v>swiofp</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
-        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
+        <v>Southern African Development Community (sadc)</v>
       </c>
       <c r="B81" t="str">
         <f>providers_master!B81</f>
-        <v>swamp</v>
+        <v>sadc</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
-        <v>Swedish International Water Institute (siwi)</v>
+        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
       </c>
       <c r="B82" t="str">
         <f>providers_master!B82</f>
-        <v>siwi</v>
+        <v>swamp</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
-        <v>TeleGeography (telgeo)</v>
+        <v>Swedish International Water Institute (siwi)</v>
       </c>
       <c r="B83" t="str">
         <f>providers_master!B83</f>
-        <v>telgeo</v>
+        <v>siwi</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
-        <v>The Knowledge Network for Biocomplexity (knb)</v>
+        <v>TeleGeography (telgeo)</v>
       </c>
       <c r="B84" t="str">
         <f>providers_master!B84</f>
-        <v>knb</v>
+        <v>telgeo</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
-        <v>The Nature Conservancy (tnc)</v>
+        <v>The Knowledge Network for Biocomplexity (knb)</v>
       </c>
       <c r="B85" t="str">
         <f>providers_master!B85</f>
-        <v>tnc</v>
+        <v>knb</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
-        <v>The Ocean Cleanup project (ocp)</v>
+        <v>The Nature Conservancy (tnc)</v>
       </c>
       <c r="B86" t="str">
         <f>providers_master!B86</f>
-        <v>ocp</v>
+        <v>tnc</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
-        <v>The United Nations Support Office in Somalia (unsos)</v>
+        <v>The Ocean Cleanup project (ocp)</v>
       </c>
       <c r="B87" t="str">
         <f>providers_master!B87</f>
-        <v>unsos</v>
+        <v>ocp</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
-        <v>U.S. Geological Survey (usgs)</v>
+        <v>The United Nations Support Office in Somalia (unsos)</v>
       </c>
       <c r="B88" t="str">
         <f>providers_master!B88</f>
-        <v>usgs</v>
+        <v>unsos</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
-        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
+        <v>U.S. Geological Survey (usgs)</v>
       </c>
       <c r="B89" t="str">
         <f>providers_master!B89</f>
-        <v>noaa</v>
+        <v>usgs</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
-        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
+        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
       </c>
       <c r="B90" t="str">
         <f>providers_master!B90</f>
-        <v>wcmc</v>
+        <v>noaa</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
-        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
+        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
       </c>
       <c r="B91" t="str">
         <f>providers_master!B91</f>
-        <v>unesco_fust</v>
+        <v>wcmc</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
-        <v>United Nations Agency for Human Settlements (unhabitat)</v>
+        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
       </c>
       <c r="B92" t="str">
         <f>providers_master!B92</f>
-        <v>unhabitat</v>
+        <v>unesco_fust</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
-        <v>United Nations Development Programme (undp)</v>
+        <v>United Nations Agency for Human Settlements (unhabitat)</v>
       </c>
       <c r="B93" t="str">
         <f>providers_master!B93</f>
-        <v>undp</v>
+        <v>unhabitat</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
-        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
+        <v>United Nations Development Programme (undp)</v>
       </c>
       <c r="B94" t="str">
         <f>providers_master!B94</f>
-        <v>unesco</v>
+        <v>undp</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
-        <v>United Nations Environment Programme (unep)</v>
+        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
       </c>
       <c r="B95" t="str">
         <f>providers_master!B95</f>
-        <v>unep</v>
+        <v>unesco</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
-        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
+        <v>United Nations Environment Programme (unep)</v>
       </c>
       <c r="B96" t="str">
         <f>providers_master!B96</f>
-        <v>unfccc</v>
+        <v>unep</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
-        <v>United Nations Industrial Development Organisation (unido)</v>
+        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
       </c>
       <c r="B97" t="str">
         <f>providers_master!B97</f>
-        <v>unido</v>
+        <v>unfccc</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
-        <v>United Nations Office for Project Services (unops)</v>
+        <v>United Nations Industrial Development Organisation (unido)</v>
       </c>
       <c r="B98" t="str">
         <f>providers_master!B98</f>
-        <v>unops</v>
+        <v>unido</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
-        <v>United States Agency for International Development (usaid)</v>
+        <v>United Nations Office for Project Services (unops)</v>
       </c>
       <c r="B99" t="str">
         <f>providers_master!B99</f>
-        <v>usaid</v>
+        <v>unops</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
-        <v>United States Forest Service (usfs)</v>
+        <v>United States Agency for International Development (usaid)</v>
       </c>
       <c r="B100" t="str">
         <f>providers_master!B100</f>
-        <v>usfs</v>
+        <v>usaid</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
-        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
+        <v>United States Forest Service (usfs)</v>
       </c>
       <c r="B101" t="str">
         <f>providers_master!B101</f>
-        <v>iucn-wani</v>
+        <v>usfs</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
-        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
+        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
       </c>
       <c r="B102" t="str">
         <f>providers_master!B102</f>
-        <v>wiomn</v>
+        <v>iucn-wani</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
-        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
+        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
       </c>
       <c r="B103" t="str">
         <f>providers_master!B103</f>
-        <v>wiomer</v>
+        <v>wiomn</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
-        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
+        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
       </c>
       <c r="B104" t="str">
         <f>providers_master!B104</f>
-        <v>wiomsa</v>
+        <v>wiomer</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
-        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
+        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
       </c>
       <c r="B105" t="str">
         <f>providers_master!B105</f>
-        <v>wiosap</v>
+        <v>wiomsa</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
-        <v>Wetlands International (wi)</v>
+        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
       </c>
       <c r="B106" t="str">
         <f>providers_master!B106</f>
-        <v>wi</v>
+        <v>wiosap</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
-        <v>Wildlife Conservation Society (wcs)</v>
+        <v>Wetlands International (wi)</v>
       </c>
       <c r="B107" t="str">
         <f>providers_master!B107</f>
-        <v>wcs</v>
+        <v>wi</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
-        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
+        <v>Wildlife Conservation Society (wcs)</v>
       </c>
       <c r="B108" t="str">
         <f>providers_master!B108</f>
-        <v>wiolab</v>
+        <v>wcs</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
-        <v>VLIZ - Flanders Marine Institute (vliz)</v>
+        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
       </c>
       <c r="B109" t="str">
         <f>providers_master!B109</f>
-        <v>vliz</v>
+        <v>wiolab</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
-        <v>World Bank (wb)</v>
+        <v>VLIZ - Flanders Marine Institute (vliz)</v>
       </c>
       <c r="B110" t="str">
         <f>providers_master!B110</f>
-        <v>wb</v>
+        <v>vliz</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
-        <v>World Database on Protected Areas (wdpa)</v>
+        <v>World Bank (wb)</v>
       </c>
       <c r="B111" t="str">
         <f>providers_master!B111</f>
-        <v>wdpa</v>
+        <v>wb</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
-        <v>World Environment Center (wec)</v>
+        <v>World Database on Protected Areas (wdpa)</v>
       </c>
       <c r="B112" t="str">
         <f>providers_master!B112</f>
-        <v>wec</v>
+        <v>wdpa</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
-        <v>World Resources Institute (wri)</v>
+        <v>World Environment Center (wec)</v>
       </c>
       <c r="B113" t="str">
         <f>providers_master!B113</f>
-        <v>wri</v>
+        <v>wec</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
-        <v>World Wide Fund for Nature (wwf)</v>
+        <v>World Resources Institute (wri)</v>
       </c>
       <c r="B114" t="str">
         <f>providers_master!B114</f>
-        <v>wwf</v>
+        <v>wri</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
-        <v>UN Biodiversity Lab (unbl)</v>
+        <v>World Wide Fund for Nature (wwf)</v>
       </c>
       <c r="B115" t="str">
         <f>providers_master!B115</f>
-        <v>unbl</v>
+        <v>wwf</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
-        <v>Norsk Polarinstitutt (npi)</v>
+        <v>UN Biodiversity Lab (unbl)</v>
       </c>
       <c r="B116" t="str">
         <f>providers_master!B116</f>
+        <v>unbl</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>CONCATENATE(providers_master!A117, " (",providers_master!B117, ")")</f>
+        <v>Norsk Polarinstitutt (npi)</v>
+      </c>
+      <c r="B117" t="str">
+        <f>providers_master!B117</f>
         <v>npi</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>CONCATENATE(providers_master!A118, " (",providers_master!B118, ")")</f>
+        <v>UN World Food Programme  (wfp)</v>
+      </c>
+      <c r="B118" t="str">
+        <f>providers_master!B118</f>
+        <v>wfp</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>CONCATENATE(providers_master!A119, " (",providers_master!B119, ")")</f>
+        <v>HUB Ocean (hub)</v>
+      </c>
+      <c r="B119" t="str">
+        <f>providers_master!B119</f>
+        <v>hub</v>
       </c>
     </row>
   </sheetData>
@@ -12050,10 +12098,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12426,44 +12474,42 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>147</v>
+      <c r="A24" s="8" t="s">
+        <v>1313</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>148</v>
+        <v>1314</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>149</v>
+      <c r="D24" s="7" t="s">
+        <v>1315</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -12473,62 +12519,64 @@
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -12538,18 +12586,18 @@
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -12559,17 +12607,19 @@
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="8"/>
@@ -12578,47 +12628,45 @@
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -12628,50 +12676,50 @@
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>195</v>
+      <c r="D37" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="4" t="s">
-        <v>196</v>
+      <c r="F37" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -12681,79 +12729,79 @@
     </row>
     <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="9"/>
+      <c r="D43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="F43" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -12763,116 +12811,116 @@
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+        <v>231</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F51" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -12882,251 +12930,251 @@
     </row>
     <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G52" s="6"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>253</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>9</v>
+        <v>252</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E68" s="9"/>
+      <c r="D68" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="F68" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G68" s="8"/>
+        <v>287</v>
+      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -13134,22 +13182,18 @@
     </row>
     <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="6"/>
@@ -13159,20 +13203,24 @@
     </row>
     <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E70" s="9"/>
+        <v>293</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="F70" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G70" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="G70" s="8"/>
       <c r="H70" s="6"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -13180,18 +13228,18 @@
     </row>
     <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -13201,42 +13249,46 @@
     </row>
     <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="15"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -13246,15 +13298,13 @@
     </row>
     <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>311</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="7"/>
@@ -13265,14 +13315,16 @@
     </row>
     <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" s="15"/>
+        <v>313</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -13282,75 +13334,75 @@
     </row>
     <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E78" s="16"/>
+        <v>317</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>319</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C79" s="16"/>
+        <v>321</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D79" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
+        <v>324</v>
+      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
+        <v>326</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E80" s="16"/>
+      <c r="F80" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -13359,10 +13411,10 @@
     </row>
     <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="14"/>
@@ -13376,15 +13428,15 @@
     </row>
     <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -13393,206 +13445,206 @@
     </row>
     <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C84" s="16"/>
-      <c r="D84" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="16"/>
+      <c r="D84" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>338</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="13" t="s">
+      <c r="C87" s="16"/>
+      <c r="D87" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="22" t="s">
-        <v>354</v>
+      <c r="A88" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>29</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C90" s="16"/>
       <c r="D90" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C91" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D91" s="13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14" t="s">
+      <c r="C93" s="15"/>
+      <c r="D93" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="15"/>
       <c r="G93" s="7"/>
@@ -13603,14 +13655,14 @@
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="15"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -13620,14 +13672,14 @@
     </row>
     <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -13637,14 +13689,14 @@
     </row>
     <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -13654,10 +13706,10 @@
     </row>
     <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
@@ -13671,10 +13723,10 @@
     </row>
     <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="14"/>
@@ -13687,11 +13739,11 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
-        <v>388</v>
+      <c r="A99" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
@@ -13705,14 +13757,14 @@
     </row>
     <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -13721,17 +13773,15 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
-        <v>392</v>
+      <c r="A101" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C101" s="15"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="15"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -13741,13 +13791,13 @@
     </row>
     <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
@@ -13760,10 +13810,10 @@
     </row>
     <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>3</v>
@@ -13779,16 +13829,16 @@
     </row>
     <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -13798,10 +13848,10 @@
     </row>
     <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>3</v>
@@ -13817,16 +13867,16 @@
     </row>
     <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
+      <c r="E106" s="14"/>
       <c r="F106" s="15"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -13836,21 +13886,17 @@
     </row>
     <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>406</v>
-      </c>
+      <c r="D107" s="14"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="F107" s="15"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -13859,17 +13905,21 @@
     </row>
     <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>406</v>
       </c>
       <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
+      <c r="F108" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -13878,60 +13928,60 @@
     </row>
     <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+        <v>408</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C110" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E110" s="15"/>
+        <v>413</v>
+      </c>
+      <c r="E110" s="16"/>
       <c r="F110" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="14"/>
+      <c r="D111" s="13" t="s">
+        <v>417</v>
+      </c>
       <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
+      <c r="F111" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -13940,10 +13990,10 @@
     </row>
     <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>29</v>
@@ -13959,90 +14009,84 @@
     </row>
     <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C113" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="9"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
     </row>
     <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G114" s="17"/>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E115" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="34" t="s">
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B116" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C116" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D116" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E116" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="F115" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-    </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="F116" s="41" t="s">
+      <c r="F116" s="39" t="s">
         <v>436</v>
       </c>
       <c r="G116" s="35"/>
@@ -14051,89 +14095,128 @@
       <c r="J116" s="35"/>
       <c r="K116" s="35"/>
     </row>
-    <row r="117" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B118" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>1308</v>
       </c>
     </row>
+    <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>1311</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B114 B117:B1048576">
+  <conditionalFormatting sqref="B118:B1048576 B1:B115">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D90" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
-    <hyperlink ref="D52" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
-    <hyperlink ref="D114" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
-    <hyperlink ref="D62" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
-    <hyperlink ref="D70" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
-    <hyperlink ref="D113" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
+    <hyperlink ref="D91" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
+    <hyperlink ref="D53" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
+    <hyperlink ref="D115" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
+    <hyperlink ref="D63" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
+    <hyperlink ref="D71" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
+    <hyperlink ref="D114" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
     <hyperlink ref="D8" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
-    <hyperlink ref="D25" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
-    <hyperlink ref="D37" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
-    <hyperlink ref="D58" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
-    <hyperlink ref="D33" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
-    <hyperlink ref="D28" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
+    <hyperlink ref="D38" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
+    <hyperlink ref="D59" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
+    <hyperlink ref="D34" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
+    <hyperlink ref="D29" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
     <hyperlink ref="D3" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
-    <hyperlink ref="D109" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
-    <hyperlink ref="D68" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
+    <hyperlink ref="D110" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
+    <hyperlink ref="D69" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
     <hyperlink ref="D19" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
-    <hyperlink ref="D84" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
-    <hyperlink ref="D78" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
-    <hyperlink ref="D53" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
+    <hyperlink ref="D85" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
+    <hyperlink ref="D79" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
+    <hyperlink ref="D54" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
     <hyperlink ref="D7" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
-    <hyperlink ref="D87" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
-    <hyperlink ref="E77" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
-    <hyperlink ref="D51" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
+    <hyperlink ref="D88" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
+    <hyperlink ref="E78" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
+    <hyperlink ref="D52" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
     <hyperlink ref="E23" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
-    <hyperlink ref="D88" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
-    <hyperlink ref="D71" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
+    <hyperlink ref="D89" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
+    <hyperlink ref="D72" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
     <hyperlink ref="D22" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
-    <hyperlink ref="D86" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
+    <hyperlink ref="D87" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
     <hyperlink ref="D9" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
-    <hyperlink ref="D43" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
-    <hyperlink ref="D42" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
-    <hyperlink ref="D34" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
-    <hyperlink ref="D50" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
-    <hyperlink ref="E90" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
-    <hyperlink ref="E114" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
-    <hyperlink ref="E89" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
-    <hyperlink ref="D89" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
-    <hyperlink ref="E67" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
-    <hyperlink ref="E113" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
-    <hyperlink ref="E58" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
-    <hyperlink ref="E42" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
-    <hyperlink ref="E83" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
+    <hyperlink ref="D44" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
+    <hyperlink ref="D43" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
+    <hyperlink ref="D51" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
+    <hyperlink ref="E91" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
+    <hyperlink ref="E115" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
+    <hyperlink ref="E90" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
+    <hyperlink ref="D90" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
+    <hyperlink ref="E68" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
+    <hyperlink ref="E114" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
+    <hyperlink ref="E59" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
+    <hyperlink ref="E43" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
+    <hyperlink ref="E84" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
     <hyperlink ref="E3" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
-    <hyperlink ref="E47" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
-    <hyperlink ref="D77" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
-    <hyperlink ref="E91" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
-    <hyperlink ref="D36" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
-    <hyperlink ref="D40" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
-    <hyperlink ref="D44" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
-    <hyperlink ref="E44" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
-    <hyperlink ref="D79" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
-    <hyperlink ref="D31" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
-    <hyperlink ref="D54" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
-    <hyperlink ref="D108" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
-    <hyperlink ref="D107" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
-    <hyperlink ref="D110" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
-    <hyperlink ref="D69" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
-    <hyperlink ref="E69" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
-    <hyperlink ref="D117" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
+    <hyperlink ref="E48" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
+    <hyperlink ref="D78" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
+    <hyperlink ref="E92" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
+    <hyperlink ref="D37" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
+    <hyperlink ref="D41" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
+    <hyperlink ref="D45" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
+    <hyperlink ref="E45" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
+    <hyperlink ref="D80" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
+    <hyperlink ref="D32" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
+    <hyperlink ref="D55" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
+    <hyperlink ref="D109" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
+    <hyperlink ref="D108" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
+    <hyperlink ref="D111" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
+    <hyperlink ref="D70" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
+    <hyperlink ref="E70" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
+    <hyperlink ref="D118" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>

--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sgu.se\SGU\prod\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A7DE8-7DD8-4867-A39D-9F9D7F1BFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7117E5-69CA-4B3D-A069-42B12ED2F421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10200" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1349">
   <si>
     <t>location_name</t>
   </si>
@@ -4034,13 +4034,112 @@
   </si>
   <si>
     <t>https://resources.marine.copernicus.eu/</t>
+  </si>
+  <si>
+    <t>dbseabed</t>
+  </si>
+  <si>
+    <t>University of Colorado</t>
+  </si>
+  <si>
+    <t>http://instaar.colorado.edu/~jenkinsc/dbseabed/</t>
+  </si>
+  <si>
+    <t>Pangaea</t>
+  </si>
+  <si>
+    <t>pangaea</t>
+  </si>
+  <si>
+    <t>https://www.pangaea.de/</t>
+  </si>
+  <si>
+    <t>Data Publisher for Earth &amp; Environmental Science</t>
+  </si>
+  <si>
+    <t>https://www.sanbi.org/</t>
+  </si>
+  <si>
+    <t>South African National Biodiversity Institute</t>
+  </si>
+  <si>
+    <t>sanbi</t>
+  </si>
+  <si>
+    <t>gmw</t>
+  </si>
+  <si>
+    <t>Global Mangrove Watch</t>
+  </si>
+  <si>
+    <t>https://www.globalmangrovewatch.org/</t>
+  </si>
+  <si>
+    <t>begeospatial</t>
+  </si>
+  <si>
+    <t>Be Geospatial</t>
+  </si>
+  <si>
+    <t>https://begeospatial.com/</t>
+  </si>
+  <si>
+    <t>jose.beltran@begeospatial.com</t>
+  </si>
+  <si>
+    <t>consultant working for Geological Survey of Sweden</t>
+  </si>
+  <si>
+    <t>https://geonode.wfp.org/</t>
+  </si>
+  <si>
+    <t>mapstand</t>
+  </si>
+  <si>
+    <t>https://www.mapstand.com/</t>
+  </si>
+  <si>
+    <t>MapStand</t>
+  </si>
+  <si>
+    <t>Email correspondance through ES SLU with Francis Cram &lt;francis@mapstand.com&gt;</t>
+  </si>
+  <si>
+    <t>gcm</t>
+  </si>
+  <si>
+    <t>aquamaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized distribution maps for over 33,500 species of fishes, marine mammals and invertebrates. </t>
+  </si>
+  <si>
+    <t>AquaMaps is a joint project of FishBase and SealifeBase</t>
+  </si>
+  <si>
+    <t>https://www.aquamaps.org/</t>
+  </si>
+  <si>
+    <t>AquaMaps</t>
+  </si>
+  <si>
+    <t>CableMap</t>
+  </si>
+  <si>
+    <t>https://cablemap.info/_default.aspx</t>
+  </si>
+  <si>
+    <t>www.infrapedia.com/</t>
+  </si>
+  <si>
+    <t>Gregs contact greg@mahlknecht.co.za - website changed to www.infrapedia.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4238,6 +4337,18 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333399"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4686,7 +4797,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4761,20 +4872,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5382,10 +5506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5405,71 +5529,71 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE(providers_master!A2, " (",providers_master!B2, ")")</f>
-        <v>No provider selected (none)</v>
+        <v>Association of African Maritime Administrations (aama)</v>
       </c>
       <c r="B2" t="str">
         <f>providers_master!B2</f>
-        <v>none</v>
+        <v>aama</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE(providers_master!A3, " (",providers_master!B3, ")")</f>
-        <v>Africa Regional Data Cube (ardc)</v>
+        <v>African Development Bank (afdb)</v>
       </c>
       <c r="B3" t="str">
         <f>providers_master!B3</f>
-        <v>ardc</v>
+        <v>afdb</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE(providers_master!A4, " (",providers_master!B4, ")")</f>
-        <v>African Development Bank (afdb)</v>
+        <v>Allen Coral Atlas (allen)</v>
       </c>
       <c r="B4" t="str">
         <f>providers_master!B4</f>
-        <v>afdb</v>
+        <v>allen</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
-        <v>Allen Coral Atlas (allen)</v>
+        <v>Africa Regional Data Cube (ardc)</v>
       </c>
       <c r="B5" t="str">
         <f>providers_master!B5</f>
-        <v>allen</v>
+        <v>ardc</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
-        <v>Association of African Maritime Administrations (aama)</v>
+        <v>Belgian universities (biooracle)</v>
       </c>
       <c r="B6" t="str">
         <f>providers_master!B6</f>
-        <v>aama</v>
+        <v>biooracle</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
-        <v>Belgian universities (biooracle)</v>
+        <v>Blue Habitats (bluehab)</v>
       </c>
       <c r="B7" t="str">
         <f>providers_master!B7</f>
-        <v>biooracle</v>
+        <v>bluehab</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
-        <v>Blue Habitats (bluehab)</v>
+        <v>Community Fishery Council (ccp)</v>
       </c>
       <c r="B8" t="str">
         <f>providers_master!B8</f>
-        <v>bluehab</v>
+        <v>ccp</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5485,81 +5609,81 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
-        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
+        <v>Community Forest Associations (cfas)</v>
       </c>
       <c r="B10" t="str">
         <f>providers_master!B10</f>
-        <v>cosmar</v>
+        <v>cfas</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
-        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
+        <v>Conservation International (ci)</v>
       </c>
       <c r="B11" t="str">
         <f>providers_master!B11</f>
-        <v>cordio</v>
+        <v>ci</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
-        <v>Community Fishery Council (ccp)</v>
+        <v>EU Copernicus Marine Services (cmems)</v>
       </c>
       <c r="B12" t="str">
         <f>providers_master!B12</f>
-        <v>ccp</v>
+        <v>cmems</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
-        <v>Community Forest Associations (cfas)</v>
+        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
       </c>
       <c r="B13" t="str">
         <f>providers_master!B13</f>
-        <v>cfas</v>
+        <v>cmr</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
-        <v>Conservation International (ci)</v>
+        <v>EU Copernicus (copernicus)</v>
       </c>
       <c r="B14" t="str">
         <f>providers_master!B14</f>
-        <v>ci</v>
+        <v>copernicus</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
-        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
+        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
       </c>
       <c r="B15" t="str">
         <f>providers_master!B15</f>
-        <v>wio_c</v>
+        <v>cordio</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
-        <v>Department of Environmental Affairs of South Africa (deasf)</v>
+        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
       </c>
       <c r="B16" t="str">
         <f>providers_master!B16</f>
-        <v>deasf</v>
+        <v>cosmar</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
-        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
+        <v>University of Colorado (dbseabed)</v>
       </c>
       <c r="B17" t="str">
         <f>providers_master!B17</f>
-        <v>giz</v>
+        <v>dbseabed</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5575,91 +5699,91 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
-        <v>DIVA Gis (diva)</v>
+        <v>Department of Environmental Affairs of South Africa (deasf)</v>
       </c>
       <c r="B19" t="str">
         <f>providers_master!B19</f>
-        <v>diva</v>
+        <v>deasf</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
-        <v>East African Community (eac)</v>
+        <v>DIVA Gis (diva)</v>
       </c>
       <c r="B20" t="str">
         <f>providers_master!B20</f>
-        <v>eac</v>
+        <v>diva</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
-        <v>East African Wildlife Society (eawls)</v>
+        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
       </c>
       <c r="B21" t="str">
         <f>providers_master!B21</f>
-        <v>eawls</v>
+        <v>dnef</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
-        <v>ESRI (esri)</v>
+        <v>East African Community (eac)</v>
       </c>
       <c r="B22" t="str">
         <f>providers_master!B22</f>
-        <v>esri</v>
+        <v>eac</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
-        <v>EU Copernicus (copernicus)</v>
+        <v>East African Wildlife Society (eawls)</v>
       </c>
       <c r="B23" t="str">
         <f>providers_master!B23</f>
-        <v>copernicus</v>
+        <v>eawls</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
-        <v>EU Copernicus Marine Services (cmems)</v>
+        <v>Global Environmental Flows Network (eflownet)</v>
       </c>
       <c r="B24" t="str">
         <f>providers_master!B24</f>
-        <v>cmems</v>
+        <v>eflownet</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
-        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
+        <v>ESRI (esri)</v>
       </c>
       <c r="B25" t="str">
         <f>providers_master!B25</f>
-        <v>iforce</v>
+        <v>esri</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
-        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
+        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
       </c>
       <c r="B26" t="str">
         <f>providers_master!B26</f>
-        <v>jrcdc</v>
+        <v>fao</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
-        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
+        <v>Somalia Water and Land Information Management (fao_swalim)</v>
       </c>
       <c r="B27" t="str">
         <f>providers_master!B27</f>
-        <v>fao</v>
+        <v>fao_swalim</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5675,51 +5799,51 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
-        <v>General Bathymetric Chart of the Oceans (gebco)</v>
+        <v>Global Biodiversity Information Facility (gbif)</v>
       </c>
       <c r="B29" t="str">
         <f>providers_master!B29</f>
-        <v>gebco</v>
+        <v>gbif</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
-        <v>Geological Survey of Denmark and Greenland (geus)</v>
+        <v>General Bathymetric Chart of the Oceans (gebco)</v>
       </c>
       <c r="B30" t="str">
         <f>providers_master!B30</f>
-        <v>geus</v>
+        <v>gebco</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
-        <v>Global Biodiversity Information Facility (gbif)</v>
+        <v>Global Environment Facility Trust Fund (gef)</v>
       </c>
       <c r="B31" t="str">
         <f>providers_master!B31</f>
-        <v>gbif</v>
+        <v>gef</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
-        <v>Global Environment Facility Trust Fund (gef)</v>
+        <v>Group on Earth Observations (geo)</v>
       </c>
       <c r="B32" t="str">
         <f>providers_master!B32</f>
-        <v>gef</v>
+        <v>geo</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
-        <v>Global Environmental Flows Network (eflownet)</v>
+        <v>Geological Survey of Denmark and Greenland (geus)</v>
       </c>
       <c r="B33" t="str">
         <f>providers_master!B33</f>
-        <v>eflownet</v>
+        <v>geus</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5735,21 +5859,21 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
-        <v>Global Ocean Data Analysis Project (glodap)</v>
+        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
       </c>
       <c r="B35" t="str">
         <f>providers_master!B35</f>
-        <v>glodap</v>
+        <v>giz</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
-        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
+        <v>Global Ocean Data Analysis Project (glodap)</v>
       </c>
       <c r="B36" t="str">
         <f>providers_master!B36</f>
-        <v>unep_gpa</v>
+        <v>glodap</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5765,561 +5889,561 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
-        <v>Group on Earth Observations (geo)</v>
+        <v>HUB Ocean (hub)</v>
       </c>
       <c r="B38" t="str">
         <f>providers_master!B38</f>
-        <v>geo</v>
+        <v>hub</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
-        <v>Indian Ocean Tuna Commission (iotc)</v>
+        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
       </c>
       <c r="B39" t="str">
         <f>providers_master!B39</f>
-        <v>iotc</v>
+        <v>iforce</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
-        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
+        <v>International Geosphere-Biosphere Programme (igbp)</v>
       </c>
       <c r="B40" t="str">
         <f>providers_master!B40</f>
-        <v>ims</v>
+        <v>igbp</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
-        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
+        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
       </c>
       <c r="B41" t="str">
         <f>providers_master!B41</f>
-        <v>ioc_unesco</v>
+        <v>ims</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
-        <v>International Geosphere-Biosphere Programme (igbp)</v>
+        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
       </c>
       <c r="B42" t="str">
         <f>providers_master!B42</f>
-        <v>igbp</v>
+        <v>ioc_recomap</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
-        <v>International Seabed Authority (isa)</v>
+        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
       </c>
       <c r="B43" t="str">
         <f>providers_master!B43</f>
-        <v>isa</v>
+        <v>ioc_unesco</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
-        <v>International Submarine Cable Protection Committe (iscpc)</v>
+        <v>Indian Ocean Tuna Commission (iotc)</v>
       </c>
       <c r="B44" t="str">
         <f>providers_master!B44</f>
-        <v>iscpc</v>
+        <v>iotc</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
-        <v>International Union for the Conservation of Nature (iucn)</v>
+        <v>International Seabed Authority (isa)</v>
       </c>
       <c r="B45" t="str">
         <f>providers_master!B45</f>
-        <v>iucn</v>
+        <v>isa</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
-        <v>Kenya Forest Service (kfs)</v>
+        <v>International Submarine Cable Protection Committe (iscpc)</v>
       </c>
       <c r="B46" t="str">
         <f>providers_master!B46</f>
-        <v>kfs</v>
+        <v>iscpc</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
-        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
+        <v>International Union for the Conservation of Nature (iucn)</v>
       </c>
       <c r="B47" t="str">
         <f>providers_master!B47</f>
-        <v>kmfri</v>
+        <v>iucn</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
-        <v>Literature (lit)</v>
+        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
       </c>
       <c r="B48" t="str">
         <f>providers_master!B48</f>
-        <v>lit</v>
+        <v>iucn-wani</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
-        <v>Locally Managed Marine Area (lmma)</v>
+        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
       </c>
       <c r="B49" t="str">
         <f>providers_master!B49</f>
-        <v>lmma</v>
+        <v>jrcdc</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
-        <v>Mangrove Action Project (map)</v>
+        <v>Kenya Forest Service (kfs)</v>
       </c>
       <c r="B50" t="str">
         <f>providers_master!B50</f>
-        <v>map</v>
+        <v>kfs</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
-        <v>Marine Protection Atlas (mpatlas)</v>
+        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
       </c>
       <c r="B51" t="str">
         <f>providers_master!B51</f>
-        <v>mpatlas</v>
+        <v>kmfri</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
-        <v>Marine Regions organization (mro)</v>
+        <v>The Knowledge Network for Biocomplexity (knb)</v>
       </c>
       <c r="B52" t="str">
         <f>providers_master!B52</f>
-        <v>mro</v>
+        <v>knb</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
-        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
+        <v>Literature (lit)</v>
       </c>
       <c r="B53" t="str">
         <f>providers_master!B53</f>
-        <v>maspawio</v>
+        <v>lit</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
-        <v>Marine Traffic (marinetraffic)</v>
+        <v>Locally Managed Marine Area (lmma)</v>
       </c>
       <c r="B54" t="str">
         <f>providers_master!B54</f>
-        <v>marinetraffic</v>
+        <v>lmma</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
-        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
+        <v>Mangrove Action Project (map)</v>
       </c>
       <c r="B55" t="str">
         <f>providers_master!B55</f>
-        <v>mcbff</v>
+        <v>map</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
-        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
+        <v>Marine Traffic (marinetraffic)</v>
       </c>
       <c r="B56" t="str">
         <f>providers_master!B56</f>
-        <v>mendu</v>
+        <v>marinetraffic</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
-        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
+        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
       </c>
       <c r="B57" t="str">
         <f>providers_master!B57</f>
-        <v>menrts</v>
+        <v>maspawio</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
-        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
+        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
       </c>
       <c r="B58" t="str">
         <f>providers_master!B58</f>
-        <v>mlerdm</v>
+        <v>mcbff</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
-        <v>NASA Earth Observations (nasa)</v>
+        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
       </c>
       <c r="B59" t="str">
         <f>providers_master!B59</f>
-        <v>nasa</v>
+        <v>mendu</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
-        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
+        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
       </c>
       <c r="B60" t="str">
         <f>providers_master!B60</f>
-        <v>dnef</v>
+        <v>menrts</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
-        <v>National Environment Management Authority of Kenya (nema)</v>
+        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
       </c>
       <c r="B61" t="str">
         <f>providers_master!B61</f>
-        <v>nema</v>
+        <v>mlerdm</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
-        <v>National Environment Management Council of Tanzania (nemc)</v>
+        <v>Marine Protection Atlas (mpatlas)</v>
       </c>
       <c r="B62" t="str">
         <f>providers_master!B62</f>
-        <v>nemc</v>
+        <v>mpatlas</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
-        <v>Natural Earth (naturalearth)</v>
+        <v>Marine Regions organization (mro)</v>
       </c>
       <c r="B63" t="str">
         <f>providers_master!B63</f>
-        <v>naturalearth</v>
+        <v>mro</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
-        <v>Nelson Mandela University (nmu)</v>
+        <v>NASA Earth Observations (nasa)</v>
       </c>
       <c r="B64" t="str">
         <f>providers_master!B64</f>
-        <v>nmu</v>
+        <v>nasa</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
-        <v>New Partnership for Africa’s Development (nepad)</v>
+        <v>Natural Earth (naturalearth)</v>
       </c>
       <c r="B65" t="str">
         <f>providers_master!B65</f>
-        <v>nepad</v>
+        <v>naturalearth</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
-        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
+        <v>National Environment Management Authority of Kenya (nema)</v>
       </c>
       <c r="B66" t="str">
         <f>providers_master!B66</f>
-        <v>cmr</v>
+        <v>nema</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
-        <v>Northern Mozambique Channel initiative (nmci)</v>
+        <v>National Environment Management Council of Tanzania (nemc)</v>
       </c>
       <c r="B67" t="str">
         <f>providers_master!B67</f>
-        <v>nmci</v>
+        <v>nemc</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
-        <v>Ocean Biogeographic Information System (obis)</v>
+        <v>New Partnership for Africa’s Development (nepad)</v>
       </c>
       <c r="B68" t="str">
         <f>providers_master!B68</f>
-        <v>obis</v>
+        <v>nepad</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
-        <v>OceanSITES (ocsi)</v>
+        <v>Northern Mozambique Channel initiative (nmci)</v>
       </c>
       <c r="B69" t="str">
         <f>providers_master!B69</f>
-        <v>ocsi</v>
+        <v>nmci</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
-        <v>Open Street Map (osm)</v>
+        <v>Nelson Mandela University (nmu)</v>
       </c>
       <c r="B70" t="str">
         <f>providers_master!B70</f>
-        <v>osm</v>
+        <v>nmu</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
-        <v>Orbcomm Satellite AIS (orbcom)</v>
+        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
       </c>
       <c r="B71" t="str">
         <f>providers_master!B71</f>
-        <v>orbcom</v>
+        <v>noaa</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
-        <v>ReefBase (reba)</v>
+        <v>No provider selected (none)</v>
       </c>
       <c r="B72" t="str">
         <f>providers_master!B72</f>
-        <v>reba</v>
+        <v>none</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
-        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
+        <v>Norsk Polarinstitutt (npi)</v>
       </c>
       <c r="B73" t="str">
         <f>providers_master!B73</f>
-        <v>ioc_recomap</v>
+        <v>npi</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
-        <v>Regional Fisheries Management Organization (rfmo)</v>
+        <v>Ocean Biogeographic Information System (obis)</v>
       </c>
       <c r="B74" t="str">
         <f>providers_master!B74</f>
-        <v>rfmo</v>
+        <v>obis</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
-        <v>River Basin Organizations (rbo)</v>
+        <v>The Ocean Cleanup project (ocp)</v>
       </c>
       <c r="B75" t="str">
         <f>providers_master!B75</f>
-        <v>rbo</v>
+        <v>ocp</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
-        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
+        <v>OceanSITES (ocsi)</v>
       </c>
       <c r="B76" t="str">
         <f>providers_master!B76</f>
-        <v>seyccat</v>
+        <v>ocsi</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
-        <v>Shared Water Course Institution (swci)</v>
+        <v>Orbcomm Satellite AIS (orbcom)</v>
       </c>
       <c r="B77" t="str">
         <f>providers_master!B77</f>
-        <v>swci</v>
+        <v>orbcom</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
-        <v>Somalia Water and Land Information Management (fao_swalim)</v>
+        <v>Open Street Map (osm)</v>
       </c>
       <c r="B78" t="str">
         <f>providers_master!B78</f>
-        <v>fao_swalim</v>
+        <v>osm</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
-        <v>Somalia water and land information management (swalim)</v>
+        <v>Pangaea (pangaea)</v>
       </c>
       <c r="B79" t="str">
         <f>providers_master!B79</f>
-        <v>swalim</v>
+        <v>pangaea</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
-        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
+        <v>River Basin Organizations (rbo)</v>
       </c>
       <c r="B80" t="str">
         <f>providers_master!B80</f>
-        <v>swiofp</v>
+        <v>rbo</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
-        <v>Southern African Development Community (sadc)</v>
+        <v>ReefBase (reba)</v>
       </c>
       <c r="B81" t="str">
         <f>providers_master!B81</f>
-        <v>sadc</v>
+        <v>reba</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
-        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
+        <v>Regional Fisheries Management Organization (rfmo)</v>
       </c>
       <c r="B82" t="str">
         <f>providers_master!B82</f>
-        <v>swamp</v>
+        <v>rfmo</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
-        <v>Swedish International Water Institute (siwi)</v>
+        <v>Southern African Development Community (sadc)</v>
       </c>
       <c r="B83" t="str">
         <f>providers_master!B83</f>
-        <v>siwi</v>
+        <v>sadc</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
-        <v>TeleGeography (telgeo)</v>
+        <v>South African National Biodiversity Institute (sanbi)</v>
       </c>
       <c r="B84" t="str">
         <f>providers_master!B84</f>
-        <v>telgeo</v>
+        <v>sanbi</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
-        <v>The Knowledge Network for Biocomplexity (knb)</v>
+        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
       </c>
       <c r="B85" t="str">
         <f>providers_master!B85</f>
-        <v>knb</v>
+        <v>seyccat</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
-        <v>The Nature Conservancy (tnc)</v>
+        <v>Swedish International Water Institute (siwi)</v>
       </c>
       <c r="B86" t="str">
         <f>providers_master!B86</f>
-        <v>tnc</v>
+        <v>siwi</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
-        <v>The Ocean Cleanup project (ocp)</v>
+        <v>Somalia water and land information management (swalim)</v>
       </c>
       <c r="B87" t="str">
         <f>providers_master!B87</f>
-        <v>ocp</v>
+        <v>swalim</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
-        <v>The United Nations Support Office in Somalia (unsos)</v>
+        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
       </c>
       <c r="B88" t="str">
         <f>providers_master!B88</f>
-        <v>unsos</v>
+        <v>swamp</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
-        <v>U.S. Geological Survey (usgs)</v>
+        <v>Shared Water Course Institution (swci)</v>
       </c>
       <c r="B89" t="str">
         <f>providers_master!B89</f>
-        <v>usgs</v>
+        <v>swci</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
-        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
+        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
       </c>
       <c r="B90" t="str">
         <f>providers_master!B90</f>
-        <v>noaa</v>
+        <v>swiofp</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
-        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
+        <v>TeleGeography (telgeo)</v>
       </c>
       <c r="B91" t="str">
         <f>providers_master!B91</f>
-        <v>wcmc</v>
+        <v>telgeo</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
-        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
+        <v>The Nature Conservancy (tnc)</v>
       </c>
       <c r="B92" t="str">
         <f>providers_master!B92</f>
-        <v>unesco_fust</v>
+        <v>tnc</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
-        <v>United Nations Agency for Human Settlements (unhabitat)</v>
+        <v>UN Biodiversity Lab (unbl)</v>
       </c>
       <c r="B93" t="str">
         <f>providers_master!B93</f>
-        <v>unhabitat</v>
+        <v>unbl</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6335,251 +6459,311 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
-        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
+        <v>United Nations Environment Programme (unep)</v>
       </c>
       <c r="B95" t="str">
         <f>providers_master!B95</f>
-        <v>unesco</v>
+        <v>unep</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
-        <v>United Nations Environment Programme (unep)</v>
+        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
       </c>
       <c r="B96" t="str">
         <f>providers_master!B96</f>
-        <v>unep</v>
+        <v>unep_gpa</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
-        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
+        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
       </c>
       <c r="B97" t="str">
         <f>providers_master!B97</f>
-        <v>unfccc</v>
+        <v>unesco</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
-        <v>United Nations Industrial Development Organisation (unido)</v>
+        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
       </c>
       <c r="B98" t="str">
         <f>providers_master!B98</f>
-        <v>unido</v>
+        <v>unesco_fust</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
-        <v>United Nations Office for Project Services (unops)</v>
+        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
       </c>
       <c r="B99" t="str">
         <f>providers_master!B99</f>
-        <v>unops</v>
+        <v>unfccc</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
-        <v>United States Agency for International Development (usaid)</v>
+        <v>United Nations Agency for Human Settlements (unhabitat)</v>
       </c>
       <c r="B100" t="str">
         <f>providers_master!B100</f>
-        <v>usaid</v>
+        <v>unhabitat</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
-        <v>United States Forest Service (usfs)</v>
+        <v>United Nations Industrial Development Organisation (unido)</v>
       </c>
       <c r="B101" t="str">
         <f>providers_master!B101</f>
-        <v>usfs</v>
+        <v>unido</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
-        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
+        <v>United Nations Office for Project Services (unops)</v>
       </c>
       <c r="B102" t="str">
         <f>providers_master!B102</f>
-        <v>iucn-wani</v>
+        <v>unops</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
-        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
+        <v>The United Nations Support Office in Somalia (unsos)</v>
       </c>
       <c r="B103" t="str">
         <f>providers_master!B103</f>
-        <v>wiomn</v>
+        <v>unsos</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
-        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
+        <v>United States Agency for International Development (usaid)</v>
       </c>
       <c r="B104" t="str">
         <f>providers_master!B104</f>
-        <v>wiomer</v>
+        <v>usaid</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
-        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
+        <v>United States Forest Service (usfs)</v>
       </c>
       <c r="B105" t="str">
         <f>providers_master!B105</f>
-        <v>wiomsa</v>
+        <v>usfs</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
-        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
+        <v>U.S. Geological Survey (usgs)</v>
       </c>
       <c r="B106" t="str">
         <f>providers_master!B106</f>
-        <v>wiosap</v>
+        <v>usgs</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
-        <v>Wetlands International (wi)</v>
+        <v>VLIZ - Flanders Marine Institute (vliz)</v>
       </c>
       <c r="B107" t="str">
         <f>providers_master!B107</f>
-        <v>wi</v>
+        <v>vliz</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
-        <v>Wildlife Conservation Society (wcs)</v>
+        <v>World Bank (wb)</v>
       </c>
       <c r="B108" t="str">
         <f>providers_master!B108</f>
-        <v>wcs</v>
+        <v>wb</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
-        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
+        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
       </c>
       <c r="B109" t="str">
         <f>providers_master!B109</f>
-        <v>wiolab</v>
+        <v>wcmc</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
-        <v>VLIZ - Flanders Marine Institute (vliz)</v>
+        <v>Wildlife Conservation Society (wcs)</v>
       </c>
       <c r="B110" t="str">
         <f>providers_master!B110</f>
-        <v>vliz</v>
+        <v>wcs</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
-        <v>World Bank (wb)</v>
+        <v>World Database on Protected Areas (wdpa)</v>
       </c>
       <c r="B111" t="str">
         <f>providers_master!B111</f>
-        <v>wb</v>
+        <v>wdpa</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
-        <v>World Database on Protected Areas (wdpa)</v>
+        <v>World Environment Center (wec)</v>
       </c>
       <c r="B112" t="str">
         <f>providers_master!B112</f>
-        <v>wdpa</v>
+        <v>wec</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
-        <v>World Environment Center (wec)</v>
+        <v>UN World Food Programme  (wfp)</v>
       </c>
       <c r="B113" t="str">
         <f>providers_master!B113</f>
-        <v>wec</v>
+        <v>wfp</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
-        <v>World Resources Institute (wri)</v>
+        <v>Wetlands International (wi)</v>
       </c>
       <c r="B114" t="str">
         <f>providers_master!B114</f>
-        <v>wri</v>
+        <v>wi</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
-        <v>World Wide Fund for Nature (wwf)</v>
+        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
       </c>
       <c r="B115" t="str">
         <f>providers_master!B115</f>
-        <v>wwf</v>
+        <v>wio_c</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
-        <v>UN Biodiversity Lab (unbl)</v>
+        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
       </c>
       <c r="B116" t="str">
         <f>providers_master!B116</f>
-        <v>unbl</v>
+        <v>wiolab</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>CONCATENATE(providers_master!A117, " (",providers_master!B117, ")")</f>
-        <v>Norsk Polarinstitutt (npi)</v>
+        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
       </c>
       <c r="B117" t="str">
         <f>providers_master!B117</f>
-        <v>npi</v>
+        <v>wiomer</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>CONCATENATE(providers_master!A118, " (",providers_master!B118, ")")</f>
-        <v>UN World Food Programme  (wfp)</v>
+        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
       </c>
       <c r="B118" t="str">
         <f>providers_master!B118</f>
-        <v>wfp</v>
+        <v>wiomn</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>CONCATENATE(providers_master!A119, " (",providers_master!B119, ")")</f>
-        <v>HUB Ocean (hub)</v>
+        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
       </c>
       <c r="B119" t="str">
         <f>providers_master!B119</f>
-        <v>hub</v>
+        <v>wiomsa</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>CONCATENATE(providers_master!A120, " (",providers_master!B120, ")")</f>
+        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
+      </c>
+      <c r="B120" t="str">
+        <f>providers_master!B120</f>
+        <v>wiosap</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>CONCATENATE(providers_master!A121, " (",providers_master!B121, ")")</f>
+        <v>World Resources Institute (wri)</v>
+      </c>
+      <c r="B121" t="str">
+        <f>providers_master!B121</f>
+        <v>wri</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>CONCATENATE(providers_master!A122, " (",providers_master!B122, ")")</f>
+        <v>World Wide Fund for Nature (wwf)</v>
+      </c>
+      <c r="B122" t="str">
+        <f>providers_master!B122</f>
+        <v>wwf</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>CONCATENATE(providers_master!A123, " (",providers_master!B123, ")")</f>
+        <v>Global Mangrove Watch (gmw)</v>
+      </c>
+      <c r="B123" t="str">
+        <f>providers_master!B123</f>
+        <v>gmw</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>CONCATENATE(providers_master!A124, " (",providers_master!B124, ")")</f>
+        <v>Be Geospatial (begeospatial)</v>
+      </c>
+      <c r="B124" t="str">
+        <f>providers_master!B124</f>
+        <v>begeospatial</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>CONCATENATE(providers_master!A125, " (",providers_master!B125, ")")</f>
+        <v>MapStand (mapstand)</v>
+      </c>
+      <c r="B125" t="str">
+        <f>providers_master!B125</f>
+        <v>mapstand</v>
       </c>
     </row>
   </sheetData>
@@ -12098,10 +12282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12142,123 +12326,126 @@
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
+      <c r="D5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
@@ -12285,79 +12472,117 @@
     </row>
     <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>116</v>
+        <v>280</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>123</v>
+      <c r="A17" s="37" t="s">
+        <v>1317</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
@@ -12384,132 +12609,93 @@
     </row>
     <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -12519,39 +12705,39 @@
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="A27" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -12563,20 +12749,18 @@
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>163</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -12586,18 +12770,20 @@
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="F30" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -12607,19 +12793,17 @@
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="8"/>
@@ -12628,17 +12812,19 @@
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="5" t="s">
-        <v>175</v>
+      <c r="D32" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8"/>
@@ -12647,11 +12833,24 @@
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -12676,35 +12875,32 @@
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
@@ -12729,219 +12925,222 @@
     </row>
     <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+        <v>1310</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>204</v>
+      <c r="A42" s="37" t="s">
+        <v>305</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>218</v>
+      <c r="D45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="A48" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>239</v>
+      <c r="A52" s="37" t="s">
+        <v>340</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -12951,164 +13150,168 @@
     </row>
     <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="6"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>253</v>
+        <v>232</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>13</v>
+        <v>252</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -13118,128 +13321,117 @@
     </row>
     <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>278</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>297</v>
+      <c r="A71" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="9"/>
+        <v>360</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="F71" s="4" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -13249,160 +13441,165 @@
     </row>
     <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="A73" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
     </row>
     <row r="74" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+        <v>288</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C78" s="16"/>
+        <v>293</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D78" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>319</v>
+        <v>294</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>295</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G78" s="6"/>
+        <v>296</v>
+      </c>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>1319</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="46" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -13411,27 +13608,28 @@
     </row>
     <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="14"/>
@@ -13445,15 +13643,15 @@
     </row>
     <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+        <v>330</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -13462,48 +13660,50 @@
     </row>
     <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+        <v>1324</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="14"/>
@@ -13517,141 +13717,139 @@
     </row>
     <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C87" s="16"/>
+        <v>322</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D87" s="13" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G87" s="6"/>
+        <v>324</v>
+      </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="A88" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H89" s="6"/>
+      <c r="A89" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>359</v>
+        <v>325</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>361</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E90" s="16"/>
       <c r="F90" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>365</v>
+        <v>336</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+        <v>344</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="A93" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
@@ -13672,10 +13870,10 @@
     </row>
     <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="14"/>
@@ -13689,16 +13887,18 @@
     </row>
     <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>381</v>
+        <v>187</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -13706,10 +13906,10 @@
     </row>
     <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
@@ -13723,27 +13923,30 @@
     </row>
     <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
@@ -13756,14 +13959,16 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
-        <v>388</v>
+      <c r="A100" s="37" t="s">
+        <v>373</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C100" s="15"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="7"/>
@@ -13773,11 +13978,11 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>390</v>
+      <c r="A101" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="14"/>
@@ -13791,14 +13996,12 @@
     </row>
     <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C102" s="15"/>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -13809,34 +14012,33 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
+      <c r="A103" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>3</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C104" s="15"/>
       <c r="D104" s="14"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -13848,14 +14050,12 @@
     </row>
     <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>3</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C105" s="15"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="15"/>
@@ -13866,59 +14066,60 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
+      <c r="A106" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C107" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="D107" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E108" s="15"/>
       <c r="F108" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -13928,72 +14129,74 @@
     </row>
     <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C110" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E110" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="E110" s="15"/>
       <c r="F110" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+        <v>407</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>417</v>
-      </c>
+      <c r="D111" s="14"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="2" t="s">
-        <v>418</v>
-      </c>
+      <c r="F111" s="15"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>29</v>
@@ -14007,18 +14210,22 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
-        <v>421</v>
+        <v>1309</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>422</v>
+        <v>1307</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>1308</v>
+      </c>
       <c r="F113" s="15"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -14026,129 +14233,267 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C114" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="9"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
     </row>
     <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="48"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+    </row>
+    <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+    </row>
+    <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+    </row>
+    <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G121" s="17"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B122" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C122" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D122" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E122" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F122" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="C116" s="36" t="s">
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-    </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C117" s="41" t="s">
+      <c r="D123" s="7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="F117" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-    </row>
-    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C118" s="7" t="s">
+      <c r="D125" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C126" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C119" s="7" t="s">
+      <c r="D126" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>1311</v>
+      <c r="D127" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K122">
+    <sortCondition ref="B2:B122"/>
+  </sortState>
   <conditionalFormatting sqref="B118:B1048576 B1:B115">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
@@ -14156,70 +14501,71 @@
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D91" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
-    <hyperlink ref="D53" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
-    <hyperlink ref="D115" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
-    <hyperlink ref="D63" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
-    <hyperlink ref="D71" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
-    <hyperlink ref="D114" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
-    <hyperlink ref="D8" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
-    <hyperlink ref="D26" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
-    <hyperlink ref="D38" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
-    <hyperlink ref="D59" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
+    <hyperlink ref="D109" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
+    <hyperlink ref="D57" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
+    <hyperlink ref="D122" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
+    <hyperlink ref="D65" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
+    <hyperlink ref="D77" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
+    <hyperlink ref="D121" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
+    <hyperlink ref="D7" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
+    <hyperlink ref="D49" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
+    <hyperlink ref="D32" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
+    <hyperlink ref="D64" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
     <hyperlink ref="D34" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
-    <hyperlink ref="D29" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
-    <hyperlink ref="D3" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
-    <hyperlink ref="D110" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
-    <hyperlink ref="D69" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
-    <hyperlink ref="D85" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
-    <hyperlink ref="D30" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
-    <hyperlink ref="D79" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
-    <hyperlink ref="D54" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
-    <hyperlink ref="D7" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
-    <hyperlink ref="D88" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
-    <hyperlink ref="E78" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
-    <hyperlink ref="D52" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
-    <hyperlink ref="E23" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
-    <hyperlink ref="D89" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
-    <hyperlink ref="D72" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
-    <hyperlink ref="D22" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
-    <hyperlink ref="D87" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
+    <hyperlink ref="D30" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
+    <hyperlink ref="D107" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
+    <hyperlink ref="D76" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
+    <hyperlink ref="D52" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
+    <hyperlink ref="D39" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
+    <hyperlink ref="D87" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
+    <hyperlink ref="D56" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
+    <hyperlink ref="D6" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
+    <hyperlink ref="D103" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
+    <hyperlink ref="E27" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
+    <hyperlink ref="D63" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
+    <hyperlink ref="E14" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
+    <hyperlink ref="D106" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
+    <hyperlink ref="D81" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
+    <hyperlink ref="D25" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
+    <hyperlink ref="D75" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
     <hyperlink ref="D9" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
-    <hyperlink ref="D44" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
-    <hyperlink ref="D43" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
-    <hyperlink ref="D51" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
-    <hyperlink ref="E91" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
-    <hyperlink ref="E115" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
-    <hyperlink ref="E90" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
-    <hyperlink ref="D90" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
-    <hyperlink ref="E68" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
-    <hyperlink ref="E114" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
-    <hyperlink ref="E59" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
-    <hyperlink ref="E43" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
-    <hyperlink ref="E84" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
-    <hyperlink ref="E3" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
-    <hyperlink ref="E48" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
-    <hyperlink ref="D78" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
-    <hyperlink ref="E92" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
+    <hyperlink ref="D46" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
+    <hyperlink ref="D45" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
+    <hyperlink ref="D62" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
+    <hyperlink ref="E109" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
+    <hyperlink ref="E122" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
+    <hyperlink ref="E71" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
+    <hyperlink ref="E74" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
+    <hyperlink ref="E121" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
+    <hyperlink ref="E64" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
+    <hyperlink ref="E45" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
+    <hyperlink ref="E91" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
+    <hyperlink ref="E5" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
+    <hyperlink ref="E53" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
+    <hyperlink ref="D27" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
+    <hyperlink ref="E98" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
     <hyperlink ref="D37" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
-    <hyperlink ref="D41" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
-    <hyperlink ref="D45" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
-    <hyperlink ref="E45" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
-    <hyperlink ref="D80" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
-    <hyperlink ref="D32" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
-    <hyperlink ref="D55" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
-    <hyperlink ref="D109" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
-    <hyperlink ref="D108" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
-    <hyperlink ref="D111" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
-    <hyperlink ref="D70" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
-    <hyperlink ref="E70" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
-    <hyperlink ref="D118" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
+    <hyperlink ref="D43" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
+    <hyperlink ref="D47" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
+    <hyperlink ref="E47" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
+    <hyperlink ref="D90" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
+    <hyperlink ref="D31" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
+    <hyperlink ref="D58" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
+    <hyperlink ref="D116" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
+    <hyperlink ref="D110" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
+    <hyperlink ref="D108" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
+    <hyperlink ref="D78" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
+    <hyperlink ref="E78" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
+    <hyperlink ref="E113" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
+    <hyperlink ref="D124" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sgu.se\SGU\prod\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F9524-27D7-43BE-B435-6E1E3B226291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D304FA8-366A-4F6F-8FDF-0EA1EBF4B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1356">
   <si>
     <t>location_name</t>
   </si>
@@ -4142,6 +4142,18 @@
   </si>
   <si>
     <t>https://koordinates.com/</t>
+  </si>
+  <si>
+    <t>pureearth</t>
+  </si>
+  <si>
+    <t>www.contaminatedsites.org</t>
+  </si>
+  <si>
+    <t>Pure Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSIP program is coordinated by Pure Earth and funded by the European Commission, UNIDO, The World Bank, the Asian Development Bank, USAID and others.  </t>
   </si>
 </sst>
 </file>
@@ -4806,7 +4818,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4883,16 +4895,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5387,13 +5395,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5409,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5425,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5433,7 +5441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5441,7 +5449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5449,7 +5457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5457,7 +5465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5489,7 +5497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5497,7 +5505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5523,17 +5531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE(providers_master!A2, " (",providers_master!B2, ")")</f>
         <v>No provider selected (none)</v>
@@ -5551,7 +5559,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE(providers_master!A3, " (",providers_master!B3, ")")</f>
         <v>Africa Regional Data Cube (ardc)</v>
@@ -5561,7 +5569,7 @@
         <v>ardc</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE(providers_master!A4, " (",providers_master!B4, ")")</f>
         <v>African Development Bank (afdb)</v>
@@ -5571,7 +5579,7 @@
         <v>afdb</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
         <v>Allen Coral Atlas (allen)</v>
@@ -5581,7 +5589,7 @@
         <v>allen</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
         <v>AquaMaps (aquamaps)</v>
@@ -5591,7 +5599,7 @@
         <v>aquamaps</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
         <v>Association of African Maritime Administrations (aama)</v>
@@ -5601,7 +5609,7 @@
         <v>aama</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
         <v>Be Geospatial (begeospatial)</v>
@@ -5611,7 +5619,7 @@
         <v>begeospatial</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>CONCATENATE(providers_master!A9, " (",providers_master!B9, ")")</f>
         <v>Belgian universities (biooracle)</v>
@@ -5621,7 +5629,7 @@
         <v>biooracle</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
         <v>Blue Habitats (bluehab)</v>
@@ -5631,7 +5639,7 @@
         <v>bluehab</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
         <v>CableMap (gcm)</v>
@@ -5641,7 +5649,7 @@
         <v>gcm</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
         <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
@@ -5651,7 +5659,7 @@
         <v>cefas</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
         <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
@@ -5661,7 +5669,7 @@
         <v>cosmar</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
         <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
@@ -5671,7 +5679,7 @@
         <v>cordio</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
         <v>Community Fishery Council (ccp)</v>
@@ -5681,7 +5689,7 @@
         <v>ccp</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
         <v>Community Forest Associations (cfas)</v>
@@ -5691,7 +5699,7 @@
         <v>cfas</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
         <v>Conservation International (ci)</v>
@@ -5701,7 +5709,7 @@
         <v>ci</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CONCATENATE(providers_master!A18, " (",providers_master!B18, ")")</f>
         <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
@@ -5711,7 +5719,7 @@
         <v>wio_c</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
         <v>Department of Environmental Affairs of South Africa (deasf)</v>
@@ -5721,7 +5729,7 @@
         <v>deasf</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
         <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
@@ -5731,7 +5739,7 @@
         <v>giz</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
         <v>Digital Earth Africa (dea)</v>
@@ -5741,7 +5749,7 @@
         <v>dea</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
         <v>DIVA Gis (diva)</v>
@@ -5751,7 +5759,7 @@
         <v>diva</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
         <v>East African Community (eac)</v>
@@ -5761,7 +5769,7 @@
         <v>eac</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
         <v>East African Wildlife Society (eawls)</v>
@@ -5771,7 +5779,7 @@
         <v>eawls</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
         <v>ESRI (esri)</v>
@@ -5781,7 +5789,7 @@
         <v>esri</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
         <v>EU Copernicus (copernicus)</v>
@@ -5791,7 +5799,7 @@
         <v>copernicus</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
         <v>EU Copernicus Marine Services (cmems)</v>
@@ -5801,7 +5809,7 @@
         <v>cmems</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
         <v>EU Forest Resources and Carbon Emissions (iforce)</v>
@@ -5811,7 +5819,7 @@
         <v>iforce</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
         <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
@@ -5821,7 +5829,7 @@
         <v>jrcdc</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
         <v>Food and Agricultural Organisation of the United Nations (fao)</v>
@@ -5831,7 +5839,7 @@
         <v>fao</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
         <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
@@ -5841,7 +5849,7 @@
         <v>fari</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
         <v>General Bathymetric Chart of the Oceans (gebco)</v>
@@ -5851,7 +5859,7 @@
         <v>gebco</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
         <v>Geological Survey of Denmark and Greenland (geus)</v>
@@ -5861,7 +5869,7 @@
         <v>geus</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
         <v>Global Biodiversity Information Facility (gbif)</v>
@@ -5871,7 +5879,7 @@
         <v>gbif</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
         <v>Global Environment Facility Trust Fund (gef)</v>
@@ -5881,7 +5889,7 @@
         <v>gef</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
         <v>Global Environmental Flows Network (eflownet)</v>
@@ -5891,7 +5899,7 @@
         <v>eflownet</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
         <v>Global Fishing Watch (gfw)</v>
@@ -5901,7 +5909,7 @@
         <v>gfw</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
         <v>Global Mangrove Watch (gmw)</v>
@@ -5911,7 +5919,7 @@
         <v>gmw</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
         <v>Global Ocean Data Analysis Project (glodap)</v>
@@ -5921,7 +5929,7 @@
         <v>glodap</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
         <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
@@ -5931,7 +5939,7 @@
         <v>unep_gpa</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
         <v>Grid Arendal (grida)</v>
@@ -5941,7 +5949,7 @@
         <v>grida</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
         <v>Group on Earth Observations (geo)</v>
@@ -5951,7 +5959,7 @@
         <v>geo</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
         <v>HUB Ocean (hub)</v>
@@ -5961,7 +5969,7 @@
         <v>hub</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
         <v>Indian Ocean Tuna Commission (iotc)</v>
@@ -5971,7 +5979,7 @@
         <v>iotc</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
         <v>Institute of Marine Sciences in Zanzibar (ims)</v>
@@ -5981,7 +5989,7 @@
         <v>ims</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
         <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
@@ -5991,7 +5999,7 @@
         <v>ioc_unesco</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
         <v>International Geosphere-Biosphere Programme (igbp)</v>
@@ -6001,7 +6009,7 @@
         <v>igbp</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
         <v>International Seabed Authority (isa)</v>
@@ -6011,7 +6019,7 @@
         <v>isa</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
         <v>International Submarine Cable Protection Committe (iscpc)</v>
@@ -6021,7 +6029,7 @@
         <v>iscpc</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
         <v>International Union for the Conservation of Nature (iucn)</v>
@@ -6031,7 +6039,7 @@
         <v>iucn</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
         <v>Kenya Forest Service (kfs)</v>
@@ -6041,7 +6049,7 @@
         <v>kfs</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
         <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
@@ -6051,7 +6059,7 @@
         <v>kmfri</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
         <v>Koordinates (koord)</v>
@@ -6061,7 +6069,7 @@
         <v>koord</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
         <v>Literature (lit)</v>
@@ -6071,7 +6079,7 @@
         <v>lit</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
         <v>Locally Managed Marine Area (lmma)</v>
@@ -6081,7 +6089,7 @@
         <v>lmma</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
         <v>Mangrove Action Project (map)</v>
@@ -6091,7 +6099,7 @@
         <v>map</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
         <v>MapStand (mapstand)</v>
@@ -6101,7 +6109,7 @@
         <v>mapstand</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
         <v>Marine Protection Atlas (mpatlas)</v>
@@ -6111,7 +6119,7 @@
         <v>mpatlas</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
         <v>Marine Regions organization (mro)</v>
@@ -6121,7 +6129,7 @@
         <v>mro</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
         <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
@@ -6131,7 +6139,7 @@
         <v>maspawio</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
         <v>Marine Traffic (marinetraffic)</v>
@@ -6141,7 +6149,7 @@
         <v>marinetraffic</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
         <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
@@ -6151,7 +6159,7 @@
         <v>mcbff</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
         <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
@@ -6161,7 +6169,7 @@
         <v>mendu</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
         <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
@@ -6171,7 +6179,7 @@
         <v>menrts</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
         <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
@@ -6181,7 +6189,7 @@
         <v>mlerdm</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
         <v>NASA Earth Observations (nasa)</v>
@@ -6191,7 +6199,7 @@
         <v>nasa</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
         <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
@@ -6201,7 +6209,7 @@
         <v>dnef</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
         <v>National Environment Management Authority of Kenya (nema)</v>
@@ -6211,7 +6219,7 @@
         <v>nema</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
         <v>National Environment Management Council of Tanzania (nemc)</v>
@@ -6221,7 +6229,7 @@
         <v>nemc</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
         <v>Natural Earth (naturalearth)</v>
@@ -6231,7 +6239,7 @@
         <v>naturalearth</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
         <v>Nelson Mandela University (nmu)</v>
@@ -6241,7 +6249,7 @@
         <v>nmu</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
         <v>New Partnership for Africa’s Development (nepad)</v>
@@ -6251,7 +6259,7 @@
         <v>nepad</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
         <v>NMU Institute for Coastal and Marine Research (cmr)</v>
@@ -6261,7 +6269,7 @@
         <v>cmr</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
         <v>Norsk Polarinstitutt (npi)</v>
@@ -6271,7 +6279,7 @@
         <v>npi</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
         <v>Northern Mozambique Channel initiative (nmci)</v>
@@ -6281,7 +6289,7 @@
         <v>nmci</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
         <v>Ocean Biogeographic Information System (obis)</v>
@@ -6291,7 +6299,7 @@
         <v>obis</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
         <v>OceanSITES (ocsi)</v>
@@ -6301,7 +6309,7 @@
         <v>ocsi</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
         <v>Open Street Map (osm)</v>
@@ -6311,7 +6319,7 @@
         <v>osm</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
         <v>Orbcomm Satellite AIS (orbcom)</v>
@@ -6321,7 +6329,7 @@
         <v>orbcom</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
         <v>Pangaea (pangaea)</v>
@@ -6331,7 +6339,7 @@
         <v>pangaea</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
         <v>ReefBase (reba)</v>
@@ -6341,7 +6349,7 @@
         <v>reba</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
         <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
@@ -6351,7 +6359,7 @@
         <v>ioc_recomap</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
         <v>Regional Fisheries Management Organization (rfmo)</v>
@@ -6361,7 +6369,7 @@
         <v>rfmo</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
         <v>River Basin Organizations (rbo)</v>
@@ -6371,7 +6379,7 @@
         <v>rbo</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
         <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
@@ -6381,7 +6389,7 @@
         <v>seyccat</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
         <v>Shared Water Course Institution (swci)</v>
@@ -6391,7 +6399,7 @@
         <v>swci</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
         <v>Somalia Water and Land Information Management (fao_swalim)</v>
@@ -6401,7 +6409,7 @@
         <v>fao_swalim</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
         <v>Somalia water and land information management (swalim)</v>
@@ -6411,7 +6419,7 @@
         <v>swalim</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
         <v>South African National Biodiversity Institute (sanbi)</v>
@@ -6421,7 +6429,7 @@
         <v>sanbi</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
         <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
@@ -6431,7 +6439,7 @@
         <v>swiofp</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
         <v>Southern African Development Community (sadc)</v>
@@ -6441,7 +6449,7 @@
         <v>sadc</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
         <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
@@ -6451,7 +6459,7 @@
         <v>swamp</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
         <v>Swedish International Water Institute (siwi)</v>
@@ -6461,7 +6469,7 @@
         <v>siwi</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
         <v>TeleGeography (telgeo)</v>
@@ -6471,7 +6479,7 @@
         <v>telgeo</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
         <v>The Knowledge Network for Biocomplexity (knb)</v>
@@ -6481,7 +6489,7 @@
         <v>knb</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
         <v>The Nature Conservancy (tnc)</v>
@@ -6491,7 +6499,7 @@
         <v>tnc</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
         <v>The Ocean Cleanup project (ocp)</v>
@@ -6501,7 +6509,7 @@
         <v>ocp</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
         <v>The United Nations Support Office in Somalia (unsos)</v>
@@ -6511,7 +6519,7 @@
         <v>unsos</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
         <v>U.S. Geological Survey (usgs)</v>
@@ -6521,7 +6529,7 @@
         <v>usgs</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
         <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
@@ -6531,7 +6539,7 @@
         <v>noaa</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
         <v>UN Biodiversity Lab (unbl)</v>
@@ -6541,7 +6549,7 @@
         <v>unbl</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
         <v>UN World Food Programme  (wfp)</v>
@@ -6551,7 +6559,7 @@
         <v>wfp</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
         <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
@@ -6561,7 +6569,7 @@
         <v>wcmc</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
         <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
@@ -6571,7 +6579,7 @@
         <v>unesco_fust</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
         <v>United Nations Agency for Human Settlements (unhabitat)</v>
@@ -6581,7 +6589,7 @@
         <v>unhabitat</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
         <v>United Nations Development Programme (undp)</v>
@@ -6591,7 +6599,7 @@
         <v>undp</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
         <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
@@ -6601,7 +6609,7 @@
         <v>unesco</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
         <v>United Nations Environment Programme (unep)</v>
@@ -6611,7 +6619,7 @@
         <v>unep</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
         <v>United Nations Framework Convention on Climate Change (unfccc)</v>
@@ -6621,7 +6629,7 @@
         <v>unfccc</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
         <v>United Nations Industrial Development Organisation (unido)</v>
@@ -6631,7 +6639,7 @@
         <v>unido</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
         <v>United Nations Office for Project Services (unops)</v>
@@ -6641,7 +6649,7 @@
         <v>unops</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
         <v>United States Agency for International Development (usaid)</v>
@@ -6651,7 +6659,7 @@
         <v>usaid</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
         <v>United States Forest Service (usfs)</v>
@@ -6661,7 +6669,7 @@
         <v>usfs</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
         <v>University of Colorado (dbseabed)</v>
@@ -6671,7 +6679,7 @@
         <v>dbseabed</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
         <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
@@ -6681,7 +6689,7 @@
         <v>iucn-wani</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
         <v>Western Indian Ocean Mangrove Network (wiomn)</v>
@@ -6691,7 +6699,7 @@
         <v>wiomn</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>CONCATENATE(providers_master!A117, " (",providers_master!B117, ")")</f>
         <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
@@ -6701,7 +6709,7 @@
         <v>wiomer</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>CONCATENATE(providers_master!A118, " (",providers_master!B118, ")")</f>
         <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
@@ -6711,7 +6719,7 @@
         <v>wiomsa</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>CONCATENATE(providers_master!A119, " (",providers_master!B119, ")")</f>
         <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
@@ -6721,7 +6729,7 @@
         <v>wiosap</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>CONCATENATE(providers_master!A120, " (",providers_master!B120, ")")</f>
         <v>Wetlands International (wi)</v>
@@ -6731,7 +6739,7 @@
         <v>wi</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>CONCATENATE(providers_master!A121, " (",providers_master!B121, ")")</f>
         <v>Wildlife Conservation Society (wcs)</v>
@@ -6741,7 +6749,7 @@
         <v>wcs</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>CONCATENATE(providers_master!A122, " (",providers_master!B122, ")")</f>
         <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
@@ -6751,7 +6759,7 @@
         <v>wiolab</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>CONCATENATE(providers_master!A123, " (",providers_master!B123, ")")</f>
         <v>VLIZ - Flanders Marine Institute (vliz)</v>
@@ -6761,7 +6769,7 @@
         <v>vliz</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>CONCATENATE(providers_master!A124, " (",providers_master!B124, ")")</f>
         <v>World Bank (wb)</v>
@@ -6771,7 +6779,7 @@
         <v>wb</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>CONCATENATE(providers_master!A125, " (",providers_master!B125, ")")</f>
         <v>World Database on Protected Areas (wdpa)</v>
@@ -6781,7 +6789,7 @@
         <v>wdpa</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>CONCATENATE(providers_master!A126, " (",providers_master!B126, ")")</f>
         <v>World Environment Center (wec)</v>
@@ -6791,7 +6799,7 @@
         <v>wec</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>CONCATENATE(providers_master!A127, " (",providers_master!B127, ")")</f>
         <v>World Resources Institute (wri)</v>
@@ -6801,7 +6809,7 @@
         <v>wri</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>CONCATENATE(providers_master!A128, " (",providers_master!B128, ")")</f>
         <v>World Wide Fund for Nature (wwf)</v>
@@ -6824,17 +6832,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -6851,7 +6859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>folders_master!A2</f>
         <v>adm</v>
@@ -6873,7 +6881,7 @@
         <v>Projections (zones, definitions)</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>folders_master!A3</f>
         <v>adm</v>
@@ -6895,7 +6903,7 @@
         <v>Analytical grid</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>folders_master!A4</f>
         <v>adm</v>
@@ -6917,7 +6925,7 @@
         <v>BOUNDARY (administrative)</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>folders_master!A5</f>
         <v>adm</v>
@@ -6939,7 +6947,7 @@
         <v>Maritime boundary (e.g. EEZ, ABNJ)</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>folders_master!A6</f>
         <v>adm</v>
@@ -6961,7 +6969,7 @@
         <v xml:space="preserve">Marine boundary (e.g. definition of marine area) </v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>folders_master!A7</f>
         <v>adm</v>
@@ -6983,7 +6991,7 @@
         <v>MANAGEMENT AREA</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>folders_master!A8</f>
         <v>adm</v>
@@ -7005,7 +7013,7 @@
         <v>Locally Managed Area (e.g. BMU, CCP)</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>folders_master!A9</f>
         <v>adm</v>
@@ -7027,7 +7035,7 @@
         <v>Marine spatial plan</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>folders_master!A10</f>
         <v>adm</v>
@@ -7049,7 +7057,7 @@
         <v>Shipping area (e.g. shipping lane, anchorage)</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>folders_master!A11</f>
         <v>adm</v>
@@ -7071,7 +7079,7 @@
         <v>Protected area (e.g. marine reserve, restricted area)</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>folders_master!A12</f>
         <v>adm</v>
@@ -7093,7 +7101,7 @@
         <v>Fishing area (e.g. fishery management areas)</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>folders_master!A13</f>
         <v>adm</v>
@@ -7115,7 +7123,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>folders_master!A14</f>
         <v>env</v>
@@ -7137,7 +7145,7 @@
         <v>Topography (e.g. bathymetry, elevation)</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>folders_master!A15</f>
         <v>env</v>
@@ -7159,7 +7167,7 @@
         <v>Shoreline (e.g. land/sea deliniations)</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>folders_master!A16</f>
         <v>env</v>
@@ -7181,7 +7189,7 @@
         <v>Water body (e.g. fresh, estuarine, marine)</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>folders_master!A17</f>
         <v>env</v>
@@ -7203,7 +7211,7 @@
         <v>GEOLOGY</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>folders_master!A18</f>
         <v>env</v>
@@ -7225,7 +7233,7 @@
         <v>Geomorphology</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>folders_master!A19</f>
         <v>env</v>
@@ -7247,7 +7255,7 @@
         <v>Substrate</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>folders_master!A20</f>
         <v>env</v>
@@ -7269,7 +7277,7 @@
         <v>OCEANOGRAPHY</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>folders_master!A21</f>
         <v>env</v>
@@ -7291,7 +7299,7 @@
         <v>Ocean chemistry (e.g. temperature, salinity, oxygen)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>folders_master!A22</f>
         <v>env</v>
@@ -7313,7 +7321,7 @@
         <v>Ocean zones (e.g. photic, open ocean, climate zone)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>folders_master!A23</f>
         <v>env</v>
@@ -7335,7 +7343,7 @@
         <v>Ocean energy (e.g. currents, waves)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>folders_master!A24</f>
         <v>env</v>
@@ -7357,7 +7365,7 @@
         <v>Sea level and tides</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>folders_master!A25</f>
         <v>env</v>
@@ -7379,7 +7387,7 @@
         <v>HYDROLOGY</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>folders_master!A26</f>
         <v>env</v>
@@ -7401,7 +7409,7 @@
         <v>Surface waters (e.g. streams, watersheds)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>folders_master!A27</f>
         <v>env</v>
@@ -7423,7 +7431,7 @@
         <v>Ground water (e.g. aquifers)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>folders_master!A28</f>
         <v>env</v>
@@ -7445,7 +7453,7 @@
         <v>Rainfall</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>folders_master!A29</f>
         <v>env</v>
@@ -7467,7 +7475,7 @@
         <v>LAND COVER</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>folders_master!A30</f>
         <v>env</v>
@@ -7489,7 +7497,7 @@
         <v>Demography</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>folders_master!A31</f>
         <v>env</v>
@@ -7511,7 +7519,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>folders_master!A32</f>
         <v>act</v>
@@ -7533,7 +7541,7 @@
         <v>SHIPPING (e.g. AIS data with movements, anchoring)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>folders_master!A33</f>
         <v>act</v>
@@ -7555,7 +7563,7 @@
         <v>Ports</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>folders_master!A34</f>
         <v>act</v>
@@ -7577,7 +7585,7 @@
         <v>Dredging</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>folders_master!A35</f>
         <v>act</v>
@@ -7599,7 +7607,7 @@
         <v>Dumping (sea)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>folders_master!A36</f>
         <v>act</v>
@@ -7621,7 +7629,7 @@
         <v>MILITARY</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>folders_master!A37</f>
         <v>act</v>
@@ -7643,7 +7651,7 @@
         <v>MARINE INFRASTRUCTURE</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>folders_master!A38</f>
         <v>act</v>
@@ -7665,7 +7673,7 @@
         <v>Submarine cables (e.g. telecom, power cables)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>folders_master!A39</f>
         <v>act</v>
@@ -7687,7 +7695,7 @@
         <v>ENERGY</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>folders_master!A40</f>
         <v>act</v>
@@ -7709,7 +7717,7 @@
         <v>Oil and gas (e.g. prospecting, extraction, infrastructure)</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>folders_master!A41</f>
         <v>act</v>
@@ -7731,7 +7739,7 @@
         <v>Renewable energy (e.g. licenced areas, infrastructure)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>folders_master!A42</f>
         <v>act</v>
@@ -7753,7 +7761,7 @@
         <v>Seabed mining</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>folders_master!A43</f>
         <v>act</v>
@@ -7775,7 +7783,7 @@
         <v>Acoustic surveys (e.g. seismic)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>folders_master!A44</f>
         <v>act</v>
@@ -7797,7 +7805,7 @@
         <v>Research</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>folders_master!A45</f>
         <v>act</v>
@@ -7819,7 +7827,7 @@
         <v>AQUACULTURE</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>folders_master!A46</f>
         <v>act</v>
@@ -7841,7 +7849,7 @@
         <v>Mariculture</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>folders_master!A47</f>
         <v>act</v>
@@ -7863,7 +7871,7 @@
         <v>Algae farming</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>folders_master!A48</f>
         <v>act</v>
@@ -7885,7 +7893,7 @@
         <v>FISHING</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>folders_master!A49</f>
         <v>act</v>
@@ -7907,7 +7915,7 @@
         <v>Commercial fishing</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>folders_master!A50</f>
         <v>act</v>
@@ -7929,7 +7937,7 @@
         <v>Artisanal fishing</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>folders_master!A51</f>
         <v>act</v>
@@ -7951,7 +7959,7 @@
         <v>Recreational fishing</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>folders_master!A52</f>
         <v>act</v>
@@ -7973,7 +7981,7 @@
         <v>RECREATION</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>folders_master!A53</f>
         <v>act</v>
@@ -7995,7 +8003,7 @@
         <v>Tourism</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>folders_master!A54</f>
         <v>act</v>
@@ -8017,7 +8025,7 @@
         <v>Diving and snorkelling</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>folders_master!A55</f>
         <v>act</v>
@@ -8039,7 +8047,7 @@
         <v>Recreational boating (e.g. marinas, anchoring sites)</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>folders_master!A56</f>
         <v>act</v>
@@ -8061,7 +8069,7 @@
         <v>Shark control (e.g. nets for beach protection)</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>folders_master!A57</f>
         <v>act</v>
@@ -8083,7 +8091,7 @@
         <v>Other marine activity</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>folders_master!A58</f>
         <v>act</v>
@@ -8105,7 +8113,7 @@
         <v>COASTAL DEVELOPMENT</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>folders_master!A59</f>
         <v>act</v>
@@ -8127,7 +8135,7 @@
         <v>Coastal infrastructure</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>folders_master!A60</f>
         <v>act</v>
@@ -8149,7 +8157,7 @@
         <v>Piers and docks</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>folders_master!A61</f>
         <v>act</v>
@@ -8171,7 +8179,7 @@
         <v>Land reclamation</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>folders_master!A62</f>
         <v>act</v>
@@ -8193,7 +8201,7 @@
         <v>Coastal mining (e.g. sand extraction)</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>folders_master!A63</f>
         <v>act</v>
@@ -8215,7 +8223,7 @@
         <v>LAND BASED ACTIVITY</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>folders_master!A64</f>
         <v>act</v>
@@ -8237,7 +8245,7 @@
         <v>Agriculture</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>folders_master!A65</f>
         <v>act</v>
@@ -8259,7 +8267,7 @@
         <v>Forestry</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>folders_master!A66</f>
         <v>act</v>
@@ -8281,7 +8289,7 @@
         <v>Mining (land)</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>folders_master!A67</f>
         <v>act</v>
@@ -8303,7 +8311,7 @@
         <v>Urban development</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>folders_master!A68</f>
         <v>act</v>
@@ -8325,7 +8333,7 @@
         <v>Dumping (land)</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>folders_master!A69</f>
         <v>act</v>
@@ -8347,7 +8355,7 @@
         <v>Industrial activity (land)</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>folders_master!A70</f>
         <v>act</v>
@@ -8369,7 +8377,7 @@
         <v>Energy production (land)</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>folders_master!A71</f>
         <v>act</v>
@@ -8391,7 +8399,7 @@
         <v>Waste water (e.g. treatment plants, disposal)</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>folders_master!A72</f>
         <v>act</v>
@@ -8413,7 +8421,7 @@
         <v>Other land activity</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>folders_master!A73</f>
         <v>pres</v>
@@ -8435,7 +8443,7 @@
         <v>BIOLOGICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>folders_master!A74</f>
         <v>pres</v>
@@ -8457,7 +8465,7 @@
         <v>Invasive species</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>folders_master!A75</f>
         <v>pres</v>
@@ -8479,7 +8487,7 @@
         <v>Pathogens</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>folders_master!A76</f>
         <v>pres</v>
@@ -8501,7 +8509,7 @@
         <v>Extraction of species</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>folders_master!A77</f>
         <v>pres</v>
@@ -8523,7 +8531,7 @@
         <v>Collision (e.g. ship strikes)</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>folders_master!A78</f>
         <v>pres</v>
@@ -8545,7 +8553,7 @@
         <v>PHYSICAL DISTURBANCE</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>folders_master!A79</f>
         <v>pres</v>
@@ -8567,7 +8575,7 @@
         <v>seabed disturbance (e.g. abrasion, removal)</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>folders_master!A80</f>
         <v>pres</v>
@@ -8589,7 +8597,7 @@
         <v>Barriers to species movements</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>folders_master!A81</f>
         <v>pres</v>
@@ -8611,7 +8619,7 @@
         <v>ENERGY CHANGE (excluding climate related)</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>folders_master!A82</f>
         <v>pres</v>
@@ -8633,7 +8641,7 @@
         <v>Underwater noise</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>folders_master!A83</f>
         <v>pres</v>
@@ -8655,7 +8663,7 @@
         <v>Electromagnetic disturbance</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>folders_master!A84</f>
         <v>pres</v>
@@ -8677,7 +8685,7 @@
         <v>Light change</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>folders_master!A85</f>
         <v>pres</v>
@@ -8699,7 +8707,7 @@
         <v>Water movement changes (waves currents)</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>folders_master!A86</f>
         <v>pres</v>
@@ -8721,7 +8729,7 @@
         <v>CLIMATE CHANGE</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>folders_master!A87</f>
         <v>pres</v>
@@ -8743,7 +8751,7 @@
         <v>Climate change temperature</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>folders_master!A88</f>
         <v>pres</v>
@@ -8765,7 +8773,7 @@
         <v xml:space="preserve">Climate change deoxygenation </v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>folders_master!A89</f>
         <v>pres</v>
@@ -8787,7 +8795,7 @@
         <v>Climate change ocean acidification</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>folders_master!A90</f>
         <v>pres</v>
@@ -8809,7 +8817,7 @@
         <v>Climate change energy (e.g. circulation, waves, storms)</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>folders_master!A91</f>
         <v>pres</v>
@@ -8831,7 +8839,7 @@
         <v>Climate change sea level</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>folders_master!A92</f>
         <v>pres</v>
@@ -8853,7 +8861,7 @@
         <v>Climate coral bleaching (e.g. historical events)</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>folders_master!A93</f>
         <v>pres</v>
@@ -8875,7 +8883,7 @@
         <v>POLLUTION</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>folders_master!A94</f>
         <v>pres</v>
@@ -8897,7 +8905,7 @@
         <v>Air emissions</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>folders_master!A95</f>
         <v>pres</v>
@@ -8919,7 +8927,7 @@
         <v>Oil spill</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>folders_master!A96</f>
         <v>pres</v>
@@ -8941,7 +8949,7 @@
         <v>Organic pollution</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>folders_master!A97</f>
         <v>pres</v>
@@ -8963,7 +8971,7 @@
         <v>Inorganic pollution</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>folders_master!A98</f>
         <v>pres</v>
@@ -8985,7 +8993,7 @@
         <v>Nutrient pollution (e.g. Anthropogenic eutrophication)</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>folders_master!A99</f>
         <v>pres</v>
@@ -9007,7 +9015,7 @@
         <v>Hypoxia</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>folders_master!A100</f>
         <v>pres</v>
@@ -9029,7 +9037,7 @@
         <v>Sedimentation</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>folders_master!A101</f>
         <v>pres</v>
@@ -9051,7 +9059,7 @@
         <v>Plastic waste</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>folders_master!A102</f>
         <v>pres</v>
@@ -9073,7 +9081,7 @@
         <v>Radionuclide</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>folders_master!A103</f>
         <v>pres</v>
@@ -9095,7 +9103,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>folders_master!A104</f>
         <v>eco</v>
@@ -9117,7 +9125,7 @@
         <v>HABITAT</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>folders_master!A105</f>
         <v>eco</v>
@@ -9139,7 +9147,7 @@
         <v>COASTAL HABITAT</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>folders_master!A106</f>
         <v>eco</v>
@@ -9161,7 +9169,7 @@
         <v>Shore (e.g. beaches, rocky intertidal)</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>folders_master!A107</f>
         <v>eco</v>
@@ -9183,7 +9191,7 @@
         <v>Mudflats (e.g. intertidal flats with deposited mud)</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>folders_master!A108</f>
         <v>eco</v>
@@ -9205,7 +9213,7 @@
         <v>Salt marsh</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>folders_master!A109</f>
         <v>eco</v>
@@ -9227,7 +9235,7 @@
         <v>Mangrove</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>folders_master!A110</f>
         <v>eco</v>
@@ -9249,7 +9257,7 @@
         <v>BENTHIC HABITAT</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>folders_master!A111</f>
         <v>eco</v>
@@ -9271,7 +9279,7 @@
         <v>Hard and softbottom</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>folders_master!A112</f>
         <v>eco</v>
@@ -9293,7 +9301,7 @@
         <v>Rocky reef</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>folders_master!A113</f>
         <v>eco</v>
@@ -9315,7 +9323,7 @@
         <v>Coral (e.g. photic, mesophotic corals)</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>folders_master!A114</f>
         <v>eco</v>
@@ -9337,7 +9345,7 @@
         <v>Biogenic reef</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>folders_master!A115</f>
         <v>eco</v>
@@ -9359,7 +9367,7 @@
         <v>Mearl bed</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>folders_master!A116</f>
         <v>eco</v>
@@ -9381,7 +9389,7 @@
         <v>Submerged vegetation</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>folders_master!A117</f>
         <v>eco</v>
@@ -9403,7 +9411,7 @@
         <v>Seagrass</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>folders_master!A118</f>
         <v>eco</v>
@@ -9425,7 +9433,7 @@
         <v>Macroalgae</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>folders_master!A119</f>
         <v>eco</v>
@@ -9447,7 +9455,7 @@
         <v>DEEP BENTHIC HABITAT (&gt;200m)</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>folders_master!A120</f>
         <v>eco</v>
@@ -9469,7 +9477,7 @@
         <v>Cold-water coral (e.g. deep sea corals)</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>folders_master!A121</f>
         <v>eco</v>
@@ -9491,7 +9499,7 @@
         <v>Deep rocky reef</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>folders_master!A122</f>
         <v>eco</v>
@@ -9513,7 +9521,7 @@
         <v>Deep biogenic reefs</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>folders_master!A123</f>
         <v>eco</v>
@@ -9535,7 +9543,7 @@
         <v>Nodules</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>folders_master!A124</f>
         <v>eco</v>
@@ -9557,7 +9565,7 @@
         <v>Hydrothermal vents</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>folders_master!A125</f>
         <v>eco</v>
@@ -9579,7 +9587,7 @@
         <v>Seamounts</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>folders_master!A126</f>
         <v>eco</v>
@@ -9601,7 +9609,7 @@
         <v>PELAGIC HABITAT</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>folders_master!A127</f>
         <v>eco</v>
@@ -9623,7 +9631,7 @@
         <v>Phytoplankton</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>folders_master!A128</f>
         <v>eco</v>
@@ -9645,7 +9653,7 @@
         <v>Zooplankton</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>folders_master!A129</f>
         <v>eco</v>
@@ -9667,7 +9675,7 @@
         <v>Oxygen minimum zone</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>folders_master!A130</f>
         <v>eco</v>
@@ -9689,7 +9697,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>folders_master!A131</f>
         <v>eco</v>
@@ -9711,7 +9719,7 @@
         <v>SPECIES</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>folders_master!A132</f>
         <v>eco</v>
@@ -9733,7 +9741,7 @@
         <v>Threathened species (e.g. IUCN red list)</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>folders_master!A133</f>
         <v>eco</v>
@@ -9755,7 +9763,7 @@
         <v>MARINE MAMMALS</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>folders_master!A134</f>
         <v>eco</v>
@@ -9777,7 +9785,7 @@
         <v>Whales</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>folders_master!A135</f>
         <v>eco</v>
@@ -9799,7 +9807,7 @@
         <v>Baleen whales (e.g. hump-back whale)</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>folders_master!A136</f>
         <v>eco</v>
@@ -9821,7 +9829,7 @@
         <v>Toothed whales (e.g. sperm whale)</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>folders_master!A137</f>
         <v>eco</v>
@@ -9843,7 +9851,7 @@
         <v>Dolphins and porpoises</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>folders_master!A138</f>
         <v>eco</v>
@@ -9865,7 +9873,7 @@
         <v>Seals</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>folders_master!A139</f>
         <v>eco</v>
@@ -9887,7 +9895,7 @@
         <v>Sea cows (e.g. dugongs, manatees)</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>folders_master!A140</f>
         <v>eco</v>
@@ -9909,7 +9917,7 @@
         <v>Otters and minks</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>folders_master!A141</f>
         <v>eco</v>
@@ -9931,7 +9939,7 @@
         <v>BIRDS</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>folders_master!A142</f>
         <v>eco</v>
@@ -9953,7 +9961,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>folders_master!A143</f>
         <v>eco</v>
@@ -9975,7 +9983,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>folders_master!A144</f>
         <v>eco</v>
@@ -9997,7 +10005,7 @@
         <v>REPTILES</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>folders_master!A145</f>
         <v>eco</v>
@@ -10019,7 +10027,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>folders_master!A146</f>
         <v>eco</v>
@@ -10041,7 +10049,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>folders_master!A147</f>
         <v>eco</v>
@@ -10063,7 +10071,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>folders_master!A148</f>
         <v>eco</v>
@@ -10085,7 +10093,7 @@
         <v>FISH</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>folders_master!A149</f>
         <v>eco</v>
@@ -10107,7 +10115,7 @@
         <v>BONY FISH</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>folders_master!A150</f>
         <v>eco</v>
@@ -10129,7 +10137,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>folders_master!A151</f>
         <v>eco</v>
@@ -10151,7 +10159,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>folders_master!A152</f>
         <v>eco</v>
@@ -10173,7 +10181,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>folders_master!A153</f>
         <v>eco</v>
@@ -10195,7 +10203,7 @@
         <v>Demersal fish (e.g. ground fish)</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>folders_master!A154</f>
         <v>eco</v>
@@ -10217,7 +10225,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>folders_master!A155</f>
         <v>eco</v>
@@ -10239,7 +10247,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>folders_master!A156</f>
         <v>eco</v>
@@ -10261,7 +10269,7 @@
         <v>CARTILAGINOUS FISH (e.g. sharks, rays)</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>folders_master!A157</f>
         <v>eco</v>
@@ -10283,7 +10291,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>folders_master!A158</f>
         <v>eco</v>
@@ -10305,7 +10313,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>folders_master!A159</f>
         <v>eco</v>
@@ -10327,7 +10335,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>folders_master!A160</f>
         <v>eco</v>
@@ -10349,7 +10357,7 @@
         <v>Chimaera (e.g. ghost sharks)</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>folders_master!A161</f>
         <v>eco</v>
@@ -10371,7 +10379,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>folders_master!A162</f>
         <v>eco</v>
@@ -10393,7 +10401,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>folders_master!A163</f>
         <v>eco</v>
@@ -10415,7 +10423,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>folders_master!A164</f>
         <v>eco</v>
@@ -10437,7 +10445,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>folders_master!A165</f>
         <v>eco</v>
@@ -10459,7 +10467,7 @@
         <v>INVERTEBRATES</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>folders_master!A166</f>
         <v>eco</v>
@@ -10481,7 +10489,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>folders_master!A167</f>
         <v>eco</v>
@@ -10503,7 +10511,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>folders_master!A168</f>
         <v>eco</v>
@@ -10525,7 +10533,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>folders_master!A169</f>
         <v>eco</v>
@@ -10547,7 +10555,7 @@
         <v>Cnidarians (e.g. jellyfish, anemones - corals sort under habitat)</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>folders_master!A170</f>
         <v>eco</v>
@@ -10569,7 +10577,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>folders_master!A171</f>
         <v>eco</v>
@@ -10591,7 +10599,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>folders_master!A172</f>
         <v>eco</v>
@@ -10613,7 +10621,7 @@
         <v>Cephalopods (e.g. octopus, squid)</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>folders_master!A173</f>
         <v>eco</v>
@@ -10635,7 +10643,7 @@
         <v>Echinoderms (e.g. sea cucumbers, urchins, starfish)</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>folders_master!A174</f>
         <v>eco</v>
@@ -10657,7 +10665,7 @@
         <v>Arthropods (e.g. lobsters, crabs, shrimps)</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>folders_master!A175</f>
         <v>eco</v>
@@ -10679,7 +10687,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>folders_master!A176</f>
         <v>unknown</v>
@@ -10717,25 +10725,25 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" customWidth="1"/>
+    <col min="10" max="10" width="39.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" customWidth="1"/>
+    <col min="13" max="13" width="22.54296875" customWidth="1"/>
+    <col min="14" max="14" width="23.54296875" customWidth="1"/>
+    <col min="15" max="15" width="23.81640625" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
@@ -10785,7 +10793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>folders_master!D2</f>
         <v>projection</v>
@@ -10849,7 +10857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>folders_master!D3</f>
         <v>analytical grid</v>
@@ -10913,7 +10921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>folders_master!D4</f>
         <v>boundary</v>
@@ -10977,7 +10985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>folders_master!D5</f>
         <v>maritime boundary</v>
@@ -11041,7 +11049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>folders_master!D6</f>
         <v>marine boundary</v>
@@ -11105,7 +11113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>folders_master!D7</f>
         <v>management area</v>
@@ -11169,7 +11177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>folders_master!D8</f>
         <v>locally managed areas</v>
@@ -11233,7 +11241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>folders_master!D9</f>
         <v>marine spatial plan</v>
@@ -11297,7 +11305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>folders_master!D10</f>
         <v>shipping area</v>
@@ -11361,7 +11369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>folders_master!D11</f>
         <v>protected area</v>
@@ -11425,7 +11433,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>folders_master!D12</f>
         <v>fishing area</v>
@@ -11483,7 +11491,7 @@
         <v>Sea birds</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>folders_master!D13</f>
         <v>adm other</v>
@@ -11541,7 +11549,7 @@
         <v>Penguins</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <f>folders_master!D26</f>
         <v>surface waters</v>
@@ -11591,7 +11599,7 @@
         <v>Reptiles</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <f>folders_master!D27</f>
         <v>ground water</v>
@@ -11641,7 +11649,7 @@
         <v>Turtles</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <f>folders_master!D28</f>
         <v>rainfall</v>
@@ -11691,7 +11699,7 @@
         <v>Sea snakes</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <f>folders_master!D29</f>
         <v>land cover</v>
@@ -11733,7 +11741,7 @@
         <v>Crocodiles</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" t="str">
         <f>folders_master!D30</f>
         <v>demography</v>
@@ -11775,7 +11783,7 @@
         <v>Fish</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19" t="str">
         <f>folders_master!D31</f>
         <v>env other</v>
@@ -11817,7 +11825,7 @@
         <v>Bony fish</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E20" t="str">
         <f>folders_master!D50</f>
         <v>artisanal fishing</v>
@@ -11851,7 +11859,7 @@
         <v>Pelagic fish</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E21" t="str">
         <f>folders_master!D51</f>
         <v>recreational fishing</v>
@@ -11885,7 +11893,7 @@
         <v xml:space="preserve">Deep sea fish </v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E22" t="str">
         <f>folders_master!D52</f>
         <v>recreation</v>
@@ -11919,7 +11927,7 @@
         <v>Coral reef fish</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E23" t="str">
         <f>folders_master!D53</f>
         <v>tourism</v>
@@ -11953,7 +11961,7 @@
         <v xml:space="preserve">Demersal fish </v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E24" t="str">
         <f>folders_master!D54</f>
         <v>diving snorkelling</v>
@@ -11987,7 +11995,7 @@
         <v>Tuna</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E25" t="str">
         <f>folders_master!D55</f>
         <v>recreational boating</v>
@@ -12021,7 +12029,7 @@
         <v>Coelacanth</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E26" t="str">
         <f>folders_master!D56</f>
         <v>shark control</v>
@@ -12055,7 +12063,7 @@
         <v xml:space="preserve">Cartilaginous fish </v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E27" t="str">
         <f>folders_master!D57</f>
         <v>act other</v>
@@ -12089,7 +12097,7 @@
         <v>Shark</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I28" t="str">
         <f>folders_master!D99</f>
         <v>hypoxia</v>
@@ -12115,7 +12123,7 @@
         <v>Ray</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I29" t="str">
         <f>folders_master!D100</f>
         <v>sedimentation</v>
@@ -12133,7 +12141,7 @@
         <v>Skate</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I30" t="str">
         <f>folders_master!D101</f>
         <v>plastic waste</v>
@@ -12151,7 +12159,7 @@
         <v xml:space="preserve">Chimaera </v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I31" t="str">
         <f>folders_master!D102</f>
         <v>radionuclide</v>
@@ -12169,7 +12177,7 @@
         <v>Great white shark</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="I32" t="str">
         <f>folders_master!D103</f>
         <v>pres other</v>
@@ -12187,7 +12195,7 @@
         <v>Whale shark</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M33" t="str">
         <f>folders_master!D163</f>
         <v>manta ray</v>
@@ -12197,7 +12205,7 @@
         <v>Manta ray</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M34" t="str">
         <f>folders_master!D164</f>
         <v>sawfish</v>
@@ -12207,7 +12215,7 @@
         <v>Sawfish</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M35" t="str">
         <f>folders_master!D165</f>
         <v>invertebrates</v>
@@ -12217,7 +12225,7 @@
         <v>Invertebrates</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M36" t="str">
         <f>folders_master!D166</f>
         <v>infauna</v>
@@ -12227,7 +12235,7 @@
         <v>Infauna</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M37" t="str">
         <f>folders_master!D167</f>
         <v>epifauna</v>
@@ -12237,7 +12245,7 @@
         <v>Epifauna</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M38" t="str">
         <f>folders_master!D168</f>
         <v>marine sponges</v>
@@ -12247,7 +12255,7 @@
         <v>Marine sponges</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M39" t="str">
         <f>folders_master!D169</f>
         <v>cnidarians</v>
@@ -12257,7 +12265,7 @@
         <v xml:space="preserve">Cnidarians </v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M40" t="str">
         <f>folders_master!D170</f>
         <v>marine worms</v>
@@ -12267,7 +12275,7 @@
         <v>Marine worms</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M41" t="str">
         <f>folders_master!D171</f>
         <v>bivalves gastropods</v>
@@ -12277,7 +12285,7 @@
         <v>Bivalves and gastropods</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M42" t="str">
         <f>folders_master!D172</f>
         <v>cephalopods</v>
@@ -12287,7 +12295,7 @@
         <v xml:space="preserve">Cephalopods </v>
       </c>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M43" t="str">
         <f>folders_master!D173</f>
         <v>echinoderms</v>
@@ -12297,7 +12305,7 @@
         <v xml:space="preserve">Echinoderms </v>
       </c>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M44" t="str">
         <f>folders_master!D174</f>
         <v>arthropods</v>
@@ -12307,7 +12315,7 @@
         <v xml:space="preserve">Arthropods </v>
       </c>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M45" t="str">
         <f>folders_master!D175</f>
         <v>spec other</v>
@@ -12327,26 +12335,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="83.1796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
@@ -12369,7 +12377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -12377,7 +12385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -12404,7 +12412,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
@@ -12415,7 +12423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -12432,7 +12440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>1344</v>
       </c>
@@ -12445,14 +12453,14 @@
       <c r="D6" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>1341</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -12463,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>1330</v>
       </c>
@@ -12483,7 +12491,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>95</v>
       </c>
@@ -12506,7 +12514,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -12529,7 +12537,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>1345</v>
       </c>
@@ -12549,7 +12557,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>104</v>
       </c>
@@ -12572,7 +12580,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>108</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -12591,7 +12599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
@@ -12602,7 +12610,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>115</v>
       </c>
@@ -12610,7 +12618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>117</v>
       </c>
@@ -12621,19 +12629,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
@@ -12644,7 +12648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>123</v>
       </c>
@@ -12652,7 +12656,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>125</v>
       </c>
@@ -12675,7 +12679,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
@@ -12696,7 +12700,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
@@ -12707,7 +12711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>138</v>
       </c>
@@ -12741,7 +12745,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>142</v>
       </c>
@@ -12766,7 +12770,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>1313</v>
       </c>
@@ -12787,7 +12791,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>147</v>
       </c>
@@ -12810,7 +12814,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>151</v>
       </c>
@@ -12833,7 +12837,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>155</v>
       </c>
@@ -12846,7 +12850,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>158</v>
       </c>
@@ -12854,7 +12858,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>160</v>
       </c>
@@ -12877,7 +12881,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>165</v>
       </c>
@@ -12898,7 +12902,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>169</v>
       </c>
@@ -12919,7 +12923,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>173</v>
       </c>
@@ -12938,7 +12942,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>176</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>178</v>
       </c>
@@ -12967,7 +12971,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1327</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>182</v>
       </c>
@@ -13002,22 +13006,18 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
       <c r="G40" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>189</v>
       </c>
@@ -13038,7 +13038,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>193</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>1310</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>197</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>199</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>201</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>206</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>211</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>215</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>220</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>222</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>1349</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>224</v>
       </c>
@@ -13225,7 +13225,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>231</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>1337</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>234</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>239</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>243</v>
       </c>
@@ -13326,7 +13326,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>247</v>
       </c>
@@ -13347,7 +13347,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>251</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>254</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>256</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>258</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>260</v>
       </c>
@@ -13416,7 +13416,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>265</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>267</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>269</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>271</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>275</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>277</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>279</v>
       </c>
@@ -13505,8 +13505,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="47" t="s">
         <v>437</v>
       </c>
       <c r="B74" s="33" t="s">
@@ -13530,7 +13530,7 @@
       <c r="J74" s="33"/>
       <c r="K74" s="33"/>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>281</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>283</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>284</v>
       </c>
       <c r="C76" s="16"/>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="43" t="s">
         <v>285</v>
       </c>
       <c r="E76" s="16" t="s">
@@ -13567,7 +13567,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>288</v>
       </c>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>292</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="D78" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="45" t="s">
         <v>295</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>297</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>1319</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>1321</v>
       </c>
       <c r="E80" s="15"/>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="42" t="s">
         <v>1322</v>
       </c>
       <c r="G80" s="7"/>
@@ -13646,7 +13646,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>301</v>
       </c>
@@ -13664,7 +13664,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>305</v>
       </c>
@@ -13683,24 +13683,24 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>308</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>310</v>
       </c>
@@ -13717,7 +13717,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>312</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>314</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>316</v>
       </c>
@@ -13773,7 +13773,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>321</v>
       </c>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>1324</v>
       </c>
@@ -13813,7 +13813,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>325</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>329</v>
       </c>
@@ -13851,7 +13851,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>331</v>
       </c>
@@ -13868,8 +13868,8 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
         <v>333</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -13885,7 +13885,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>335</v>
       </c>
@@ -13905,7 +13905,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>340</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>344</v>
       </c>
@@ -13940,7 +13940,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>346</v>
       </c>
@@ -13958,7 +13958,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="s">
         <v>350</v>
       </c>
@@ -13978,7 +13978,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="22" t="s">
         <v>354</v>
       </c>
@@ -13997,8 +13997,8 @@
       </c>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
         <v>358</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -14017,8 +14017,8 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="36" t="s">
         <v>433</v>
       </c>
       <c r="B101" s="33" t="s">
@@ -14042,7 +14042,7 @@
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>1309</v>
       </c>
@@ -14052,10 +14052,10 @@
       <c r="C102" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="49" t="s">
         <v>1334</v>
       </c>
-      <c r="E102" s="52" t="s">
+      <c r="E102" s="50" t="s">
         <v>1308</v>
       </c>
       <c r="F102" s="15"/>
@@ -14065,7 +14065,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>363</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>368</v>
       </c>
@@ -14107,7 +14107,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>373</v>
       </c>
@@ -14126,7 +14126,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>376</v>
       </c>
@@ -14143,7 +14143,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>378</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>380</v>
       </c>
@@ -14177,7 +14177,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>382</v>
       </c>
@@ -14194,7 +14194,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>384</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>386</v>
       </c>
@@ -14228,7 +14228,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="12" t="s">
         <v>388</v>
       </c>
@@ -14245,7 +14245,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
         <v>390</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>391</v>
       </c>
       <c r="C113" s="15"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="14"/>
       <c r="F113" s="15"/>
       <c r="G113" s="7"/>
@@ -14262,7 +14262,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
         <v>1317</v>
       </c>
@@ -14283,7 +14283,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>392</v>
       </c>
@@ -14302,7 +14302,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>394</v>
       </c>
@@ -14313,109 +14313,96 @@
         <v>3</v>
       </c>
       <c r="D116" s="14"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="43"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="41"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="38" t="s">
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="37" t="s">
         <v>396</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C117" s="40" t="s">
+      <c r="C117" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="46"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="40"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="38"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36" t="s">
+    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
         <v>398</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-    </row>
-    <row r="119" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36" t="s">
+    </row>
+    <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
+    </row>
+    <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
+    </row>
+    <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C121" s="39" t="s">
+      <c r="C121" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E121" s="39"/>
       <c r="F121" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
+    <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
         <v>408</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-    </row>
-    <row r="123" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36" t="s">
+    </row>
+    <row r="123" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -14437,54 +14424,47 @@
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36" t="s">
+    <row r="124" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
         <v>415</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C124" s="39" t="s">
+      <c r="C124" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E124" s="39"/>
       <c r="F124" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
+    <row r="125" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C125" s="39" t="s">
+      <c r="C125" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
+    </row>
+    <row r="126" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-    </row>
-    <row r="127" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36" t="s">
+    </row>
+    <row r="127" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -14508,8 +14488,8 @@
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
+    <row r="128" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
         <v>428</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -14532,6 +14512,23 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>1355</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K128">
@@ -14606,9 +14603,10 @@
     <hyperlink ref="E78" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
     <hyperlink ref="E102" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
     <hyperlink ref="D8" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
+    <hyperlink ref="D129" r:id="rId63" xr:uid="{34BD2B3A-5BE8-46F5-915E-4233A0E96739}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -14620,17 +14618,17 @@
       <selection activeCell="F1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -14650,7 +14648,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -14670,7 +14668,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -14687,7 +14685,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>441</v>
       </c>
@@ -14707,7 +14705,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -14727,7 +14725,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -14747,7 +14745,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14764,7 +14762,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -14784,7 +14782,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -14821,7 +14819,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>441</v>
       </c>
@@ -14841,7 +14839,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>441</v>
       </c>
@@ -14861,7 +14859,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>441</v>
       </c>
@@ -14878,7 +14876,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -14898,7 +14896,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -14918,7 +14916,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>487</v>
       </c>
@@ -14938,7 +14936,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>487</v>
       </c>
@@ -14955,7 +14953,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>487</v>
       </c>
@@ -14972,7 +14970,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -14989,7 +14987,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -15006,7 +15004,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -15026,7 +15024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>487</v>
       </c>
@@ -15046,7 +15044,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>487</v>
       </c>
@@ -15066,7 +15064,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>487</v>
       </c>
@@ -15083,7 +15081,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -15100,7 +15098,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -15120,7 +15118,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>487</v>
       </c>
@@ -15140,7 +15138,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -15157,7 +15155,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>487</v>
       </c>
@@ -15174,7 +15172,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>487</v>
       </c>
@@ -15191,7 +15189,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -15208,7 +15206,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>547</v>
       </c>
@@ -15228,7 +15226,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>547</v>
       </c>
@@ -15245,7 +15243,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>547</v>
       </c>
@@ -15262,7 +15260,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>547</v>
       </c>
@@ -15282,7 +15280,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>547</v>
       </c>
@@ -15299,7 +15297,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>547</v>
       </c>
@@ -15316,7 +15314,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>547</v>
       </c>
@@ -15336,7 +15334,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>547</v>
       </c>
@@ -15353,7 +15351,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>547</v>
       </c>
@@ -15373,7 +15371,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>547</v>
       </c>
@@ -15393,7 +15391,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>547</v>
       </c>
@@ -15410,7 +15408,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -15430,7 +15428,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>547</v>
       </c>
@@ -15447,7 +15445,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -15464,7 +15462,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>547</v>
       </c>
@@ -15481,7 +15479,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>547</v>
       </c>
@@ -15498,7 +15496,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>547</v>
       </c>
@@ -15515,7 +15513,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>547</v>
       </c>
@@ -15532,7 +15530,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>547</v>
       </c>
@@ -15549,7 +15547,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>547</v>
       </c>
@@ -15566,7 +15564,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>547</v>
       </c>
@@ -15583,7 +15581,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>547</v>
       </c>
@@ -15600,7 +15598,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>547</v>
       </c>
@@ -15617,7 +15615,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>547</v>
       </c>
@@ -15637,7 +15635,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>547</v>
       </c>
@@ -15657,7 +15655,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>547</v>
       </c>
@@ -15674,7 +15672,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>547</v>
       </c>
@@ -15691,7 +15689,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>547</v>
       </c>
@@ -15708,7 +15706,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>547</v>
       </c>
@@ -15725,7 +15723,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>547</v>
       </c>
@@ -15742,7 +15740,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>547</v>
       </c>
@@ -15762,7 +15760,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>547</v>
       </c>
@@ -15779,7 +15777,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>547</v>
       </c>
@@ -15796,7 +15794,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>547</v>
       </c>
@@ -15813,7 +15811,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>547</v>
       </c>
@@ -15833,7 +15831,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>547</v>
       </c>
@@ -15850,7 +15848,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -15870,7 +15868,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>547</v>
       </c>
@@ -15890,7 +15888,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>547</v>
       </c>
@@ -15910,7 +15908,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -15930,7 +15928,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>547</v>
       </c>
@@ -15947,7 +15945,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -15964,7 +15962,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -15981,7 +15979,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -15998,7 +15996,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -16015,7 +16013,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -16035,7 +16033,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -16052,7 +16050,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -16072,7 +16070,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -16089,7 +16087,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -16109,7 +16107,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -16126,7 +16124,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -16143,7 +16141,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -16160,7 +16158,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -16180,7 +16178,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -16197,7 +16195,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -16214,7 +16212,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -16231,7 +16229,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -16248,7 +16246,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -16268,7 +16266,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -16285,7 +16283,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -16305,7 +16303,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -16322,7 +16320,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -16339,7 +16337,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -16356,7 +16354,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -16373,7 +16371,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -16390,7 +16388,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -16410,7 +16408,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -16427,7 +16425,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -16444,7 +16442,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -16461,7 +16459,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -16478,7 +16476,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -16495,7 +16493,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>777</v>
       </c>
@@ -16512,7 +16510,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>777</v>
       </c>
@@ -16529,7 +16527,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>777</v>
       </c>
@@ -16549,7 +16547,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>777</v>
       </c>
@@ -16569,7 +16567,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>777</v>
       </c>
@@ -16586,7 +16584,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>777</v>
       </c>
@@ -16603,7 +16601,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>777</v>
       </c>
@@ -16620,7 +16618,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>777</v>
       </c>
@@ -16637,7 +16635,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>777</v>
       </c>
@@ -16654,7 +16652,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>777</v>
       </c>
@@ -16674,7 +16672,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>777</v>
       </c>
@@ -16691,7 +16689,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>777</v>
       </c>
@@ -16708,7 +16706,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>777</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>777</v>
       </c>
@@ -16742,7 +16740,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>777</v>
       </c>
@@ -16759,7 +16757,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>777</v>
       </c>
@@ -16779,7 +16777,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>777</v>
       </c>
@@ -16799,7 +16797,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>777</v>
       </c>
@@ -16816,7 +16814,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>777</v>
       </c>
@@ -16833,7 +16831,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>777</v>
       </c>
@@ -16850,7 +16848,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>777</v>
       </c>
@@ -16867,7 +16865,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>777</v>
       </c>
@@ -16884,7 +16882,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>777</v>
       </c>
@@ -16901,7 +16899,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>777</v>
       </c>
@@ -16918,7 +16916,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>777</v>
       </c>
@@ -16935,7 +16933,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>777</v>
       </c>
@@ -16952,7 +16950,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>777</v>
       </c>
@@ -16969,7 +16967,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>777</v>
       </c>
@@ -16986,7 +16984,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>777</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>777</v>
       </c>
@@ -17023,7 +17021,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>777</v>
       </c>
@@ -17040,7 +17038,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>777</v>
       </c>
@@ -17060,7 +17058,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>777</v>
       </c>
@@ -17080,7 +17078,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>777</v>
       </c>
@@ -17097,7 +17095,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>777</v>
       </c>
@@ -17114,7 +17112,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>777</v>
       </c>
@@ -17134,7 +17132,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>777</v>
       </c>
@@ -17151,7 +17149,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>777</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>777</v>
       </c>
@@ -17185,7 +17183,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>777</v>
       </c>
@@ -17202,7 +17200,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>777</v>
       </c>
@@ -17219,7 +17217,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>777</v>
       </c>
@@ -17236,7 +17234,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>777</v>
       </c>
@@ -17253,7 +17251,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>777</v>
       </c>
@@ -17270,7 +17268,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>777</v>
       </c>
@@ -17287,7 +17285,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>777</v>
       </c>
@@ -17304,7 +17302,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>777</v>
       </c>
@@ -17321,7 +17319,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>777</v>
       </c>
@@ -17338,7 +17336,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>777</v>
       </c>
@@ -17355,7 +17353,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>777</v>
       </c>
@@ -17375,7 +17373,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>777</v>
       </c>
@@ -17392,7 +17390,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>777</v>
       </c>
@@ -17409,7 +17407,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>777</v>
       </c>
@@ -17429,7 +17427,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>777</v>
       </c>
@@ -17446,7 +17444,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>777</v>
       </c>
@@ -17463,7 +17461,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>777</v>
       </c>
@@ -17480,7 +17478,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>777</v>
       </c>
@@ -17500,7 +17498,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>777</v>
       </c>
@@ -17517,7 +17515,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>777</v>
       </c>
@@ -17534,7 +17532,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>777</v>
       </c>
@@ -17551,7 +17549,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>777</v>
       </c>
@@ -17568,7 +17566,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>777</v>
       </c>
@@ -17585,7 +17583,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>777</v>
       </c>
@@ -17602,7 +17600,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>777</v>
       </c>
@@ -17619,7 +17617,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>777</v>
       </c>
@@ -17636,7 +17634,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>777</v>
       </c>
@@ -17656,7 +17654,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>777</v>
       </c>
@@ -17673,7 +17671,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>777</v>
       </c>
@@ -17690,7 +17688,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>777</v>
       </c>
@@ -17710,7 +17708,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>777</v>
       </c>
@@ -17730,7 +17728,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>777</v>
       </c>
@@ -17750,7 +17748,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>777</v>
       </c>
@@ -17767,7 +17765,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1004</v>
       </c>
@@ -17810,16 +17808,16 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -17839,7 +17837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -17860,7 +17858,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -17881,7 +17879,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -17900,7 +17898,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -17919,7 +17917,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -17940,7 +17938,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>777</v>
       </c>
@@ -17960,7 +17958,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>777</v>
       </c>
@@ -17980,7 +17978,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>777</v>
       </c>
@@ -18000,7 +17998,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>777</v>
       </c>
@@ -18020,7 +18018,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>777</v>
       </c>
@@ -18040,7 +18038,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>777</v>
       </c>
@@ -18060,7 +18058,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>777</v>
       </c>
@@ -18080,7 +18078,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -18100,7 +18098,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>777</v>
       </c>
@@ -18120,7 +18118,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>777</v>
       </c>
@@ -18140,7 +18138,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>777</v>
       </c>
@@ -18160,7 +18158,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>777</v>
       </c>
@@ -18180,7 +18178,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>777</v>
       </c>
@@ -18200,7 +18198,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>777</v>
       </c>
@@ -18220,7 +18218,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>777</v>
       </c>
@@ -18240,7 +18238,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>777</v>
       </c>
@@ -18260,7 +18258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>777</v>
       </c>
@@ -18280,7 +18278,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>777</v>
       </c>
@@ -18300,7 +18298,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>777</v>
       </c>
@@ -18320,7 +18318,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>777</v>
       </c>
@@ -18340,7 +18338,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>777</v>
       </c>
@@ -18360,7 +18358,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>777</v>
       </c>
@@ -18380,7 +18378,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>777</v>
       </c>
@@ -18400,7 +18398,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>777</v>
       </c>
@@ -18420,7 +18418,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>777</v>
       </c>
@@ -18440,7 +18438,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>777</v>
       </c>
@@ -18460,7 +18458,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>777</v>
       </c>
@@ -18480,7 +18478,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>777</v>
       </c>
@@ -18500,7 +18498,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>777</v>
       </c>
@@ -18520,7 +18518,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>777</v>
       </c>
@@ -18540,7 +18538,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -18560,7 +18558,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>777</v>
       </c>
@@ -18580,7 +18578,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>777</v>
       </c>
@@ -18600,7 +18598,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>777</v>
       </c>
@@ -18620,7 +18618,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>777</v>
       </c>
@@ -18640,7 +18638,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>777</v>
       </c>
@@ -18660,7 +18658,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>777</v>
       </c>
@@ -18680,7 +18678,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>777</v>
       </c>
@@ -18700,7 +18698,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>777</v>
       </c>
@@ -18720,7 +18718,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>777</v>
       </c>
@@ -18740,7 +18738,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>777</v>
       </c>
@@ -18760,7 +18758,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>777</v>
       </c>
@@ -18780,7 +18778,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>777</v>
       </c>
@@ -18800,7 +18798,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>777</v>
       </c>
@@ -18820,7 +18818,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>777</v>
       </c>
@@ -18840,7 +18838,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>777</v>
       </c>
@@ -18860,7 +18858,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>777</v>
       </c>
@@ -18880,7 +18878,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>777</v>
       </c>
@@ -18900,7 +18898,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>777</v>
       </c>
@@ -18920,7 +18918,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>777</v>
       </c>
@@ -18940,7 +18938,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>777</v>
       </c>
@@ -18960,7 +18958,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>678</v>
       </c>
@@ -18980,7 +18978,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -19000,7 +18998,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>678</v>
       </c>
@@ -19020,7 +19018,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>678</v>
       </c>
@@ -19040,7 +19038,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>678</v>
       </c>
@@ -19060,7 +19058,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>678</v>
       </c>
@@ -19080,7 +19078,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>678</v>
       </c>
@@ -19100,7 +19098,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>678</v>
       </c>
@@ -19120,7 +19118,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>678</v>
       </c>
@@ -19140,7 +19138,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>678</v>
       </c>
@@ -19160,7 +19158,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>678</v>
       </c>
@@ -19180,7 +19178,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>678</v>
       </c>
@@ -19200,7 +19198,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>678</v>
       </c>
@@ -19220,7 +19218,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>678</v>
       </c>
@@ -19240,7 +19238,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>678</v>
       </c>
@@ -19260,7 +19258,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>678</v>
       </c>
@@ -19280,7 +19278,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>678</v>
       </c>
@@ -19300,7 +19298,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>678</v>
       </c>
@@ -19320,7 +19318,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>678</v>
       </c>
@@ -19340,7 +19338,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -19360,7 +19358,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -19380,7 +19378,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>678</v>
       </c>
@@ -19400,7 +19398,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -19420,7 +19418,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>678</v>
       </c>
@@ -19440,7 +19438,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>678</v>
       </c>
@@ -19460,7 +19458,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>678</v>
       </c>
@@ -19480,7 +19478,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>678</v>
       </c>
@@ -19500,7 +19498,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>678</v>
       </c>
@@ -19520,7 +19518,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -19540,7 +19538,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>678</v>
       </c>
@@ -19560,7 +19558,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -19580,7 +19578,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -19600,7 +19598,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>678</v>
       </c>
@@ -19620,7 +19618,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>678</v>
       </c>
@@ -19640,7 +19638,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>678</v>
       </c>
@@ -19660,7 +19658,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>678</v>
       </c>
@@ -19680,7 +19678,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -19700,7 +19698,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>678</v>
       </c>
@@ -19720,7 +19718,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>678</v>
       </c>
@@ -19740,7 +19738,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>678</v>
       </c>
@@ -19760,7 +19758,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>678</v>
       </c>
@@ -19780,7 +19778,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>678</v>
       </c>
@@ -19800,7 +19798,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>678</v>
       </c>
@@ -19820,7 +19818,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>678</v>
       </c>
@@ -19840,7 +19838,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>678</v>
       </c>
@@ -19860,7 +19858,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>678</v>
       </c>
@@ -19880,7 +19878,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>678</v>
       </c>
@@ -19900,7 +19898,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>678</v>
       </c>
@@ -19935,16 +19933,16 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -19961,7 +19959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1284</v>
       </c>
@@ -19978,7 +19976,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1284</v>
       </c>
@@ -19995,7 +19993,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1284</v>
       </c>
@@ -20012,7 +20010,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1284</v>
       </c>
@@ -20029,7 +20027,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -20046,7 +20044,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -20063,7 +20061,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -20080,7 +20078,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -20097,7 +20095,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1305</v>
       </c>
@@ -20115,12 +20113,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101008C61ABF427BAFD4AB8FC7AC0B8F03B78" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="126932e3ea0dc9a6b71e3081ceb06a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5fa53ca4-5b3b-4f89-b0af-5365934cd782" xmlns:ns4="17762964-7e53-4590-9354-410c34f1e00e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="506a3d50c40863226972d677e07e387d" ns3:_="" ns4:_="">
     <xsd:import namespace="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
@@ -20337,6 +20329,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20347,15 +20345,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20374,6 +20363,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
   <ds:schemaRefs>

--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sgu.se\SGU\prod\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D304FA8-366A-4F6F-8FDF-0EA1EBF4B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20E118-01EF-4C16-BF5F-A96C5EABF9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1365">
   <si>
     <t>location_name</t>
   </si>
@@ -4154,6 +4154,33 @@
   </si>
   <si>
     <t xml:space="preserve">The TSIP program is coordinated by Pure Earth and funded by the European Commission, UNIDO, The World Bank, the Asian Development Bank, USAID and others.  </t>
+  </si>
+  <si>
+    <t>https://wiomsa.org/wiompan/interactive-map/</t>
+  </si>
+  <si>
+    <t>Ocean Parcels</t>
+  </si>
+  <si>
+    <t>oceanparcels</t>
+  </si>
+  <si>
+    <t>OceanParcels (github.com)</t>
+  </si>
+  <si>
+    <t>https://oceanparcels.org/</t>
+  </si>
+  <si>
+    <t>African Marine Atlas</t>
+  </si>
+  <si>
+    <t>ama</t>
+  </si>
+  <si>
+    <t>https://github.com/iodepo/odis-arch/issues/133</t>
+  </si>
+  <si>
+    <t>OIH team (e.g. &lt;jmckenna@gatewaygeomatics.com&gt;) helped access some layers from this old map server</t>
   </si>
 </sst>
 </file>
@@ -5529,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5572,1251 +5599,1281 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE(providers_master!A4, " (",providers_master!B4, ")")</f>
-        <v>African Development Bank (afdb)</v>
+        <v>African Marine Atlas (ama)</v>
       </c>
       <c r="B4" t="str">
         <f>providers_master!B4</f>
-        <v>afdb</v>
+        <v>ama</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
-        <v>Allen Coral Atlas (allen)</v>
+        <v>African Development Bank (afdb)</v>
       </c>
       <c r="B5" t="str">
         <f>providers_master!B5</f>
-        <v>allen</v>
+        <v>afdb</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
-        <v>AquaMaps (aquamaps)</v>
+        <v>Allen Coral Atlas (allen)</v>
       </c>
       <c r="B6" t="str">
         <f>providers_master!B6</f>
-        <v>aquamaps</v>
+        <v>allen</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
-        <v>Association of African Maritime Administrations (aama)</v>
+        <v>AquaMaps (aquamaps)</v>
       </c>
       <c r="B7" t="str">
         <f>providers_master!B7</f>
-        <v>aama</v>
+        <v>aquamaps</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
-        <v>Be Geospatial (begeospatial)</v>
+        <v>Association of African Maritime Administrations (aama)</v>
       </c>
       <c r="B8" t="str">
         <f>providers_master!B8</f>
-        <v>begeospatial</v>
+        <v>aama</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>CONCATENATE(providers_master!A9, " (",providers_master!B9, ")")</f>
-        <v>Belgian universities (biooracle)</v>
+        <v>Be Geospatial (begeospatial)</v>
       </c>
       <c r="B9" t="str">
         <f>providers_master!B9</f>
-        <v>biooracle</v>
+        <v>begeospatial</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
-        <v>Blue Habitats (bluehab)</v>
+        <v>Belgian universities (biooracle)</v>
       </c>
       <c r="B10" t="str">
         <f>providers_master!B10</f>
-        <v>bluehab</v>
+        <v>biooracle</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
-        <v>CableMap (gcm)</v>
+        <v>Blue Habitats (bluehab)</v>
       </c>
       <c r="B11" t="str">
         <f>providers_master!B11</f>
-        <v>gcm</v>
+        <v>bluehab</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
-        <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
+        <v>CableMap (gcm)</v>
       </c>
       <c r="B12" t="str">
         <f>providers_master!B12</f>
-        <v>cefas</v>
+        <v>gcm</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
-        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
+        <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
       </c>
       <c r="B13" t="str">
         <f>providers_master!B13</f>
-        <v>cosmar</v>
+        <v>cefas</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
-        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
+        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
       </c>
       <c r="B14" t="str">
         <f>providers_master!B14</f>
-        <v>cordio</v>
+        <v>cosmar</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
-        <v>Community Fishery Council (ccp)</v>
+        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
       </c>
       <c r="B15" t="str">
         <f>providers_master!B15</f>
-        <v>ccp</v>
+        <v>cordio</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
-        <v>Community Forest Associations (cfas)</v>
+        <v>Community Fishery Council (ccp)</v>
       </c>
       <c r="B16" t="str">
         <f>providers_master!B16</f>
-        <v>cfas</v>
+        <v>ccp</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
-        <v>Conservation International (ci)</v>
+        <v>Community Forest Associations (cfas)</v>
       </c>
       <c r="B17" t="str">
         <f>providers_master!B17</f>
-        <v>ci</v>
+        <v>cfas</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CONCATENATE(providers_master!A18, " (",providers_master!B18, ")")</f>
-        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
+        <v>Conservation International (ci)</v>
       </c>
       <c r="B18" t="str">
         <f>providers_master!B18</f>
-        <v>wio_c</v>
+        <v>ci</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
-        <v>Department of Environmental Affairs of South Africa (deasf)</v>
+        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
       </c>
       <c r="B19" t="str">
         <f>providers_master!B19</f>
-        <v>deasf</v>
+        <v>wio_c</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
-        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
+        <v>Department of Environmental Affairs of South Africa (deasf)</v>
       </c>
       <c r="B20" t="str">
         <f>providers_master!B20</f>
-        <v>giz</v>
+        <v>deasf</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
-        <v>Digital Earth Africa (dea)</v>
+        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
       </c>
       <c r="B21" t="str">
         <f>providers_master!B21</f>
-        <v>dea</v>
+        <v>giz</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
-        <v>DIVA Gis (diva)</v>
+        <v>Digital Earth Africa (dea)</v>
       </c>
       <c r="B22" t="str">
         <f>providers_master!B22</f>
-        <v>diva</v>
+        <v>dea</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
-        <v>East African Community (eac)</v>
+        <v>DIVA Gis (diva)</v>
       </c>
       <c r="B23" t="str">
         <f>providers_master!B23</f>
-        <v>eac</v>
+        <v>diva</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
-        <v>East African Wildlife Society (eawls)</v>
+        <v>East African Community (eac)</v>
       </c>
       <c r="B24" t="str">
         <f>providers_master!B24</f>
-        <v>eawls</v>
+        <v>eac</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
-        <v>ESRI (esri)</v>
+        <v>East African Wildlife Society (eawls)</v>
       </c>
       <c r="B25" t="str">
         <f>providers_master!B25</f>
-        <v>esri</v>
+        <v>eawls</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
-        <v>EU Copernicus (copernicus)</v>
+        <v>ESRI (esri)</v>
       </c>
       <c r="B26" t="str">
         <f>providers_master!B26</f>
-        <v>copernicus</v>
+        <v>esri</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
-        <v>EU Copernicus Marine Services (cmems)</v>
+        <v>EU Copernicus (copernicus)</v>
       </c>
       <c r="B27" t="str">
         <f>providers_master!B27</f>
-        <v>cmems</v>
+        <v>copernicus</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
-        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
+        <v>EU Copernicus Marine Services (cmems)</v>
       </c>
       <c r="B28" t="str">
         <f>providers_master!B28</f>
-        <v>iforce</v>
+        <v>cmems</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
-        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
+        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
       </c>
       <c r="B29" t="str">
         <f>providers_master!B29</f>
-        <v>jrcdc</v>
+        <v>iforce</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
-        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
+        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
       </c>
       <c r="B30" t="str">
         <f>providers_master!B30</f>
-        <v>fao</v>
+        <v>jrcdc</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
-        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
+        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
       </c>
       <c r="B31" t="str">
         <f>providers_master!B31</f>
-        <v>fari</v>
+        <v>fao</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
-        <v>General Bathymetric Chart of the Oceans (gebco)</v>
+        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
       </c>
       <c r="B32" t="str">
         <f>providers_master!B32</f>
-        <v>gebco</v>
+        <v>fari</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
-        <v>Geological Survey of Denmark and Greenland (geus)</v>
+        <v>General Bathymetric Chart of the Oceans (gebco)</v>
       </c>
       <c r="B33" t="str">
         <f>providers_master!B33</f>
-        <v>geus</v>
+        <v>gebco</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
-        <v>Global Biodiversity Information Facility (gbif)</v>
+        <v>Geological Survey of Denmark and Greenland (geus)</v>
       </c>
       <c r="B34" t="str">
         <f>providers_master!B34</f>
-        <v>gbif</v>
+        <v>geus</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
-        <v>Global Environment Facility Trust Fund (gef)</v>
+        <v>Global Biodiversity Information Facility (gbif)</v>
       </c>
       <c r="B35" t="str">
         <f>providers_master!B35</f>
-        <v>gef</v>
+        <v>gbif</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
-        <v>Global Environmental Flows Network (eflownet)</v>
+        <v>Global Environment Facility Trust Fund (gef)</v>
       </c>
       <c r="B36" t="str">
         <f>providers_master!B36</f>
-        <v>eflownet</v>
+        <v>gef</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
-        <v>Global Fishing Watch (gfw)</v>
+        <v>Global Environmental Flows Network (eflownet)</v>
       </c>
       <c r="B37" t="str">
         <f>providers_master!B37</f>
-        <v>gfw</v>
+        <v>eflownet</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
-        <v>Global Mangrove Watch (gmw)</v>
+        <v>Global Fishing Watch (gfw)</v>
       </c>
       <c r="B38" t="str">
         <f>providers_master!B38</f>
-        <v>gmw</v>
+        <v>gfw</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
-        <v>Global Ocean Data Analysis Project (glodap)</v>
+        <v>Global Mangrove Watch (gmw)</v>
       </c>
       <c r="B39" t="str">
         <f>providers_master!B39</f>
-        <v>glodap</v>
+        <v>gmw</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
-        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
+        <v>Global Ocean Data Analysis Project (glodap)</v>
       </c>
       <c r="B40" t="str">
         <f>providers_master!B40</f>
-        <v>unep_gpa</v>
+        <v>glodap</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
-        <v>Grid Arendal (grida)</v>
+        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
       </c>
       <c r="B41" t="str">
         <f>providers_master!B41</f>
-        <v>grida</v>
+        <v>unep_gpa</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
-        <v>Group on Earth Observations (geo)</v>
+        <v>Grid Arendal (grida)</v>
       </c>
       <c r="B42" t="str">
         <f>providers_master!B42</f>
-        <v>geo</v>
+        <v>grida</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
-        <v>HUB Ocean (hub)</v>
+        <v>Group on Earth Observations (geo)</v>
       </c>
       <c r="B43" t="str">
         <f>providers_master!B43</f>
-        <v>hub</v>
+        <v>geo</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
-        <v>Indian Ocean Tuna Commission (iotc)</v>
+        <v>HUB Ocean (hub)</v>
       </c>
       <c r="B44" t="str">
         <f>providers_master!B44</f>
-        <v>iotc</v>
+        <v>hub</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
-        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
+        <v>Indian Ocean Tuna Commission (iotc)</v>
       </c>
       <c r="B45" t="str">
         <f>providers_master!B45</f>
-        <v>ims</v>
+        <v>iotc</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
-        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
+        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
       </c>
       <c r="B46" t="str">
         <f>providers_master!B46</f>
-        <v>ioc_unesco</v>
+        <v>ims</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
-        <v>International Geosphere-Biosphere Programme (igbp)</v>
+        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
       </c>
       <c r="B47" t="str">
         <f>providers_master!B47</f>
-        <v>igbp</v>
+        <v>ioc_unesco</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
-        <v>International Seabed Authority (isa)</v>
+        <v>International Geosphere-Biosphere Programme (igbp)</v>
       </c>
       <c r="B48" t="str">
         <f>providers_master!B48</f>
-        <v>isa</v>
+        <v>igbp</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
-        <v>International Submarine Cable Protection Committe (iscpc)</v>
+        <v>International Seabed Authority (isa)</v>
       </c>
       <c r="B49" t="str">
         <f>providers_master!B49</f>
-        <v>iscpc</v>
+        <v>isa</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
-        <v>International Union for the Conservation of Nature (iucn)</v>
+        <v>International Submarine Cable Protection Committe (iscpc)</v>
       </c>
       <c r="B50" t="str">
         <f>providers_master!B50</f>
-        <v>iucn</v>
+        <v>iscpc</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
-        <v>Kenya Forest Service (kfs)</v>
+        <v>International Union for the Conservation of Nature (iucn)</v>
       </c>
       <c r="B51" t="str">
         <f>providers_master!B51</f>
-        <v>kfs</v>
+        <v>iucn</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
-        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
+        <v>Kenya Forest Service (kfs)</v>
       </c>
       <c r="B52" t="str">
         <f>providers_master!B52</f>
-        <v>kmfri</v>
+        <v>kfs</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
-        <v>Koordinates (koord)</v>
+        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
       </c>
       <c r="B53" t="str">
         <f>providers_master!B53</f>
-        <v>koord</v>
+        <v>kmfri</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CONCATENATE(providers_master!A54, " (",providers_master!B54, ")")</f>
-        <v>Literature (lit)</v>
+        <v>Koordinates (koord)</v>
       </c>
       <c r="B54" t="str">
         <f>providers_master!B54</f>
-        <v>lit</v>
+        <v>koord</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CONCATENATE(providers_master!A55, " (",providers_master!B55, ")")</f>
-        <v>Locally Managed Marine Area (lmma)</v>
+        <v>Literature (lit)</v>
       </c>
       <c r="B55" t="str">
         <f>providers_master!B55</f>
-        <v>lmma</v>
+        <v>lit</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CONCATENATE(providers_master!A56, " (",providers_master!B56, ")")</f>
-        <v>Mangrove Action Project (map)</v>
+        <v>Locally Managed Marine Area (lmma)</v>
       </c>
       <c r="B56" t="str">
         <f>providers_master!B56</f>
-        <v>map</v>
+        <v>lmma</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CONCATENATE(providers_master!A57, " (",providers_master!B57, ")")</f>
-        <v>MapStand (mapstand)</v>
+        <v>Mangrove Action Project (map)</v>
       </c>
       <c r="B57" t="str">
         <f>providers_master!B57</f>
-        <v>mapstand</v>
+        <v>map</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CONCATENATE(providers_master!A58, " (",providers_master!B58, ")")</f>
-        <v>Marine Protection Atlas (mpatlas)</v>
+        <v>MapStand (mapstand)</v>
       </c>
       <c r="B58" t="str">
         <f>providers_master!B58</f>
-        <v>mpatlas</v>
+        <v>mapstand</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CONCATENATE(providers_master!A59, " (",providers_master!B59, ")")</f>
-        <v>Marine Regions organization (mro)</v>
+        <v>Marine Protection Atlas (mpatlas)</v>
       </c>
       <c r="B59" t="str">
         <f>providers_master!B59</f>
-        <v>mro</v>
+        <v>mpatlas</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CONCATENATE(providers_master!A60, " (",providers_master!B60, ")")</f>
-        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
+        <v>Marine Regions organization (mro)</v>
       </c>
       <c r="B60" t="str">
         <f>providers_master!B60</f>
-        <v>maspawio</v>
+        <v>mro</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CONCATENATE(providers_master!A61, " (",providers_master!B61, ")")</f>
-        <v>Marine Traffic (marinetraffic)</v>
+        <v>Marine Spatial Atlas for the Western Indian Ocean (maspawio)</v>
       </c>
       <c r="B61" t="str">
         <f>providers_master!B61</f>
-        <v>marinetraffic</v>
+        <v>maspawio</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CONCATENATE(providers_master!A62, " (",providers_master!B62, ")")</f>
-        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
+        <v>Marine Traffic (marinetraffic)</v>
       </c>
       <c r="B62" t="str">
         <f>providers_master!B62</f>
-        <v>mcbff</v>
+        <v>marinetraffic</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CONCATENATE(providers_master!A63, " (",providers_master!B63, ")")</f>
-        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
+        <v>Mauritius Commercial Bank Forward Foundation (mcbff)</v>
       </c>
       <c r="B63" t="str">
         <f>providers_master!B63</f>
-        <v>mendu</v>
+        <v>mcbff</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CONCATENATE(providers_master!A64, " (",providers_master!B64, ")")</f>
-        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
+        <v>Ministry of Environment and National Development Unit of Mauritius (mendu)</v>
       </c>
       <c r="B64" t="str">
         <f>providers_master!B64</f>
-        <v>menrts</v>
+        <v>mendu</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CONCATENATE(providers_master!A65, " (",providers_master!B65, ")")</f>
-        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
+        <v>Ministry of Environment Natural Resources and Transport of Seychelles (menrts)</v>
       </c>
       <c r="B65" t="str">
         <f>providers_master!B65</f>
-        <v>mlerdm</v>
+        <v>menrts</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CONCATENATE(providers_master!A66, " (",providers_master!B66, ")")</f>
-        <v>NASA Earth Observations (nasa)</v>
+        <v>Ministry of Land Environment and Rural Development of Mozambique (mlerdm)</v>
       </c>
       <c r="B66" t="str">
         <f>providers_master!B66</f>
-        <v>nasa</v>
+        <v>mlerdm</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CONCATENATE(providers_master!A67, " (",providers_master!B67, ")")</f>
-        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
+        <v>NASA Earth Observations (nasa)</v>
       </c>
       <c r="B67" t="str">
         <f>providers_master!B67</f>
-        <v>dnef</v>
+        <v>nasa</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CONCATENATE(providers_master!A68, " (",providers_master!B68, ")")</f>
-        <v>National Environment Management Authority of Kenya (nema)</v>
+        <v>National Directorate for Environment and Forestry of Comoros (dnef)</v>
       </c>
       <c r="B68" t="str">
         <f>providers_master!B68</f>
-        <v>nema</v>
+        <v>dnef</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CONCATENATE(providers_master!A69, " (",providers_master!B69, ")")</f>
-        <v>National Environment Management Council of Tanzania (nemc)</v>
+        <v>National Environment Management Authority of Kenya (nema)</v>
       </c>
       <c r="B69" t="str">
         <f>providers_master!B69</f>
-        <v>nemc</v>
+        <v>nema</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CONCATENATE(providers_master!A70, " (",providers_master!B70, ")")</f>
-        <v>Natural Earth (naturalearth)</v>
+        <v>National Environment Management Council of Tanzania (nemc)</v>
       </c>
       <c r="B70" t="str">
         <f>providers_master!B70</f>
-        <v>naturalearth</v>
+        <v>nemc</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CONCATENATE(providers_master!A71, " (",providers_master!B71, ")")</f>
-        <v>Nelson Mandela University (nmu)</v>
+        <v>Natural Earth (naturalearth)</v>
       </c>
       <c r="B71" t="str">
         <f>providers_master!B71</f>
-        <v>nmu</v>
+        <v>naturalearth</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CONCATENATE(providers_master!A72, " (",providers_master!B72, ")")</f>
-        <v>New Partnership for Africa’s Development (nepad)</v>
+        <v>Nelson Mandela University (nmu)</v>
       </c>
       <c r="B72" t="str">
         <f>providers_master!B72</f>
-        <v>nepad</v>
+        <v>nmu</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CONCATENATE(providers_master!A73, " (",providers_master!B73, ")")</f>
-        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
+        <v>New Partnership for Africa’s Development (nepad)</v>
       </c>
       <c r="B73" t="str">
         <f>providers_master!B73</f>
-        <v>cmr</v>
+        <v>nepad</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CONCATENATE(providers_master!A74, " (",providers_master!B74, ")")</f>
-        <v>Norsk Polarinstitutt (npi)</v>
+        <v>NMU Institute for Coastal and Marine Research (cmr)</v>
       </c>
       <c r="B74" t="str">
         <f>providers_master!B74</f>
-        <v>npi</v>
+        <v>cmr</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
-        <v>Northern Mozambique Channel initiative (nmci)</v>
+        <v>Norsk Polarinstitutt (npi)</v>
       </c>
       <c r="B75" t="str">
         <f>providers_master!B75</f>
-        <v>nmci</v>
+        <v>npi</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
-        <v>Ocean Biogeographic Information System (obis)</v>
+        <v>Northern Mozambique Channel initiative (nmci)</v>
       </c>
       <c r="B76" t="str">
         <f>providers_master!B76</f>
-        <v>obis</v>
+        <v>nmci</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
-        <v>OceanSITES (ocsi)</v>
+        <v>Ocean Biogeographic Information System (obis)</v>
       </c>
       <c r="B77" t="str">
         <f>providers_master!B77</f>
-        <v>ocsi</v>
+        <v>obis</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
-        <v>Open Street Map (osm)</v>
+        <v>OceanSITES (ocsi)</v>
       </c>
       <c r="B78" t="str">
         <f>providers_master!B78</f>
-        <v>osm</v>
+        <v>ocsi</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
-        <v>Orbcomm Satellite AIS (orbcom)</v>
+        <v>Open Street Map (osm)</v>
       </c>
       <c r="B79" t="str">
         <f>providers_master!B79</f>
-        <v>orbcom</v>
+        <v>osm</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
-        <v>Pangaea (pangaea)</v>
+        <v>Orbcomm Satellite AIS (orbcom)</v>
       </c>
       <c r="B80" t="str">
         <f>providers_master!B80</f>
-        <v>pangaea</v>
+        <v>orbcom</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
-        <v>ReefBase (reba)</v>
+        <v>Pangaea (pangaea)</v>
       </c>
       <c r="B81" t="str">
         <f>providers_master!B81</f>
-        <v>reba</v>
+        <v>pangaea</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
-        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
+        <v>ReefBase (reba)</v>
       </c>
       <c r="B82" t="str">
         <f>providers_master!B82</f>
-        <v>ioc_recomap</v>
+        <v>reba</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
-        <v>Regional Fisheries Management Organization (rfmo)</v>
+        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
       </c>
       <c r="B83" t="str">
         <f>providers_master!B83</f>
-        <v>rfmo</v>
+        <v>ioc_recomap</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
-        <v>River Basin Organizations (rbo)</v>
+        <v>Regional Fisheries Management Organization (rfmo)</v>
       </c>
       <c r="B84" t="str">
         <f>providers_master!B84</f>
-        <v>rbo</v>
+        <v>rfmo</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
-        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
+        <v>River Basin Organizations (rbo)</v>
       </c>
       <c r="B85" t="str">
         <f>providers_master!B85</f>
-        <v>seyccat</v>
+        <v>rbo</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
-        <v>Shared Water Course Institution (swci)</v>
+        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
       </c>
       <c r="B86" t="str">
         <f>providers_master!B86</f>
-        <v>swci</v>
+        <v>seyccat</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
-        <v>Somalia Water and Land Information Management (fao_swalim)</v>
+        <v>Shared Water Course Institution (swci)</v>
       </c>
       <c r="B87" t="str">
         <f>providers_master!B87</f>
-        <v>fao_swalim</v>
+        <v>swci</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
-        <v>Somalia water and land information management (swalim)</v>
+        <v>Somalia Water and Land Information Management (fao_swalim)</v>
       </c>
       <c r="B88" t="str">
         <f>providers_master!B88</f>
-        <v>swalim</v>
+        <v>fao_swalim</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
-        <v>South African National Biodiversity Institute (sanbi)</v>
+        <v>Somalia water and land information management (swalim)</v>
       </c>
       <c r="B89" t="str">
         <f>providers_master!B89</f>
-        <v>sanbi</v>
+        <v>swalim</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
-        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
+        <v>South African National Biodiversity Institute (sanbi)</v>
       </c>
       <c r="B90" t="str">
         <f>providers_master!B90</f>
-        <v>swiofp</v>
+        <v>sanbi</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
-        <v>Southern African Development Community (sadc)</v>
+        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
       </c>
       <c r="B91" t="str">
         <f>providers_master!B91</f>
-        <v>sadc</v>
+        <v>swiofp</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
-        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
+        <v>Southern African Development Community (sadc)</v>
       </c>
       <c r="B92" t="str">
         <f>providers_master!B92</f>
-        <v>swamp</v>
+        <v>sadc</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
-        <v>Swedish International Water Institute (siwi)</v>
+        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
       </c>
       <c r="B93" t="str">
         <f>providers_master!B93</f>
-        <v>siwi</v>
+        <v>swamp</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
-        <v>TeleGeography (telgeo)</v>
+        <v>Swedish International Water Institute (siwi)</v>
       </c>
       <c r="B94" t="str">
         <f>providers_master!B94</f>
-        <v>telgeo</v>
+        <v>siwi</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
-        <v>The Knowledge Network for Biocomplexity (knb)</v>
+        <v>TeleGeography (telgeo)</v>
       </c>
       <c r="B95" t="str">
         <f>providers_master!B95</f>
-        <v>knb</v>
+        <v>telgeo</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
-        <v>The Nature Conservancy (tnc)</v>
+        <v>The Knowledge Network for Biocomplexity (knb)</v>
       </c>
       <c r="B96" t="str">
         <f>providers_master!B96</f>
-        <v>tnc</v>
+        <v>knb</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
-        <v>The Ocean Cleanup project (ocp)</v>
+        <v>The Nature Conservancy (tnc)</v>
       </c>
       <c r="B97" t="str">
         <f>providers_master!B97</f>
-        <v>ocp</v>
+        <v>tnc</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
-        <v>The United Nations Support Office in Somalia (unsos)</v>
+        <v>The Ocean Cleanup project (ocp)</v>
       </c>
       <c r="B98" t="str">
         <f>providers_master!B98</f>
-        <v>unsos</v>
+        <v>ocp</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
-        <v>U.S. Geological Survey (usgs)</v>
+        <v>The United Nations Support Office in Somalia (unsos)</v>
       </c>
       <c r="B99" t="str">
         <f>providers_master!B99</f>
-        <v>usgs</v>
+        <v>unsos</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
-        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
+        <v>U.S. Geological Survey (usgs)</v>
       </c>
       <c r="B100" t="str">
         <f>providers_master!B100</f>
-        <v>noaa</v>
+        <v>usgs</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
-        <v>UN Biodiversity Lab (unbl)</v>
+        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
       </c>
       <c r="B101" t="str">
         <f>providers_master!B101</f>
-        <v>unbl</v>
+        <v>noaa</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
-        <v>UN World Food Programme  (wfp)</v>
+        <v>UN Biodiversity Lab (unbl)</v>
       </c>
       <c r="B102" t="str">
         <f>providers_master!B102</f>
-        <v>wfp</v>
+        <v>unbl</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
-        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
+        <v>UN World Food Programme  (wfp)</v>
       </c>
       <c r="B103" t="str">
         <f>providers_master!B103</f>
-        <v>wcmc</v>
+        <v>wfp</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
-        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
+        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
       </c>
       <c r="B104" t="str">
         <f>providers_master!B104</f>
-        <v>unesco_fust</v>
+        <v>wcmc</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
-        <v>United Nations Agency for Human Settlements (unhabitat)</v>
+        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
       </c>
       <c r="B105" t="str">
         <f>providers_master!B105</f>
-        <v>unhabitat</v>
+        <v>unesco_fust</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
-        <v>United Nations Development Programme (undp)</v>
+        <v>United Nations Agency for Human Settlements (unhabitat)</v>
       </c>
       <c r="B106" t="str">
         <f>providers_master!B106</f>
-        <v>undp</v>
+        <v>unhabitat</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
-        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
+        <v>United Nations Development Programme (undp)</v>
       </c>
       <c r="B107" t="str">
         <f>providers_master!B107</f>
-        <v>unesco</v>
+        <v>undp</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
-        <v>United Nations Environment Programme (unep)</v>
+        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
       </c>
       <c r="B108" t="str">
         <f>providers_master!B108</f>
-        <v>unep</v>
+        <v>unesco</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
-        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
+        <v>United Nations Environment Programme (unep)</v>
       </c>
       <c r="B109" t="str">
         <f>providers_master!B109</f>
-        <v>unfccc</v>
+        <v>unep</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
-        <v>United Nations Industrial Development Organisation (unido)</v>
+        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
       </c>
       <c r="B110" t="str">
         <f>providers_master!B110</f>
-        <v>unido</v>
+        <v>unfccc</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
-        <v>United Nations Office for Project Services (unops)</v>
+        <v>United Nations Industrial Development Organisation (unido)</v>
       </c>
       <c r="B111" t="str">
         <f>providers_master!B111</f>
-        <v>unops</v>
+        <v>unido</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
-        <v>United States Agency for International Development (usaid)</v>
+        <v>United Nations Office for Project Services (unops)</v>
       </c>
       <c r="B112" t="str">
         <f>providers_master!B112</f>
-        <v>usaid</v>
+        <v>unops</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
-        <v>United States Forest Service (usfs)</v>
+        <v>United States Agency for International Development (usaid)</v>
       </c>
       <c r="B113" t="str">
         <f>providers_master!B113</f>
-        <v>usfs</v>
+        <v>usaid</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
-        <v>University of Colorado (dbseabed)</v>
+        <v>United States Forest Service (usfs)</v>
       </c>
       <c r="B114" t="str">
         <f>providers_master!B114</f>
-        <v>dbseabed</v>
+        <v>usfs</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
-        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
+        <v>University of Colorado (dbseabed)</v>
       </c>
       <c r="B115" t="str">
         <f>providers_master!B115</f>
-        <v>iucn-wani</v>
+        <v>dbseabed</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
-        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
+        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
       </c>
       <c r="B116" t="str">
         <f>providers_master!B116</f>
-        <v>wiomn</v>
+        <v>iucn-wani</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>CONCATENATE(providers_master!A117, " (",providers_master!B117, ")")</f>
-        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
+        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
       </c>
       <c r="B117" t="str">
         <f>providers_master!B117</f>
-        <v>wiomer</v>
+        <v>wiomn</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>CONCATENATE(providers_master!A118, " (",providers_master!B118, ")")</f>
-        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
+        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
       </c>
       <c r="B118" t="str">
         <f>providers_master!B118</f>
-        <v>wiomsa</v>
+        <v>wiomer</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>CONCATENATE(providers_master!A119, " (",providers_master!B119, ")")</f>
-        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
+        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
       </c>
       <c r="B119" t="str">
         <f>providers_master!B119</f>
-        <v>wiosap</v>
+        <v>wiomsa</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>CONCATENATE(providers_master!A120, " (",providers_master!B120, ")")</f>
-        <v>Wetlands International (wi)</v>
+        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
       </c>
       <c r="B120" t="str">
         <f>providers_master!B120</f>
-        <v>wi</v>
+        <v>wiosap</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>CONCATENATE(providers_master!A121, " (",providers_master!B121, ")")</f>
-        <v>Wildlife Conservation Society (wcs)</v>
+        <v>Wetlands International (wi)</v>
       </c>
       <c r="B121" t="str">
         <f>providers_master!B121</f>
-        <v>wcs</v>
+        <v>wi</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>CONCATENATE(providers_master!A122, " (",providers_master!B122, ")")</f>
-        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
+        <v>Wildlife Conservation Society (wcs)</v>
       </c>
       <c r="B122" t="str">
         <f>providers_master!B122</f>
-        <v>wiolab</v>
+        <v>wcs</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>CONCATENATE(providers_master!A123, " (",providers_master!B123, ")")</f>
-        <v>VLIZ - Flanders Marine Institute (vliz)</v>
+        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
       </c>
       <c r="B123" t="str">
         <f>providers_master!B123</f>
-        <v>vliz</v>
+        <v>wiolab</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>CONCATENATE(providers_master!A124, " (",providers_master!B124, ")")</f>
-        <v>World Bank (wb)</v>
+        <v>VLIZ - Flanders Marine Institute (vliz)</v>
       </c>
       <c r="B124" t="str">
         <f>providers_master!B124</f>
-        <v>wb</v>
+        <v>vliz</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>CONCATENATE(providers_master!A125, " (",providers_master!B125, ")")</f>
-        <v>World Database on Protected Areas (wdpa)</v>
+        <v>World Bank (wb)</v>
       </c>
       <c r="B125" t="str">
         <f>providers_master!B125</f>
-        <v>wdpa</v>
+        <v>wb</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>CONCATENATE(providers_master!A126, " (",providers_master!B126, ")")</f>
-        <v>World Environment Center (wec)</v>
+        <v>World Database on Protected Areas (wdpa)</v>
       </c>
       <c r="B126" t="str">
         <f>providers_master!B126</f>
-        <v>wec</v>
+        <v>wdpa</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>CONCATENATE(providers_master!A127, " (",providers_master!B127, ")")</f>
-        <v>World Resources Institute (wri)</v>
+        <v>World Environment Center (wec)</v>
       </c>
       <c r="B127" t="str">
         <f>providers_master!B127</f>
-        <v>wri</v>
+        <v>wec</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>CONCATENATE(providers_master!A128, " (",providers_master!B128, ")")</f>
-        <v>World Wide Fund for Nature (wwf)</v>
+        <v>World Resources Institute (wri)</v>
       </c>
       <c r="B128" t="str">
         <f>providers_master!B128</f>
+        <v>wri</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>CONCATENATE(providers_master!A129, " (",providers_master!B129, ")")</f>
+        <v>World Wide Fund for Nature (wwf)</v>
+      </c>
+      <c r="B129" t="str">
+        <f>providers_master!B129</f>
         <v>wwf</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f>CONCATENATE(providers_master!A130, " (",providers_master!B130, ")")</f>
+        <v>Pure Earth (pureearth)</v>
+      </c>
+      <c r="B130" t="str">
+        <f>providers_master!B130</f>
+        <v>pureearth</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f>CONCATENATE(providers_master!A131, " (",providers_master!B131, ")")</f>
+        <v>Ocean Parcels (oceanparcels)</v>
+      </c>
+      <c r="B131" t="str">
+        <f>providers_master!B131</f>
+        <v>oceanparcels</v>
       </c>
     </row>
   </sheetData>
@@ -12335,10 +12392,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12347,7 +12404,7 @@
     <col min="2" max="2" width="20.26953125" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.90625" style="7" customWidth="1"/>
     <col min="6" max="6" width="56.81640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="38.81640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" style="7" customWidth="1"/>
@@ -12413,288 +12470,292 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>1344</v>
+        <v>89</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1340</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>1341</v>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1342</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>1344</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>1340</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>1330</v>
+        <v>93</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1329</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1333</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+        <v>1330</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="4" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -12702,21 +12763,31 @@
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>3</v>
@@ -12724,67 +12795,57 @@
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="D26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>1313</v>
+        <v>142</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1314</v>
+        <v>143</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12792,44 +12853,42 @@
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>147</v>
+      <c r="A28" s="8" t="s">
+        <v>1313</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>148</v>
+        <v>1314</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>149</v>
+      <c r="D28" s="7" t="s">
+        <v>1315</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -12839,62 +12898,64 @@
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="F33" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -12904,18 +12965,18 @@
     </row>
     <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -12925,17 +12986,19 @@
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="8"/>
@@ -12944,114 +13007,112 @@
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>1327</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>195</v>
+      <c r="D42" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="4" t="s">
-        <v>196</v>
+      <c r="F42" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -13061,93 +13122,93 @@
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>1311</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>197</v>
+        <v>1310</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>198</v>
+        <v>1312</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="9"/>
+      <c r="D49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="F49" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -13157,147 +13218,147 @@
     </row>
     <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>1349</v>
+        <v>222</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>1351</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+        <v>1349</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>1337</v>
+        <v>231</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>1338</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+        <v>1337</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F59" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -13307,393 +13368,397 @@
     </row>
     <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>253</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>9</v>
+        <v>252</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
+    <row r="74" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="47" t="s">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B75" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E75" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F75" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-    </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
     </row>
     <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C77" s="16"/>
-      <c r="D77" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E77" s="13"/>
+      <c r="D77" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>295</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="13"/>
       <c r="F78" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="16"/>
+        <v>293</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>295</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" s="6"/>
+        <v>296</v>
+      </c>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="42" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80" s="16"/>
+      <c r="F80" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+        <v>1319</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="42" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="15"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -13702,15 +13767,15 @@
     </row>
     <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+        <v>309</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -13719,14 +13784,12 @@
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>17</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C85" s="15"/>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -13738,12 +13801,14 @@
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C86" s="15"/>
+        <v>313</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -13755,79 +13820,75 @@
     </row>
     <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E88" s="16"/>
+        <v>317</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>319</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>325</v>
+        <v>1324</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -13836,15 +13897,19 @@
     </row>
     <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
+        <v>326</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -13853,10 +13918,10 @@
     </row>
     <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="14"/>
@@ -13869,15 +13934,15 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>333</v>
+      <c r="A93" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -13886,255 +13951,255 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C95" s="16"/>
-      <c r="D95" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E95" s="16"/>
+      <c r="D95" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>338</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="13" t="s">
+      <c r="C98" s="16"/>
+      <c r="D98" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="22" t="s">
-        <v>354</v>
+      <c r="A99" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B101" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="13" t="s">
+      <c r="C101" s="16"/>
+      <c r="D101" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E101" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="36" t="s">
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B102" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C102" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D102" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E102" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="F101" s="34" t="s">
+      <c r="F102" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-    </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E102" s="50" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
     </row>
     <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C103" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="D103" s="49" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E103" s="50" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C104" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D104" s="13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C106" s="15"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="E106" s="14"/>
       <c r="F106" s="15"/>
       <c r="G106" s="7"/>
@@ -14145,14 +14210,14 @@
     </row>
     <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="15"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -14162,10 +14227,10 @@
     </row>
     <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="14"/>
@@ -14179,10 +14244,10 @@
     </row>
     <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="14"/>
@@ -14196,10 +14261,10 @@
     </row>
     <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="14"/>
@@ -14213,10 +14278,10 @@
     </row>
     <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="14"/>
@@ -14228,12 +14293,12 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="14"/>
@@ -14247,14 +14312,14 @@
     </row>
     <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C113" s="15"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -14264,18 +14329,14 @@
     </row>
     <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
-        <v>1317</v>
+        <v>390</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E114" s="15"/>
+        <v>391</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="14"/>
       <c r="F114" s="15"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -14283,17 +14344,19 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="12" t="s">
-        <v>392</v>
+        <v>1317</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>393</v>
+        <v>1316</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="14"/>
+      <c r="D115" s="14" t="s">
+        <v>1318</v>
+      </c>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="7"/>
@@ -14304,160 +14367,171 @@
     </row>
     <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D116" s="14"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="41"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="37" t="s">
-        <v>396</v>
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C117" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="44"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="38"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="41"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
-        <v>398</v>
+    <row r="118" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="37" t="s">
+        <v>396</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C118" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="38" t="s">
         <v>3</v>
       </c>
+      <c r="D118" s="44"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
     </row>
     <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D119" s="7" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D122" s="48" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
+        <v>408</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D123" s="48" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C124" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>417</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E124" s="9"/>
       <c r="F124" s="4" t="s">
-        <v>418</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
     </row>
     <row r="125" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D125" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>29</v>
@@ -14465,148 +14539,179 @@
     </row>
     <row r="127" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C127" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G127" s="17"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
     </row>
     <row r="128" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+        <v>427</v>
+      </c>
+      <c r="G128" s="17"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B130" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>1355</v>
       </c>
     </row>
+    <row r="131" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>1359</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K128">
-    <sortCondition ref="A3:A128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K129">
+    <sortCondition ref="A3:A129"/>
   </sortState>
-  <conditionalFormatting sqref="B118:B1048576 B1:B115">
+  <conditionalFormatting sqref="B119:B1048576 B1:B116">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D103" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
-    <hyperlink ref="D60" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
-    <hyperlink ref="D128" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
-    <hyperlink ref="D70" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
-    <hyperlink ref="D79" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
-    <hyperlink ref="D127" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
-    <hyperlink ref="D10" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
-    <hyperlink ref="D42" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
-    <hyperlink ref="D66" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
-    <hyperlink ref="D37" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
-    <hyperlink ref="D32" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
+    <hyperlink ref="D104" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
+    <hyperlink ref="D61" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
+    <hyperlink ref="D129" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
+    <hyperlink ref="D71" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
+    <hyperlink ref="D80" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
+    <hyperlink ref="D128" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
+    <hyperlink ref="D11" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
+    <hyperlink ref="D43" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
+    <hyperlink ref="D67" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
+    <hyperlink ref="D38" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
+    <hyperlink ref="D33" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
     <hyperlink ref="D3" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
-    <hyperlink ref="D123" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
-    <hyperlink ref="D77" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
-    <hyperlink ref="D95" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
-    <hyperlink ref="D33" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
-    <hyperlink ref="D88" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
-    <hyperlink ref="D61" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
-    <hyperlink ref="D98" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
-    <hyperlink ref="E87" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
-    <hyperlink ref="D59" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
-    <hyperlink ref="E26" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
-    <hyperlink ref="D99" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
-    <hyperlink ref="D81" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
-    <hyperlink ref="D25" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
-    <hyperlink ref="D97" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
-    <hyperlink ref="D12" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
-    <hyperlink ref="D49" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
-    <hyperlink ref="D48" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
-    <hyperlink ref="D58" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
-    <hyperlink ref="E103" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
-    <hyperlink ref="E128" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
-    <hyperlink ref="E100" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
-    <hyperlink ref="D100" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
-    <hyperlink ref="E76" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
-    <hyperlink ref="E127" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
-    <hyperlink ref="E66" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
-    <hyperlink ref="E48" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
-    <hyperlink ref="E94" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
+    <hyperlink ref="D124" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
+    <hyperlink ref="D78" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
+    <hyperlink ref="D96" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
+    <hyperlink ref="D89" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
+    <hyperlink ref="D62" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
+    <hyperlink ref="D10" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
+    <hyperlink ref="D99" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
+    <hyperlink ref="E88" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
+    <hyperlink ref="D60" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
+    <hyperlink ref="E27" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
+    <hyperlink ref="D100" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
+    <hyperlink ref="D82" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
+    <hyperlink ref="D98" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
+    <hyperlink ref="D13" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
+    <hyperlink ref="D50" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
+    <hyperlink ref="D49" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
+    <hyperlink ref="D40" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
+    <hyperlink ref="D59" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
+    <hyperlink ref="E104" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
+    <hyperlink ref="E129" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
+    <hyperlink ref="E101" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
+    <hyperlink ref="D101" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
+    <hyperlink ref="E77" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
+    <hyperlink ref="E128" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
+    <hyperlink ref="E67" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
+    <hyperlink ref="E49" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
+    <hyperlink ref="E95" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
     <hyperlink ref="E3" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
-    <hyperlink ref="E54" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
-    <hyperlink ref="D87" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
-    <hyperlink ref="E104" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
-    <hyperlink ref="D41" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
-    <hyperlink ref="D46" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
-    <hyperlink ref="D50" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
-    <hyperlink ref="E50" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
-    <hyperlink ref="D90" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
-    <hyperlink ref="D35" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
-    <hyperlink ref="D62" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
-    <hyperlink ref="D122" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
-    <hyperlink ref="D121" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
-    <hyperlink ref="D124" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
-    <hyperlink ref="D78" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
-    <hyperlink ref="E78" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
-    <hyperlink ref="E102" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
-    <hyperlink ref="D8" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
-    <hyperlink ref="D129" r:id="rId63" xr:uid="{34BD2B3A-5BE8-46F5-915E-4233A0E96739}"/>
+    <hyperlink ref="E55" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
+    <hyperlink ref="D88" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
+    <hyperlink ref="E105" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
+    <hyperlink ref="D42" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
+    <hyperlink ref="D47" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
+    <hyperlink ref="D51" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
+    <hyperlink ref="E51" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
+    <hyperlink ref="D91" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
+    <hyperlink ref="D36" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
+    <hyperlink ref="D63" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
+    <hyperlink ref="D123" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
+    <hyperlink ref="D122" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
+    <hyperlink ref="D125" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
+    <hyperlink ref="D79" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
+    <hyperlink ref="E79" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
+    <hyperlink ref="E103" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
+    <hyperlink ref="D9" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
+    <hyperlink ref="D130" r:id="rId63" xr:uid="{34BD2B3A-5BE8-46F5-915E-4233A0E96739}"/>
+    <hyperlink ref="D131" r:id="rId64" xr:uid="{AC7D42C4-0FBD-4788-A404-58973EC3187A}"/>
+    <hyperlink ref="E131" r:id="rId65" display="https://github.com/OceanParcels/" xr:uid="{C18B1E22-A1DC-49D2-B21B-BD6038DEDCD8}"/>
+    <hyperlink ref="D4" r:id="rId66" display="http://www.africanmarineatlas.org/" xr:uid="{894931CF-EA13-437D-8064-D300886C265E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -20330,18 +20435,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20364,18 +20469,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20E118-01EF-4C16-BF5F-A96C5EABF9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70BBD5-E61A-4B8E-9D04-502419F01F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="594" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1368">
   <si>
     <t>location_name</t>
   </si>
@@ -4181,13 +4181,22 @@
   </si>
   <si>
     <t>OIH team (e.g. &lt;jmckenna@gatewaygeomatics.com&gt;) helped access some layers from this old map server</t>
+  </si>
+  <si>
+    <t>kslof</t>
+  </si>
+  <si>
+    <t>Khaled bin Sultan Living Oceans Foundation</t>
+  </si>
+  <si>
+    <t>https://www.livingoceansfoundation.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4390,13 +4399,6 @@
     <font>
       <sz val="8"/>
       <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF333399"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4845,7 +4847,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4906,9 +4908,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4922,9 +4921,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4940,7 +4936,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4949,6 +4944,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5556,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:B132"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5579,21 +5584,21 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE(providers_master!A2, " (",providers_master!B2, ")")</f>
-        <v>No provider selected (none)</v>
+        <v>Africa Regional Data Cube (ardc)</v>
       </c>
       <c r="B2" t="str">
         <f>providers_master!B2</f>
-        <v>none</v>
+        <v>ardc</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE(providers_master!A3, " (",providers_master!B3, ")")</f>
-        <v>Africa Regional Data Cube (ardc)</v>
+        <v>African Development Bank (afdb)</v>
       </c>
       <c r="B3" t="str">
         <f>providers_master!B3</f>
-        <v>ardc</v>
+        <v>afdb</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5609,491 +5614,491 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE(providers_master!A5, " (",providers_master!B5, ")")</f>
-        <v>African Development Bank (afdb)</v>
+        <v>Allen Coral Atlas (allen)</v>
       </c>
       <c r="B5" t="str">
         <f>providers_master!B5</f>
-        <v>afdb</v>
+        <v>allen</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE(providers_master!A6, " (",providers_master!B6, ")")</f>
-        <v>Allen Coral Atlas (allen)</v>
+        <v>AquaMaps (aquamaps)</v>
       </c>
       <c r="B6" t="str">
         <f>providers_master!B6</f>
-        <v>allen</v>
+        <v>aquamaps</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CONCATENATE(providers_master!A7, " (",providers_master!B7, ")")</f>
-        <v>AquaMaps (aquamaps)</v>
+        <v>Association of African Maritime Administrations (aama)</v>
       </c>
       <c r="B7" t="str">
         <f>providers_master!B7</f>
-        <v>aquamaps</v>
+        <v>aama</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CONCATENATE(providers_master!A8, " (",providers_master!B8, ")")</f>
-        <v>Association of African Maritime Administrations (aama)</v>
+        <v>Be Geospatial (begeospatial)</v>
       </c>
       <c r="B8" t="str">
         <f>providers_master!B8</f>
-        <v>aama</v>
+        <v>begeospatial</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>CONCATENATE(providers_master!A9, " (",providers_master!B9, ")")</f>
-        <v>Be Geospatial (begeospatial)</v>
+        <v>Belgian universities (biooracle)</v>
       </c>
       <c r="B9" t="str">
         <f>providers_master!B9</f>
-        <v>begeospatial</v>
+        <v>biooracle</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CONCATENATE(providers_master!A10, " (",providers_master!B10, ")")</f>
-        <v>Belgian universities (biooracle)</v>
+        <v>Blue Habitats (bluehab)</v>
       </c>
       <c r="B10" t="str">
         <f>providers_master!B10</f>
-        <v>biooracle</v>
+        <v>bluehab</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CONCATENATE(providers_master!A11, " (",providers_master!B11, ")")</f>
-        <v>Blue Habitats (bluehab)</v>
+        <v>CableMap (gcm)</v>
       </c>
       <c r="B11" t="str">
         <f>providers_master!B11</f>
-        <v>bluehab</v>
+        <v>gcm</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CONCATENATE(providers_master!A12, " (",providers_master!B12, ")")</f>
-        <v>CableMap (gcm)</v>
+        <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
       </c>
       <c r="B12" t="str">
         <f>providers_master!B12</f>
-        <v>gcm</v>
+        <v>cefas</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CONCATENATE(providers_master!A13, " (",providers_master!B13, ")")</f>
-        <v>Centre for Environment, Fisheries and Aquaculture Science (cefas)</v>
+        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
       </c>
       <c r="B13" t="str">
         <f>providers_master!B13</f>
-        <v>cefas</v>
+        <v>cosmar</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CONCATENATE(providers_master!A14, " (",providers_master!B14, ")")</f>
-        <v>Coastal and Marine Programme of the NEPAD Environment Initiative (cosmar)</v>
+        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
       </c>
       <c r="B14" t="str">
         <f>providers_master!B14</f>
-        <v>cosmar</v>
+        <v>cordio</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CONCATENATE(providers_master!A15, " (",providers_master!B15, ")")</f>
-        <v>Coastal Oceans Research and Development in the Indian Ocean (cordio)</v>
+        <v>Community Fishery Council (ccp)</v>
       </c>
       <c r="B15" t="str">
         <f>providers_master!B15</f>
-        <v>cordio</v>
+        <v>ccp</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CONCATENATE(providers_master!A16, " (",providers_master!B16, ")")</f>
-        <v>Community Fishery Council (ccp)</v>
+        <v>Community Forest Associations (cfas)</v>
       </c>
       <c r="B16" t="str">
         <f>providers_master!B16</f>
-        <v>ccp</v>
+        <v>cfas</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CONCATENATE(providers_master!A17, " (",providers_master!B17, ")")</f>
-        <v>Community Forest Associations (cfas)</v>
+        <v>Conservation International (ci)</v>
       </c>
       <c r="B17" t="str">
         <f>providers_master!B17</f>
-        <v>cfas</v>
+        <v>ci</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CONCATENATE(providers_master!A18, " (",providers_master!B18, ")")</f>
-        <v>Conservation International (ci)</v>
+        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
       </c>
       <c r="B18" t="str">
         <f>providers_master!B18</f>
-        <v>ci</v>
+        <v>wio_c</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CONCATENATE(providers_master!A19, " (",providers_master!B19, ")")</f>
-        <v>Consortium for the Conservation of the Coastal and Marine Ecosystems of the Western Indian Ocean (wio_c)</v>
+        <v>Department of Environmental Affairs of South Africa (deasf)</v>
       </c>
       <c r="B19" t="str">
         <f>providers_master!B19</f>
-        <v>wio_c</v>
+        <v>deasf</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CONCATENATE(providers_master!A20, " (",providers_master!B20, ")")</f>
-        <v>Department of Environmental Affairs of South Africa (deasf)</v>
+        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
       </c>
       <c r="B20" t="str">
         <f>providers_master!B20</f>
-        <v>deasf</v>
+        <v>giz</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CONCATENATE(providers_master!A21, " (",providers_master!B21, ")")</f>
-        <v>Deutsche Gesellschaft fur Internationale Zusammenarbeit (giz)</v>
+        <v>Digital Earth Africa (dea)</v>
       </c>
       <c r="B21" t="str">
         <f>providers_master!B21</f>
-        <v>giz</v>
+        <v>dea</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CONCATENATE(providers_master!A22, " (",providers_master!B22, ")")</f>
-        <v>Digital Earth Africa (dea)</v>
+        <v>DIVA Gis (diva)</v>
       </c>
       <c r="B22" t="str">
         <f>providers_master!B22</f>
-        <v>dea</v>
+        <v>diva</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CONCATENATE(providers_master!A23, " (",providers_master!B23, ")")</f>
-        <v>DIVA Gis (diva)</v>
+        <v>East African Community (eac)</v>
       </c>
       <c r="B23" t="str">
         <f>providers_master!B23</f>
-        <v>diva</v>
+        <v>eac</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CONCATENATE(providers_master!A24, " (",providers_master!B24, ")")</f>
-        <v>East African Community (eac)</v>
+        <v>East African Wildlife Society (eawls)</v>
       </c>
       <c r="B24" t="str">
         <f>providers_master!B24</f>
-        <v>eac</v>
+        <v>eawls</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CONCATENATE(providers_master!A25, " (",providers_master!B25, ")")</f>
-        <v>East African Wildlife Society (eawls)</v>
+        <v>ESRI (esri)</v>
       </c>
       <c r="B25" t="str">
         <f>providers_master!B25</f>
-        <v>eawls</v>
+        <v>esri</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CONCATENATE(providers_master!A26, " (",providers_master!B26, ")")</f>
-        <v>ESRI (esri)</v>
+        <v>EU Copernicus (copernicus)</v>
       </c>
       <c r="B26" t="str">
         <f>providers_master!B26</f>
-        <v>esri</v>
+        <v>copernicus</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CONCATENATE(providers_master!A27, " (",providers_master!B27, ")")</f>
-        <v>EU Copernicus (copernicus)</v>
+        <v>EU Copernicus Marine Services (cmems)</v>
       </c>
       <c r="B27" t="str">
         <f>providers_master!B27</f>
-        <v>copernicus</v>
+        <v>cmems</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CONCATENATE(providers_master!A28, " (",providers_master!B28, ")")</f>
-        <v>EU Copernicus Marine Services (cmems)</v>
+        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
       </c>
       <c r="B28" t="str">
         <f>providers_master!B28</f>
-        <v>cmems</v>
+        <v>iforce</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CONCATENATE(providers_master!A29, " (",providers_master!B29, ")")</f>
-        <v>EU Forest Resources and Carbon Emissions (iforce)</v>
+        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
       </c>
       <c r="B29" t="str">
         <f>providers_master!B29</f>
-        <v>iforce</v>
+        <v>jrcdc</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CONCATENATE(providers_master!A30, " (",providers_master!B30, ")")</f>
-        <v>EU Joint Research Centre Data Catalogue (jrcdc)</v>
+        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
       </c>
       <c r="B30" t="str">
         <f>providers_master!B30</f>
-        <v>jrcdc</v>
+        <v>fao</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CONCATENATE(providers_master!A31, " (",providers_master!B31, ")")</f>
-        <v>Food and Agricultural Organisation of the United Nations (fao)</v>
+        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
       </c>
       <c r="B31" t="str">
         <f>providers_master!B31</f>
-        <v>fao</v>
+        <v>fari</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CONCATENATE(providers_master!A32, " (",providers_master!B32, ")")</f>
-        <v>Forum of Academic and Research Institutions in the Western Indian Ocean (fari)</v>
+        <v>General Bathymetric Chart of the Oceans (gebco)</v>
       </c>
       <c r="B32" t="str">
         <f>providers_master!B32</f>
-        <v>fari</v>
+        <v>gebco</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CONCATENATE(providers_master!A33, " (",providers_master!B33, ")")</f>
-        <v>General Bathymetric Chart of the Oceans (gebco)</v>
+        <v>Geological Survey of Denmark and Greenland (geus)</v>
       </c>
       <c r="B33" t="str">
         <f>providers_master!B33</f>
-        <v>gebco</v>
+        <v>geus</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CONCATENATE(providers_master!A34, " (",providers_master!B34, ")")</f>
-        <v>Geological Survey of Denmark and Greenland (geus)</v>
+        <v>Global Biodiversity Information Facility (gbif)</v>
       </c>
       <c r="B34" t="str">
         <f>providers_master!B34</f>
-        <v>geus</v>
+        <v>gbif</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CONCATENATE(providers_master!A35, " (",providers_master!B35, ")")</f>
-        <v>Global Biodiversity Information Facility (gbif)</v>
+        <v>Global Environment Facility Trust Fund (gef)</v>
       </c>
       <c r="B35" t="str">
         <f>providers_master!B35</f>
-        <v>gbif</v>
+        <v>gef</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CONCATENATE(providers_master!A36, " (",providers_master!B36, ")")</f>
-        <v>Global Environment Facility Trust Fund (gef)</v>
+        <v>Global Environmental Flows Network (eflownet)</v>
       </c>
       <c r="B36" t="str">
         <f>providers_master!B36</f>
-        <v>gef</v>
+        <v>eflownet</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CONCATENATE(providers_master!A37, " (",providers_master!B37, ")")</f>
-        <v>Global Environmental Flows Network (eflownet)</v>
+        <v>Global Fishing Watch (gfw)</v>
       </c>
       <c r="B37" t="str">
         <f>providers_master!B37</f>
-        <v>eflownet</v>
+        <v>gfw</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CONCATENATE(providers_master!A38, " (",providers_master!B38, ")")</f>
-        <v>Global Fishing Watch (gfw)</v>
+        <v>Global Mangrove Watch (gmw)</v>
       </c>
       <c r="B38" t="str">
         <f>providers_master!B38</f>
-        <v>gfw</v>
+        <v>gmw</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CONCATENATE(providers_master!A39, " (",providers_master!B39, ")")</f>
-        <v>Global Mangrove Watch (gmw)</v>
+        <v>Global Ocean Data Analysis Project (glodap)</v>
       </c>
       <c r="B39" t="str">
         <f>providers_master!B39</f>
-        <v>gmw</v>
+        <v>glodap</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CONCATENATE(providers_master!A40, " (",providers_master!B40, ")")</f>
-        <v>Global Ocean Data Analysis Project (glodap)</v>
+        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
       </c>
       <c r="B40" t="str">
         <f>providers_master!B40</f>
-        <v>glodap</v>
+        <v>unep_gpa</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CONCATENATE(providers_master!A41, " (",providers_master!B41, ")")</f>
-        <v>Global Programme of Action for the Protection of the Marine Environment from Land-based Sources and Activities (unep_gpa)</v>
+        <v>Grid Arendal (grida)</v>
       </c>
       <c r="B41" t="str">
         <f>providers_master!B41</f>
-        <v>unep_gpa</v>
+        <v>grida</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CONCATENATE(providers_master!A42, " (",providers_master!B42, ")")</f>
-        <v>Grid Arendal (grida)</v>
+        <v>Group on Earth Observations (geo)</v>
       </c>
       <c r="B42" t="str">
         <f>providers_master!B42</f>
-        <v>grida</v>
+        <v>geo</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CONCATENATE(providers_master!A43, " (",providers_master!B43, ")")</f>
-        <v>Group on Earth Observations (geo)</v>
+        <v>HUB Ocean (hub)</v>
       </c>
       <c r="B43" t="str">
         <f>providers_master!B43</f>
-        <v>geo</v>
+        <v>hub</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CONCATENATE(providers_master!A44, " (",providers_master!B44, ")")</f>
-        <v>HUB Ocean (hub)</v>
+        <v>Indian Ocean Tuna Commission (iotc)</v>
       </c>
       <c r="B44" t="str">
         <f>providers_master!B44</f>
-        <v>hub</v>
+        <v>iotc</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CONCATENATE(providers_master!A45, " (",providers_master!B45, ")")</f>
-        <v>Indian Ocean Tuna Commission (iotc)</v>
+        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
       </c>
       <c r="B45" t="str">
         <f>providers_master!B45</f>
-        <v>iotc</v>
+        <v>ims</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CONCATENATE(providers_master!A46, " (",providers_master!B46, ")")</f>
-        <v>Institute of Marine Sciences in Zanzibar (ims)</v>
+        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
       </c>
       <c r="B46" t="str">
         <f>providers_master!B46</f>
-        <v>ims</v>
+        <v>ioc_unesco</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CONCATENATE(providers_master!A47, " (",providers_master!B47, ")")</f>
-        <v>Inter-Governmental Oceanographic Commission of UNESCO (ioc_unesco)</v>
+        <v>International Geosphere-Biosphere Programme (igbp)</v>
       </c>
       <c r="B47" t="str">
         <f>providers_master!B47</f>
-        <v>ioc_unesco</v>
+        <v>igbp</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CONCATENATE(providers_master!A48, " (",providers_master!B48, ")")</f>
-        <v>International Geosphere-Biosphere Programme (igbp)</v>
+        <v>International Seabed Authority (isa)</v>
       </c>
       <c r="B48" t="str">
         <f>providers_master!B48</f>
-        <v>igbp</v>
+        <v>isa</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CONCATENATE(providers_master!A49, " (",providers_master!B49, ")")</f>
-        <v>International Seabed Authority (isa)</v>
+        <v>International Submarine Cable Protection Committe (iscpc)</v>
       </c>
       <c r="B49" t="str">
         <f>providers_master!B49</f>
-        <v>isa</v>
+        <v>iscpc</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CONCATENATE(providers_master!A50, " (",providers_master!B50, ")")</f>
-        <v>International Submarine Cable Protection Committe (iscpc)</v>
+        <v>International Union for the Conservation of Nature (iucn)</v>
       </c>
       <c r="B50" t="str">
         <f>providers_master!B50</f>
-        <v>iscpc</v>
+        <v>iucn</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CONCATENATE(providers_master!A51, " (",providers_master!B51, ")")</f>
-        <v>International Union for the Conservation of Nature (iucn)</v>
+        <v>Kenya Forest Service (kfs)</v>
       </c>
       <c r="B51" t="str">
         <f>providers_master!B51</f>
-        <v>iucn</v>
+        <v>kfs</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CONCATENATE(providers_master!A52, " (",providers_master!B52, ")")</f>
-        <v>Kenya Forest Service (kfs)</v>
+        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
       </c>
       <c r="B52" t="str">
         <f>providers_master!B52</f>
-        <v>kfs</v>
+        <v>kmfri</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CONCATENATE(providers_master!A53, " (",providers_master!B53, ")")</f>
-        <v>Kenya Marine and Fisheries Research Institute (kmfri)</v>
+        <v>Khaled bin Sultan Living Oceans Foundation (kslof)</v>
       </c>
       <c r="B53" t="str">
         <f>providers_master!B53</f>
-        <v>kmfri</v>
+        <v>kslof</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6309,571 +6314,581 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CONCATENATE(providers_master!A75, " (",providers_master!B75, ")")</f>
-        <v>Norsk Polarinstitutt (npi)</v>
+        <v>No provider selected (none)</v>
       </c>
       <c r="B75" t="str">
         <f>providers_master!B75</f>
-        <v>npi</v>
+        <v>none</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CONCATENATE(providers_master!A76, " (",providers_master!B76, ")")</f>
-        <v>Northern Mozambique Channel initiative (nmci)</v>
+        <v>Norsk Polarinstitutt (npi)</v>
       </c>
       <c r="B76" t="str">
         <f>providers_master!B76</f>
-        <v>nmci</v>
+        <v>npi</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CONCATENATE(providers_master!A77, " (",providers_master!B77, ")")</f>
-        <v>Ocean Biogeographic Information System (obis)</v>
+        <v>Northern Mozambique Channel initiative (nmci)</v>
       </c>
       <c r="B77" t="str">
         <f>providers_master!B77</f>
-        <v>obis</v>
+        <v>nmci</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CONCATENATE(providers_master!A78, " (",providers_master!B78, ")")</f>
-        <v>OceanSITES (ocsi)</v>
+        <v>Ocean Biogeographic Information System (obis)</v>
       </c>
       <c r="B78" t="str">
         <f>providers_master!B78</f>
-        <v>ocsi</v>
+        <v>obis</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CONCATENATE(providers_master!A79, " (",providers_master!B79, ")")</f>
-        <v>Open Street Map (osm)</v>
+        <v>Ocean Parcels (oceanparcels)</v>
       </c>
       <c r="B79" t="str">
         <f>providers_master!B79</f>
-        <v>osm</v>
+        <v>oceanparcels</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CONCATENATE(providers_master!A80, " (",providers_master!B80, ")")</f>
-        <v>Orbcomm Satellite AIS (orbcom)</v>
+        <v>OceanSITES (ocsi)</v>
       </c>
       <c r="B80" t="str">
         <f>providers_master!B80</f>
-        <v>orbcom</v>
+        <v>ocsi</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CONCATENATE(providers_master!A81, " (",providers_master!B81, ")")</f>
-        <v>Pangaea (pangaea)</v>
+        <v>Open Street Map (osm)</v>
       </c>
       <c r="B81" t="str">
         <f>providers_master!B81</f>
-        <v>pangaea</v>
+        <v>osm</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CONCATENATE(providers_master!A82, " (",providers_master!B82, ")")</f>
-        <v>ReefBase (reba)</v>
+        <v>Orbcomm Satellite AIS (orbcom)</v>
       </c>
       <c r="B82" t="str">
         <f>providers_master!B82</f>
-        <v>reba</v>
+        <v>orbcom</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CONCATENATE(providers_master!A83, " (",providers_master!B83, ")")</f>
-        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
+        <v>Pangaea (pangaea)</v>
       </c>
       <c r="B83" t="str">
         <f>providers_master!B83</f>
-        <v>ioc_recomap</v>
+        <v>pangaea</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CONCATENATE(providers_master!A84, " (",providers_master!B84, ")")</f>
-        <v>Regional Fisheries Management Organization (rfmo)</v>
+        <v>Pure Earth (pureearth)</v>
       </c>
       <c r="B84" t="str">
         <f>providers_master!B84</f>
-        <v>rfmo</v>
+        <v>pureearth</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CONCATENATE(providers_master!A85, " (",providers_master!B85, ")")</f>
-        <v>River Basin Organizations (rbo)</v>
+        <v>ReefBase (reba)</v>
       </c>
       <c r="B85" t="str">
         <f>providers_master!B85</f>
-        <v>rbo</v>
+        <v>reba</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CONCATENATE(providers_master!A86, " (",providers_master!B86, ")")</f>
-        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
+        <v>Regional Coastal Zone Management Programme of the Indian Ocean Commission (ioc_recomap)</v>
       </c>
       <c r="B86" t="str">
         <f>providers_master!B86</f>
-        <v>seyccat</v>
+        <v>ioc_recomap</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CONCATENATE(providers_master!A87, " (",providers_master!B87, ")")</f>
-        <v>Shared Water Course Institution (swci)</v>
+        <v>Regional Fisheries Management Organization (rfmo)</v>
       </c>
       <c r="B87" t="str">
         <f>providers_master!B87</f>
-        <v>swci</v>
+        <v>rfmo</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CONCATENATE(providers_master!A88, " (",providers_master!B88, ")")</f>
-        <v>Somalia Water and Land Information Management (fao_swalim)</v>
+        <v>River Basin Organizations (rbo)</v>
       </c>
       <c r="B88" t="str">
         <f>providers_master!B88</f>
-        <v>fao_swalim</v>
+        <v>rbo</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CONCATENATE(providers_master!A89, " (",providers_master!B89, ")")</f>
-        <v>Somalia water and land information management (swalim)</v>
+        <v>Seychelles Conservation &amp; Climate Adaptation Trust (seyccat)</v>
       </c>
       <c r="B89" t="str">
         <f>providers_master!B89</f>
-        <v>swalim</v>
+        <v>seyccat</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CONCATENATE(providers_master!A90, " (",providers_master!B90, ")")</f>
-        <v>South African National Biodiversity Institute (sanbi)</v>
+        <v>Shared Water Course Institution (swci)</v>
       </c>
       <c r="B90" t="str">
         <f>providers_master!B90</f>
-        <v>sanbi</v>
+        <v>swci</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CONCATENATE(providers_master!A91, " (",providers_master!B91, ")")</f>
-        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
+        <v>Somalia Water and Land Information Management (fao_swalim)</v>
       </c>
       <c r="B91" t="str">
         <f>providers_master!B91</f>
-        <v>swiofp</v>
+        <v>fao_swalim</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CONCATENATE(providers_master!A92, " (",providers_master!B92, ")")</f>
-        <v>Southern African Development Community (sadc)</v>
+        <v>Somalia water and land information management (swalim)</v>
       </c>
       <c r="B92" t="str">
         <f>providers_master!B92</f>
-        <v>sadc</v>
+        <v>swalim</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CONCATENATE(providers_master!A93, " (",providers_master!B93, ")")</f>
-        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
+        <v>South African National Biodiversity Institute (sanbi)</v>
       </c>
       <c r="B93" t="str">
         <f>providers_master!B93</f>
-        <v>swamp</v>
+        <v>sanbi</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CONCATENATE(providers_master!A94, " (",providers_master!B94, ")")</f>
-        <v>Swedish International Water Institute (siwi)</v>
+        <v>South Western Indian Ocean Fisheries Project (swiofp)</v>
       </c>
       <c r="B94" t="str">
         <f>providers_master!B94</f>
-        <v>siwi</v>
+        <v>swiofp</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CONCATENATE(providers_master!A95, " (",providers_master!B95, ")")</f>
-        <v>TeleGeography (telgeo)</v>
+        <v>Southern African Development Community (sadc)</v>
       </c>
       <c r="B95" t="str">
         <f>providers_master!B95</f>
-        <v>telgeo</v>
+        <v>sadc</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CONCATENATE(providers_master!A96, " (",providers_master!B96, ")")</f>
-        <v>The Knowledge Network for Biocomplexity (knb)</v>
+        <v>Sustainable Wetlands Adaptation and Mitigation Program (swamp)</v>
       </c>
       <c r="B96" t="str">
         <f>providers_master!B96</f>
-        <v>knb</v>
+        <v>swamp</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
         <f>CONCATENATE(providers_master!A97, " (",providers_master!B97, ")")</f>
-        <v>The Nature Conservancy (tnc)</v>
+        <v>Swedish International Water Institute (siwi)</v>
       </c>
       <c r="B97" t="str">
         <f>providers_master!B97</f>
-        <v>tnc</v>
+        <v>siwi</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
         <f>CONCATENATE(providers_master!A98, " (",providers_master!B98, ")")</f>
-        <v>The Ocean Cleanup project (ocp)</v>
+        <v>TeleGeography (telgeo)</v>
       </c>
       <c r="B98" t="str">
         <f>providers_master!B98</f>
-        <v>ocp</v>
+        <v>telgeo</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
         <f>CONCATENATE(providers_master!A99, " (",providers_master!B99, ")")</f>
-        <v>The United Nations Support Office in Somalia (unsos)</v>
+        <v>The Knowledge Network for Biocomplexity (knb)</v>
       </c>
       <c r="B99" t="str">
         <f>providers_master!B99</f>
-        <v>unsos</v>
+        <v>knb</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
         <f>CONCATENATE(providers_master!A100, " (",providers_master!B100, ")")</f>
-        <v>U.S. Geological Survey (usgs)</v>
+        <v>The Nature Conservancy (tnc)</v>
       </c>
       <c r="B100" t="str">
         <f>providers_master!B100</f>
-        <v>usgs</v>
+        <v>tnc</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
         <f>CONCATENATE(providers_master!A101, " (",providers_master!B101, ")")</f>
-        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
+        <v>The Ocean Cleanup project (ocp)</v>
       </c>
       <c r="B101" t="str">
         <f>providers_master!B101</f>
-        <v>noaa</v>
+        <v>ocp</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
         <f>CONCATENATE(providers_master!A102, " (",providers_master!B102, ")")</f>
-        <v>UN Biodiversity Lab (unbl)</v>
+        <v>The United Nations Support Office in Somalia (unsos)</v>
       </c>
       <c r="B102" t="str">
         <f>providers_master!B102</f>
-        <v>unbl</v>
+        <v>unsos</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
         <f>CONCATENATE(providers_master!A103, " (",providers_master!B103, ")")</f>
-        <v>UN World Food Programme  (wfp)</v>
+        <v>U.S. Geological Survey (usgs)</v>
       </c>
       <c r="B103" t="str">
         <f>providers_master!B103</f>
-        <v>wfp</v>
+        <v>usgs</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
         <f>CONCATENATE(providers_master!A104, " (",providers_master!B104, ")")</f>
-        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
+        <v>U.S. National Oceanic and Atmospheric Administration (noaa)</v>
       </c>
       <c r="B104" t="str">
         <f>providers_master!B104</f>
-        <v>wcmc</v>
+        <v>noaa</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
         <f>CONCATENATE(providers_master!A105, " (",providers_master!B105, ")")</f>
-        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
+        <v>UN Biodiversity Lab (unbl)</v>
       </c>
       <c r="B105" t="str">
         <f>providers_master!B105</f>
-        <v>unesco_fust</v>
+        <v>unbl</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
         <f>CONCATENATE(providers_master!A106, " (",providers_master!B106, ")")</f>
-        <v>United Nations Agency for Human Settlements (unhabitat)</v>
+        <v>UN World Food Programme  (wfp)</v>
       </c>
       <c r="B106" t="str">
         <f>providers_master!B106</f>
-        <v>unhabitat</v>
+        <v>wfp</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
         <f>CONCATENATE(providers_master!A107, " (",providers_master!B107, ")")</f>
-        <v>United Nations Development Programme (undp)</v>
+        <v>UNEP World Conservation Monitoring Centre (wcmc)</v>
       </c>
       <c r="B107" t="str">
         <f>providers_master!B107</f>
-        <v>undp</v>
+        <v>wcmc</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>CONCATENATE(providers_master!A108, " (",providers_master!B108, ")")</f>
-        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
+        <v>UNESCO Flanders Fund-in-Trust (unesco_fust)</v>
       </c>
       <c r="B108" t="str">
         <f>providers_master!B108</f>
-        <v>unesco</v>
+        <v>unesco_fust</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>CONCATENATE(providers_master!A109, " (",providers_master!B109, ")")</f>
-        <v>United Nations Environment Programme (unep)</v>
+        <v>United Nations Agency for Human Settlements (unhabitat)</v>
       </c>
       <c r="B109" t="str">
         <f>providers_master!B109</f>
-        <v>unep</v>
+        <v>unhabitat</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>CONCATENATE(providers_master!A110, " (",providers_master!B110, ")")</f>
-        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
+        <v>United Nations Development Programme (undp)</v>
       </c>
       <c r="B110" t="str">
         <f>providers_master!B110</f>
-        <v>unfccc</v>
+        <v>undp</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>CONCATENATE(providers_master!A111, " (",providers_master!B111, ")")</f>
-        <v>United Nations Industrial Development Organisation (unido)</v>
+        <v>United Nations Educational Scientific and Cultural Organisation  (unesco)</v>
       </c>
       <c r="B111" t="str">
         <f>providers_master!B111</f>
-        <v>unido</v>
+        <v>unesco</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>CONCATENATE(providers_master!A112, " (",providers_master!B112, ")")</f>
-        <v>United Nations Office for Project Services (unops)</v>
+        <v>United Nations Environment Programme (unep)</v>
       </c>
       <c r="B112" t="str">
         <f>providers_master!B112</f>
-        <v>unops</v>
+        <v>unep</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>CONCATENATE(providers_master!A113, " (",providers_master!B113, ")")</f>
-        <v>United States Agency for International Development (usaid)</v>
+        <v>United Nations Framework Convention on Climate Change (unfccc)</v>
       </c>
       <c r="B113" t="str">
         <f>providers_master!B113</f>
-        <v>usaid</v>
+        <v>unfccc</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
         <f>CONCATENATE(providers_master!A114, " (",providers_master!B114, ")")</f>
-        <v>United States Forest Service (usfs)</v>
+        <v>United Nations Industrial Development Organisation (unido)</v>
       </c>
       <c r="B114" t="str">
         <f>providers_master!B114</f>
-        <v>usfs</v>
+        <v>unido</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
         <f>CONCATENATE(providers_master!A115, " (",providers_master!B115, ")")</f>
-        <v>University of Colorado (dbseabed)</v>
+        <v>United Nations Office for Project Services (unops)</v>
       </c>
       <c r="B115" t="str">
         <f>providers_master!B115</f>
-        <v>dbseabed</v>
+        <v>unops</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
         <f>CONCATENATE(providers_master!A116, " (",providers_master!B116, ")")</f>
-        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
+        <v>United States Agency for International Development (usaid)</v>
       </c>
       <c r="B116" t="str">
         <f>providers_master!B116</f>
-        <v>iucn-wani</v>
+        <v>usaid</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
         <f>CONCATENATE(providers_master!A117, " (",providers_master!B117, ")")</f>
-        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
+        <v>United States Forest Service (usfs)</v>
       </c>
       <c r="B117" t="str">
         <f>providers_master!B117</f>
-        <v>wiomn</v>
+        <v>usfs</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f>CONCATENATE(providers_master!A118, " (",providers_master!B118, ")")</f>
-        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
+        <v>University of Colorado (dbseabed)</v>
       </c>
       <c r="B118" t="str">
         <f>providers_master!B118</f>
-        <v>wiomer</v>
+        <v>dbseabed</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>CONCATENATE(providers_master!A119, " (",providers_master!B119, ")")</f>
-        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
+        <v>Water and Nature Initiative of the IUCN (iucn-wani)</v>
       </c>
       <c r="B119" t="str">
         <f>providers_master!B119</f>
-        <v>wiomsa</v>
+        <v>iucn-wani</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>CONCATENATE(providers_master!A120, " (",providers_master!B120, ")")</f>
-        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
+        <v>Western Indian Ocean Mangrove Network (wiomn)</v>
       </c>
       <c r="B120" t="str">
         <f>providers_master!B120</f>
-        <v>wiosap</v>
+        <v>wiomn</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>CONCATENATE(providers_master!A121, " (",providers_master!B121, ")")</f>
-        <v>Wetlands International (wi)</v>
+        <v>Western Indian Ocean Marine Ecoregion Programme (wiomer)</v>
       </c>
       <c r="B121" t="str">
         <f>providers_master!B121</f>
-        <v>wi</v>
+        <v>wiomer</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>CONCATENATE(providers_master!A122, " (",providers_master!B122, ")")</f>
-        <v>Wildlife Conservation Society (wcs)</v>
+        <v>Western Indian Ocean Marine Science Association (wiomsa)</v>
       </c>
       <c r="B122" t="str">
         <f>providers_master!B122</f>
-        <v>wcs</v>
+        <v>wiomsa</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>CONCATENATE(providers_master!A123, " (",providers_master!B123, ")")</f>
-        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
+        <v>Western Indian Ocean Strategic Action Programme (wiosap)</v>
       </c>
       <c r="B123" t="str">
         <f>providers_master!B123</f>
-        <v>wiolab</v>
+        <v>wiosap</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>CONCATENATE(providers_master!A124, " (",providers_master!B124, ")")</f>
-        <v>VLIZ - Flanders Marine Institute (vliz)</v>
+        <v>Wetlands International (wi)</v>
       </c>
       <c r="B124" t="str">
         <f>providers_master!B124</f>
-        <v>vliz</v>
+        <v>wi</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>CONCATENATE(providers_master!A125, " (",providers_master!B125, ")")</f>
-        <v>World Bank (wb)</v>
+        <v>Wildlife Conservation Society (wcs)</v>
       </c>
       <c r="B125" t="str">
         <f>providers_master!B125</f>
-        <v>wb</v>
+        <v>wcs</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>CONCATENATE(providers_master!A126, " (",providers_master!B126, ")")</f>
-        <v>World Database on Protected Areas (wdpa)</v>
+        <v>WIO-LaB Addressing Land-based Activities in the Western Indian Ocean (wiolab)</v>
       </c>
       <c r="B126" t="str">
         <f>providers_master!B126</f>
-        <v>wdpa</v>
+        <v>wiolab</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>CONCATENATE(providers_master!A127, " (",providers_master!B127, ")")</f>
-        <v>World Environment Center (wec)</v>
+        <v>VLIZ - Flanders Marine Institute (vliz)</v>
       </c>
       <c r="B127" t="str">
         <f>providers_master!B127</f>
-        <v>wec</v>
+        <v>vliz</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>CONCATENATE(providers_master!A128, " (",providers_master!B128, ")")</f>
-        <v>World Resources Institute (wri)</v>
+        <v>World Bank (wb)</v>
       </c>
       <c r="B128" t="str">
         <f>providers_master!B128</f>
-        <v>wri</v>
+        <v>wb</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>CONCATENATE(providers_master!A129, " (",providers_master!B129, ")")</f>
-        <v>World Wide Fund for Nature (wwf)</v>
+        <v>World Database on Protected Areas (wdpa)</v>
       </c>
       <c r="B129" t="str">
         <f>providers_master!B129</f>
-        <v>wwf</v>
+        <v>wdpa</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>CONCATENATE(providers_master!A130, " (",providers_master!B130, ")")</f>
-        <v>Pure Earth (pureearth)</v>
+        <v>World Environment Center (wec)</v>
       </c>
       <c r="B130" t="str">
         <f>providers_master!B130</f>
-        <v>pureearth</v>
+        <v>wec</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>CONCATENATE(providers_master!A131, " (",providers_master!B131, ")")</f>
-        <v>Ocean Parcels (oceanparcels)</v>
+        <v>World Resources Institute (wri)</v>
       </c>
       <c r="B131" t="str">
         <f>providers_master!B131</f>
-        <v>oceanparcels</v>
+        <v>wri</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f>CONCATENATE(providers_master!A132, " (",providers_master!B132, ")")</f>
+        <v>World Wide Fund for Nature (wwf)</v>
+      </c>
+      <c r="B132" t="str">
+        <f>providers_master!B132</f>
+        <v>wwf</v>
       </c>
     </row>
   </sheetData>
@@ -12392,10 +12407,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12412,22 +12427,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="51" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="52" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -12435,39 +12450,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -12496,266 +12514,276 @@
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>1344</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>1340</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>91</v>
+      <c r="D6" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1341</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>92</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>1344</v>
+        <v>93</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1340</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>1342</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>1330</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>1329</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1333</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>1345</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>1348</v>
-      </c>
+      <c r="D12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -12763,31 +12791,21 @@
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>3</v>
@@ -12795,57 +12813,67 @@
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>138</v>
+      <c r="A26" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="9"/>
+      <c r="D26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>142</v>
+        <v>1313</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>143</v>
+        <v>1314</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>1315</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -12853,42 +12881,44 @@
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>1313</v>
+      <c r="A28" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1314</v>
+        <v>148</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>1315</v>
+      <c r="D28" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -12898,64 +12928,62 @@
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -12965,18 +12993,18 @@
     </row>
     <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -12986,19 +13014,17 @@
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="8"/>
@@ -13007,112 +13033,114 @@
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="A38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>1328</v>
-      </c>
+      <c r="A39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="5" t="s">
-        <v>191</v>
+      <c r="D42" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="20" t="s">
-        <v>192</v>
+      <c r="F42" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -13122,93 +13150,93 @@
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+        <v>1310</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>1310</v>
+        <v>197</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1312</v>
+        <v>198</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>1311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="D49" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -13218,57 +13246,50 @@
     </row>
     <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>217</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="F50" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>222</v>
+        <v>1366</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>223</v>
+        <v>1365</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -13588,177 +13609,180 @@
       </c>
     </row>
     <row r="75" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C76" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D76" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E76" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F75" s="34" t="s">
+      <c r="F76" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-    </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C78" s="16"/>
-      <c r="D78" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E78" s="13"/>
+      <c r="D78" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>286</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C79" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H79" s="6"/>
+      <c r="D79" s="50" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G80" s="6"/>
+        <v>291</v>
+      </c>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C81" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="14" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="42" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="D81" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>305</v>
+        <v>1319</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F83" s="15"/>
+        <v>1320</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="40" t="s">
+        <v>1322</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -13767,15 +13791,21 @@
     </row>
     <row r="84" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>308</v>
+        <v>1354</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+        <v>1352</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1353</v>
+      </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>1355</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -13784,33 +13814,34 @@
     </row>
     <row r="85" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>17</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C86" s="15"/>
       <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="F86" s="15"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -13820,10 +13851,10 @@
     </row>
     <row r="87" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="14"/>
@@ -13837,56 +13868,49 @@
     </row>
     <row r="88" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H89" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>1324</v>
+        <v>314</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>1323</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="7"/>
@@ -13897,51 +13921,56 @@
     </row>
     <row r="91" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="C91" s="16"/>
-      <c r="D91" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E91" s="16"/>
+      <c r="D91" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>319</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>331</v>
+        <v>1324</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14"/>
+        <v>1325</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>1323</v>
+      </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="7"/>
@@ -13951,16 +13980,20 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
-        <v>333</v>
+      <c r="A94" s="48" t="s">
+        <v>325</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="15"/>
+        <v>326</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -13969,48 +14002,44 @@
     </row>
     <row r="95" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
@@ -14024,183 +14053,177 @@
     </row>
     <row r="98" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" s="16"/>
+      <c r="D98" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>338</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="14" t="s">
-        <v>350</v>
+      <c r="A99" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C99" s="16"/>
       <c r="D99" s="13" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H100" s="6"/>
+      <c r="A100" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>358</v>
+      <c r="A101" s="48" t="s">
+        <v>346</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>361</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E101" s="16"/>
       <c r="F101" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="C102" s="34" t="s">
+      <c r="A102" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-    </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="49" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E103" s="50" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
+      <c r="D103" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>29</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C104" s="16"/>
       <c r="D104" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="A105" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
     </row>
     <row r="106" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>373</v>
+        <v>1309</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E106" s="14"/>
+        <v>1307</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E106" s="50" t="s">
+        <v>1308</v>
+      </c>
       <c r="F106" s="15"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -14210,47 +14233,57 @@
     </row>
     <row r="107" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C109" s="15"/>
-      <c r="D109" s="14"/>
+      <c r="D109" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="7"/>
@@ -14261,10 +14294,10 @@
     </row>
     <row r="110" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="14"/>
@@ -14278,10 +14311,10 @@
     </row>
     <row r="111" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="14"/>
@@ -14295,10 +14328,10 @@
     </row>
     <row r="112" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="14"/>
@@ -14312,10 +14345,10 @@
     </row>
     <row r="113" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="14"/>
@@ -14329,13 +14362,13 @@
     </row>
     <row r="114" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="7"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="14"/>
       <c r="F114" s="15"/>
       <c r="G114" s="7"/>
@@ -14346,17 +14379,13 @@
     </row>
     <row r="115" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="12" t="s">
-        <v>1317</v>
+        <v>386</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>1318</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
       <c r="G115" s="7"/>
@@ -14367,14 +14396,12 @@
     </row>
     <row r="116" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C116" s="15"/>
       <c r="D116" s="14"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -14386,17 +14413,15 @@
     </row>
     <row r="117" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>3</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C117" s="15"/>
       <c r="D117" s="14"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="39"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -14404,18 +14429,20 @@
       <c r="K117" s="7"/>
     </row>
     <row r="118" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="37" t="s">
-        <v>396</v>
+      <c r="A118" s="35" t="s">
+        <v>1317</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="44"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="38"/>
+        <v>1316</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E118" s="37"/>
+      <c r="F118" s="36"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -14423,218 +14450,226 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>398</v>
+      <c r="A119" s="48" t="s">
+        <v>392</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C119" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C119" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+    </row>
+    <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C120" s="7" t="s">
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+    </row>
+    <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121" s="49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
     </row>
     <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>407</v>
+        <v>3</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D123" s="48" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C124" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
     </row>
     <row r="125" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>29</v>
+        <v>409</v>
+      </c>
+      <c r="D126" s="45" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C127" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D127" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
     </row>
     <row r="128" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C128" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G128" s="17"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
+        <v>418</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
     </row>
     <row r="130" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
-        <v>1354</v>
+        <v>421</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1352</v>
+        <v>422</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>1355</v>
-      </c>
     </row>
     <row r="131" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C131" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>1359</v>
-      </c>
+      <c r="D131" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G131" s="17"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K129">
-    <sortCondition ref="A3:A129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
+    <sortCondition ref="A2:A132"/>
   </sortState>
   <conditionalFormatting sqref="B119:B1048576 B1:B116">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
@@ -14643,75 +14678,76 @@
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D104" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
+    <hyperlink ref="D107" r:id="rId1" xr:uid="{16E6B699-6BAF-460B-A2AA-BD8F1ADD81CC}"/>
     <hyperlink ref="D61" r:id="rId2" xr:uid="{23F7B8FF-CD81-43CF-891F-FE920E4D0FA8}"/>
-    <hyperlink ref="D129" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
+    <hyperlink ref="D132" r:id="rId3" xr:uid="{F3452F3E-C0DC-4267-AE71-3A89AC836BAF}"/>
     <hyperlink ref="D71" r:id="rId4" display="https://www.naturalearth.com/" xr:uid="{BF38DF97-C690-4F55-9CAF-57D048F57CB5}"/>
-    <hyperlink ref="D80" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
-    <hyperlink ref="D128" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
-    <hyperlink ref="D11" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
-    <hyperlink ref="D30" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
-    <hyperlink ref="D43" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
+    <hyperlink ref="D82" r:id="rId5" xr:uid="{BBB84C8E-7087-42D3-B420-56FFFE7558C0}"/>
+    <hyperlink ref="D131" r:id="rId6" display="http://datasets.wri.org/" xr:uid="{D9F3648F-4557-4B5F-AC5C-C2402CA8BCBB}"/>
+    <hyperlink ref="D10" r:id="rId7" display="http://www.bluehabitats.org/" xr:uid="{686FA170-D54D-4B76-859A-E543DF6C4CDF}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{D7653714-0A8E-46DB-97BF-639882CF7E26}"/>
+    <hyperlink ref="D42" r:id="rId9" display="http://www.geoportal.org/" xr:uid="{F6302D71-D047-414E-B7E9-BC5C601496EE}"/>
     <hyperlink ref="D67" r:id="rId10" xr:uid="{25BF3585-AE3A-41B6-9813-20A13EA204BA}"/>
-    <hyperlink ref="D38" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
-    <hyperlink ref="D33" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
-    <hyperlink ref="D3" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
-    <hyperlink ref="D124" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
-    <hyperlink ref="D78" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
-    <hyperlink ref="D96" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
-    <hyperlink ref="D34" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
-    <hyperlink ref="D29" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
-    <hyperlink ref="D89" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
+    <hyperlink ref="D37" r:id="rId11" xr:uid="{C212DDE4-D425-42D0-8A5E-FA8133E508D9}"/>
+    <hyperlink ref="D32" r:id="rId12" display="https://www.gebco.net/" xr:uid="{E7BB9943-6CC3-4C41-86BC-6C31D98B05D8}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{B2B2D2CB-E409-4804-A5FF-522F277ACAFD}"/>
+    <hyperlink ref="D127" r:id="rId14" xr:uid="{D6A1C79A-16BC-4880-A8FB-1D76CAEDDD1C}"/>
+    <hyperlink ref="D80" r:id="rId15" xr:uid="{4989D5E9-88D3-4ADB-9F8D-996B60A01AFE}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{45660431-F174-4A88-901A-7F0AC50175CC}"/>
+    <hyperlink ref="D99" r:id="rId17" display="https://knb.ecoinformatics.org/view" xr:uid="{784F1CE2-ADB6-4A3E-AF84-5BBADC61B3BD}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{F9C2FD75-94D4-41AD-834D-A7B708DF9BEC}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{2F3EB274-259F-4AF0-9C9E-221CBEC5F624}"/>
+    <hyperlink ref="D92" r:id="rId20" location="/" display="https://spatial.faoswalim.org/layers/geonode:SOM_Land_Degradation_FAOSWALIM - /" xr:uid="{1B6DF52C-37D2-47D8-B2D9-13199C61A896}"/>
     <hyperlink ref="D62" r:id="rId21" display="http://www.marinetraffic.com/" xr:uid="{0C2EFAF8-DF78-4BCD-A378-B3C95F3B9089}"/>
-    <hyperlink ref="D10" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
-    <hyperlink ref="D99" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
-    <hyperlink ref="E88" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{89826966-A78F-4B1E-951A-8237977C61CB}"/>
+    <hyperlink ref="D102" r:id="rId23" location="c=organization&amp;o=numviews&amp;f=layers" display="c=organization&amp;o=numviews&amp;f=layers" xr:uid="{EFF484A4-004A-4FA4-A1FB-976D221978AA}"/>
+    <hyperlink ref="E91" r:id="rId24" xr:uid="{A4EE0E78-9554-4170-BEF6-B00109793228}"/>
     <hyperlink ref="D60" r:id="rId25" display="http://www.marineregions.org/downloads.php" xr:uid="{6DC8E2EB-5F20-4F27-956E-0041C745BC3F}"/>
-    <hyperlink ref="E27" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
-    <hyperlink ref="D100" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
-    <hyperlink ref="D82" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
-    <hyperlink ref="D26" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
-    <hyperlink ref="D98" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
-    <hyperlink ref="D13" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
-    <hyperlink ref="D50" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
-    <hyperlink ref="D49" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
-    <hyperlink ref="D40" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://africa.lcviewer.vito.be/download" xr:uid="{351488AB-3AE5-4708-94BE-C2E83E5609B2}"/>
+    <hyperlink ref="D103" r:id="rId27" location="qt-science_center_objects" display="https://www.usgs.gov/centers/eros/science/usgs-eros-archive-digital-elevation-shuttle-radar-topography-mission-srtm-1-arc?qt-science_center_objects=0 - qt-science_center_objects" xr:uid="{0CF270DB-901F-4314-B215-D4E88A8BECD8}"/>
+    <hyperlink ref="D85" r:id="rId28" display="http://www.reefbase.org/gis_maps/datasets.aspx" xr:uid="{4BBAAAE1-A606-4D8F-A1A1-458C7A0A7147}"/>
+    <hyperlink ref="D25" r:id="rId29" xr:uid="{A395C110-9255-45A9-8C15-80DE65C731E4}"/>
+    <hyperlink ref="D101" r:id="rId30" xr:uid="{4004BEDD-EA23-4B89-ABE6-2E0B685C0B02}"/>
+    <hyperlink ref="D12" r:id="rId31" location="/View/20260" display="http://data.cefas.co.uk/ - /View/20260" xr:uid="{446CC24A-8210-48F9-94C9-28E5DE2693D0}"/>
+    <hyperlink ref="D49" r:id="rId32" display="https://github.com/telegeography/www.submarinecablemap.com/tree/master/public/api/v2/cable" xr:uid="{3B3FA098-13F6-456C-9FCF-D158DEA0DE5F}"/>
+    <hyperlink ref="D48" r:id="rId33" xr:uid="{204A606E-6D09-4A5F-B7B3-F8E2CEE5B571}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{B88AED9C-98B4-4971-96B0-93E89C688F0D}"/>
     <hyperlink ref="D59" r:id="rId35" xr:uid="{E8129C24-09F3-45B8-B310-F5B5B9D3FFC6}"/>
-    <hyperlink ref="E104" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
-    <hyperlink ref="E129" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
-    <hyperlink ref="E101" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
-    <hyperlink ref="D101" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
-    <hyperlink ref="E77" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
-    <hyperlink ref="E128" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
+    <hyperlink ref="E107" r:id="rId36" display="https://www.unep-wcmc.org/system/comfy/cms/files/files/000/000/865/original/WIO_Data_Inventory_final.pdf" xr:uid="{80F83138-3664-4CC4-A067-6C58EF2495D2}"/>
+    <hyperlink ref="E132" r:id="rId37" display="https://www.worldwildlife.org/pages/hydrosheds" xr:uid="{96E99AC1-216F-44C9-BFEA-4F769677E02B}"/>
+    <hyperlink ref="E104" r:id="rId38" xr:uid="{D326A5AE-D46C-4FB2-AD19-4E4757431E9E}"/>
+    <hyperlink ref="D104" r:id="rId39" xr:uid="{A1A2A7B7-2CC1-4624-BB52-75142A062677}"/>
+    <hyperlink ref="E78" r:id="rId40" xr:uid="{A57D48D7-BBE8-44AF-A814-665ECA9973F5}"/>
+    <hyperlink ref="E131" r:id="rId41" xr:uid="{AC9F43C3-C68C-4FA3-9213-16E6A7DBAC66}"/>
     <hyperlink ref="E67" r:id="rId42" xr:uid="{A7C7F08A-461B-43AD-9E09-82A54DD6D98D}"/>
-    <hyperlink ref="E49" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
-    <hyperlink ref="E95" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
-    <hyperlink ref="E3" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
+    <hyperlink ref="E48" r:id="rId43" xr:uid="{3DA6ED67-FEFC-4874-98DD-0C9534F3A758}"/>
+    <hyperlink ref="E98" r:id="rId44" xr:uid="{ECE44AEB-8F0C-4E5E-9298-EA5BDC6A570E}"/>
+    <hyperlink ref="E2" r:id="rId45" display="https://www.digitalearthafrica.org/" xr:uid="{3A6AA9B4-7A5F-4423-9AF7-305D9006C691}"/>
     <hyperlink ref="E55" r:id="rId46" location="erlaa0a15s3; " display="https://iopscience.iop.org/article/10.1088/1748-9326/10/12/124006#erlaa0a15s3; " xr:uid="{3FF40D21-EB25-4EB1-9A22-6CA15A594BA7}"/>
-    <hyperlink ref="D88" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
-    <hyperlink ref="E105" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
-    <hyperlink ref="D42" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
-    <hyperlink ref="D47" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
-    <hyperlink ref="D51" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
-    <hyperlink ref="E51" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
-    <hyperlink ref="D91" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
-    <hyperlink ref="D36" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
+    <hyperlink ref="D91" r:id="rId47" xr:uid="{E4371ADC-B2FD-4584-B375-49617796A5D5}"/>
+    <hyperlink ref="E108" r:id="rId48" display="http://www.africanmarineatlas.net/" xr:uid="{0761BFC1-A69E-4B4B-899C-B8C296E3F5BA}"/>
+    <hyperlink ref="D41" r:id="rId49" xr:uid="{0AEA044F-2167-4A1D-9F2F-343B033AA26F}"/>
+    <hyperlink ref="D46" r:id="rId50" xr:uid="{D62C38C9-D220-4672-A9D4-F78A5949C4F1}"/>
+    <hyperlink ref="D50" r:id="rId51" display="https://www.iucnredlist.org/" xr:uid="{5E1745B0-5127-4F57-B782-2FE177BB1A32}"/>
+    <hyperlink ref="E50" r:id="rId52" xr:uid="{366F4478-15BB-4BF1-926D-D080AA61CA68}"/>
+    <hyperlink ref="D94" r:id="rId53" location="/search?facet.q=type%2Fdataset" display="/search?facet.q=type%2Fdataset" xr:uid="{42C36C07-C463-4951-988F-82A287D9D365}"/>
+    <hyperlink ref="D35" r:id="rId54" display="https://data.worldbank.org/" xr:uid="{C92EBD82-8BD2-4ADB-870F-7EB5699BE0B4}"/>
     <hyperlink ref="D63" r:id="rId55" display="https://mcbforwardfoundation.com/" xr:uid="{3AB8F5FE-4D17-4F00-8D02-314B25F590FA}"/>
-    <hyperlink ref="D123" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
-    <hyperlink ref="D122" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
-    <hyperlink ref="D125" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
-    <hyperlink ref="D79" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
-    <hyperlink ref="E79" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
-    <hyperlink ref="E103" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
-    <hyperlink ref="D9" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
-    <hyperlink ref="D130" r:id="rId63" xr:uid="{34BD2B3A-5BE8-46F5-915E-4233A0E96739}"/>
-    <hyperlink ref="D131" r:id="rId64" xr:uid="{AC7D42C4-0FBD-4788-A404-58973EC3187A}"/>
-    <hyperlink ref="E131" r:id="rId65" display="https://github.com/OceanParcels/" xr:uid="{C18B1E22-A1DC-49D2-B21B-BD6038DEDCD8}"/>
+    <hyperlink ref="D126" r:id="rId56" display="https://archive.iwlearn.net/wiolab.iwlearn.org/index.htm" xr:uid="{3D2EF574-269C-4DAD-831C-7B3C5A0C357D}"/>
+    <hyperlink ref="D125" r:id="rId57" location="query=africa&amp;type=dataset" display="https://databasin.org/search/ - query=africa&amp;type=dataset" xr:uid="{B37F5EEF-85A7-42AC-8AFB-658C9721017F}"/>
+    <hyperlink ref="D128" r:id="rId58" display="https://datacatalog.worldbank.org/" xr:uid="{82BC6704-B4FA-4F5F-9025-5DD0BAAF100E}"/>
+    <hyperlink ref="D81" r:id="rId59" xr:uid="{F30BF89D-4FD3-4CF7-A31D-ACFA962510B8}"/>
+    <hyperlink ref="E81" r:id="rId60" xr:uid="{E6160B55-6B27-4F4A-9261-1438AA996563}"/>
+    <hyperlink ref="E106" r:id="rId61" display="https://geonode.wfp.org/layers/geonode:wld_trs_airports_wfp" xr:uid="{590CD2C6-3788-4520-AEE0-E19F3EA65B60}"/>
+    <hyperlink ref="D8" r:id="rId62" xr:uid="{6FFAF903-6B35-41A8-B146-E6B19AFCA8EF}"/>
+    <hyperlink ref="D84" r:id="rId63" xr:uid="{34BD2B3A-5BE8-46F5-915E-4233A0E96739}"/>
+    <hyperlink ref="D79" r:id="rId64" xr:uid="{AC7D42C4-0FBD-4788-A404-58973EC3187A}"/>
+    <hyperlink ref="E79" r:id="rId65" display="https://github.com/OceanParcels/" xr:uid="{C18B1E22-A1DC-49D2-B21B-BD6038DEDCD8}"/>
     <hyperlink ref="D4" r:id="rId66" display="http://www.africanmarineatlas.org/" xr:uid="{894931CF-EA13-437D-8064-D300886C265E}"/>
+    <hyperlink ref="D53" r:id="rId67" xr:uid="{9AB403E4-D3E2-415A-9BC4-742B38176D23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -17926,19 +17962,19 @@
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1006</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1007</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>1008</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>1009</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -17946,102 +17982,102 @@
       <c r="A2" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>1013</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>1014</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>1014</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>1015</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>1021</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -18056,7 +18092,7 @@
       <c r="D7" t="s">
         <v>884</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>884</v>
       </c>
       <c r="F7" t="s">
@@ -18076,7 +18112,7 @@
       <c r="D8" t="s">
         <v>1026</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>1026</v>
       </c>
       <c r="F8" t="s">
@@ -18096,7 +18132,7 @@
       <c r="D9" t="s">
         <v>1029</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>1029</v>
       </c>
       <c r="F9" t="s">
@@ -18116,7 +18152,7 @@
       <c r="D10" t="s">
         <v>890</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>890</v>
       </c>
       <c r="F10" t="s">
@@ -18136,7 +18172,7 @@
       <c r="D11" t="s">
         <v>887</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>887</v>
       </c>
       <c r="F11" t="s">
@@ -18156,7 +18192,7 @@
       <c r="D12" t="s">
         <v>909</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>909</v>
       </c>
       <c r="F12" t="s">
@@ -18176,7 +18212,7 @@
       <c r="D13" t="s">
         <v>1038</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>1038</v>
       </c>
       <c r="F13" t="s">
@@ -18196,7 +18232,7 @@
       <c r="D14" t="s">
         <v>1041</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>1041</v>
       </c>
       <c r="F14" t="s">
@@ -18216,7 +18252,7 @@
       <c r="D15" t="s">
         <v>1044</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>1044</v>
       </c>
       <c r="F15" t="s">
@@ -18236,7 +18272,7 @@
       <c r="D16" t="s">
         <v>932</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>932</v>
       </c>
       <c r="F16" t="s">
@@ -18256,7 +18292,7 @@
       <c r="D17" t="s">
         <v>929</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>929</v>
       </c>
       <c r="F17" t="s">
@@ -18276,7 +18312,7 @@
       <c r="D18" t="s">
         <v>1051</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>1051</v>
       </c>
       <c r="F18" t="s">
@@ -18296,7 +18332,7 @@
       <c r="D19" t="s">
         <v>962</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>962</v>
       </c>
       <c r="F19" t="s">
@@ -18316,7 +18352,7 @@
       <c r="D20" t="s">
         <v>1056</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>1056</v>
       </c>
       <c r="F20" t="s">
@@ -18336,7 +18372,7 @@
       <c r="D21" t="s">
         <v>1059</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>1059</v>
       </c>
       <c r="F21" t="s">
@@ -18356,7 +18392,7 @@
       <c r="D22" t="s">
         <v>974</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>974</v>
       </c>
       <c r="F22" t="s">
@@ -18376,7 +18412,7 @@
       <c r="D23" t="s">
         <v>787</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>787</v>
       </c>
       <c r="F23" t="s">
@@ -18396,7 +18432,7 @@
       <c r="D24" t="s">
         <v>1066</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>1066</v>
       </c>
       <c r="F24" t="s">
@@ -18416,7 +18452,7 @@
       <c r="D25" t="s">
         <v>1069</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>1069</v>
       </c>
       <c r="F25" t="s">
@@ -18436,7 +18472,7 @@
       <c r="D26" t="s">
         <v>1072</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>1072</v>
       </c>
       <c r="F26" t="s">
@@ -18453,10 +18489,10 @@
       <c r="C27" t="s">
         <v>1074</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>1075</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>1076</v>
       </c>
       <c r="F27" t="s">
@@ -18473,10 +18509,10 @@
       <c r="C28" t="s">
         <v>1078</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>1079</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>1080</v>
       </c>
       <c r="F28" t="s">
@@ -18496,7 +18532,7 @@
       <c r="D29" t="s">
         <v>798</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>798</v>
       </c>
       <c r="F29" t="s">
@@ -18516,7 +18552,7 @@
       <c r="D30" t="s">
         <v>1085</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>1085</v>
       </c>
       <c r="F30" t="s">
@@ -18533,10 +18569,10 @@
       <c r="C31" t="s">
         <v>1087</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>1089</v>
       </c>
       <c r="F31" t="s">
@@ -18553,10 +18589,10 @@
       <c r="C32" t="s">
         <v>1091</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>1093</v>
       </c>
       <c r="F32" t="s">
@@ -18573,10 +18609,10 @@
       <c r="C33" t="s">
         <v>1095</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>1096</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="F33" t="s">
@@ -18596,7 +18632,7 @@
       <c r="D34" t="s">
         <v>795</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>795</v>
       </c>
       <c r="F34" t="s">
@@ -18616,7 +18652,7 @@
       <c r="D35" t="s">
         <v>1102</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="28" t="s">
         <v>1102</v>
       </c>
       <c r="F35" t="s">
@@ -18636,7 +18672,7 @@
       <c r="D36" t="s">
         <v>1105</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="28" t="s">
         <v>1105</v>
       </c>
       <c r="F36" t="s">
@@ -18653,10 +18689,10 @@
       <c r="C37" t="s">
         <v>1107</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>1108</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="28" t="s">
         <v>1109</v>
       </c>
       <c r="F37" t="s">
@@ -18673,10 +18709,10 @@
       <c r="C38" t="s">
         <v>1111</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>1112</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="28" t="s">
         <v>1113</v>
       </c>
       <c r="F38" t="s">
@@ -18696,7 +18732,7 @@
       <c r="D39" t="s">
         <v>848</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="28" t="s">
         <v>848</v>
       </c>
       <c r="F39" t="s">
@@ -18716,7 +18752,7 @@
       <c r="D40" t="s">
         <v>1117</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>1117</v>
       </c>
       <c r="F40" t="s">
@@ -18736,7 +18772,7 @@
       <c r="D41" t="s">
         <v>1120</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="28" t="s">
         <v>1120</v>
       </c>
       <c r="F41" t="s">
@@ -18756,7 +18792,7 @@
       <c r="D42" t="s">
         <v>846</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>846</v>
       </c>
       <c r="F42" t="s">
@@ -18776,7 +18812,7 @@
       <c r="D43" t="s">
         <v>1125</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="28" t="s">
         <v>1125</v>
       </c>
       <c r="F43" t="s">
@@ -18796,7 +18832,7 @@
       <c r="D44" t="s">
         <v>1128</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="28" t="s">
         <v>1128</v>
       </c>
       <c r="F44" t="s">
@@ -18816,7 +18852,7 @@
       <c r="D45" t="s">
         <v>1131</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>1131</v>
       </c>
       <c r="F45" t="s">
@@ -18836,7 +18872,7 @@
       <c r="D46" t="s">
         <v>1134</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="28" t="s">
         <v>1134</v>
       </c>
       <c r="F46" t="s">
@@ -18856,7 +18892,7 @@
       <c r="D47" t="s">
         <v>1138</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="28" t="s">
         <v>1138</v>
       </c>
       <c r="F47" t="s">
@@ -18876,7 +18912,7 @@
       <c r="D48" t="s">
         <v>1066</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>1066</v>
       </c>
       <c r="F48" t="s">
@@ -18896,7 +18932,7 @@
       <c r="D49" t="s">
         <v>1069</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="28" t="s">
         <v>1069</v>
       </c>
       <c r="F49" t="s">
@@ -18916,7 +18952,7 @@
       <c r="D50" t="s">
         <v>1072</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>1072</v>
       </c>
       <c r="F50" t="s">
@@ -18933,10 +18969,10 @@
       <c r="C51" t="s">
         <v>1145</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="27" t="s">
         <v>1075</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>1146</v>
       </c>
       <c r="F51" t="s">
@@ -18953,10 +18989,10 @@
       <c r="C52" t="s">
         <v>1148</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>1079</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>1149</v>
       </c>
       <c r="F52" t="s">
@@ -18976,7 +19012,7 @@
       <c r="D53" t="s">
         <v>1152</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="28" t="s">
         <v>1152</v>
       </c>
       <c r="F53" t="s">
@@ -18996,7 +19032,7 @@
       <c r="D54" t="s">
         <v>1085</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>1085</v>
       </c>
       <c r="F54" t="s">
@@ -19016,7 +19052,7 @@
       <c r="D55" t="s">
         <v>795</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="28" t="s">
         <v>795</v>
       </c>
       <c r="F55" t="s">
@@ -19036,7 +19072,7 @@
       <c r="D56" t="s">
         <v>1159</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="28" t="s">
         <v>1159</v>
       </c>
       <c r="F56" t="s">
@@ -19056,7 +19092,7 @@
       <c r="D57" t="s">
         <v>900</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>900</v>
       </c>
       <c r="F57" t="s">
@@ -19076,7 +19112,7 @@
       <c r="D58" t="s">
         <v>555</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="28" t="s">
         <v>555</v>
       </c>
       <c r="F58" t="s">
@@ -19096,7 +19132,7 @@
       <c r="D59" t="s">
         <v>640</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="28" t="s">
         <v>640</v>
       </c>
       <c r="F59" t="s">
@@ -19116,7 +19152,7 @@
       <c r="D60" t="s">
         <v>643</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="28" t="s">
         <v>643</v>
       </c>
       <c r="F60" t="s">
@@ -19136,7 +19172,7 @@
       <c r="D61" t="s">
         <v>1169</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="28" t="s">
         <v>1169</v>
       </c>
       <c r="F61" t="s">
@@ -19156,7 +19192,7 @@
       <c r="D62" t="s">
         <v>1172</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="28" t="s">
         <v>1172</v>
       </c>
       <c r="F62" t="s">
@@ -19176,7 +19212,7 @@
       <c r="D63" t="s">
         <v>1175</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="28" t="s">
         <v>1175</v>
       </c>
       <c r="F63" t="s">
@@ -19196,7 +19232,7 @@
       <c r="D64" t="s">
         <v>1178</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>1178</v>
       </c>
       <c r="F64" t="s">
@@ -19216,7 +19252,7 @@
       <c r="D65" t="s">
         <v>558</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="28" t="s">
         <v>558</v>
       </c>
       <c r="F65" t="s">
@@ -19236,7 +19272,7 @@
       <c r="D66" t="s">
         <v>561</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="28" t="s">
         <v>561</v>
       </c>
       <c r="F66" t="s">
@@ -19256,7 +19292,7 @@
       <c r="D67" t="s">
         <v>1182</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>1182</v>
       </c>
       <c r="F67" t="s">
@@ -19276,7 +19312,7 @@
       <c r="D68" t="s">
         <v>711</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="28" t="s">
         <v>711</v>
       </c>
       <c r="F68" t="s">
@@ -19296,7 +19332,7 @@
       <c r="D69" t="s">
         <v>1187</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="28" t="s">
         <v>1187</v>
       </c>
       <c r="F69" t="s">
@@ -19316,7 +19352,7 @@
       <c r="D70" t="s">
         <v>1190</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="28" t="s">
         <v>1190</v>
       </c>
       <c r="F70" t="s">
@@ -19336,7 +19372,7 @@
       <c r="D71" t="s">
         <v>1193</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>1193</v>
       </c>
       <c r="F71" t="s">
@@ -19356,7 +19392,7 @@
       <c r="D72" t="s">
         <v>1196</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="28" t="s">
         <v>1196</v>
       </c>
       <c r="F72" t="s">
@@ -19376,7 +19412,7 @@
       <c r="D73" t="s">
         <v>1199</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="28" t="s">
         <v>1199</v>
       </c>
       <c r="F73" t="s">
@@ -19396,7 +19432,7 @@
       <c r="D74" t="s">
         <v>1202</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="28" t="s">
         <v>1202</v>
       </c>
       <c r="F74" t="s">
@@ -19416,7 +19452,7 @@
       <c r="D75" t="s">
         <v>1205</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="28" t="s">
         <v>1205</v>
       </c>
       <c r="F75" t="s">
@@ -19436,7 +19472,7 @@
       <c r="D76" t="s">
         <v>1208</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="28" t="s">
         <v>1208</v>
       </c>
       <c r="F76" t="s">
@@ -19456,7 +19492,7 @@
       <c r="D77" t="s">
         <v>1211</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="28" t="s">
         <v>1211</v>
       </c>
       <c r="F77" t="s">
@@ -19476,7 +19512,7 @@
       <c r="D78" t="s">
         <v>1214</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="28" t="s">
         <v>1214</v>
       </c>
       <c r="F78" t="s">
@@ -19496,7 +19532,7 @@
       <c r="D79" t="s">
         <v>1217</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="28" t="s">
         <v>1217</v>
       </c>
       <c r="F79" t="s">
@@ -19516,7 +19552,7 @@
       <c r="D80" t="s">
         <v>612</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="28" t="s">
         <v>612</v>
       </c>
       <c r="F80" t="s">
@@ -19536,7 +19572,7 @@
       <c r="D81" t="s">
         <v>624</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="28" t="s">
         <v>624</v>
       </c>
       <c r="F81" t="s">
@@ -19556,7 +19592,7 @@
       <c r="D82" t="s">
         <v>618</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="28" t="s">
         <v>618</v>
       </c>
       <c r="F82" t="s">
@@ -19576,7 +19612,7 @@
       <c r="D83" t="s">
         <v>621</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>621</v>
       </c>
       <c r="F83" t="s">
@@ -19596,7 +19632,7 @@
       <c r="D84" t="s">
         <v>1227</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="28" t="s">
         <v>1227</v>
       </c>
       <c r="F84" t="s">
@@ -19616,7 +19652,7 @@
       <c r="D85" t="s">
         <v>1231</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="28" t="s">
         <v>1231</v>
       </c>
       <c r="F85" t="s">
@@ -19636,7 +19672,7 @@
       <c r="D86" t="s">
         <v>592</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="28" t="s">
         <v>592</v>
       </c>
       <c r="F86" t="s">
@@ -19656,7 +19692,7 @@
       <c r="D87" t="s">
         <v>598</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>598</v>
       </c>
       <c r="F87" t="s">
@@ -19676,7 +19712,7 @@
       <c r="D88" t="s">
         <v>601</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="28" t="s">
         <v>601</v>
       </c>
       <c r="F88" t="s">
@@ -19696,7 +19732,7 @@
       <c r="D89" t="s">
         <v>1239</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="28" t="s">
         <v>1239</v>
       </c>
       <c r="F89" t="s">
@@ -19716,7 +19752,7 @@
       <c r="D90" t="s">
         <v>570</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="28" t="s">
         <v>570</v>
       </c>
       <c r="F90" t="s">
@@ -19736,7 +19772,7 @@
       <c r="D91" t="s">
         <v>577</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E91" s="28" t="s">
         <v>577</v>
       </c>
       <c r="F91" t="s">
@@ -19756,7 +19792,7 @@
       <c r="D92" t="s">
         <v>581</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="28" t="s">
         <v>581</v>
       </c>
       <c r="F92" t="s">
@@ -19776,7 +19812,7 @@
       <c r="D93" t="s">
         <v>1248</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="28" t="s">
         <v>1248</v>
       </c>
       <c r="F93" t="s">
@@ -19796,7 +19832,7 @@
       <c r="D94" t="s">
         <v>685</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="28" t="s">
         <v>685</v>
       </c>
       <c r="F94" t="s">
@@ -19816,7 +19852,7 @@
       <c r="D95" t="s">
         <v>585</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="28" t="s">
         <v>585</v>
       </c>
       <c r="F95" t="s">
@@ -19836,7 +19872,7 @@
       <c r="D96" t="s">
         <v>772</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="28" t="s">
         <v>772</v>
       </c>
       <c r="F96" t="s">
@@ -19856,7 +19892,7 @@
       <c r="D97" t="s">
         <v>753</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="28" t="s">
         <v>753</v>
       </c>
       <c r="F97" t="s">
@@ -19876,7 +19912,7 @@
       <c r="D98" t="s">
         <v>1261</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="28" t="s">
         <v>1261</v>
       </c>
       <c r="F98" t="s">
@@ -19896,7 +19932,7 @@
       <c r="D99" t="s">
         <v>1264</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="28" t="s">
         <v>1264</v>
       </c>
       <c r="F99" t="s">
@@ -19916,7 +19952,7 @@
       <c r="D100" t="s">
         <v>750</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="28" t="s">
         <v>750</v>
       </c>
       <c r="F100" t="s">
@@ -19936,7 +19972,7 @@
       <c r="D101" t="s">
         <v>1270</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="28" t="s">
         <v>1270</v>
       </c>
       <c r="F101" t="s">
@@ -19956,7 +19992,7 @@
       <c r="D102" t="s">
         <v>1273</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="28" t="s">
         <v>1273</v>
       </c>
       <c r="F102" t="s">
@@ -19976,7 +20012,7 @@
       <c r="D103" t="s">
         <v>1276</v>
       </c>
-      <c r="E103" s="29" t="s">
+      <c r="E103" s="28" t="s">
         <v>1276</v>
       </c>
       <c r="F103" t="s">
@@ -19996,7 +20032,7 @@
       <c r="D104" t="s">
         <v>1279</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="28" t="s">
         <v>1279</v>
       </c>
       <c r="F104" t="s">
@@ -20016,7 +20052,7 @@
       <c r="D105" t="s">
         <v>1282</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="28" t="s">
         <v>1282</v>
       </c>
       <c r="F105" t="s">
@@ -20218,6 +20254,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101008C61ABF427BAFD4AB8FC7AC0B8F03B78" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="126932e3ea0dc9a6b71e3081ceb06a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5fa53ca4-5b3b-4f89-b0af-5365934cd782" xmlns:ns4="17762964-7e53-4590-9354-410c34f1e00e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="506a3d50c40863226972d677e07e387d" ns3:_="" ns4:_="">
     <xsd:import namespace="5fa53ca4-5b3b-4f89-b0af-5365934cd782"/>
@@ -20434,15 +20479,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20450,6 +20486,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A909D3BE-8BB3-401A-867C-17ABC19CDF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20468,14 +20512,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
   <ds:schemaRefs>

--- a/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
+++ b/shiny_data_upload/modify_txt_files_v01.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\marin\swoc\work\wiosym\shiny_data_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\proj\marin\swoc\work\wiosym\shiny_data_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70BBD5-E61A-4B8E-9D04-502419F01F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAC1D4C-E98F-4BCE-942F-2E1B1946CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="594" activeTab="4" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="594" activeTab="1" xr2:uid="{9F2E697C-7E12-42DC-9B09-57B44BD70603}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1383">
   <si>
     <t>location_name</t>
   </si>
@@ -4190,6 +4190,51 @@
   </si>
   <si>
     <t>https://www.livingoceansfoundation.org/</t>
+  </si>
+  <si>
+    <t>usda</t>
+  </si>
+  <si>
+    <t>https://www.usda.gov/</t>
+  </si>
+  <si>
+    <t>U.S. Department of Agriculture</t>
+  </si>
+  <si>
+    <t>https://envirometrix.nl/</t>
+  </si>
+  <si>
+    <t>sgu</t>
+  </si>
+  <si>
+    <t>The Geological Survey of Sweden</t>
+  </si>
+  <si>
+    <t>https://www.sgu.se/</t>
+  </si>
+  <si>
+    <t>EnvironmenTrix Ltd</t>
+  </si>
+  <si>
+    <t>uem</t>
+  </si>
+  <si>
+    <t>https://www.uem.mz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Eduardo Mondlane </t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>University of Gothenburg</t>
+  </si>
+  <si>
+    <t>https://www.gu.se/</t>
+  </si>
+  <si>
+    <t>envtrx</t>
   </si>
 </sst>
 </file>
@@ -4847,7 +4892,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4944,16 +4989,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5423,7 +5462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621FFAB8-4B6F-459F-95C7-CC46128AFB05}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5561,10 +5600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D654-1C0E-49BE-8DEF-7CF6B20063BE}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6889,6 +6928,56 @@
       <c r="B132" t="str">
         <f>providers_master!B132</f>
         <v>wwf</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f>CONCATENATE(providers_master!A133, " (",providers_master!B133, ")")</f>
+        <v>U.S. Department of Agriculture (usda)</v>
+      </c>
+      <c r="B133" t="str">
+        <f>providers_master!B133</f>
+        <v>usda</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f>CONCATENATE(providers_master!A134, " (",providers_master!B134, ")")</f>
+        <v>EnvironmenTrix Ltd (envtrx)</v>
+      </c>
+      <c r="B134" t="str">
+        <f>providers_master!B134</f>
+        <v>envtrx</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f>CONCATENATE(providers_master!A135, " (",providers_master!B135, ")")</f>
+        <v>The Geological Survey of Sweden (sgu)</v>
+      </c>
+      <c r="B135" t="str">
+        <f>providers_master!B135</f>
+        <v>sgu</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f>CONCATENATE(providers_master!A136, " (",providers_master!B136, ")")</f>
+        <v>Universidade Eduardo Mondlane  (uem)</v>
+      </c>
+      <c r="B136" t="str">
+        <f>providers_master!B136</f>
+        <v>uem</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f>CONCATENATE(providers_master!A137, " (",providers_master!B137, ")")</f>
+        <v>University of Gothenburg (gu)</v>
+      </c>
+      <c r="B137" t="str">
+        <f>providers_master!B137</f>
+        <v>gu</v>
       </c>
     </row>
   </sheetData>
@@ -12407,10 +12496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838EA2D5-C89E-45F7-8FB4-7F0BF94700CC}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12427,22 +12516,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="18" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -13635,7 +13724,7 @@
       <c r="C76" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="53" t="s">
+      <c r="D76" s="32" t="s">
         <v>439</v>
       </c>
       <c r="E76" s="33" t="s">
@@ -13697,7 +13786,7 @@
       <c r="C79" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="48" t="s">
         <v>1360</v>
       </c>
       <c r="E79" s="47" t="s">
@@ -13980,7 +14069,7 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="6" t="s">
         <v>325</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -14107,7 +14196,7 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -14125,7 +14214,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -14221,7 +14310,7 @@
       <c r="D106" s="46" t="s">
         <v>1334</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="48" t="s">
         <v>1308</v>
       </c>
       <c r="F106" s="15"/>
@@ -14368,7 +14457,7 @@
         <v>385</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="49"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="14"/>
       <c r="F114" s="15"/>
       <c r="G114" s="7"/>
@@ -14450,46 +14539,37 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="6" t="s">
         <v>392</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
     </row>
     <row r="120" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="6" t="s">
         <v>394</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C120" s="49" t="s">
+      <c r="C120" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
     </row>
     <row r="121" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="6" t="s">
         <v>396</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
     </row>
     <row r="122" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
@@ -14666,6 +14746,76 @@
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>1381</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
@@ -14745,9 +14895,14 @@
     <hyperlink ref="E79" r:id="rId65" display="https://github.com/OceanParcels/" xr:uid="{C18B1E22-A1DC-49D2-B21B-BD6038DEDCD8}"/>
     <hyperlink ref="D4" r:id="rId66" display="http://www.africanmarineatlas.org/" xr:uid="{894931CF-EA13-437D-8064-D300886C265E}"/>
     <hyperlink ref="D53" r:id="rId67" xr:uid="{9AB403E4-D3E2-415A-9BC4-742B38176D23}"/>
+    <hyperlink ref="D133" r:id="rId68" xr:uid="{C244FEB0-0999-497F-ACD7-EF87BEC5A37F}"/>
+    <hyperlink ref="D134" r:id="rId69" xr:uid="{FA3800C7-181B-4124-9458-A87CD3407CAB}"/>
+    <hyperlink ref="D135" r:id="rId70" xr:uid="{5A2FFD04-E1DD-4997-92F1-6B90B43F8BFE}"/>
+    <hyperlink ref="D136" r:id="rId71" xr:uid="{FC303433-011A-4380-9F11-B7FDE5896F49}"/>
+    <hyperlink ref="D137" r:id="rId72" xr:uid="{E213FE82-AD70-4DD2-BFA3-46F2FB722D97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -14755,7 +14910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BC5E19-B41E-49D6-809C-B8CC5DC322A6}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="F1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -20254,12 +20409,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20480,15 +20632,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20513,10 +20669,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3CACFD-0C15-44C6-B015-246A33E68BAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDE999E-6E2A-4543-8AD4-54CCA71E73EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>